--- a/financial_models/opportunities/0696.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0696.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{96C2C8E8-3E34-40AC-9C51-89A1C3FCC496}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0945A331-1355-40D8-AD29-C037322C4DC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -831,15 +831,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Consumer Monopoly</t>
-  </si>
-  <si>
-    <t>Strongly agree</t>
-  </si>
-  <si>
-    <t>agree</t>
-  </si>
-  <si>
     <t>6. No big MCX-D&amp;A required?</t>
   </si>
   <si>
@@ -959,6 +950,15 @@
   </si>
   <si>
     <t>CN</t>
+  </si>
+  <si>
+    <t>Strongly agree</t>
+  </si>
+  <si>
+    <t>agree</t>
+  </si>
+  <si>
+    <t>Consumer Monopoly</t>
   </si>
   <si>
     <t>Dividend</t>
@@ -1520,7 +1520,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="284">
+  <cellXfs count="285">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2155,6 +2155,7 @@
     <xf numFmtId="9" fontId="10" fillId="11" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3569,7 +3570,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3580,29 +3581,29 @@
     <col min="3" max="13" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
         <v>196</v>
       </c>
       <c r="C4" s="189" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
         <v>197</v>
       </c>
       <c r="C5" s="192" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
         <v>164</v>
       </c>
@@ -3610,7 +3611,7 @@
         <v>45603</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B7" s="140" t="s">
         <v>4</v>
       </c>
@@ -3618,23 +3619,24 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
         <v>217</v>
       </c>
       <c r="C8" s="192" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="E8" s="268"/>
+    </row>
+    <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
         <v>218</v>
       </c>
       <c r="C9" s="193" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
         <v>219</v>
       </c>
@@ -3642,15 +3644,15 @@
         <v>2926209589</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
         <v>220</v>
       </c>
       <c r="C11" s="193" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="219" t="s">
         <v>10</v>
       </c>
@@ -3658,7 +3660,7 @@
         <v>45291</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="219" t="s">
         <v>11</v>
       </c>
@@ -3666,7 +3668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="219" t="s">
         <v>221</v>
       </c>
@@ -3674,15 +3676,15 @@
         <v>45473</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="219" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C15" s="177" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="223" t="s">
         <v>97</v>
       </c>
@@ -3696,25 +3698,25 @@
         <v>226</v>
       </c>
       <c r="C17" s="243" t="s">
-        <v>234</v>
+        <v>265</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="241" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C18" s="243" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="241" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C19" s="243" t="s">
-        <v>235</v>
+        <v>266</v>
       </c>
       <c r="D19" s="24"/>
     </row>
@@ -3723,16 +3725,16 @@
         <v>230</v>
       </c>
       <c r="C20" s="243" t="s">
-        <v>235</v>
+        <v>266</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="225" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C21" s="243" t="s">
-        <v>234</v>
+        <v>265</v>
       </c>
       <c r="D21" s="24"/>
     </row>
@@ -3741,7 +3743,7 @@
         <v>232</v>
       </c>
       <c r="C22" s="244" t="s">
-        <v>233</v>
+        <v>267</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -3876,7 +3878,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C29" s="151">
         <v>15194992.810000001</v>
@@ -4143,11 +4145,11 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>1.7039010764429808E-2</v>
+        <v>1.0825439979073365E-2</v>
       </c>
       <c r="D45" s="153" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4192,7 +4194,7 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C47" s="195" t="s">
         <v>34</v>
@@ -4558,7 +4560,7 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C86" s="198">
         <v>5</v>
@@ -4566,7 +4568,7 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C87" s="237" t="s">
         <v>268</v>
@@ -4576,11 +4578,11 @@
       <c r="B89" s="106" t="s">
         <v>128</v>
       </c>
-      <c r="C89" s="268">
+      <c r="C89" s="269">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="268"/>
+      <c r="D89" s="269"/>
       <c r="E89" s="89" t="s">
         <v>208</v>
       </c>
@@ -4594,10 +4596,10 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1CNY)</v>
       </c>
-      <c r="C90" s="269" t="s">
+      <c r="C90" s="270" t="s">
         <v>101</v>
       </c>
-      <c r="D90" s="269"/>
+      <c r="D90" s="270"/>
       <c r="E90" s="236" t="s">
         <v>102</v>
       </c>
@@ -4646,7 +4648,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4667,7 +4669,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4685,7 +4687,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4792,7 +4794,7 @@
   </conditionalFormatting>
   <dataValidations count="8">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{4F1A5CDA-569A-4509-AA2D-9CF95C6DB1A5}">
-      <formula1>"Y, N"</formula1>
+      <formula1>"Tier 1, Superior Cycl. ,Cigar Butts, N"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="C11" xr:uid="{7C8576B4-3288-485C-91EB-6274925EDC41}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
@@ -4828,8 +4830,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4872,17 +4874,17 @@
       <c r="B3" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="C3" s="274" t="str">
+      <c r="C3" s="275" t="str">
         <f>Inputs!C4</f>
         <v>0696.HK</v>
       </c>
-      <c r="D3" s="275"/>
+      <c r="D3" s="276"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>10.08</v>
+        <v>14.779999732971191</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>2</v>
@@ -4892,40 +4894,40 @@
       <c r="B4" s="35" t="s">
         <v>197</v>
       </c>
-      <c r="C4" s="276" t="str">
+      <c r="C4" s="277" t="str">
         <f>Inputs!C5</f>
         <v>中國民航信息網絡</v>
       </c>
-      <c r="D4" s="277"/>
+      <c r="D4" s="278"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="280">
+      <c r="G4" s="281">
         <f>Inputs!C10</f>
         <v>2926209589</v>
       </c>
-      <c r="H4" s="280"/>
+      <c r="H4" s="281"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="C5" s="278">
+      <c r="C5" s="279">
         <f>Inputs!C6</f>
         <v>45603</v>
       </c>
-      <c r="D5" s="279"/>
+      <c r="D5" s="280"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="G5" s="272">
+      <c r="G5" s="273">
         <f>G3*G4/1000000</f>
-        <v>29496.192657119998</v>
-      </c>
-      <c r="H5" s="272"/>
+        <v>43249.376944037744</v>
+      </c>
+      <c r="H5" s="273"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -4948,11 +4950,11 @@
       <c r="F6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="273" t="str">
+      <c r="G6" s="274" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="273"/>
+      <c r="H6" s="274"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4972,7 +4974,7 @@
         <v>6</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0734576781590779</v>
+        <v>1</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5015,7 +5017,7 @@
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C12" s="175">
         <v>0.06</v>
@@ -5065,7 +5067,7 @@
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C17" s="176">
         <v>7.1999999999999995E-2</v>
@@ -5105,7 +5107,7 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="137" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C21" s="172">
         <f>Fin_Analysis!I77</f>
@@ -5155,12 +5157,12 @@
       </c>
       <c r="G24" s="179">
         <f>(Fin_Analysis!H86*G7)/G3</f>
-        <v>3.9600808101334734E-2</v>
+        <v>2.5159686624456883E-2</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C25" s="172">
         <f>Fin_Analysis!I82</f>
@@ -5187,7 +5189,7 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>1.7039010764429808E-2</v>
+        <v>1.0825439979073365E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5204,12 +5206,12 @@
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>242</v>
-      </c>
-      <c r="G28" s="270" t="s">
-        <v>262</v>
-      </c>
-      <c r="H28" s="270"/>
+        <v>239</v>
+      </c>
+      <c r="G28" s="271" t="s">
+        <v>259</v>
+      </c>
+      <c r="H28" s="271"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
@@ -5217,22 +5219,22 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>1.0969584924280207</v>
+        <v>0.99105561785504648</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>2.1085523326270148</v>
+        <v>1.9049878816891384</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>1.2905394028564949</v>
-      </c>
-      <c r="G29" s="271">
+        <v>1.1659477857118195</v>
+      </c>
+      <c r="G29" s="272">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>1.8335237675017522</v>
-      </c>
-      <c r="H29" s="271"/>
+        <v>1.6565112014688161</v>
+      </c>
+      <c r="H29" s="272"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5280,7 +5282,7 @@
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C36" s="246" t="str">
         <f>Inputs!C18</f>
@@ -5290,7 +5292,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C37" s="246" t="str">
         <f>Inputs!C19</f>
@@ -5317,7 +5319,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C40" s="246" t="str">
         <f>Inputs!C21</f>
@@ -6263,12 +6265,9 @@
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="4">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" sqref="G6" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7" xr:uid="{3894A86A-E1B4-A843-BE8E-14D1CE0AE26E}">
-      <formula1>"Y, N"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="C33:C34 C36:C37 C39:C40" xr:uid="{AFC23D6B-591E-BA4C-B3BE-727ADB8DA907}">
       <formula1>"Strongly agree,agree,unclear,disagree,Strongly disagree"</formula1>
@@ -6754,7 +6753,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C12" s="200">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6805,7 +6804,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="229" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C13" s="230">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6856,7 +6855,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="229" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C14" s="231">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -6907,7 +6906,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="232" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C15" s="233">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -7009,7 +7008,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C17" s="200">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7162,7 +7161,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C20" s="153">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -8233,7 +8232,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8302,7 +8301,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C43" s="154">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8506,7 +8505,7 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C47" s="154">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -11456,11 +11455,11 @@
         <v>90</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="281">
+      <c r="D56" s="282">
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="279"/>
+      <c r="E56" s="280"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11471,11 +11470,11 @@
         <v>91</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="280">
+      <c r="D57" s="281">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="279"/>
+      <c r="E57" s="280"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
@@ -11487,11 +11486,11 @@
         <v>93</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="280">
+      <c r="D58" s="281">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="279"/>
+      <c r="E58" s="280"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11705,19 +11704,19 @@
       <c r="B72" s="106" t="s">
         <v>128</v>
       </c>
-      <c r="C72" s="268">
+      <c r="C72" s="269">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="268"/>
-      <c r="E72" s="282" t="s">
+      <c r="D72" s="269"/>
+      <c r="E72" s="283" t="s">
         <v>208</v>
       </c>
-      <c r="F72" s="282"/>
-      <c r="H72" s="282" t="s">
+      <c r="F72" s="283"/>
+      <c r="H72" s="283" t="s">
         <v>207</v>
       </c>
-      <c r="I72" s="282"/>
+      <c r="I72" s="283"/>
       <c r="K72" s="50" t="s">
         <v>8</v>
       </c>
@@ -11727,18 +11726,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1CNY)</v>
       </c>
-      <c r="C73" s="269" t="s">
+      <c r="C73" s="270" t="s">
         <v>101</v>
       </c>
-      <c r="D73" s="269"/>
-      <c r="E73" s="283" t="s">
+      <c r="D73" s="270"/>
+      <c r="E73" s="284" t="s">
         <v>102</v>
       </c>
-      <c r="F73" s="269"/>
-      <c r="H73" s="283" t="s">
+      <c r="F73" s="270"/>
+      <c r="H73" s="284" t="s">
         <v>102</v>
       </c>
-      <c r="I73" s="269"/>
+      <c r="I73" s="270"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11815,7 +11814,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -11875,7 +11874,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="257" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C79" s="258">
         <f>C76-C77-C78</f>
@@ -11938,7 +11937,7 @@
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -11968,7 +11967,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -12105,17 +12104,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.9600808101334747E-2</v>
+        <v>2.515968662445689E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.9600808101334734E-2</v>
+        <v>2.5159686624456883E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.9600808101334734E-2</v>
+        <v>2.5159686624456883E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12156,17 +12155,17 @@
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.7039010764429808E-2</v>
+        <v>1.0825439979073365E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.7039010764429808E-2</v>
+        <v>1.0825439979073365E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.7039010764429808E-2</v>
+        <v>1.0825439979073365E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12197,15 +12196,15 @@
       <c r="D92" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="E92" s="282" t="s">
+      <c r="E92" s="283" t="s">
         <v>208</v>
       </c>
-      <c r="F92" s="282"/>
+      <c r="F92" s="283"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="282" t="s">
+      <c r="H92" s="283" t="s">
         <v>207</v>
       </c>
-      <c r="I92" s="282"/>
+      <c r="I92" s="283"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12226,14 +12225,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>6.7323258196664666</v>
+        <v>5.8479648762025827</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>211</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>6.7323258196664666</v>
+        <v>5.8479648762025827</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12251,14 +12250,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>2.5957357036873683</v>
+        <v>2.3451374590411773</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>212</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>2.5957357036873683</v>
+        <v>2.3451374590411773</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12284,7 +12283,7 @@
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="228" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H96" s="184" t="str">
         <f>H72</f>
@@ -12301,21 +12300,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>9794479315.8625927</v>
+        <v>8507872695.7238674</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>3.3471557719861575</v>
+        <v>2.9074720852894682</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>3.3471557719861575</v>
+        <v>2.9074720852894682</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>4.7554453958425364</v>
+        <v>4.130768235302698</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12364,27 +12363,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>9794479315.8625927</v>
+        <v>8507872695.7238674</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>2.8450824061882338</v>
+        <v>2.4713512724960478</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>3.3471557719861575</v>
+        <v>2.9074720852894682</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>3.3471557719861575</v>
+        <v>2.9074720852894682</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>3.347155771986158</v>
+        <v>2.9074720852894682</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>4.7554453958425364</v>
+        <v>4.130768235302698</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12408,7 +12407,7 @@
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="228" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H102" s="184" t="str">
         <f>H96</f>
@@ -12425,27 +12424,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>3776388775.6210093</v>
+        <v>3411807590.8232431</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.0969584924280207</v>
+        <v>0.99105561785504648</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.2905394028564949</v>
+        <v>1.1659477857118195</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>1.2905394028564949</v>
+        <v>1.1659477857118195</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.2905394028564949</v>
+        <v>1.1659477857118195</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>1.8335237675017522</v>
+        <v>1.6565112014688161</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12469,7 +12468,7 @@
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="228" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H105" s="185" t="str">
         <f>H96</f>
@@ -12486,27 +12485,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>6785434045.7418003</v>
+        <v>5959840143.2735548</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>1.9710204493081274</v>
+        <v>1.7312034451755471</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>2.3188475874213261</v>
+        <v>2.0367099355006437</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>2.3188475874213261</v>
+        <v>2.0367099355006437</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>2.3188475874213266</v>
+        <v>2.0367099355006437</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>3.2944845816721444</v>
+        <v>2.893639718385757</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0696.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0696.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0945A331-1355-40D8-AD29-C037322C4DC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{50A2766F-81BF-43B2-B84D-A9BEF77E4025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -625,9 +625,6 @@
     <t>Normalized Payout Ratio</t>
   </si>
   <si>
-    <t>Normalized E/P</t>
-  </si>
-  <si>
     <t>US Riskfree</t>
   </si>
   <si>
@@ -934,6 +931,10 @@
   </si>
   <si>
     <t>Base Case Valuation</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normalized PE Ratio</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1520,7 +1521,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="285">
+  <cellXfs count="286">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2156,6 +2157,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3570,7 +3574,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3584,12 +3588,12 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C4" s="189" t="s">
         <v>260</v>
@@ -3597,7 +3601,7 @@
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C5" s="192" t="s">
         <v>261</v>
@@ -3621,7 +3625,7 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C8" s="192" t="s">
         <v>71</v>
@@ -3630,7 +3634,7 @@
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C9" s="193" t="s">
         <v>262</v>
@@ -3638,7 +3642,7 @@
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C10" s="194">
         <v>2926209589</v>
@@ -3646,7 +3650,7 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C11" s="193" t="s">
         <v>263</v>
@@ -3670,7 +3674,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="219" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C14" s="220">
         <v>45473</v>
@@ -3678,7 +3682,7 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="219" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C15" s="177" t="s">
         <v>264</v>
@@ -3695,7 +3699,7 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="241" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C17" s="243" t="s">
         <v>265</v>
@@ -3704,16 +3708,16 @@
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="241" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C18" s="243" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="241" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C19" s="243" t="s">
         <v>266</v>
@@ -3722,7 +3726,7 @@
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="242" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C20" s="243" t="s">
         <v>266</v>
@@ -3731,7 +3735,7 @@
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="225" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C21" s="243" t="s">
         <v>265</v>
@@ -3740,7 +3744,7 @@
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="227" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C22" s="244" t="s">
         <v>267</v>
@@ -3878,7 +3882,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C29" s="151">
         <v>15194992.810000001</v>
@@ -4126,7 +4130,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C44" s="251">
         <f>0.16</f>
@@ -4145,11 +4149,11 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>1.0825439979073365E-2</v>
+        <v>1.6423051565448668E-2</v>
       </c>
       <c r="D45" s="153" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4194,13 +4198,13 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C47" s="195" t="s">
         <v>34</v>
       </c>
       <c r="D47" s="195" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E47" s="111" t="s">
         <v>36</v>
@@ -4542,7 +4546,7 @@
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C83" s="59"/>
     </row>
@@ -4560,7 +4564,7 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C86" s="198">
         <v>5</v>
@@ -4568,7 +4572,7 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C87" s="237" t="s">
         <v>268</v>
@@ -4578,16 +4582,16 @@
       <c r="B89" s="106" t="s">
         <v>128</v>
       </c>
-      <c r="C89" s="269">
+      <c r="C89" s="270">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="269"/>
+      <c r="D89" s="270"/>
       <c r="E89" s="89" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F89" s="50" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -4596,10 +4600,10 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1CNY)</v>
       </c>
-      <c r="C90" s="270" t="s">
+      <c r="C90" s="271" t="s">
         <v>101</v>
       </c>
-      <c r="D90" s="270"/>
+      <c r="D90" s="271"/>
       <c r="E90" s="236" t="s">
         <v>102</v>
       </c>
@@ -4648,7 +4652,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4669,7 +4673,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4687,7 +4691,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4744,7 +4748,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C98" s="238">
         <f>C44</f>
@@ -4831,7 +4835,7 @@
   <dimension ref="A1:J923"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C3" sqref="C3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4872,19 +4876,19 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="C3" s="275" t="str">
+        <v>195</v>
+      </c>
+      <c r="C3" s="276" t="str">
         <f>Inputs!C4</f>
         <v>0696.HK</v>
       </c>
-      <c r="D3" s="276"/>
+      <c r="D3" s="277"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>14.779999732971191</v>
+        <v>10.46</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>2</v>
@@ -4892,42 +4896,42 @@
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>197</v>
-      </c>
-      <c r="C4" s="277" t="str">
+        <v>196</v>
+      </c>
+      <c r="C4" s="278" t="str">
         <f>Inputs!C5</f>
         <v>中國民航信息網絡</v>
       </c>
-      <c r="D4" s="278"/>
+      <c r="D4" s="279"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="281">
+      <c r="G4" s="282">
         <f>Inputs!C10</f>
         <v>2926209589</v>
       </c>
-      <c r="H4" s="281"/>
+      <c r="H4" s="282"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="C5" s="279">
+      <c r="C5" s="280">
         <f>Inputs!C6</f>
         <v>45603</v>
       </c>
-      <c r="D5" s="280"/>
+      <c r="D5" s="281"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="G5" s="273">
+      <c r="G5" s="274">
         <f>G3*G4/1000000</f>
-        <v>43249.376944037744</v>
-      </c>
-      <c r="H5" s="273"/>
+        <v>30608.152300940001</v>
+      </c>
+      <c r="H5" s="274"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -4950,16 +4954,16 @@
       <c r="F6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="274" t="str">
+      <c r="G6" s="275" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="274"/>
+      <c r="H6" s="275"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C7" s="188" t="str">
         <f>Inputs!C8</f>
@@ -4974,7 +4978,7 @@
         <v>6</v>
       </c>
       <c r="G7" s="133">
-        <v>1</v>
+        <v>1.0736569960912068</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4984,40 +4988,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C10" s="173">
         <v>4.2099999999999999E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C11" s="174">
         <v>5.3099999999999994E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C12" s="175">
         <v>0.06</v>
@@ -5030,29 +5034,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C14" s="173">
         <v>2.1309999999999999E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C15" s="173">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C16" s="174">
         <v>0.16</v>
@@ -5062,12 +5066,12 @@
         <v>CN</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C17" s="176">
         <v>7.1999999999999995E-2</v>
@@ -5077,7 +5081,7 @@
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="142" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C19" s="135" t="s">
         <v>52</v>
@@ -5085,7 +5089,7 @@
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
@@ -5099,7 +5103,7 @@
         <v>0.48660635459513968</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G20" s="173">
         <v>0.15</v>
@@ -5107,7 +5111,7 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="137" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C21" s="172">
         <f>Fin_Analysis!I77</f>
@@ -5118,14 +5122,14 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="137" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C22" s="172">
         <f>Fin_Analysis!I78</f>
         <v>9.3403926661713623E-3</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5137,7 +5141,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G23" s="178" t="e">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
@@ -5153,16 +5157,16 @@
         <v>2.1757339633768379E-3</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>176</v>
-      </c>
-      <c r="G24" s="179">
-        <f>(Fin_Analysis!H86*G7)/G3</f>
-        <v>2.5159686624456883E-2</v>
+        <v>259</v>
+      </c>
+      <c r="G24" s="269">
+        <f>G3/(Fin_Analysis!H86*G7)</f>
+        <v>26.199106028469853</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C25" s="172">
         <f>Fin_Analysis!I82</f>
@@ -5185,11 +5189,11 @@
         <v>0.20774429762625654</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>1.0825439979073365E-2</v>
+        <v>1.6423051565448668E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5206,12 +5210,12 @@
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>239</v>
-      </c>
-      <c r="G28" s="271" t="s">
-        <v>259</v>
-      </c>
-      <c r="H28" s="271"/>
+        <v>238</v>
+      </c>
+      <c r="G28" s="272" t="s">
+        <v>258</v>
+      </c>
+      <c r="H28" s="272"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
@@ -5219,42 +5223,42 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>0.99105561785504648</v>
+        <v>1.0938437710659596</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>1.9049878816891384</v>
+        <v>2.1025652756519415</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>1.1659477857118195</v>
-      </c>
-      <c r="G29" s="272">
+        <v>1.2868750247834819</v>
+      </c>
+      <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>1.6565112014688161</v>
-      </c>
-      <c r="H29" s="272"/>
+        <v>1.8283176310016884</v>
+      </c>
+      <c r="H29" s="273"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="197" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C32" s="225"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C33" s="246" t="str">
         <f>Inputs!C17</f>
@@ -5264,7 +5268,7 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C34" s="226" t="e">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
@@ -5275,14 +5279,14 @@
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="197" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C35" s="225"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C36" s="246" t="str">
         <f>Inputs!C18</f>
@@ -5292,7 +5296,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C37" s="246" t="str">
         <f>Inputs!C19</f>
@@ -5302,14 +5306,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="197" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C38" s="225"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C39" s="246" t="str">
         <f>Inputs!C20</f>
@@ -5319,7 +5323,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C40" s="246" t="str">
         <f>Inputs!C21</f>
@@ -5334,14 +5338,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="227" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C43" s="245" t="str">
         <f>Inputs!C22</f>
@@ -6326,16 +6330,16 @@
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="149" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F2" s="119" t="s">
+        <v>203</v>
+      </c>
+      <c r="G2" s="149" t="s">
         <v>204</v>
       </c>
-      <c r="G2" s="149" t="s">
+      <c r="H2" s="148" t="s">
         <v>205</v>
-      </c>
-      <c r="H2" s="148" t="s">
-        <v>206</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -6353,7 +6357,7 @@
         <v>45291</v>
       </c>
       <c r="E3" s="147" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F3" s="85" t="str">
         <f>H14</f>
@@ -6386,7 +6390,7 @@
         <v>CNY</v>
       </c>
       <c r="E4" s="147" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F4" s="93" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -6753,7 +6757,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C12" s="200">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6804,7 +6808,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="229" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C13" s="230">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6855,7 +6859,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="229" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C14" s="231">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -6906,7 +6910,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="232" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C15" s="233">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -7008,7 +7012,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C17" s="200">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7161,7 +7165,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C20" s="153">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -8232,7 +8236,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8301,7 +8305,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C43" s="154">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8505,7 +8509,7 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C47" s="154">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -10403,7 +10407,7 @@
         <v>34</v>
       </c>
       <c r="D10" s="74" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E10" s="74" t="s">
         <v>35</v>
@@ -11455,11 +11459,11 @@
         <v>90</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="282">
+      <c r="D56" s="283">
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="280"/>
+      <c r="E56" s="281"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11470,11 +11474,11 @@
         <v>91</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="281">
+      <c r="D57" s="282">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="280"/>
+      <c r="E57" s="281"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
@@ -11486,11 +11490,11 @@
         <v>93</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="281">
+      <c r="D58" s="282">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="280"/>
+      <c r="E58" s="281"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11704,19 +11708,19 @@
       <c r="B72" s="106" t="s">
         <v>128</v>
       </c>
-      <c r="C72" s="269">
+      <c r="C72" s="270">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="269"/>
-      <c r="E72" s="283" t="s">
-        <v>208</v>
-      </c>
-      <c r="F72" s="283"/>
-      <c r="H72" s="283" t="s">
+      <c r="D72" s="270"/>
+      <c r="E72" s="284" t="s">
         <v>207</v>
       </c>
-      <c r="I72" s="283"/>
+      <c r="F72" s="284"/>
+      <c r="H72" s="284" t="s">
+        <v>206</v>
+      </c>
+      <c r="I72" s="284"/>
       <c r="K72" s="50" t="s">
         <v>8</v>
       </c>
@@ -11726,18 +11730,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1CNY)</v>
       </c>
-      <c r="C73" s="270" t="s">
+      <c r="C73" s="271" t="s">
         <v>101</v>
       </c>
-      <c r="D73" s="270"/>
-      <c r="E73" s="284" t="s">
+      <c r="D73" s="271"/>
+      <c r="E73" s="285" t="s">
         <v>102</v>
       </c>
-      <c r="F73" s="270"/>
-      <c r="H73" s="284" t="s">
+      <c r="F73" s="271"/>
+      <c r="H73" s="285" t="s">
         <v>102</v>
       </c>
-      <c r="I73" s="270"/>
+      <c r="I73" s="271"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11814,7 +11818,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -11874,7 +11878,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="257" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C79" s="258">
         <f>C76-C77-C78</f>
@@ -11937,7 +11941,7 @@
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -11967,7 +11971,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -12100,28 +12104,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.515968662445689E-2</v>
+        <v>3.8169241305918131E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.5159686624456883E-2</v>
+        <v>3.8169241305918124E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.5159686624456883E-2</v>
+        <v>3.8169241305918124E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C88" s="170">
         <f>Inputs!C44</f>
@@ -12151,21 +12155,21 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.0825439979073365E-2</v>
+        <v>1.6423051565448668E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.0825439979073365E-2</v>
+        <v>1.6423051565448668E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.0825439979073365E-2</v>
+        <v>1.6423051565448668E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12196,15 +12200,15 @@
       <c r="D92" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="E92" s="283" t="s">
-        <v>208</v>
-      </c>
-      <c r="F92" s="283"/>
+      <c r="E92" s="284" t="s">
+        <v>207</v>
+      </c>
+      <c r="F92" s="284"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="283" t="s">
-        <v>207</v>
-      </c>
-      <c r="I92" s="283"/>
+      <c r="H92" s="284" t="s">
+        <v>206</v>
+      </c>
+      <c r="I92" s="284"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12221,24 +12225,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>5.8479648762025827</v>
+        <v>6.6873415240651282</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>5.8479648762025827</v>
+        <v>6.6873415240651282</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C94" s="183">
         <f>Dashboard!G20</f>
@@ -12246,18 +12250,18 @@
       </c>
       <c r="D94" s="145"/>
       <c r="E94" s="87" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>2.3451374590411773</v>
+        <v>2.5883653305124961</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>2.3451374590411773</v>
+        <v>2.5883653305124961</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12276,14 +12280,14 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E96" s="184" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="228" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H96" s="184" t="str">
         <f>H72</f>
@@ -12300,21 +12304,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>8507872695.7238674</v>
+        <v>9729034213.440649</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>2.9074720852894682</v>
+        <v>3.3247906267593907</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>2.9074720852894682</v>
+        <v>3.3247906267593907</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>4.130768235302698</v>
+        <v>4.7236702906065862</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12363,27 +12367,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>8507872695.7238674</v>
+        <v>9729034213.440649</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>2.4713512724960478</v>
+        <v>2.8260720327454822</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>2.9074720852894682</v>
+        <v>3.3247906267593907</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>2.9074720852894682</v>
+        <v>3.3247906267593907</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>2.9074720852894682</v>
+        <v>3.3247906267593907</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>4.130768235302698</v>
+        <v>4.7236702906065862</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12400,14 +12404,14 @@
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E102" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="228" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H102" s="184" t="str">
         <f>H96</f>
@@ -12424,27 +12428,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>3411807590.8232431</v>
+        <v>3765666037.3660374</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>0.99105561785504648</v>
+        <v>1.0938437710659596</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.1659477857118195</v>
+        <v>1.2868750247834819</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>1.1659477857118195</v>
+        <v>1.2868750247834819</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.1659477857118195</v>
+        <v>1.2868750247834819</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>1.6565112014688161</v>
+        <v>1.8283176310016884</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12454,21 +12458,21 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E105" s="185" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="228" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H105" s="185" t="str">
         <f>H96</f>
@@ -12481,31 +12485,31 @@
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>5959840143.2735548</v>
+        <v>6747350125.4033432</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>1.7312034451755471</v>
+        <v>1.9599579019057209</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>2.0367099355006437</v>
+        <v>2.3058328257714362</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>2.0367099355006437</v>
+        <v>2.3058328257714362</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>2.0367099355006437</v>
+        <v>2.3058328257714362</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>2.893639718385757</v>
+        <v>3.2759939608041373</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0696.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0696.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{50A2766F-81BF-43B2-B84D-A9BEF77E4025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{933112EE-84A2-4AAA-A693-A9833C189351}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,9 +43,6 @@
     <t>Current Price:</t>
   </si>
   <si>
-    <t>HKD</t>
-  </si>
-  <si>
     <t>Number of Shares:</t>
   </si>
   <si>
@@ -963,6 +960,10 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>HKD</t>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3588,28 +3589,28 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C4" s="189" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C5" s="192" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C6" s="190">
         <v>45603</v>
@@ -3617,7 +3618,7 @@
     </row>
     <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B7" s="140" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7" s="191">
         <v>8</v>
@@ -3625,24 +3626,24 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C8" s="192" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E8" s="268"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C9" s="193" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C10" s="194">
         <v>2926209589</v>
@@ -3650,15 +3651,15 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C11" s="193" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="219" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" s="220">
         <v>45291</v>
@@ -3666,7 +3667,7 @@
     </row>
     <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="219" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" s="221">
         <v>1</v>
@@ -3674,7 +3675,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="219" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C14" s="220">
         <v>45473</v>
@@ -3682,15 +3683,15 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="219" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C15" s="177" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="223" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C16" s="224">
         <v>0.25</v>
@@ -3699,61 +3700,61 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="241" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C17" s="243" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="241" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C18" s="243" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="241" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C19" s="243" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="242" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C20" s="243" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="225" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C21" s="243" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="227" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C22" s="244" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D22" s="24"/>
     </row>
     <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B24" s="115" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C24" s="48">
         <f>C12</f>
@@ -3802,7 +3803,7 @@
     </row>
     <row r="25" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B25" s="94" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C25" s="150">
         <v>6983846860.7700005</v>
@@ -3822,7 +3823,7 @@
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="97" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C26" s="151">
         <v>3398384261.9699998</v>
@@ -3842,7 +3843,7 @@
     </row>
     <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B27" s="97" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C27" s="151">
         <v>1191142720.1700001</v>
@@ -3862,7 +3863,7 @@
     </row>
     <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B28" s="97" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C28" s="151">
         <v>863038653</v>
@@ -3882,7 +3883,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C29" s="151">
         <v>15194992.810000001</v>
@@ -3902,7 +3903,7 @@
     </row>
     <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B30" s="99" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C30" s="151">
         <v>48923904</v>
@@ -3922,7 +3923,7 @@
     </row>
     <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B31" s="97" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C31" s="151"/>
       <c r="D31" s="151"/>
@@ -3938,7 +3939,7 @@
     </row>
     <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B32" s="97" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C32" s="151"/>
       <c r="D32" s="151"/>
@@ -3954,7 +3955,7 @@
     </row>
     <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="97" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C33" s="151"/>
       <c r="D33" s="151"/>
@@ -3970,7 +3971,7 @@
     </row>
     <row r="34" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="94" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C34" s="218"/>
       <c r="D34" s="151"/>
@@ -3986,7 +3987,7 @@
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C35" s="218"/>
       <c r="D35" s="151"/>
@@ -4002,7 +4003,7 @@
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C36" s="218"/>
       <c r="D36" s="151"/>
@@ -4018,7 +4019,7 @@
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="94" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C37" s="218"/>
       <c r="D37" s="151"/>
@@ -4034,7 +4035,7 @@
     </row>
     <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C38" s="218"/>
       <c r="D38" s="151"/>
@@ -4050,7 +4051,7 @@
     </row>
     <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="94" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C39" s="218"/>
       <c r="D39" s="151"/>
@@ -4066,7 +4067,7 @@
     </row>
     <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B40" s="94" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C40" s="218"/>
       <c r="D40" s="151"/>
@@ -4082,7 +4083,7 @@
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B41" s="94" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C41" s="218"/>
       <c r="D41" s="151"/>
@@ -4098,7 +4099,7 @@
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C42" s="218"/>
       <c r="D42" s="151"/>
@@ -4114,7 +4115,7 @@
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C43" s="218"/>
       <c r="D43" s="151"/>
@@ -4130,7 +4131,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C44" s="251">
         <f>0.16</f>
@@ -4149,11 +4150,11 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>1.6423051565448668E-2</v>
+        <v>1.6310798804569607E-2</v>
       </c>
       <c r="D45" s="153" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4198,21 +4199,21 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C47" s="195" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D47" s="195" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E47" s="111" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="48" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B48" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C48" s="59"/>
       <c r="D48" s="60">
@@ -4222,7 +4223,7 @@
     </row>
     <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C49" s="59"/>
       <c r="D49" s="60">
@@ -4232,7 +4233,7 @@
     </row>
     <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C50" s="59"/>
       <c r="D50" s="60">
@@ -4243,7 +4244,7 @@
     </row>
     <row r="51" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C51" s="59"/>
       <c r="D51" s="60">
@@ -4253,7 +4254,7 @@
     </row>
     <row r="52" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C52" s="59"/>
       <c r="D52" s="60">
@@ -4263,7 +4264,7 @@
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C53" s="59"/>
       <c r="D53" s="60">
@@ -4274,7 +4275,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
@@ -4284,7 +4285,7 @@
     </row>
     <row r="55" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C55" s="59"/>
       <c r="D55" s="60">
@@ -4295,7 +4296,7 @@
     </row>
     <row r="56" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C56" s="59"/>
       <c r="D56" s="60">
@@ -4303,24 +4304,24 @@
         <v>0.6</v>
       </c>
       <c r="E56" s="222" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C57" s="59"/>
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
       <c r="E57" s="222" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="58" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B58" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C58" s="59"/>
       <c r="D58" s="60">
@@ -4331,7 +4332,7 @@
     </row>
     <row r="59" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B59" s="35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C59" s="120"/>
       <c r="D59" s="196">
@@ -4342,7 +4343,7 @@
     </row>
     <row r="60" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C60" s="59"/>
       <c r="D60" s="60">
@@ -4353,7 +4354,7 @@
     </row>
     <row r="61" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B61" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C61" s="59"/>
       <c r="D61" s="60">
@@ -4364,7 +4365,7 @@
     </row>
     <row r="62" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C62" s="59"/>
       <c r="D62" s="60">
@@ -4375,7 +4376,7 @@
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
@@ -4386,7 +4387,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -4396,31 +4397,31 @@
     </row>
     <row r="65" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C65" s="59"/>
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
       <c r="E65" s="222" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="66" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B66" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C66" s="59"/>
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
       <c r="E66" s="222" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="67" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C67" s="59"/>
       <c r="D67" s="60">
@@ -4428,12 +4429,12 @@
         <v>0.1</v>
       </c>
       <c r="E67" s="222" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C68" s="59"/>
       <c r="D68" s="60">
@@ -4444,7 +4445,7 @@
     </row>
     <row r="69" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B69" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C69" s="59"/>
       <c r="D69" s="60">
@@ -4455,7 +4456,7 @@
     </row>
     <row r="70" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B70" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C70" s="59"/>
       <c r="D70" s="60">
@@ -4465,7 +4466,7 @@
     </row>
     <row r="71" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B71" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C71" s="59"/>
       <c r="D71" s="60">
@@ -4476,7 +4477,7 @@
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B72" s="247" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C72" s="248"/>
       <c r="D72" s="249">
@@ -4486,85 +4487,85 @@
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C73" s="59"/>
     </row>
     <row r="74" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C74" s="59"/>
     </row>
     <row r="75" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B75" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C75" s="59"/>
     </row>
     <row r="76" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B76" s="86" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C76" s="120"/>
     </row>
     <row r="77" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B77" s="80" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C77" s="83"/>
     </row>
     <row r="78" spans="2:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B78" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C78" s="59"/>
     </row>
     <row r="79" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B79" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C79" s="59"/>
     </row>
     <row r="80" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B80" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C80" s="59"/>
     </row>
     <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B81" s="86" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C81" s="120"/>
     </row>
     <row r="82" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C82" s="83"/>
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C83" s="59"/>
     </row>
     <row r="84" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B84" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C84" s="59"/>
     </row>
     <row r="85" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B85" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C85" s="59"/>
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C86" s="198">
         <v>5</v>
@@ -4572,15 +4573,15 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C87" s="237" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C89" s="270">
         <f>C24</f>
@@ -4588,10 +4589,10 @@
       </c>
       <c r="D89" s="270"/>
       <c r="E89" s="89" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F89" s="50" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -4601,19 +4602,19 @@
         <v>(Numbers in 1CNY)</v>
       </c>
       <c r="C90" s="271" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D90" s="271"/>
       <c r="E90" s="236" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F90" s="256" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C91" s="77">
         <f>C25</f>
@@ -4631,7 +4632,7 @@
     </row>
     <row r="92" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B92" s="104" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C92" s="77">
         <f>C26</f>
@@ -4652,7 +4653,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4673,7 +4674,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4691,7 +4692,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4712,7 +4713,7 @@
     </row>
     <row r="96" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B96" s="28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C96" s="77">
         <f>MAX(C31,0)</f>
@@ -4730,7 +4731,7 @@
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
@@ -4748,7 +4749,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C98" s="238">
         <f>C44</f>
@@ -4876,7 +4877,7 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C3" s="276" t="str">
         <f>Inputs!C4</f>
@@ -4888,15 +4889,15 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>10.46</v>
+        <v>10.52</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>2</v>
+        <v>268</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C4" s="278" t="str">
         <f>Inputs!C5</f>
@@ -4905,7 +4906,7 @@
       <c r="D4" s="279"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G4" s="282">
         <f>Inputs!C10</f>
@@ -4916,7 +4917,7 @@
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C5" s="280">
         <f>Inputs!C6</f>
@@ -4925,11 +4926,11 @@
       <c r="D5" s="281"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G5" s="274">
         <f>G3*G4/1000000</f>
-        <v>30608.152300940001</v>
+        <v>30783.724876279997</v>
       </c>
       <c r="H5" s="274"/>
       <c r="I5" s="38"/>
@@ -4937,7 +4938,7 @@
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="87" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" s="186">
         <f>Inputs!C7</f>
@@ -4952,7 +4953,7 @@
         <v>45291</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G6" s="275" t="str">
         <f>Inputs!C11</f>
@@ -4963,7 +4964,7 @@
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C7" s="188" t="str">
         <f>Inputs!C8</f>
@@ -4975,10 +4976,10 @@
       </c>
       <c r="E7" s="87"/>
       <c r="F7" s="35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0736569960912068</v>
+        <v>1.0724350214004517</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4988,40 +4989,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C10" s="173">
         <v>4.2099999999999999E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C11" s="174">
         <v>5.3099999999999994E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C12" s="175">
         <v>0.06</v>
@@ -5034,29 +5035,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C14" s="173">
         <v>2.1309999999999999E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C15" s="173">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C16" s="174">
         <v>0.16</v>
@@ -5066,12 +5067,12 @@
         <v>CN</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C17" s="176">
         <v>7.1999999999999995E-2</v>
@@ -5081,29 +5082,29 @@
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="142" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C19" s="135" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="137" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C20" s="172">
         <f>Fin_Analysis!I75</f>
         <v>0.48660635459513968</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G20" s="173">
         <v>0.15</v>
@@ -5111,7 +5112,7 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="137" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C21" s="172">
         <f>Fin_Analysis!I77</f>
@@ -5122,26 +5123,26 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="137" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C22" s="172">
         <f>Fin_Analysis!I78</f>
         <v>9.3403926661713623E-3</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="137" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C23" s="172">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G23" s="178" t="e">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
@@ -5150,30 +5151,30 @@
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C24" s="172">
         <f>Fin_Analysis!I81</f>
         <v>2.1757339633768379E-3</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>26.199106028469853</v>
+        <v>26.379411237276368</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C25" s="172">
         <f>Fin_Analysis!I82</f>
         <v>0</v>
       </c>
       <c r="F25" s="140" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G25" s="172">
         <f>Fin_Analysis!I88</f>
@@ -5182,61 +5183,61 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C26" s="172">
         <f>Fin_Analysis!I83</f>
         <v>0.20774429762625654</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>1.6423051565448668E-2</v>
+        <v>1.6310798804569607E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="5"/>
       <c r="B28" s="90" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C28" s="89" t="s">
+        <v>166</v>
+      </c>
+      <c r="D28" s="43" t="s">
         <v>167</v>
-      </c>
-      <c r="D28" s="43" t="s">
-        <v>168</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G28" s="272" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H28" s="272"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>1.0938437710659596</v>
+        <v>1.0919956265059885</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>2.1025652756519415</v>
+        <v>2.0990128080336512</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>1.2868750247834819</v>
+        <v>1.2847007370658687</v>
       </c>
       <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>1.8283176310016884</v>
+        <v>1.8252285287249141</v>
       </c>
       <c r="H29" s="273"/>
     </row>
@@ -5244,21 +5245,21 @@
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="197" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C32" s="225"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C33" s="246" t="str">
         <f>Inputs!C17</f>
@@ -5268,7 +5269,7 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C34" s="226" t="e">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
@@ -5279,14 +5280,14 @@
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="197" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C35" s="225"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C36" s="246" t="str">
         <f>Inputs!C18</f>
@@ -5296,7 +5297,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C37" s="246" t="str">
         <f>Inputs!C19</f>
@@ -5306,14 +5307,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="197" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C38" s="225"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C39" s="246" t="str">
         <f>Inputs!C20</f>
@@ -5323,7 +5324,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C40" s="246" t="str">
         <f>Inputs!C21</f>
@@ -5338,14 +5339,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="227" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C43" s="245" t="str">
         <f>Inputs!C22</f>
@@ -6325,21 +6326,21 @@
     <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="16"/>
       <c r="B2" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="149" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F2" s="119" t="s">
+        <v>202</v>
+      </c>
+      <c r="G2" s="149" t="s">
         <v>203</v>
       </c>
-      <c r="G2" s="149" t="s">
+      <c r="H2" s="148" t="s">
         <v>204</v>
-      </c>
-      <c r="H2" s="148" t="s">
-        <v>205</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -6350,14 +6351,14 @@
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4"/>
       <c r="B3" s="103" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="202">
         <f>Inputs!C12</f>
         <v>45291</v>
       </c>
       <c r="E3" s="147" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F3" s="85" t="str">
         <f>H14</f>
@@ -6379,7 +6380,7 @@
     <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4"/>
       <c r="B4" s="103" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="128">
         <f>Inputs!C13</f>
@@ -6390,7 +6391,7 @@
         <v>CNY</v>
       </c>
       <c r="E4" s="147" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F4" s="93" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -6401,7 +6402,7 @@
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="115" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -6451,7 +6452,7 @@
     <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
       <c r="B6" s="94" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="201">
         <f>IF(Inputs!C25=""," ",Inputs!C25)</f>
@@ -6502,7 +6503,7 @@
     <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
       <c r="B7" s="96" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="92">
         <f t="shared" ref="C7:M7" si="1">IF(D6="","",C6/D6-1)</f>
@@ -6553,7 +6554,7 @@
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
       <c r="B8" s="97" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C8" s="200">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
@@ -6604,7 +6605,7 @@
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
       <c r="B9" s="98" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C9" s="152">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
@@ -6655,7 +6656,7 @@
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
       <c r="B10" s="97" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C10" s="200">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
@@ -6706,7 +6707,7 @@
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
       <c r="B11" s="97" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C11" s="200">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
@@ -6757,7 +6758,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C12" s="200">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6808,7 +6809,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="229" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C13" s="230">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6859,7 +6860,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="229" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C14" s="231">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -6910,7 +6911,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="232" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C15" s="233">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -6961,7 +6962,7 @@
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
       <c r="B16" s="97" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C16" s="200" t="str">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
@@ -7012,7 +7013,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C17" s="200">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7063,7 +7064,7 @@
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
       <c r="B18" s="94" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C18" s="153" t="str">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
@@ -7114,7 +7115,7 @@
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
       <c r="B19" s="97" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C19" s="200" t="str">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
@@ -7165,7 +7166,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C20" s="153">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -7216,7 +7217,7 @@
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
       <c r="B21" s="97" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C21" s="200" t="str">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
@@ -7267,7 +7268,7 @@
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
       <c r="B22" s="98" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C22" s="162">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
@@ -7318,7 +7319,7 @@
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4"/>
       <c r="B23" s="100" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C23" s="154">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
@@ -7369,7 +7370,7 @@
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4"/>
       <c r="B24" s="101" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C24" s="155">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
@@ -7420,7 +7421,7 @@
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
       <c r="B25" s="235" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C25" s="234">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
@@ -7471,7 +7472,7 @@
     <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
       <c r="B26" s="114" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
@@ -7522,7 +7523,7 @@
     <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="4"/>
       <c r="B27" s="94" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C27" s="65">
         <f>IF(C36="","",C36+C31+C32)</f>
@@ -7573,7 +7574,7 @@
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
       <c r="B28" s="94" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C28" s="65">
         <f>Fin_Analysis!C28</f>
@@ -7624,7 +7625,7 @@
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="94" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C29" s="65">
         <f>Fin_Analysis!C13</f>
@@ -7675,7 +7676,7 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C30" s="65">
         <f>Fin_Analysis!C18</f>
@@ -7726,7 +7727,7 @@
     <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
       <c r="B31" s="94" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C31" s="65">
         <f>Fin_Analysis!I28</f>
@@ -7777,7 +7778,7 @@
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
       <c r="B32" s="94" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C32" s="65">
         <f>Fin_Analysis!I48</f>
@@ -7828,7 +7829,7 @@
     <row r="33" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
       <c r="B33" s="94" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C33" s="65">
         <f>Fin_Analysis!I15</f>
@@ -7879,7 +7880,7 @@
     <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
       <c r="B34" s="94" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C34" s="65">
         <f>Fin_Analysis!I34</f>
@@ -7930,7 +7931,7 @@
     <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
       <c r="B35" s="94" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C35" s="77">
         <f t="shared" ref="C35" si="21">IF(OR(C33="",C34=""),"",C33+C34)</f>
@@ -7981,7 +7982,7 @@
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="94" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C36" s="65">
         <f>Fin_Analysis!D3</f>
@@ -8032,7 +8033,7 @@
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="94" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C37" s="65">
         <f>Fin_Analysis!D4</f>
@@ -8083,7 +8084,7 @@
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
       <c r="B38" s="94" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C38" s="65">
         <f>Fin_Analysis!C63</f>
@@ -8134,7 +8135,7 @@
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="4"/>
       <c r="B39" s="94" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C39" s="65">
         <f>Fin_Analysis!C68</f>
@@ -8185,7 +8186,7 @@
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="98" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C40" s="156" t="e">
         <f>IF(C6="","",C14/MAX(C39,0))</f>
@@ -8236,7 +8237,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8254,7 +8255,7 @@
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
       <c r="B42" s="95" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C42" s="157">
         <f t="shared" ref="C42:M42" si="34">IF(C6="","",C8/C6)</f>
@@ -8305,7 +8306,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C43" s="154">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8356,7 +8357,7 @@
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="94" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C44" s="154">
         <f t="shared" ref="C44:M44" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
@@ -8407,7 +8408,7 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C45" s="154">
         <f t="shared" ref="C45:M45" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
@@ -8458,7 +8459,7 @@
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="94" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C46" s="154">
         <f>IF(C6="","",MAX(C12,0)/C6)</f>
@@ -8509,7 +8510,7 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C47" s="154">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -8560,7 +8561,7 @@
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
       <c r="B48" s="94" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C48" s="154">
         <f t="shared" ref="C48:M48" si="40">IF(C6="","",C22/C6)</f>
@@ -8611,7 +8612,7 @@
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="16"/>
       <c r="B49" s="102" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C49" s="36"/>
       <c r="D49" s="36"/>
@@ -8629,7 +8630,7 @@
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
       <c r="B50" s="95" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C50" s="157">
         <f t="shared" ref="C50:M50" si="41">IF(C29="","",C29/C6)</f>
@@ -8680,7 +8681,7 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C51" s="154">
         <f t="shared" ref="C51:M51" si="42">IF(C30="","",C30/C6)</f>
@@ -8731,7 +8732,7 @@
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="16"/>
       <c r="B52" s="102" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C52" s="36"/>
       <c r="D52" s="36"/>
@@ -8748,7 +8749,7 @@
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
       <c r="B53" s="95" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C53" s="157" t="e">
         <f>IF(C36="","",(C27-C36)/C27)</f>
@@ -8798,7 +8799,7 @@
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="4"/>
       <c r="B54" s="94" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C54" s="158" t="str">
         <f t="shared" ref="C54:M54" si="44">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
@@ -8848,7 +8849,7 @@
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
       <c r="B55" s="94" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C55" s="154">
         <f t="shared" ref="C55:M55" si="45">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
@@ -8898,7 +8899,7 @@
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
       <c r="B56" s="98" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C56" s="159" t="e">
         <f t="shared" ref="C56:M56" si="46">IF(C28="","",C28/C31)</f>
@@ -10257,7 +10258,7 @@
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" s="45"/>
       <c r="D2" s="64"/>
@@ -10267,12 +10268,12 @@
       <c r="H2" s="7"/>
       <c r="I2" s="87"/>
       <c r="K2" s="50" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" s="87"/>
       <c r="D3" s="116">
@@ -10286,7 +10287,7 @@
       <c r="F3" s="87"/>
       <c r="G3" s="87"/>
       <c r="H3" s="47" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I3" s="205">
         <f>Inputs!C83</f>
@@ -10296,7 +10297,7 @@
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" s="87"/>
       <c r="D4" s="65">
@@ -10314,10 +10315,10 @@
       <c r="C5" s="87"/>
       <c r="D5" s="87"/>
       <c r="E5" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I5" s="63" t="e">
         <f>C28/I28</f>
@@ -10327,7 +10328,7 @@
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B6" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" s="87"/>
       <c r="D6" s="69">
@@ -10341,7 +10342,7 @@
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
       <c r="H6" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I6" s="63" t="e">
         <f>(C24+C25)/I28</f>
@@ -10352,7 +10353,7 @@
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B7" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" s="87"/>
       <c r="D7" s="66">
@@ -10364,7 +10365,7 @@
         <v>HKD</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I7" s="63" t="e">
         <f>C24/I28</f>
@@ -10382,7 +10383,7 @@
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" s="86"/>
       <c r="D9" s="204">
@@ -10401,32 +10402,32 @@
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="74" t="s">
+      <c r="D10" s="74" t="s">
+        <v>196</v>
+      </c>
+      <c r="E10" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="74" t="s">
-        <v>197</v>
-      </c>
-      <c r="E10" s="74" t="s">
+      <c r="F10" s="111" t="s">
         <v>35</v>
-      </c>
-      <c r="F10" s="111" t="s">
-        <v>36</v>
       </c>
       <c r="G10" s="87"/>
       <c r="H10" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I10" s="74" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K10" s="24"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C11" s="40">
         <f>Inputs!C48</f>
@@ -10443,7 +10444,7 @@
       <c r="F11" s="112"/>
       <c r="G11" s="87"/>
       <c r="H11" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I11" s="40">
         <f>Inputs!C73</f>
@@ -10454,7 +10455,7 @@
     </row>
     <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C12" s="40">
         <f>Inputs!C49</f>
@@ -10471,7 +10472,7 @@
       <c r="F12" s="112"/>
       <c r="G12" s="87"/>
       <c r="H12" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I12" s="40">
         <f>Inputs!C74</f>
@@ -10482,7 +10483,7 @@
     </row>
     <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C13" s="40">
         <f>Inputs!C50</f>
@@ -10499,7 +10500,7 @@
       <c r="F13" s="112"/>
       <c r="G13" s="87"/>
       <c r="H13" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I13" s="40">
         <f>Inputs!C75</f>
@@ -10510,7 +10511,7 @@
     </row>
     <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C14" s="40">
         <f>Inputs!C51</f>
@@ -10527,7 +10528,7 @@
       <c r="F14" s="112"/>
       <c r="G14" s="87"/>
       <c r="H14" s="86" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I14" s="206">
         <f>Inputs!C76</f>
@@ -10538,7 +10539,7 @@
     </row>
     <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C15" s="40">
         <f>Inputs!C52</f>
@@ -10555,7 +10556,7 @@
       <c r="F15" s="112"/>
       <c r="G15" s="87"/>
       <c r="H15" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I15" s="84">
         <f>SUM(I11:I14)</f>
@@ -10565,7 +10566,7 @@
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
@@ -10587,7 +10588,7 @@
     </row>
     <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C17" s="40">
         <f>Inputs!C54</f>
@@ -10609,7 +10610,7 @@
     </row>
     <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C18" s="40">
         <f>Inputs!C55</f>
@@ -10630,7 +10631,7 @@
     </row>
     <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C19" s="40">
         <f>Inputs!C56</f>
@@ -10655,7 +10656,7 @@
     </row>
     <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C20" s="40">
         <f>Inputs!C57</f>
@@ -10682,7 +10683,7 @@
     </row>
     <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C21" s="40">
         <f>Inputs!C58</f>
@@ -10703,7 +10704,7 @@
     </row>
     <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C22" s="40">
         <f>Inputs!C59</f>
@@ -10720,7 +10721,7 @@
       <c r="F22" s="112"/>
       <c r="G22" s="87"/>
       <c r="H22" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I22" s="52">
         <f>I28-SUM(I11:I14)</f>
@@ -10732,13 +10733,13 @@
       <c r="D23" s="87"/>
       <c r="E23" s="87"/>
       <c r="F23" s="111" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G23" s="87"/>
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C24" s="61">
         <f>SUM(C11:C14)</f>
@@ -10760,7 +10761,7 @@
     </row>
     <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C25" s="61">
         <f>SUM(C15:C17)</f>
@@ -10780,7 +10781,7 @@
       </c>
       <c r="G25" s="87"/>
       <c r="H25" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I25" s="63" t="e">
         <f>E28/I28</f>
@@ -10789,7 +10790,7 @@
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C26" s="61">
         <f>C18+C19+C20</f>
@@ -10809,7 +10810,7 @@
       </c>
       <c r="G26" s="87"/>
       <c r="H26" s="23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I26" s="63" t="e">
         <f>E24/($I$28-I22)</f>
@@ -10822,7 +10823,7 @@
     </row>
     <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C27" s="77">
         <f>C21+C22</f>
@@ -10842,7 +10843,7 @@
       </c>
       <c r="G27" s="87"/>
       <c r="H27" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I27" s="63" t="e">
         <f>(E25+E24)/$I$28</f>
@@ -10855,7 +10856,7 @@
     </row>
     <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="78" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C28" s="79">
         <f>SUM(C11:C22)</f>
@@ -10872,7 +10873,7 @@
       <c r="F28" s="112"/>
       <c r="G28" s="87"/>
       <c r="H28" s="78" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I28" s="207">
         <f>Inputs!C77</f>
@@ -10888,7 +10889,7 @@
       <c r="D29" s="87"/>
       <c r="E29" s="87"/>
       <c r="F29" s="112" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G29" s="87"/>
       <c r="H29" s="87"/>
@@ -10897,7 +10898,7 @@
     </row>
     <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C30" s="40">
         <f>Inputs!C60</f>
@@ -10913,7 +10914,7 @@
       <c r="F30" s="112"/>
       <c r="G30" s="87"/>
       <c r="H30" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I30" s="40">
         <f>Inputs!C78</f>
@@ -10923,7 +10924,7 @@
     </row>
     <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C31" s="40">
         <f>Inputs!C61</f>
@@ -10940,7 +10941,7 @@
       <c r="F31" s="112"/>
       <c r="G31" s="87"/>
       <c r="H31" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I31" s="40">
         <f>Inputs!C79</f>
@@ -10950,7 +10951,7 @@
     </row>
     <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C32" s="40">
         <f>Inputs!C62</f>
@@ -10967,7 +10968,7 @@
       <c r="F32" s="112"/>
       <c r="G32" s="87"/>
       <c r="H32" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I32" s="40">
         <f>Inputs!C80</f>
@@ -10977,7 +10978,7 @@
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
@@ -10997,7 +10998,7 @@
         <v>1</v>
       </c>
       <c r="H33" s="86" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I33" s="206">
         <f>Inputs!C81</f>
@@ -11007,7 +11008,7 @@
     </row>
     <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C34" s="40">
         <f>Inputs!C64</f>
@@ -11024,7 +11025,7 @@
       <c r="F34" s="112"/>
       <c r="G34" s="87"/>
       <c r="H34" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I34" s="84">
         <f>SUM(I30:I33)</f>
@@ -11034,7 +11035,7 @@
     </row>
     <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C35" s="40">
         <f>Inputs!C65</f>
@@ -11060,7 +11061,7 @@
     </row>
     <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C36" s="40">
         <f>Inputs!C66</f>
@@ -11087,7 +11088,7 @@
     </row>
     <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C37" s="40">
         <f>Inputs!C67</f>
@@ -11114,7 +11115,7 @@
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C38" s="40">
         <f>Inputs!C68</f>
@@ -11135,7 +11136,7 @@
     </row>
     <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C39" s="40">
         <f>Inputs!C69</f>
@@ -11156,7 +11157,7 @@
     </row>
     <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C40" s="40">
         <f>Inputs!C70</f>
@@ -11177,7 +11178,7 @@
     </row>
     <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C41" s="40">
         <f>Inputs!C71</f>
@@ -11198,7 +11199,7 @@
     </row>
     <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C42" s="40">
         <f>Inputs!C72</f>
@@ -11215,7 +11216,7 @@
       <c r="F42" s="112"/>
       <c r="G42" s="87"/>
       <c r="H42" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I42" s="52">
         <f>I48-SUM(I30:I33)</f>
@@ -11233,7 +11234,7 @@
     </row>
     <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C44" s="61">
         <f>SUM(C30:C31)</f>
@@ -11252,7 +11253,7 @@
     </row>
     <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C45" s="61">
         <f>SUM(C32:C35)</f>
@@ -11271,7 +11272,7 @@
     </row>
     <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C46" s="61">
         <f>C36+C37+C38+C39</f>
@@ -11288,7 +11289,7 @@
       <c r="F46" s="87"/>
       <c r="G46" s="87"/>
       <c r="H46" s="23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I46" s="63" t="e">
         <f>(E44+E24)/E64</f>
@@ -11301,7 +11302,7 @@
     </row>
     <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C47" s="61">
         <f>C40+C41+C42</f>
@@ -11318,7 +11319,7 @@
       <c r="F47" s="87"/>
       <c r="G47" s="87"/>
       <c r="H47" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I47" s="63" t="e">
         <f>(E44+E45+E24+E25)/$I$49</f>
@@ -11331,7 +11332,7 @@
     </row>
     <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="80" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C48" s="81">
         <f>SUM(C30:C42)</f>
@@ -11348,7 +11349,7 @@
       <c r="F48" s="87"/>
       <c r="G48" s="87"/>
       <c r="H48" s="80" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I48" s="208">
         <f>Inputs!C82</f>
@@ -11358,7 +11359,7 @@
     </row>
     <row r="49" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B49" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C49" s="61">
         <f>C28+C48</f>
@@ -11375,7 +11376,7 @@
       <c r="F49" s="87"/>
       <c r="G49" s="87"/>
       <c r="H49" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I49" s="52">
         <f>I28+I48</f>
@@ -11391,14 +11392,14 @@
     </row>
     <row r="51" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
     <row r="52" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C52" s="87"/>
       <c r="D52" s="74" t="str">
@@ -11410,12 +11411,12 @@
       <c r="G52" s="87"/>
       <c r="I52" s="87"/>
       <c r="K52" s="50" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C53" s="88">
         <f>MAX(D4,0)</f>
@@ -11445,7 +11446,7 @@
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="125"/>
@@ -11456,7 +11457,7 @@
     </row>
     <row r="56" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C56" s="87"/>
       <c r="D56" s="283">
@@ -11471,7 +11472,7 @@
     </row>
     <row r="57" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C57" s="87"/>
       <c r="D57" s="282">
@@ -11482,12 +11483,12 @@
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C58" s="87"/>
       <c r="D58" s="282">
@@ -11511,11 +11512,11 @@
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E60" s="87"/>
       <c r="F60" s="9"/>
@@ -11525,7 +11526,7 @@
     </row>
     <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C61" s="68">
         <f>C14+C15+(C19*G19)+(C20*G20)+C31+C32+(C35*G35)+(C36*G36)+(C37*G37)</f>
@@ -11546,7 +11547,7 @@
     </row>
     <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C62" s="117">
         <f>C11+C30</f>
@@ -11567,7 +11568,7 @@
     </row>
     <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
@@ -11588,7 +11589,7 @@
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="121" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C64" s="209"/>
       <c r="D64" s="209"/>
@@ -11603,7 +11604,7 @@
     </row>
     <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C65" s="68">
         <f>C63-E64</f>
@@ -11634,11 +11635,11 @@
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E67" s="61"/>
       <c r="F67" s="87"/>
@@ -11648,7 +11649,7 @@
     </row>
     <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
@@ -11669,7 +11670,7 @@
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="121" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C69" s="209"/>
       <c r="D69" s="209"/>
@@ -11684,7 +11685,7 @@
     </row>
     <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
@@ -11706,7 +11707,7 @@
     <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
       <c r="B72" s="106" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C72" s="270">
         <f>Data!C5</f>
@@ -11714,15 +11715,15 @@
       </c>
       <c r="D72" s="270"/>
       <c r="E72" s="284" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F72" s="284"/>
       <c r="H72" s="284" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I72" s="284"/>
       <c r="K72" s="50" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="73" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11731,22 +11732,22 @@
         <v>(Numbers in 1CNY)</v>
       </c>
       <c r="C73" s="271" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D73" s="271"/>
       <c r="E73" s="285" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F73" s="271"/>
       <c r="H73" s="285" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I73" s="271"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C74" s="77">
         <f>Data!C6</f>
@@ -11767,7 +11768,7 @@
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B75" s="104" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C75" s="77">
         <f>Data!C8</f>
@@ -11797,7 +11798,7 @@
     </row>
     <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C76" s="162">
         <f>C74-C75</f>
@@ -11818,7 +11819,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -11848,7 +11849,7 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
@@ -11878,7 +11879,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="257" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C79" s="258">
         <f>C76-C77-C78</f>
@@ -11909,7 +11910,7 @@
     </row>
     <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C80" s="77">
         <f>MAX(Data!C16,0)</f>
@@ -11936,12 +11937,12 @@
         <v>0</v>
       </c>
       <c r="K80" s="182" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -11971,7 +11972,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -12001,7 +12002,7 @@
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B83" s="105" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C83" s="164">
         <f>C79-C81-C82-C80</f>
@@ -12031,7 +12032,7 @@
     </row>
     <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B84" s="28" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C84" s="212"/>
       <c r="D84" s="160">
@@ -12052,7 +12053,7 @@
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="264" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C85" s="258">
         <f>C83*(1-I84)</f>
@@ -12083,7 +12084,7 @@
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C86" s="168">
         <f>C85*Data!C4/Common_Shares</f>
@@ -12104,28 +12105,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.8169241305918131E-2</v>
+        <v>3.7908351744671033E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.8169241305918124E-2</v>
+        <v>3.7908351744671026E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.8169241305918124E-2</v>
+        <v>3.7908351744671026E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C88" s="170">
         <f>Inputs!C44</f>
@@ -12155,21 +12156,21 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.6423051565448668E-2</v>
+        <v>1.6310798804569607E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.6423051565448668E-2</v>
+        <v>1.6310798804569607E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.6423051565448668E-2</v>
+        <v>1.6310798804569607E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12186,27 +12187,27 @@
       </c>
       <c r="C91" s="21"/>
       <c r="K91" s="50" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C92" s="199" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E92" s="284" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F92" s="284"/>
       <c r="G92" s="87"/>
       <c r="H92" s="284" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I92" s="284"/>
       <c r="K92" s="24"/>
@@ -12225,24 +12226,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>6.6873415240651282</v>
+        <v>6.6713415884822842</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>6.6873415240651282</v>
+        <v>6.6713415884822842</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C94" s="183">
         <f>Dashboard!G20</f>
@@ -12250,18 +12251,18 @@
       </c>
       <c r="D94" s="145"/>
       <c r="E94" s="87" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>2.5883653305124961</v>
+        <v>2.5839920612839817</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>2.5883653305124961</v>
+        <v>2.5839920612839817</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12280,51 +12281,51 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E96" s="184" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="228" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H96" s="184" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
       <c r="I96" s="124" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K96" s="24"/>
     </row>
     <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>9729034213.440649</v>
+        <v>9705756813.8733978</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>3.3247906267593907</v>
+        <v>3.3168358310213293</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>3.3247906267593907</v>
+        <v>3.3168358310213293</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>4.7236702906065862</v>
+        <v>4.7123685767502916</v>
       </c>
       <c r="K97" s="24"/>
     </row>
     <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
@@ -12342,7 +12343,7 @@
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B99" s="105" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
@@ -12363,31 +12364,31 @@
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B100" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>9729034213.440649</v>
+        <v>9705756813.8733978</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>2.8260720327454822</v>
+        <v>2.8193104563681297</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>3.3247906267593907</v>
+        <v>3.3168358310213293</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>3.3247906267593907</v>
+        <v>3.3168358310213293</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>3.3247906267593907</v>
+        <v>3.3168358310213293</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>4.7236702906065862</v>
+        <v>4.7123685767502916</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12397,58 +12398,58 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C102" s="127" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E102" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="228" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H102" s="184" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
       <c r="I102" s="124" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K102" s="24"/>
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>3765666037.3660374</v>
+        <v>3759303615.797513</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.0938437710659596</v>
+        <v>1.0919956265059885</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.2868750247834819</v>
+        <v>1.2847007370658687</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>1.2868750247834819</v>
+        <v>1.2847007370658687</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.2868750247834819</v>
+        <v>1.2847007370658687</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>1.8283176310016884</v>
+        <v>1.8252285287249141</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12458,58 +12459,58 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E105" s="185" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="228" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H105" s="185" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
       <c r="I105" s="124" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K105" s="24"/>
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>6747350125.4033432</v>
+        <v>6732530214.8354549</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>1.9599579019057209</v>
+        <v>1.955653041437059</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>2.3058328257714362</v>
+        <v>2.300768284043599</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>2.3058328257714362</v>
+        <v>2.300768284043599</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>2.3058328257714362</v>
+        <v>2.300768284043599</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>3.2759939608041373</v>
+        <v>3.2687985527376027</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -12518,7 +12519,7 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C108" s="128" t="str">
         <f>Inputs!C87</f>

--- a/financial_models/opportunities/0696.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0696.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{933112EE-84A2-4AAA-A693-A9833C189351}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{649E7A8C-AE7B-42C2-967C-C89DBFE67BD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4154,7 +4154,7 @@
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>1.6310798804569607E-2</v>
+        <v>1.631029174959403E-2</v>
       </c>
       <c r="D45" s="153" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4799,7 +4799,7 @@
   </conditionalFormatting>
   <dataValidations count="8">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{4F1A5CDA-569A-4509-AA2D-9CF95C6DB1A5}">
-      <formula1>"Tier 1, Superior Cycl. ,Cigar Butts, N"</formula1>
+      <formula1>"Tier 1, Superior Cycl. ,Tier 3, N"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="C11" xr:uid="{7C8576B4-3288-485C-91EB-6274925EDC41}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
@@ -4979,7 +4979,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0724350214004517</v>
+        <v>1.0724016825358074</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5162,7 +5162,7 @@
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>26.379411237276368</v>
+        <v>26.380231321424834</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5194,7 +5194,7 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>1.6310798804569607E-2</v>
+        <v>1.631029174959403E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5224,20 +5224,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>1.0919956265059885</v>
+        <v>1.0919589555696043</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>2.0990128080336512</v>
+        <v>2.098942319871167</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>1.2847007370658687</v>
+        <v>1.2846575947877699</v>
       </c>
       <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>1.8252285287249141</v>
+        <v>1.8251672346705803</v>
       </c>
       <c r="H29" s="273"/>
     </row>
@@ -12109,17 +12109,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.7908351744671033E-2</v>
+        <v>3.790717328501382E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.7908351744671026E-2</v>
+        <v>3.7907173285013814E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.7908351744671026E-2</v>
+        <v>3.7907173285013814E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12160,17 +12160,17 @@
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.6310798804569607E-2</v>
+        <v>1.631029174959403E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.6310798804569607E-2</v>
+        <v>1.631029174959403E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.6310798804569607E-2</v>
+        <v>1.631029174959403E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12230,14 +12230,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>6.6713415884822842</v>
+        <v>6.6710963234686531</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>6.6713415884822842</v>
+        <v>6.6710963234686531</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12255,14 +12255,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>2.5839920612839817</v>
+        <v>2.5839052867528425</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>2.5839920612839817</v>
+        <v>2.5839052867528425</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12305,21 +12305,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>9705756813.8733978</v>
+        <v>9705399991.7041721</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>3.3168358310213293</v>
+        <v>3.3167138909625695</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>3.3168358310213293</v>
+        <v>3.3167138909625695</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>4.7123685767502916</v>
+        <v>4.7121953313651046</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12368,27 +12368,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>9705756813.8733978</v>
+        <v>9705399991.7041721</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>2.8193104563681297</v>
+        <v>2.8192068073181842</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>3.3168358310213293</v>
+        <v>3.3167138909625695</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>3.3168358310213293</v>
+        <v>3.3167138909625695</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>3.3168358310213293</v>
+        <v>3.31671389096257</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>4.7123685767502916</v>
+        <v>4.7121953313651046</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12429,27 +12429,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>3759303615.797513</v>
+        <v>3759177372.4496484</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.0919956265059885</v>
+        <v>1.0919589555696043</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.2847007370658687</v>
+        <v>1.2846575947877699</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>1.2847007370658687</v>
+        <v>1.2846575947877699</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.2847007370658687</v>
+        <v>1.2846575947877699</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>1.8252285287249141</v>
+        <v>1.8251672346705803</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12490,27 +12490,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>6732530214.8354549</v>
+        <v>6732288682.076911</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>1.955653041437059</v>
+        <v>1.9555828814438942</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>2.300768284043599</v>
+        <v>2.3006857428751699</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>2.300768284043599</v>
+        <v>2.3006857428751699</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>2.300768284043599</v>
+        <v>2.3006857428751699</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>3.2687985527376027</v>
+        <v>3.2686812830178424</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0696.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0696.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{649E7A8C-AE7B-42C2-967C-C89DBFE67BD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5D2E490-6AD3-4281-A22A-2384551250B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4154,7 +4154,7 @@
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>1.631029174959403E-2</v>
+        <v>1.6250025744390009E-2</v>
       </c>
       <c r="D45" s="153" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4889,7 +4889,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>10.52</v>
+        <v>10.56</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>268</v>
@@ -4930,7 +4930,7 @@
       </c>
       <c r="G5" s="274">
         <f>G3*G4/1000000</f>
-        <v>30783.724876279997</v>
+        <v>30900.77325984</v>
       </c>
       <c r="H5" s="274"/>
       <c r="I5" s="38"/>
@@ -4979,7 +4979,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0724016825358074</v>
+        <v>1.0725016991297405</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5162,7 +5162,7 @@
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>26.380231321424834</v>
+        <v>26.478066930002203</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5194,7 +5194,7 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>1.631029174959403E-2</v>
+        <v>1.6250025744390009E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5224,20 +5224,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>1.0919589555696043</v>
+        <v>1.0917370449485142</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>2.098942319871167</v>
+        <v>2.0985157675804795</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>1.2846575947877699</v>
+        <v>1.2843965234688401</v>
       </c>
       <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>1.8251672346705803</v>
+        <v>1.8247963196351997</v>
       </c>
       <c r="H29" s="273"/>
     </row>
@@ -12109,17 +12109,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.790717328501382E-2</v>
+        <v>3.7767107494803706E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.7907173285013814E-2</v>
+        <v>3.7767107494803692E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.7907173285013814E-2</v>
+        <v>3.7767107494803692E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12160,17 +12160,17 @@
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.631029174959403E-2</v>
+        <v>1.6250025744390009E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.631029174959403E-2</v>
+        <v>1.6250025744390009E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.631029174959403E-2</v>
+        <v>1.6250025744390009E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12230,14 +12230,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>6.6710963234686531</v>
+        <v>6.6672179631877082</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>6.6710963234686531</v>
+        <v>6.6672179631877082</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12255,14 +12255,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>2.5839052867528425</v>
+        <v>2.5833801790790631</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>2.5839052867528425</v>
+        <v>2.5833801790790631</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12305,21 +12305,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>9705399991.7041721</v>
+        <v>9699757585.1171017</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>3.3167138909625695</v>
+        <v>3.3147856604597785</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>3.3167138909625695</v>
+        <v>3.3147856604597785</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>4.7121953313651046</v>
+        <v>4.7094558129526778</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12368,27 +12368,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>9705399991.7041721</v>
+        <v>9699757585.1171017</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>2.8192068073181842</v>
+        <v>2.8175678113908118</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>3.3167138909625695</v>
+        <v>3.3147856604597785</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>3.3167138909625695</v>
+        <v>3.3147856604597785</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>3.31671389096257</v>
+        <v>3.3147856604597785</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>4.7121953313651046</v>
+        <v>4.7094558129526778</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12429,27 +12429,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>3759177372.4496484</v>
+        <v>3758413423.0527835</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.0919589555696043</v>
+        <v>1.0917370449485142</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.2846575947877699</v>
+        <v>1.2843965234688401</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>1.2846575947877699</v>
+        <v>1.2843965234688401</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.2846575947877699</v>
+        <v>1.2843965234688401</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>1.8251672346705803</v>
+        <v>1.8247963196351997</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12490,27 +12490,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>6732288682.076911</v>
+        <v>6729085504.0849428</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>1.9555828814438942</v>
+        <v>1.9546524281696631</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>2.3006857428751699</v>
+        <v>2.2995910919643094</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>2.3006857428751699</v>
+        <v>2.2995910919643094</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>2.3006857428751699</v>
+        <v>2.2995910919643094</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>3.2686812830178424</v>
+        <v>3.2671260662939385</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0696.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0696.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5D2E490-6AD3-4281-A22A-2384551250B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CAE7B141-BBBA-42D5-B42B-F0A0202407D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4154,7 +4154,7 @@
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>1.6250025744390009E-2</v>
+        <v>1.6249520610077211E-2</v>
       </c>
       <c r="D45" s="153" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4979,7 +4979,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0725016991297405</v>
+        <v>1.072468360265096</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5162,7 +5162,7 @@
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>26.478066930002203</v>
+        <v>26.478890029985507</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5194,7 +5194,7 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>1.6250025744390009E-2</v>
+        <v>1.6249520610077211E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5224,20 +5224,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>1.0917370449485142</v>
+        <v>1.0917003949591395</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>2.0985157675804795</v>
+        <v>2.098445319681931</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>1.2843965234688401</v>
+        <v>1.2843534058342818</v>
       </c>
       <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>1.8247963196351997</v>
+        <v>1.8247350605929837</v>
       </c>
       <c r="H29" s="273"/>
     </row>
@@ -12109,17 +12109,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.7767107494803706E-2</v>
+        <v>3.7765933499008822E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.7767107494803692E-2</v>
+        <v>3.7765933499008808E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.7767107494803692E-2</v>
+        <v>3.7765933499008808E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12160,17 +12160,17 @@
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.6250025744390009E-2</v>
+        <v>1.6249520610077211E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.6250025744390009E-2</v>
+        <v>1.6249520610077211E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.6250025744390009E-2</v>
+        <v>1.6249520610077211E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12230,14 +12230,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>6.6672179631877082</v>
+        <v>6.6669730008962169</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>6.6672179631877082</v>
+        <v>6.6669730008962169</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12255,14 +12255,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>2.5833801790790631</v>
+        <v>2.5832934541148864</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>2.5833801790790631</v>
+        <v>2.5832934541148864</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12305,21 +12305,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>9699757585.1171017</v>
+        <v>9699401203.3611622</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>3.3147856604597785</v>
+        <v>3.3146638709074239</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>3.3147856604597785</v>
+        <v>3.3146638709074239</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>4.7094558129526778</v>
+        <v>4.7092827813982892</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12368,27 +12368,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>9699757585.1171017</v>
+        <v>9699401203.3611622</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>2.8175678113908118</v>
+        <v>2.8174642902713103</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>3.3147856604597785</v>
+        <v>3.3146638709074239</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>3.3147856604597785</v>
+        <v>3.3146638709074239</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>3.3147856604597785</v>
+        <v>3.3146638709074239</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>4.7094558129526778</v>
+        <v>4.7092827813982892</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12429,27 +12429,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>3758413423.0527835</v>
+        <v>3758287251.8170838</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.0917370449485142</v>
+        <v>1.0917003949591395</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.2843965234688401</v>
+        <v>1.2843534058342818</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>1.2843965234688401</v>
+        <v>1.2843534058342818</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.2843965234688401</v>
+        <v>1.2843534058342818</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>1.8247963196351997</v>
+        <v>1.8247350605929837</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12490,27 +12490,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>6729085504.0849428</v>
+        <v>6728844227.5891237</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>1.9546524281696631</v>
+        <v>1.9545823426152249</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>2.2995910919643094</v>
+        <v>2.299508638370853</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>2.2995910919643094</v>
+        <v>2.299508638370853</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>2.2995910919643094</v>
+        <v>2.299508638370853</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>3.2671260662939385</v>
+        <v>3.2670089209956363</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0696.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0696.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CAE7B141-BBBA-42D5-B42B-F0A0202407D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{897A8ECD-B57D-4111-8157-6EAB787D796B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4154,7 +4154,7 @@
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>1.6249520610077211E-2</v>
+        <v>1.6249015475764416E-2</v>
       </c>
       <c r="D45" s="153" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4591,7 +4591,7 @@
       <c r="E89" s="89" t="s">
         <v>206</v>
       </c>
-      <c r="F89" s="50" t="s">
+      <c r="F89" s="89" t="s">
         <v>205</v>
       </c>
       <c r="H89" s="31"/>
@@ -4979,7 +4979,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.072468360265096</v>
+        <v>1.0724350214004517</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5162,7 +5162,7 @@
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>26.478890029985507</v>
+        <v>26.479713181144341</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5194,7 +5194,7 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>1.6249520610077211E-2</v>
+        <v>1.6249015475764416E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5224,20 +5224,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>1.0917003949591395</v>
+        <v>1.0916637451438449</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>2.098445319681931</v>
+        <v>2.0983748721179958</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>1.2843534058342818</v>
+        <v>1.2843102884045234</v>
       </c>
       <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>1.8247350605929837</v>
+        <v>1.8246738018417354</v>
       </c>
       <c r="H29" s="273"/>
     </row>
@@ -12109,17 +12109,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.7765933499008822E-2</v>
+        <v>3.7764759503213945E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.7765933499008808E-2</v>
+        <v>3.7764759503213931E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.7765933499008808E-2</v>
+        <v>3.7764759503213931E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12160,17 +12160,17 @@
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.6249520610077211E-2</v>
+        <v>1.6249015475764416E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.6249520610077211E-2</v>
+        <v>1.6249015475764416E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.6249520610077211E-2</v>
+        <v>1.6249015475764416E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12230,14 +12230,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>6.6669730008962169</v>
+        <v>6.6667280411199403</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>6.6669730008962169</v>
+        <v>6.6667280411199403</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12255,14 +12255,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>2.5832934541148864</v>
+        <v>2.5832067295626353</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>2.5832934541148864</v>
+        <v>2.5832067295626353</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12305,21 +12305,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>9699401203.3611622</v>
+        <v>9699044825.2644634</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>3.3146638709074239</v>
+        <v>3.3145420826055751</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>3.3146638709074239</v>
+        <v>3.3145420826055751</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>4.7092827813982892</v>
+        <v>4.7091097516205469</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12368,27 +12368,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>9699401203.3611622</v>
+        <v>9699044825.2644634</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>2.8174642902713103</v>
+        <v>2.817360770214739</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>3.3146638709074239</v>
+        <v>3.3145420826055751</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>3.3146638709074239</v>
+        <v>3.3145420826055751</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>3.3146638709074239</v>
+        <v>3.3145420826055747</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>4.7092827813982892</v>
+        <v>4.7091097516205469</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12429,27 +12429,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>3758287251.8170838</v>
+        <v>3758161081.1806722</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.0917003949591395</v>
+        <v>1.0916637451438449</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.2843534058342818</v>
+        <v>1.2843102884045234</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>1.2843534058342818</v>
+        <v>1.2843102884045234</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.2843534058342818</v>
+        <v>1.2843102884045234</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>1.8247350605929837</v>
+        <v>1.8246738018417354</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12490,27 +12490,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>6728844227.5891237</v>
+        <v>6728602953.2225676</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>1.9545823426152249</v>
+        <v>1.9545122576792919</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>2.299508638370853</v>
+        <v>2.2994261855050491</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>2.299508638370853</v>
+        <v>2.2994261855050491</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>2.299508638370853</v>
+        <v>2.2994261855050491</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>3.2670089209956363</v>
+        <v>3.266891776731141</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0696.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0696.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{897A8ECD-B57D-4111-8157-6EAB787D796B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9660AF80-DBFA-430F-8004-D62F6B1B9F36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4154,7 +4154,7 @@
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>1.6249015475764416E-2</v>
+        <v>1.6248510341451628E-2</v>
       </c>
       <c r="D45" s="153" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4979,7 +4979,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0724350214004517</v>
+        <v>1.0724016825358074</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5028,7 +5028,7 @@
         <v>0.06</v>
       </c>
       <c r="D12" s="173">
-        <v>6.6000000000000003E-2</v>
+        <v>6.4500000000000002E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5075,7 +5075,7 @@
         <v>254</v>
       </c>
       <c r="C17" s="176">
-        <v>7.1999999999999995E-2</v>
+        <v>6.8999999999999992E-2</v>
       </c>
       <c r="D17" s="177"/>
     </row>
@@ -5162,7 +5162,7 @@
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>26.479713181144341</v>
+        <v>26.480536383483486</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5194,7 +5194,7 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>1.6249015475764416E-2</v>
+        <v>1.6248510341451628E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5224,20 +5224,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>1.0916637451438449</v>
+        <v>1.1390891431331789</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>2.0983748721179958</v>
+        <v>2.2204311068821458</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>1.2843102884045234</v>
+        <v>1.3401048742743282</v>
       </c>
       <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>1.8246738018417354</v>
+        <v>1.9308096581583878</v>
       </c>
       <c r="H29" s="273"/>
     </row>
@@ -12109,17 +12109,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.7764759503213945E-2</v>
+        <v>3.7763585507419067E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.7764759503213931E-2</v>
+        <v>3.776358550741906E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.7764759503213931E-2</v>
+        <v>3.776358550741906E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12160,17 +12160,17 @@
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.6249015475764416E-2</v>
+        <v>1.6248510341451628E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.6249015475764416E-2</v>
+        <v>1.6248510341451628E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.6249015475764416E-2</v>
+        <v>1.6248510341451628E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12219,7 +12219,7 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>7.1999999999999995E-2</v>
+        <v>6.8999999999999992E-2</v>
       </c>
       <c r="D93" s="240">
         <f>Inputs!C86</f>
@@ -12230,14 +12230,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>6.6667280411199403</v>
+        <v>6.9563301744614039</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>6.6667280411199403</v>
+        <v>6.9563301744614039</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12255,14 +12255,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>2.5832067295626353</v>
+        <v>2.695429570875453</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>2.5832067295626353</v>
+        <v>2.695429570875453</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12305,21 +12305,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>9699044825.2644634</v>
+        <v>10120370557.384657</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>3.3145420826055751</v>
+        <v>3.4585255257957042</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>3.3145420826055751</v>
+        <v>3.4585255257957042</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>4.7091097516205469</v>
+        <v>4.9830088796667429</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12368,27 +12368,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>9699044825.2644634</v>
+        <v>10120370557.384657</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>2.817360770214739</v>
+        <v>2.9397466969263486</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>3.3145420826055751</v>
+        <v>3.4585255257957042</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>3.3145420826055751</v>
+        <v>3.4585255257957042</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>3.3145420826055747</v>
+        <v>3.4585255257957042</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>4.7091097516205469</v>
+        <v>4.9830088796667429</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12429,27 +12429,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>3758161081.1806722</v>
+        <v>3921427733.3671784</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.0916637451438449</v>
+        <v>1.1390891431331789</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.2843102884045234</v>
+        <v>1.3401048742743282</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>1.2843102884045234</v>
+        <v>1.3401048742743282</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.2843102884045234</v>
+        <v>1.3401048742743282</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>1.8246738018417354</v>
+        <v>1.9308096581583878</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12490,27 +12490,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>6728602953.2225676</v>
+        <v>7020899145.3759174</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>1.9545122576792919</v>
+        <v>2.0394179200297637</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>2.2994261855050491</v>
+        <v>2.3993152000350162</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>2.2994261855050491</v>
+        <v>2.3993152000350162</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>2.2994261855050491</v>
+        <v>2.3993152000350162</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>3.266891776731141</v>
+        <v>3.4569092689125656</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0696.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0696.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9660AF80-DBFA-430F-8004-D62F6B1B9F36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A77339B7-0409-4B98-BA07-E7E3A1AEF3E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -970,7 +970,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="12">
+  <numFmts count="13">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
@@ -983,6 +983,7 @@
     <numFmt numFmtId="184" formatCode="#,##0.00_ "/>
     <numFmt numFmtId="185" formatCode="#,##0.0000"/>
     <numFmt numFmtId="186" formatCode="0&quot; Years&quot;"/>
+    <numFmt numFmtId="187" formatCode="&quot;g = &quot;0.00%"/>
   </numFmts>
   <fonts count="29" x14ac:knownFonts="1">
     <font>
@@ -1522,7 +1523,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="286">
+  <cellXfs count="287">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1822,9 +1823,6 @@
     <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="186" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="184" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2159,6 +2157,12 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="180" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="187" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3596,7 +3600,7 @@
       <c r="B4" s="141" t="s">
         <v>194</v>
       </c>
-      <c r="C4" s="189" t="s">
+      <c r="C4" s="188" t="s">
         <v>259</v>
       </c>
     </row>
@@ -3604,7 +3608,7 @@
       <c r="B5" s="141" t="s">
         <v>195</v>
       </c>
-      <c r="C5" s="192" t="s">
+      <c r="C5" s="191" t="s">
         <v>260</v>
       </c>
     </row>
@@ -3612,7 +3616,7 @@
       <c r="B6" s="141" t="s">
         <v>163</v>
       </c>
-      <c r="C6" s="190">
+      <c r="C6" s="189">
         <v>45603</v>
       </c>
     </row>
@@ -3620,7 +3624,7 @@
       <c r="B7" s="140" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="191">
+      <c r="C7" s="190">
         <v>8</v>
       </c>
     </row>
@@ -3628,16 +3632,16 @@
       <c r="B8" s="140" t="s">
         <v>215</v>
       </c>
-      <c r="C8" s="192" t="s">
+      <c r="C8" s="191" t="s">
         <v>70</v>
       </c>
-      <c r="E8" s="268"/>
+      <c r="E8" s="267"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
         <v>216</v>
       </c>
-      <c r="C9" s="193" t="s">
+      <c r="C9" s="192" t="s">
         <v>261</v>
       </c>
     </row>
@@ -3645,7 +3649,7 @@
       <c r="B10" s="140" t="s">
         <v>217</v>
       </c>
-      <c r="C10" s="194">
+      <c r="C10" s="193">
         <v>2926209589</v>
       </c>
     </row>
@@ -3653,101 +3657,101 @@
       <c r="B11" s="140" t="s">
         <v>218</v>
       </c>
-      <c r="C11" s="193" t="s">
+      <c r="C11" s="192" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B12" s="219" t="s">
+      <c r="B12" s="218" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="220">
+      <c r="C12" s="219">
         <v>45291</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B13" s="219" t="s">
+      <c r="B13" s="218" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="221">
+      <c r="C13" s="220">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B14" s="219" t="s">
+      <c r="B14" s="218" t="s">
         <v>219</v>
       </c>
-      <c r="C14" s="220">
+      <c r="C14" s="219">
         <v>45473</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B15" s="219" t="s">
+      <c r="B15" s="218" t="s">
         <v>255</v>
       </c>
-      <c r="C15" s="177" t="s">
+      <c r="C15" s="176" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B16" s="223" t="s">
+      <c r="B16" s="222" t="s">
         <v>96</v>
       </c>
-      <c r="C16" s="224">
+      <c r="C16" s="223">
         <v>0.25</v>
       </c>
       <c r="D16" s="24"/>
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B17" s="241" t="s">
+      <c r="B17" s="240" t="s">
         <v>224</v>
       </c>
-      <c r="C17" s="243" t="s">
+      <c r="C17" s="242" t="s">
         <v>264</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B18" s="241" t="s">
+      <c r="B18" s="240" t="s">
         <v>238</v>
       </c>
-      <c r="C18" s="243" t="s">
+      <c r="C18" s="242" t="s">
         <v>245</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B19" s="241" t="s">
+      <c r="B19" s="240" t="s">
         <v>239</v>
       </c>
-      <c r="C19" s="243" t="s">
+      <c r="C19" s="242" t="s">
         <v>265</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B20" s="242" t="s">
+      <c r="B20" s="241" t="s">
         <v>228</v>
       </c>
-      <c r="C20" s="243" t="s">
+      <c r="C20" s="242" t="s">
         <v>265</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B21" s="225" t="s">
+      <c r="B21" s="224" t="s">
         <v>231</v>
       </c>
-      <c r="C21" s="243" t="s">
+      <c r="C21" s="242" t="s">
         <v>264</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
-      <c r="B22" s="227" t="s">
+      <c r="B22" s="226" t="s">
         <v>230</v>
       </c>
-      <c r="C22" s="244" t="s">
+      <c r="C22" s="243" t="s">
         <v>266</v>
       </c>
       <c r="D22" s="24"/>
@@ -3805,394 +3809,394 @@
       <c r="B25" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="150">
+      <c r="C25" s="149">
         <v>6983846860.7700005</v>
       </c>
-      <c r="D25" s="150">
+      <c r="D25" s="149">
         <v>5210105771.0900002</v>
       </c>
-      <c r="E25" s="150"/>
-      <c r="F25" s="150"/>
-      <c r="G25" s="150"/>
-      <c r="H25" s="150"/>
-      <c r="I25" s="150"/>
-      <c r="J25" s="150"/>
-      <c r="K25" s="150"/>
-      <c r="L25" s="150"/>
-      <c r="M25" s="150"/>
+      <c r="E25" s="149"/>
+      <c r="F25" s="149"/>
+      <c r="G25" s="149"/>
+      <c r="H25" s="149"/>
+      <c r="I25" s="149"/>
+      <c r="J25" s="149"/>
+      <c r="K25" s="149"/>
+      <c r="L25" s="149"/>
+      <c r="M25" s="149"/>
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="97" t="s">
         <v>105</v>
       </c>
-      <c r="C26" s="151">
+      <c r="C26" s="150">
         <v>3398384261.9699998</v>
       </c>
-      <c r="D26" s="151">
+      <c r="D26" s="150">
         <v>3162230075.25</v>
       </c>
-      <c r="E26" s="151"/>
-      <c r="F26" s="151"/>
-      <c r="G26" s="151"/>
-      <c r="H26" s="151"/>
-      <c r="I26" s="151"/>
-      <c r="J26" s="151"/>
-      <c r="K26" s="151"/>
-      <c r="L26" s="151"/>
-      <c r="M26" s="151"/>
+      <c r="E26" s="150"/>
+      <c r="F26" s="150"/>
+      <c r="G26" s="150"/>
+      <c r="H26" s="150"/>
+      <c r="I26" s="150"/>
+      <c r="J26" s="150"/>
+      <c r="K26" s="150"/>
+      <c r="L26" s="150"/>
+      <c r="M26" s="150"/>
     </row>
     <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B27" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="C27" s="151">
+      <c r="C27" s="150">
         <v>1191142720.1700001</v>
       </c>
-      <c r="D27" s="151">
+      <c r="D27" s="150">
         <v>1028568099.8399999</v>
       </c>
-      <c r="E27" s="151"/>
-      <c r="F27" s="151"/>
-      <c r="G27" s="151"/>
-      <c r="H27" s="151"/>
-      <c r="I27" s="151"/>
-      <c r="J27" s="151"/>
-      <c r="K27" s="151"/>
-      <c r="L27" s="151"/>
-      <c r="M27" s="151"/>
+      <c r="E27" s="150"/>
+      <c r="F27" s="150"/>
+      <c r="G27" s="150"/>
+      <c r="H27" s="150"/>
+      <c r="I27" s="150"/>
+      <c r="J27" s="150"/>
+      <c r="K27" s="150"/>
+      <c r="L27" s="150"/>
+      <c r="M27" s="150"/>
     </row>
     <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B28" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="C28" s="151">
+      <c r="C28" s="150">
         <v>863038653</v>
       </c>
-      <c r="D28" s="151">
+      <c r="D28" s="150">
         <v>701713632.36000001</v>
       </c>
-      <c r="E28" s="151"/>
-      <c r="F28" s="151"/>
-      <c r="G28" s="151"/>
-      <c r="H28" s="151"/>
-      <c r="I28" s="151"/>
-      <c r="J28" s="151"/>
-      <c r="K28" s="151"/>
-      <c r="L28" s="151"/>
-      <c r="M28" s="151"/>
+      <c r="E28" s="150"/>
+      <c r="F28" s="150"/>
+      <c r="G28" s="150"/>
+      <c r="H28" s="150"/>
+      <c r="I28" s="150"/>
+      <c r="J28" s="150"/>
+      <c r="K28" s="150"/>
+      <c r="L28" s="150"/>
+      <c r="M28" s="150"/>
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
         <v>256</v>
       </c>
-      <c r="C29" s="151">
+      <c r="C29" s="150">
         <v>15194992.810000001</v>
       </c>
-      <c r="D29" s="151">
+      <c r="D29" s="150">
         <v>12415189.01</v>
       </c>
-      <c r="E29" s="151"/>
-      <c r="F29" s="151"/>
-      <c r="G29" s="151"/>
-      <c r="H29" s="151"/>
-      <c r="I29" s="151"/>
-      <c r="J29" s="151"/>
-      <c r="K29" s="151"/>
-      <c r="L29" s="151"/>
-      <c r="M29" s="151"/>
+      <c r="E29" s="150"/>
+      <c r="F29" s="150"/>
+      <c r="G29" s="150"/>
+      <c r="H29" s="150"/>
+      <c r="I29" s="150"/>
+      <c r="J29" s="150"/>
+      <c r="K29" s="150"/>
+      <c r="L29" s="150"/>
+      <c r="M29" s="150"/>
     </row>
     <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B30" s="99" t="s">
         <v>110</v>
       </c>
-      <c r="C30" s="151">
+      <c r="C30" s="150">
         <v>48923904</v>
       </c>
-      <c r="D30" s="151">
+      <c r="D30" s="150">
         <v>52800637.210000001</v>
       </c>
-      <c r="E30" s="151"/>
-      <c r="F30" s="151"/>
-      <c r="G30" s="151"/>
-      <c r="H30" s="151"/>
-      <c r="I30" s="151"/>
-      <c r="J30" s="151"/>
-      <c r="K30" s="151"/>
-      <c r="L30" s="151"/>
-      <c r="M30" s="151"/>
+      <c r="E30" s="150"/>
+      <c r="F30" s="150"/>
+      <c r="G30" s="150"/>
+      <c r="H30" s="150"/>
+      <c r="I30" s="150"/>
+      <c r="J30" s="150"/>
+      <c r="K30" s="150"/>
+      <c r="L30" s="150"/>
+      <c r="M30" s="150"/>
     </row>
     <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B31" s="97" t="s">
         <v>109</v>
       </c>
-      <c r="C31" s="151"/>
-      <c r="D31" s="151"/>
-      <c r="E31" s="151"/>
-      <c r="F31" s="151"/>
-      <c r="G31" s="151"/>
-      <c r="H31" s="151"/>
-      <c r="I31" s="151"/>
-      <c r="J31" s="151"/>
-      <c r="K31" s="151"/>
-      <c r="L31" s="151"/>
-      <c r="M31" s="151"/>
+      <c r="C31" s="150"/>
+      <c r="D31" s="150"/>
+      <c r="E31" s="150"/>
+      <c r="F31" s="150"/>
+      <c r="G31" s="150"/>
+      <c r="H31" s="150"/>
+      <c r="I31" s="150"/>
+      <c r="J31" s="150"/>
+      <c r="K31" s="150"/>
+      <c r="L31" s="150"/>
+      <c r="M31" s="150"/>
     </row>
     <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B32" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="C32" s="151"/>
-      <c r="D32" s="151"/>
-      <c r="E32" s="151"/>
-      <c r="F32" s="151"/>
-      <c r="G32" s="151"/>
-      <c r="H32" s="151"/>
-      <c r="I32" s="151"/>
-      <c r="J32" s="151"/>
-      <c r="K32" s="151"/>
-      <c r="L32" s="151"/>
-      <c r="M32" s="151"/>
+      <c r="C32" s="150"/>
+      <c r="D32" s="150"/>
+      <c r="E32" s="150"/>
+      <c r="F32" s="150"/>
+      <c r="G32" s="150"/>
+      <c r="H32" s="150"/>
+      <c r="I32" s="150"/>
+      <c r="J32" s="150"/>
+      <c r="K32" s="150"/>
+      <c r="L32" s="150"/>
+      <c r="M32" s="150"/>
     </row>
     <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="97" t="s">
         <v>107</v>
       </c>
-      <c r="C33" s="151"/>
-      <c r="D33" s="151"/>
-      <c r="E33" s="151"/>
-      <c r="F33" s="151"/>
-      <c r="G33" s="151"/>
-      <c r="H33" s="151"/>
-      <c r="I33" s="151"/>
-      <c r="J33" s="151"/>
-      <c r="K33" s="151"/>
-      <c r="L33" s="151"/>
-      <c r="M33" s="151"/>
+      <c r="C33" s="150"/>
+      <c r="D33" s="150"/>
+      <c r="E33" s="150"/>
+      <c r="F33" s="150"/>
+      <c r="G33" s="150"/>
+      <c r="H33" s="150"/>
+      <c r="I33" s="150"/>
+      <c r="J33" s="150"/>
+      <c r="K33" s="150"/>
+      <c r="L33" s="150"/>
+      <c r="M33" s="150"/>
     </row>
     <row r="34" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="C34" s="218"/>
-      <c r="D34" s="151"/>
-      <c r="E34" s="151"/>
-      <c r="F34" s="151"/>
-      <c r="G34" s="151"/>
-      <c r="H34" s="151"/>
-      <c r="I34" s="151"/>
-      <c r="J34" s="151"/>
-      <c r="K34" s="151"/>
-      <c r="L34" s="151"/>
-      <c r="M34" s="151"/>
+      <c r="C34" s="217"/>
+      <c r="D34" s="150"/>
+      <c r="E34" s="150"/>
+      <c r="F34" s="150"/>
+      <c r="G34" s="150"/>
+      <c r="H34" s="150"/>
+      <c r="I34" s="150"/>
+      <c r="J34" s="150"/>
+      <c r="K34" s="150"/>
+      <c r="L34" s="150"/>
+      <c r="M34" s="150"/>
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
         <v>116</v>
       </c>
-      <c r="C35" s="218"/>
-      <c r="D35" s="151"/>
-      <c r="E35" s="151"/>
-      <c r="F35" s="151"/>
-      <c r="G35" s="151"/>
-      <c r="H35" s="151"/>
-      <c r="I35" s="151"/>
-      <c r="J35" s="151"/>
-      <c r="K35" s="151"/>
-      <c r="L35" s="151"/>
-      <c r="M35" s="151"/>
+      <c r="C35" s="217"/>
+      <c r="D35" s="150"/>
+      <c r="E35" s="150"/>
+      <c r="F35" s="150"/>
+      <c r="G35" s="150"/>
+      <c r="H35" s="150"/>
+      <c r="I35" s="150"/>
+      <c r="J35" s="150"/>
+      <c r="K35" s="150"/>
+      <c r="L35" s="150"/>
+      <c r="M35" s="150"/>
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
         <v>148</v>
       </c>
-      <c r="C36" s="218"/>
-      <c r="D36" s="151"/>
-      <c r="E36" s="151"/>
-      <c r="F36" s="151"/>
-      <c r="G36" s="151"/>
-      <c r="H36" s="151"/>
-      <c r="I36" s="151"/>
-      <c r="J36" s="151"/>
-      <c r="K36" s="151"/>
-      <c r="L36" s="151"/>
-      <c r="M36" s="151"/>
+      <c r="C36" s="217"/>
+      <c r="D36" s="150"/>
+      <c r="E36" s="150"/>
+      <c r="F36" s="150"/>
+      <c r="G36" s="150"/>
+      <c r="H36" s="150"/>
+      <c r="I36" s="150"/>
+      <c r="J36" s="150"/>
+      <c r="K36" s="150"/>
+      <c r="L36" s="150"/>
+      <c r="M36" s="150"/>
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="94" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="218"/>
-      <c r="D37" s="151"/>
-      <c r="E37" s="151"/>
-      <c r="F37" s="151"/>
-      <c r="G37" s="151"/>
-      <c r="H37" s="151"/>
-      <c r="I37" s="151"/>
-      <c r="J37" s="151"/>
-      <c r="K37" s="151"/>
-      <c r="L37" s="151"/>
-      <c r="M37" s="151"/>
+      <c r="C37" s="217"/>
+      <c r="D37" s="150"/>
+      <c r="E37" s="150"/>
+      <c r="F37" s="150"/>
+      <c r="G37" s="150"/>
+      <c r="H37" s="150"/>
+      <c r="I37" s="150"/>
+      <c r="J37" s="150"/>
+      <c r="K37" s="150"/>
+      <c r="L37" s="150"/>
+      <c r="M37" s="150"/>
     </row>
     <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
         <v>115</v>
       </c>
-      <c r="C38" s="218"/>
-      <c r="D38" s="151"/>
-      <c r="E38" s="151"/>
-      <c r="F38" s="151"/>
-      <c r="G38" s="151"/>
-      <c r="H38" s="151"/>
-      <c r="I38" s="151"/>
-      <c r="J38" s="151"/>
-      <c r="K38" s="151"/>
-      <c r="L38" s="151"/>
-      <c r="M38" s="151"/>
+      <c r="C38" s="217"/>
+      <c r="D38" s="150"/>
+      <c r="E38" s="150"/>
+      <c r="F38" s="150"/>
+      <c r="G38" s="150"/>
+      <c r="H38" s="150"/>
+      <c r="I38" s="150"/>
+      <c r="J38" s="150"/>
+      <c r="K38" s="150"/>
+      <c r="L38" s="150"/>
+      <c r="M38" s="150"/>
     </row>
     <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="218"/>
-      <c r="D39" s="151"/>
-      <c r="E39" s="151"/>
-      <c r="F39" s="151"/>
-      <c r="G39" s="151"/>
-      <c r="H39" s="151"/>
-      <c r="I39" s="151"/>
-      <c r="J39" s="151"/>
-      <c r="K39" s="151"/>
-      <c r="L39" s="151"/>
-      <c r="M39" s="151"/>
+      <c r="C39" s="217"/>
+      <c r="D39" s="150"/>
+      <c r="E39" s="150"/>
+      <c r="F39" s="150"/>
+      <c r="G39" s="150"/>
+      <c r="H39" s="150"/>
+      <c r="I39" s="150"/>
+      <c r="J39" s="150"/>
+      <c r="K39" s="150"/>
+      <c r="L39" s="150"/>
+      <c r="M39" s="150"/>
     </row>
     <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B40" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="218"/>
-      <c r="D40" s="151"/>
-      <c r="E40" s="151"/>
-      <c r="F40" s="151"/>
-      <c r="G40" s="151"/>
-      <c r="H40" s="151"/>
-      <c r="I40" s="151"/>
-      <c r="J40" s="151"/>
-      <c r="K40" s="151"/>
-      <c r="L40" s="151"/>
-      <c r="M40" s="151"/>
+      <c r="C40" s="217"/>
+      <c r="D40" s="150"/>
+      <c r="E40" s="150"/>
+      <c r="F40" s="150"/>
+      <c r="G40" s="150"/>
+      <c r="H40" s="150"/>
+      <c r="I40" s="150"/>
+      <c r="J40" s="150"/>
+      <c r="K40" s="150"/>
+      <c r="L40" s="150"/>
+      <c r="M40" s="150"/>
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B41" s="94" t="s">
         <v>137</v>
       </c>
-      <c r="C41" s="218"/>
-      <c r="D41" s="151"/>
-      <c r="E41" s="151"/>
-      <c r="F41" s="151"/>
-      <c r="G41" s="151"/>
-      <c r="H41" s="151"/>
-      <c r="I41" s="151"/>
-      <c r="J41" s="151"/>
-      <c r="K41" s="151"/>
-      <c r="L41" s="151"/>
-      <c r="M41" s="151"/>
+      <c r="C41" s="217"/>
+      <c r="D41" s="150"/>
+      <c r="E41" s="150"/>
+      <c r="F41" s="150"/>
+      <c r="G41" s="150"/>
+      <c r="H41" s="150"/>
+      <c r="I41" s="150"/>
+      <c r="J41" s="150"/>
+      <c r="K41" s="150"/>
+      <c r="L41" s="150"/>
+      <c r="M41" s="150"/>
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
         <v>138</v>
       </c>
-      <c r="C42" s="218"/>
-      <c r="D42" s="151"/>
-      <c r="E42" s="151"/>
-      <c r="F42" s="151"/>
-      <c r="G42" s="151"/>
-      <c r="H42" s="151"/>
-      <c r="I42" s="151"/>
-      <c r="J42" s="151"/>
-      <c r="K42" s="151"/>
-      <c r="L42" s="151"/>
-      <c r="M42" s="151"/>
+      <c r="C42" s="217"/>
+      <c r="D42" s="150"/>
+      <c r="E42" s="150"/>
+      <c r="F42" s="150"/>
+      <c r="G42" s="150"/>
+      <c r="H42" s="150"/>
+      <c r="I42" s="150"/>
+      <c r="J42" s="150"/>
+      <c r="K42" s="150"/>
+      <c r="L42" s="150"/>
+      <c r="M42" s="150"/>
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
         <v>136</v>
       </c>
-      <c r="C43" s="218"/>
-      <c r="D43" s="151"/>
-      <c r="E43" s="151"/>
-      <c r="F43" s="151"/>
-      <c r="G43" s="151"/>
-      <c r="H43" s="151"/>
-      <c r="I43" s="151"/>
-      <c r="J43" s="151"/>
-      <c r="K43" s="151"/>
-      <c r="L43" s="151"/>
-      <c r="M43" s="151"/>
+      <c r="C43" s="217"/>
+      <c r="D43" s="150"/>
+      <c r="E43" s="150"/>
+      <c r="F43" s="150"/>
+      <c r="G43" s="150"/>
+      <c r="H43" s="150"/>
+      <c r="I43" s="150"/>
+      <c r="J43" s="150"/>
+      <c r="K43" s="150"/>
+      <c r="L43" s="150"/>
+      <c r="M43" s="150"/>
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
         <v>207</v>
       </c>
-      <c r="C44" s="251">
+      <c r="C44" s="250">
         <f>0.16</f>
         <v>0.16</v>
       </c>
-      <c r="D44" s="251"/>
-      <c r="E44" s="251"/>
-      <c r="F44" s="251"/>
-      <c r="G44" s="251"/>
-      <c r="H44" s="251"/>
-      <c r="I44" s="251"/>
-      <c r="J44" s="251"/>
-      <c r="K44" s="251"/>
-      <c r="L44" s="251"/>
-      <c r="M44" s="251"/>
+      <c r="D44" s="250"/>
+      <c r="E44" s="250"/>
+      <c r="F44" s="250"/>
+      <c r="G44" s="250"/>
+      <c r="H44" s="250"/>
+      <c r="I44" s="250"/>
+      <c r="J44" s="250"/>
+      <c r="K44" s="250"/>
+      <c r="L44" s="250"/>
+      <c r="M44" s="250"/>
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
         <v>252</v>
       </c>
-      <c r="C45" s="153">
+      <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>1.6248510341451628E-2</v>
-      </c>
-      <c r="D45" s="153" t="str">
+        <v>1.6264400325343251E-2</v>
+      </c>
+      <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="E45" s="153" t="str">
+      <c r="E45" s="152" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="F45" s="153" t="str">
+      <c r="F45" s="152" t="str">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="G45" s="153" t="str">
+      <c r="G45" s="152" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="H45" s="153" t="str">
+      <c r="H45" s="152" t="str">
         <f>IF(H44="","",H44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="I45" s="153" t="str">
+      <c r="I45" s="152" t="str">
         <f>IF(I44="","",I44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="J45" s="153" t="str">
+      <c r="J45" s="152" t="str">
         <f>IF(J44="","",J44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="K45" s="153" t="str">
+      <c r="K45" s="152" t="str">
         <f>IF(K44="","",K44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="L45" s="153" t="str">
+      <c r="L45" s="152" t="str">
         <f>IF(L44="","",L44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="M45" s="153" t="str">
+      <c r="M45" s="152" t="str">
         <f>IF(M44="","",M44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
@@ -4201,10 +4205,10 @@
       <c r="B47" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="C47" s="195" t="s">
+      <c r="C47" s="194" t="s">
         <v>33</v>
       </c>
-      <c r="D47" s="195" t="s">
+      <c r="D47" s="194" t="s">
         <v>196</v>
       </c>
       <c r="E47" s="111" t="s">
@@ -4303,7 +4307,7 @@
         <f>D50</f>
         <v>0.6</v>
       </c>
-      <c r="E56" s="222" t="s">
+      <c r="E56" s="221" t="s">
         <v>70</v>
       </c>
     </row>
@@ -4315,7 +4319,7 @@
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
-      <c r="E57" s="222" t="s">
+      <c r="E57" s="221" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4335,7 +4339,7 @@
         <v>50</v>
       </c>
       <c r="C59" s="120"/>
-      <c r="D59" s="196">
+      <c r="D59" s="195">
         <f>D70</f>
         <v>0.05</v>
       </c>
@@ -4403,7 +4407,7 @@
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
-      <c r="E65" s="222" t="s">
+      <c r="E65" s="221" t="s">
         <v>70</v>
       </c>
     </row>
@@ -4415,7 +4419,7 @@
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
-      <c r="E66" s="222" t="s">
+      <c r="E66" s="221" t="s">
         <v>70</v>
       </c>
     </row>
@@ -4428,7 +4432,7 @@
         <f>D65</f>
         <v>0.1</v>
       </c>
-      <c r="E67" s="222" t="s">
+      <c r="E67" s="221" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4476,14 +4480,14 @@
       <c r="E71" s="112"/>
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="247" t="s">
+      <c r="B72" s="246" t="s">
         <v>75</v>
       </c>
-      <c r="C72" s="248"/>
-      <c r="D72" s="249">
-        <v>0</v>
-      </c>
-      <c r="E72" s="250"/>
+      <c r="C72" s="247"/>
+      <c r="D72" s="248">
+        <v>0</v>
+      </c>
+      <c r="E72" s="249"/>
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
@@ -4567,7 +4571,7 @@
       <c r="B86" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="C86" s="198">
+      <c r="C86" s="197">
         <v>5</v>
       </c>
     </row>
@@ -4575,19 +4579,20 @@
       <c r="B87" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="C87" s="237" t="s">
+      <c r="C87" s="236" t="s">
         <v>267</v>
       </c>
+      <c r="D87" s="269"/>
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
         <v>127</v>
       </c>
-      <c r="C89" s="270">
+      <c r="C89" s="271">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="270"/>
+      <c r="D89" s="271"/>
       <c r="E89" s="89" t="s">
         <v>206</v>
       </c>
@@ -4601,14 +4606,14 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1CNY)</v>
       </c>
-      <c r="C90" s="271" t="s">
+      <c r="C90" s="272" t="s">
         <v>100</v>
       </c>
-      <c r="D90" s="271"/>
-      <c r="E90" s="236" t="s">
+      <c r="D90" s="272"/>
+      <c r="E90" s="235" t="s">
         <v>101</v>
       </c>
-      <c r="F90" s="256" t="s">
+      <c r="F90" s="255" t="s">
         <v>101</v>
       </c>
     </row>
@@ -4620,12 +4625,12 @@
         <f>C25</f>
         <v>6983846860.7700005</v>
       </c>
-      <c r="D91" s="210"/>
-      <c r="E91" s="252">
+      <c r="D91" s="209"/>
+      <c r="E91" s="251">
         <f>C91</f>
         <v>6983846860.7700005</v>
       </c>
-      <c r="F91" s="252">
+      <c r="F91" s="251">
         <f>C91</f>
         <v>6983846860.7700005</v>
       </c>
@@ -4638,15 +4643,15 @@
         <f>C26</f>
         <v>3398384261.9699998</v>
       </c>
-      <c r="D92" s="160">
+      <c r="D92" s="159">
         <f>C92/C91</f>
         <v>0.48660635459513968</v>
       </c>
-      <c r="E92" s="253">
+      <c r="E92" s="252">
         <f>E91*D92</f>
         <v>3398384261.9699998</v>
       </c>
-      <c r="F92" s="253">
+      <c r="F92" s="252">
         <f>F91*D92</f>
         <v>3398384261.9699998</v>
       </c>
@@ -4659,15 +4664,15 @@
         <f>C27+C28</f>
         <v>2054181373.1700001</v>
       </c>
-      <c r="D93" s="160">
+      <c r="D93" s="159">
         <f>C93/C91</f>
         <v>0.2941332211490556</v>
       </c>
-      <c r="E93" s="253">
+      <c r="E93" s="252">
         <f>E91*D93</f>
         <v>2054181373.1700003</v>
       </c>
-      <c r="F93" s="253">
+      <c r="F93" s="252">
         <f>F91*D93</f>
         <v>2054181373.1700003</v>
       </c>
@@ -4680,12 +4685,12 @@
         <f>C29</f>
         <v>15194992.810000001</v>
       </c>
-      <c r="D94" s="160">
+      <c r="D94" s="159">
         <f>C94/C91</f>
         <v>2.1757339633768379E-3</v>
       </c>
-      <c r="E94" s="254"/>
-      <c r="F94" s="253">
+      <c r="E94" s="253"/>
+      <c r="F94" s="252">
         <f>F91*D94</f>
         <v>15194992.810000001</v>
       </c>
@@ -4698,15 +4703,15 @@
         <f>ABS(MAX(C33,0)-C32)</f>
         <v>0</v>
       </c>
-      <c r="D95" s="160">
+      <c r="D95" s="159">
         <f>C95/C91</f>
         <v>0</v>
       </c>
-      <c r="E95" s="253">
+      <c r="E95" s="252">
         <f>E91*D95</f>
         <v>0</v>
       </c>
-      <c r="F95" s="253">
+      <c r="F95" s="252">
         <f>F91*D95</f>
         <v>0</v>
       </c>
@@ -4719,12 +4724,12 @@
         <f>MAX(C31,0)</f>
         <v>0</v>
       </c>
-      <c r="D96" s="160">
+      <c r="D96" s="159">
         <f>C96/C91</f>
         <v>0</v>
       </c>
-      <c r="E96" s="254"/>
-      <c r="F96" s="253">
+      <c r="E96" s="253"/>
+      <c r="F96" s="252">
         <f>F91*D96</f>
         <v>0</v>
       </c>
@@ -4737,12 +4742,12 @@
         <f>MAX(C30,0)/(1-C16)</f>
         <v>65231872</v>
       </c>
-      <c r="D97" s="160">
+      <c r="D97" s="159">
         <f>C97/C91</f>
         <v>9.3403926661713623E-3</v>
       </c>
-      <c r="E97" s="254"/>
-      <c r="F97" s="253">
+      <c r="E97" s="253"/>
+      <c r="F97" s="252">
         <f>F91*D97</f>
         <v>65231872</v>
       </c>
@@ -4751,16 +4756,16 @@
       <c r="B98" s="86" t="s">
         <v>207</v>
       </c>
-      <c r="C98" s="238">
+      <c r="C98" s="237">
         <f>C44</f>
         <v>0.16</v>
       </c>
-      <c r="D98" s="267"/>
-      <c r="E98" s="255">
+      <c r="D98" s="266"/>
+      <c r="E98" s="254">
         <f>F98</f>
         <v>0.16</v>
       </c>
-      <c r="F98" s="255">
+      <c r="F98" s="254">
         <f>C98</f>
         <v>0.16</v>
       </c>
@@ -4879,17 +4884,17 @@
       <c r="B3" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="C3" s="276" t="str">
+      <c r="C3" s="277" t="str">
         <f>Inputs!C4</f>
         <v>0696.HK</v>
       </c>
-      <c r="D3" s="277"/>
+      <c r="D3" s="278"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>10.56</v>
+        <v>10.54</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>268</v>
@@ -4899,40 +4904,40 @@
       <c r="B4" s="35" t="s">
         <v>195</v>
       </c>
-      <c r="C4" s="278" t="str">
+      <c r="C4" s="279" t="str">
         <f>Inputs!C5</f>
         <v>中國民航信息網絡</v>
       </c>
-      <c r="D4" s="279"/>
+      <c r="D4" s="280"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="282">
+      <c r="G4" s="283">
         <f>Inputs!C10</f>
         <v>2926209589</v>
       </c>
-      <c r="H4" s="282"/>
+      <c r="H4" s="283"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="C5" s="280">
+      <c r="C5" s="281">
         <f>Inputs!C6</f>
         <v>45603</v>
       </c>
-      <c r="D5" s="281"/>
+      <c r="D5" s="282"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="G5" s="274">
+      <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>30900.77325984</v>
-      </c>
-      <c r="H5" s="274"/>
+        <v>30842.249068059999</v>
+      </c>
+      <c r="H5" s="275"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -4940,11 +4945,11 @@
       <c r="B6" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="186">
+      <c r="C6" s="185">
         <f>Inputs!C7</f>
         <v>8</v>
       </c>
-      <c r="D6" s="187">
+      <c r="D6" s="186">
         <f>EOMONTH(EDATE(Fin_Analysis!D9,C6),0)</f>
         <v>45716</v>
       </c>
@@ -4955,22 +4960,22 @@
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="275" t="str">
+      <c r="G6" s="276" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="275"/>
+      <c r="H6" s="276"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
         <v>192</v>
       </c>
-      <c r="C7" s="188" t="str">
+      <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
         <v>N</v>
       </c>
-      <c r="D7" s="188" t="str">
+      <c r="D7" s="187" t="str">
         <f>Inputs!C9</f>
         <v>C0009</v>
       </c>
@@ -4979,7 +4984,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0724016825358074</v>
+        <v>1.0714173714319866</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4999,7 +5004,7 @@
       <c r="B10" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C10" s="173">
+      <c r="C10" s="172">
         <v>4.2099999999999999E-2</v>
       </c>
       <c r="F10" s="110" t="s">
@@ -5010,7 +5015,7 @@
       <c r="B11" s="122" t="s">
         <v>179</v>
       </c>
-      <c r="C11" s="174">
+      <c r="C11" s="173">
         <v>5.3099999999999994E-2</v>
       </c>
       <c r="D11" s="137" t="s">
@@ -5024,11 +5029,11 @@
       <c r="B12" s="87" t="s">
         <v>253</v>
       </c>
-      <c r="C12" s="175">
+      <c r="C12" s="174">
         <v>0.06</v>
       </c>
-      <c r="D12" s="173">
-        <v>6.4500000000000002E-2</v>
+      <c r="D12" s="172">
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5037,7 +5042,7 @@
       <c r="B14" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C14" s="173">
+      <c r="C14" s="172">
         <v>2.1309999999999999E-2</v>
       </c>
       <c r="F14" s="110" t="s">
@@ -5048,7 +5053,7 @@
       <c r="B15" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="C15" s="173">
+      <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
@@ -5059,10 +5064,10 @@
       <c r="B16" s="122" t="s">
         <v>187</v>
       </c>
-      <c r="C16" s="174">
+      <c r="C16" s="173">
         <v>0.16</v>
       </c>
-      <c r="D16" s="266" t="str">
+      <c r="D16" s="265" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
@@ -5074,10 +5079,10 @@
       <c r="B17" s="87" t="s">
         <v>254</v>
       </c>
-      <c r="C17" s="176">
-        <v>6.8999999999999992E-2</v>
-      </c>
-      <c r="D17" s="177"/>
+      <c r="C17" s="175">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="D17" s="176"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5099,14 +5104,14 @@
       <c r="B20" s="137" t="s">
         <v>169</v>
       </c>
-      <c r="C20" s="172">
+      <c r="C20" s="171">
         <f>Fin_Analysis!I75</f>
         <v>0.48660635459513968</v>
       </c>
       <c r="F20" s="87" t="s">
         <v>211</v>
       </c>
-      <c r="G20" s="173">
+      <c r="G20" s="172">
         <v>0.15</v>
       </c>
     </row>
@@ -5114,7 +5119,7 @@
       <c r="B21" s="137" t="s">
         <v>244</v>
       </c>
-      <c r="C21" s="172">
+      <c r="C21" s="171">
         <f>Fin_Analysis!I77</f>
         <v>0.2941332211490556</v>
       </c>
@@ -5125,7 +5130,7 @@
       <c r="B22" s="137" t="s">
         <v>191</v>
       </c>
-      <c r="C22" s="172">
+      <c r="C22" s="171">
         <f>Fin_Analysis!I78</f>
         <v>9.3403926661713623E-3</v>
       </c>
@@ -5137,14 +5142,14 @@
       <c r="B23" s="137" t="s">
         <v>171</v>
       </c>
-      <c r="C23" s="172">
+      <c r="C23" s="171">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
       <c r="F23" s="140" t="s">
         <v>188</v>
       </c>
-      <c r="G23" s="178" t="e">
+      <c r="G23" s="177" t="e">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
         <v>#DIV/0!</v>
       </c>
@@ -5153,30 +5158,30 @@
       <c r="B24" s="137" t="s">
         <v>170</v>
       </c>
-      <c r="C24" s="172">
+      <c r="C24" s="171">
         <f>Fin_Analysis!I81</f>
         <v>2.1757339633768379E-3</v>
       </c>
       <c r="F24" s="140" t="s">
         <v>258</v>
       </c>
-      <c r="G24" s="269">
+      <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>26.480536383483486</v>
+        <v>26.454665445228265</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
         <v>243</v>
       </c>
-      <c r="C25" s="172">
+      <c r="C25" s="171">
         <f>Fin_Analysis!I82</f>
         <v>0</v>
       </c>
       <c r="F25" s="140" t="s">
         <v>174</v>
       </c>
-      <c r="G25" s="172">
+      <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
         <v>0.43026926927421749</v>
       </c>
@@ -5185,16 +5190,16 @@
       <c r="B26" s="138" t="s">
         <v>173</v>
       </c>
-      <c r="C26" s="172">
+      <c r="C26" s="171">
         <f>Fin_Analysis!I83</f>
         <v>0.20774429762625654</v>
       </c>
       <c r="F26" s="141" t="s">
         <v>193</v>
       </c>
-      <c r="G26" s="179">
+      <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>1.6248510341451628E-2</v>
+        <v>1.6264400325343251E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5213,10 +5218,10 @@
       <c r="F28" s="53" t="s">
         <v>237</v>
       </c>
-      <c r="G28" s="272" t="s">
+      <c r="G28" s="273" t="s">
         <v>257</v>
       </c>
-      <c r="H28" s="272"/>
+      <c r="H28" s="273"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
@@ -5224,22 +5229,22 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>1.1390891431331789</v>
+        <v>1.0907104055462646</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>2.2204311068821458</v>
+        <v>2.0965423812387698</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>1.3401048742743282</v>
-      </c>
-      <c r="G29" s="273">
+        <v>1.2831887124073702</v>
+      </c>
+      <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>1.9308096581583878</v>
-      </c>
-      <c r="H29" s="273"/>
+        <v>1.8230803315119739</v>
+      </c>
+      <c r="H29" s="274"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5251,17 +5256,17 @@
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
-      <c r="B32" s="197" t="s">
+      <c r="B32" s="196" t="s">
         <v>223</v>
       </c>
-      <c r="C32" s="225"/>
+      <c r="C32" s="224"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
         <v>224</v>
       </c>
-      <c r="C33" s="246" t="str">
+      <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
         <v>Strongly agree</v>
       </c>
@@ -5271,7 +5276,7 @@
       <c r="B34" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="C34" s="226" t="e">
+      <c r="C34" s="225" t="e">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
 IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
         <v>#DIV/0!</v>
@@ -5279,17 +5284,17 @@
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
-      <c r="B35" s="197" t="s">
+      <c r="B35" s="196" t="s">
         <v>226</v>
       </c>
-      <c r="C35" s="225"/>
+      <c r="C35" s="224"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
         <v>238</v>
       </c>
-      <c r="C36" s="246" t="str">
+      <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
         <v>unclear</v>
       </c>
@@ -5299,24 +5304,24 @@
       <c r="B37" s="20" t="s">
         <v>239</v>
       </c>
-      <c r="C37" s="246" t="str">
+      <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
         <v>agree</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
-      <c r="B38" s="197" t="s">
+      <c r="B38" s="196" t="s">
         <v>227</v>
       </c>
-      <c r="C38" s="225"/>
+      <c r="C38" s="224"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
         <v>228</v>
       </c>
-      <c r="C39" s="246" t="str">
+      <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
         <v>agree</v>
       </c>
@@ -5326,7 +5331,7 @@
       <c r="B40" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="C40" s="246" t="str">
+      <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
         <v>Strongly agree</v>
       </c>
@@ -5345,10 +5350,10 @@
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
-      <c r="B43" s="227" t="s">
+      <c r="B43" s="226" t="s">
         <v>230</v>
       </c>
-      <c r="C43" s="245" t="str">
+      <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
         <v>Consumer Monopoly</v>
       </c>
@@ -6330,16 +6335,16 @@
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="149" t="s">
+      <c r="E2" s="148" t="s">
         <v>199</v>
       </c>
       <c r="F2" s="119" t="s">
         <v>202</v>
       </c>
-      <c r="G2" s="149" t="s">
+      <c r="G2" s="148" t="s">
         <v>203</v>
       </c>
-      <c r="H2" s="148" t="s">
+      <c r="H2" s="147" t="s">
         <v>204</v>
       </c>
       <c r="I2" s="7"/>
@@ -6353,11 +6358,11 @@
       <c r="B3" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="202">
+      <c r="C3" s="201">
         <f>Inputs!C12</f>
         <v>45291</v>
       </c>
-      <c r="E3" s="147" t="s">
+      <c r="E3" s="146" t="s">
         <v>200</v>
       </c>
       <c r="F3" s="85" t="str">
@@ -6390,7 +6395,7 @@
         <f>Dashboard!G6</f>
         <v>CNY</v>
       </c>
-      <c r="E4" s="147" t="s">
+      <c r="E4" s="146" t="s">
         <v>201</v>
       </c>
       <c r="F4" s="93" t="e">
@@ -6454,47 +6459,47 @@
       <c r="B6" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="201">
+      <c r="C6" s="200">
         <f>IF(Inputs!C25=""," ",Inputs!C25)</f>
         <v>6983846860.7700005</v>
       </c>
-      <c r="D6" s="201">
+      <c r="D6" s="200">
         <f>IF(Inputs!D25="","",Inputs!D25)</f>
         <v>5210105771.0900002</v>
       </c>
-      <c r="E6" s="201" t="str">
+      <c r="E6" s="200" t="str">
         <f>IF(Inputs!E25="","",Inputs!E25)</f>
         <v/>
       </c>
-      <c r="F6" s="201" t="str">
+      <c r="F6" s="200" t="str">
         <f>IF(Inputs!F25="","",Inputs!F25)</f>
         <v/>
       </c>
-      <c r="G6" s="201" t="str">
+      <c r="G6" s="200" t="str">
         <f>IF(Inputs!G25="","",Inputs!G25)</f>
         <v/>
       </c>
-      <c r="H6" s="201" t="str">
+      <c r="H6" s="200" t="str">
         <f>IF(Inputs!H25="","",Inputs!H25)</f>
         <v/>
       </c>
-      <c r="I6" s="201" t="str">
+      <c r="I6" s="200" t="str">
         <f>IF(Inputs!I25="","",Inputs!I25)</f>
         <v/>
       </c>
-      <c r="J6" s="201" t="str">
+      <c r="J6" s="200" t="str">
         <f>IF(Inputs!J25="","",Inputs!J25)</f>
         <v/>
       </c>
-      <c r="K6" s="201" t="str">
+      <c r="K6" s="200" t="str">
         <f>IF(Inputs!K25="","",Inputs!K25)</f>
         <v/>
       </c>
-      <c r="L6" s="201" t="str">
+      <c r="L6" s="200" t="str">
         <f>IF(Inputs!L25="","",Inputs!L25)</f>
         <v/>
       </c>
-      <c r="M6" s="201" t="str">
+      <c r="M6" s="200" t="str">
         <f>IF(Inputs!M25="","",Inputs!M25)</f>
         <v/>
       </c>
@@ -6556,47 +6561,47 @@
       <c r="B8" s="97" t="s">
         <v>105</v>
       </c>
-      <c r="C8" s="200">
+      <c r="C8" s="199">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
         <v>3398384261.9699998</v>
       </c>
-      <c r="D8" s="200">
+      <c r="D8" s="199">
         <f>IF(Inputs!D26="","",Inputs!D26)</f>
         <v>3162230075.25</v>
       </c>
-      <c r="E8" s="200" t="str">
+      <c r="E8" s="199" t="str">
         <f>IF(Inputs!E26="","",Inputs!E26)</f>
         <v/>
       </c>
-      <c r="F8" s="200" t="str">
+      <c r="F8" s="199" t="str">
         <f>IF(Inputs!F26="","",Inputs!F26)</f>
         <v/>
       </c>
-      <c r="G8" s="200" t="str">
+      <c r="G8" s="199" t="str">
         <f>IF(Inputs!G26="","",Inputs!G26)</f>
         <v/>
       </c>
-      <c r="H8" s="200" t="str">
+      <c r="H8" s="199" t="str">
         <f>IF(Inputs!H26="","",Inputs!H26)</f>
         <v/>
       </c>
-      <c r="I8" s="200" t="str">
+      <c r="I8" s="199" t="str">
         <f>IF(Inputs!I26="","",Inputs!I26)</f>
         <v/>
       </c>
-      <c r="J8" s="200" t="str">
+      <c r="J8" s="199" t="str">
         <f>IF(Inputs!J26="","",Inputs!J26)</f>
         <v/>
       </c>
-      <c r="K8" s="200" t="str">
+      <c r="K8" s="199" t="str">
         <f>IF(Inputs!K26="","",Inputs!K26)</f>
         <v/>
       </c>
-      <c r="L8" s="200" t="str">
+      <c r="L8" s="199" t="str">
         <f>IF(Inputs!L26="","",Inputs!L26)</f>
         <v/>
       </c>
-      <c r="M8" s="200" t="str">
+      <c r="M8" s="199" t="str">
         <f>IF(Inputs!M26="","",Inputs!M26)</f>
         <v/>
       </c>
@@ -6607,47 +6612,47 @@
       <c r="B9" s="98" t="s">
         <v>102</v>
       </c>
-      <c r="C9" s="152">
+      <c r="C9" s="151">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
         <v>3585462598.8000007</v>
       </c>
-      <c r="D9" s="152">
+      <c r="D9" s="151">
         <f t="shared" si="2"/>
         <v>2047875695.8400002</v>
       </c>
-      <c r="E9" s="152" t="str">
+      <c r="E9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F9" s="152" t="str">
+      <c r="F9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G9" s="152" t="str">
+      <c r="G9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H9" s="152" t="str">
+      <c r="H9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I9" s="152" t="str">
+      <c r="I9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J9" s="152" t="str">
+      <c r="J9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K9" s="152" t="str">
+      <c r="K9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L9" s="152" t="str">
+      <c r="L9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M9" s="152" t="str">
+      <c r="M9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -6658,47 +6663,47 @@
       <c r="B10" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="C10" s="200">
+      <c r="C10" s="199">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
         <v>1191142720.1700001</v>
       </c>
-      <c r="D10" s="200">
+      <c r="D10" s="199">
         <f>IF(Inputs!D27="","",Inputs!D27)</f>
         <v>1028568099.8399999</v>
       </c>
-      <c r="E10" s="200" t="str">
+      <c r="E10" s="199" t="str">
         <f>IF(Inputs!E27="","",Inputs!E27)</f>
         <v/>
       </c>
-      <c r="F10" s="200" t="str">
+      <c r="F10" s="199" t="str">
         <f>IF(Inputs!F27="","",Inputs!F27)</f>
         <v/>
       </c>
-      <c r="G10" s="200" t="str">
+      <c r="G10" s="199" t="str">
         <f>IF(Inputs!G27="","",Inputs!G27)</f>
         <v/>
       </c>
-      <c r="H10" s="200" t="str">
+      <c r="H10" s="199" t="str">
         <f>IF(Inputs!H27="","",Inputs!H27)</f>
         <v/>
       </c>
-      <c r="I10" s="200" t="str">
+      <c r="I10" s="199" t="str">
         <f>IF(Inputs!I27="","",Inputs!I27)</f>
         <v/>
       </c>
-      <c r="J10" s="200" t="str">
+      <c r="J10" s="199" t="str">
         <f>IF(Inputs!J27="","",Inputs!J27)</f>
         <v/>
       </c>
-      <c r="K10" s="200" t="str">
+      <c r="K10" s="199" t="str">
         <f>IF(Inputs!K27="","",Inputs!K27)</f>
         <v/>
       </c>
-      <c r="L10" s="200" t="str">
+      <c r="L10" s="199" t="str">
         <f>IF(Inputs!L27="","",Inputs!L27)</f>
         <v/>
       </c>
-      <c r="M10" s="200" t="str">
+      <c r="M10" s="199" t="str">
         <f>IF(Inputs!M27="","",Inputs!M27)</f>
         <v/>
       </c>
@@ -6709,47 +6714,47 @@
       <c r="B11" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="C11" s="200">
+      <c r="C11" s="199">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
         <v>863038653</v>
       </c>
-      <c r="D11" s="200">
+      <c r="D11" s="199">
         <f>IF(Inputs!D28="","",Inputs!D28)</f>
         <v>701713632.36000001</v>
       </c>
-      <c r="E11" s="200" t="str">
+      <c r="E11" s="199" t="str">
         <f>IF(Inputs!E28="","",Inputs!E28)</f>
         <v/>
       </c>
-      <c r="F11" s="200" t="str">
+      <c r="F11" s="199" t="str">
         <f>IF(Inputs!F28="","",Inputs!F28)</f>
         <v/>
       </c>
-      <c r="G11" s="200" t="str">
+      <c r="G11" s="199" t="str">
         <f>IF(Inputs!G28="","",Inputs!G28)</f>
         <v/>
       </c>
-      <c r="H11" s="200" t="str">
+      <c r="H11" s="199" t="str">
         <f>IF(Inputs!H28="","",Inputs!H28)</f>
         <v/>
       </c>
-      <c r="I11" s="200" t="str">
+      <c r="I11" s="199" t="str">
         <f>IF(Inputs!I28="","",Inputs!I28)</f>
         <v/>
       </c>
-      <c r="J11" s="200" t="str">
+      <c r="J11" s="199" t="str">
         <f>IF(Inputs!J28="","",Inputs!J28)</f>
         <v/>
       </c>
-      <c r="K11" s="200" t="str">
+      <c r="K11" s="199" t="str">
         <f>IF(Inputs!K28="","",Inputs!K28)</f>
         <v/>
       </c>
-      <c r="L11" s="200" t="str">
+      <c r="L11" s="199" t="str">
         <f>IF(Inputs!L28="","",Inputs!L28)</f>
         <v/>
       </c>
-      <c r="M11" s="200" t="str">
+      <c r="M11" s="199" t="str">
         <f>IF(Inputs!M28="","",Inputs!M28)</f>
         <v/>
       </c>
@@ -6760,47 +6765,47 @@
       <c r="B12" s="99" t="s">
         <v>240</v>
       </c>
-      <c r="C12" s="200">
+      <c r="C12" s="199">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>65231872</v>
       </c>
-      <c r="D12" s="200">
+      <c r="D12" s="199">
         <f>IF(Inputs!D30="","",MAX(Inputs!D30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>70400849.61333333</v>
       </c>
-      <c r="E12" s="200" t="str">
+      <c r="E12" s="199" t="str">
         <f>IF(Inputs!E30="","",MAX(Inputs!E30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="F12" s="200" t="str">
+      <c r="F12" s="199" t="str">
         <f>IF(Inputs!F30="","",MAX(Inputs!F30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="G12" s="200" t="str">
+      <c r="G12" s="199" t="str">
         <f>IF(Inputs!G30="","",MAX(Inputs!G30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="H12" s="200" t="str">
+      <c r="H12" s="199" t="str">
         <f>IF(Inputs!H30="","",MAX(Inputs!H30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="I12" s="200" t="str">
+      <c r="I12" s="199" t="str">
         <f>IF(Inputs!I30="","",MAX(Inputs!I30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="J12" s="200" t="str">
+      <c r="J12" s="199" t="str">
         <f>IF(Inputs!J30="","",MAX(Inputs!J30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="K12" s="200" t="str">
+      <c r="K12" s="199" t="str">
         <f>IF(Inputs!K30="","",MAX(Inputs!K30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="L12" s="200" t="str">
+      <c r="L12" s="199" t="str">
         <f>IF(Inputs!L30="","",MAX(Inputs!L30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="M12" s="200" t="str">
+      <c r="M12" s="199" t="str">
         <f>IF(Inputs!M30="","",MAX(Inputs!M30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
@@ -6808,50 +6813,50 @@
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
-      <c r="B13" s="229" t="s">
+      <c r="B13" s="228" t="s">
         <v>241</v>
       </c>
-      <c r="C13" s="230">
+      <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
         <v>0.2099200315896334</v>
       </c>
-      <c r="D13" s="230">
+      <c r="D13" s="229">
         <f t="shared" si="3"/>
         <v>4.7444932000862604E-2</v>
       </c>
-      <c r="E13" s="230" t="str">
+      <c r="E13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F13" s="230" t="str">
+      <c r="F13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G13" s="230" t="str">
+      <c r="G13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H13" s="230" t="str">
+      <c r="H13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I13" s="230" t="str">
+      <c r="I13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J13" s="230" t="str">
+      <c r="J13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K13" s="230" t="str">
+      <c r="K13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L13" s="230" t="str">
+      <c r="L13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M13" s="230" t="str">
+      <c r="M13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -6859,50 +6864,50 @@
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
-      <c r="B14" s="229" t="s">
+      <c r="B14" s="228" t="s">
         <v>233</v>
       </c>
-      <c r="C14" s="231">
+      <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
         <v>1466049353.6300006</v>
       </c>
-      <c r="D14" s="231">
+      <c r="D14" s="230">
         <f t="shared" ref="D14:M14" si="4">IF(D6="","",D9-D10-MAX(D11,0)-MAX(D12,0))</f>
         <v>247193114.02666688</v>
       </c>
-      <c r="E14" s="231" t="str">
+      <c r="E14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="F14" s="231" t="str">
+      <c r="F14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G14" s="231" t="str">
+      <c r="G14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="H14" s="231" t="str">
+      <c r="H14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I14" s="231" t="str">
+      <c r="I14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J14" s="231" t="str">
+      <c r="J14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="K14" s="231" t="str">
+      <c r="K14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L14" s="231" t="str">
+      <c r="L14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M14" s="231" t="str">
+      <c r="M14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -6910,50 +6915,50 @@
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
-      <c r="B15" s="232" t="s">
+      <c r="B15" s="231" t="s">
         <v>242</v>
       </c>
-      <c r="C15" s="233">
+      <c r="C15" s="232">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
         <v>4.9307855698271803</v>
       </c>
-      <c r="D15" s="233" t="str">
+      <c r="D15" s="232" t="str">
         <f t="shared" ref="D15:M15" si="5">IF(E14="","",IF(ABS(D14+E14)=ABS(D14)+ABS(E14),IF(D14&lt;0,-1,1)*(D14-E14)/E14,"Turn"))</f>
         <v/>
       </c>
-      <c r="E15" s="233" t="str">
+      <c r="E15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="F15" s="233" t="str">
+      <c r="F15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="G15" s="233" t="str">
+      <c r="G15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="H15" s="233" t="str">
+      <c r="H15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I15" s="233" t="str">
+      <c r="I15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="J15" s="233" t="str">
+      <c r="J15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K15" s="233" t="str">
+      <c r="K15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L15" s="233" t="str">
+      <c r="L15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M15" s="233" t="str">
+      <c r="M15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -6964,47 +6969,47 @@
       <c r="B16" s="97" t="s">
         <v>109</v>
       </c>
-      <c r="C16" s="200" t="str">
+      <c r="C16" s="199" t="str">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
         <v/>
       </c>
-      <c r="D16" s="200" t="str">
+      <c r="D16" s="199" t="str">
         <f>IF(Inputs!D31="","",Inputs!D31)</f>
         <v/>
       </c>
-      <c r="E16" s="200" t="str">
+      <c r="E16" s="199" t="str">
         <f>IF(Inputs!E31="","",Inputs!E31)</f>
         <v/>
       </c>
-      <c r="F16" s="200" t="str">
+      <c r="F16" s="199" t="str">
         <f>IF(Inputs!F31="","",Inputs!F31)</f>
         <v/>
       </c>
-      <c r="G16" s="200" t="str">
+      <c r="G16" s="199" t="str">
         <f>IF(Inputs!G31="","",Inputs!G31)</f>
         <v/>
       </c>
-      <c r="H16" s="200" t="str">
+      <c r="H16" s="199" t="str">
         <f>IF(Inputs!H31="","",Inputs!H31)</f>
         <v/>
       </c>
-      <c r="I16" s="200" t="str">
+      <c r="I16" s="199" t="str">
         <f>IF(Inputs!I31="","",Inputs!I31)</f>
         <v/>
       </c>
-      <c r="J16" s="200" t="str">
+      <c r="J16" s="199" t="str">
         <f>IF(Inputs!J31="","",Inputs!J31)</f>
         <v/>
       </c>
-      <c r="K16" s="200" t="str">
+      <c r="K16" s="199" t="str">
         <f>IF(Inputs!K31="","",Inputs!K31)</f>
         <v/>
       </c>
-      <c r="L16" s="200" t="str">
+      <c r="L16" s="199" t="str">
         <f>IF(Inputs!L31="","",Inputs!L31)</f>
         <v/>
       </c>
-      <c r="M16" s="200" t="str">
+      <c r="M16" s="199" t="str">
         <f>IF(Inputs!M31="","",Inputs!M31)</f>
         <v/>
       </c>
@@ -7015,47 +7020,47 @@
       <c r="B17" s="97" t="s">
         <v>256</v>
       </c>
-      <c r="C17" s="200">
+      <c r="C17" s="199">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
         <v>15194992.810000001</v>
       </c>
-      <c r="D17" s="200">
+      <c r="D17" s="199">
         <f>IF(Inputs!D29="","",Inputs!D29)</f>
         <v>12415189.01</v>
       </c>
-      <c r="E17" s="200" t="str">
+      <c r="E17" s="199" t="str">
         <f>IF(Inputs!E29="","",Inputs!E29)</f>
         <v/>
       </c>
-      <c r="F17" s="200" t="str">
+      <c r="F17" s="199" t="str">
         <f>IF(Inputs!F29="","",Inputs!F29)</f>
         <v/>
       </c>
-      <c r="G17" s="200" t="str">
+      <c r="G17" s="199" t="str">
         <f>IF(Inputs!G29="","",Inputs!G29)</f>
         <v/>
       </c>
-      <c r="H17" s="200" t="str">
+      <c r="H17" s="199" t="str">
         <f>IF(Inputs!H29="","",Inputs!H29)</f>
         <v/>
       </c>
-      <c r="I17" s="200" t="str">
+      <c r="I17" s="199" t="str">
         <f>IF(Inputs!I29="","",Inputs!I29)</f>
         <v/>
       </c>
-      <c r="J17" s="200" t="str">
+      <c r="J17" s="199" t="str">
         <f>IF(Inputs!J29="","",Inputs!J29)</f>
         <v/>
       </c>
-      <c r="K17" s="200" t="str">
+      <c r="K17" s="199" t="str">
         <f>IF(Inputs!K29="","",Inputs!K29)</f>
         <v/>
       </c>
-      <c r="L17" s="200" t="str">
+      <c r="L17" s="199" t="str">
         <f>IF(Inputs!L29="","",Inputs!L29)</f>
         <v/>
       </c>
-      <c r="M17" s="200" t="str">
+      <c r="M17" s="199" t="str">
         <f>IF(Inputs!M29="","",Inputs!M29)</f>
         <v/>
       </c>
@@ -7066,47 +7071,47 @@
       <c r="B18" s="94" t="s">
         <v>98</v>
       </c>
-      <c r="C18" s="153" t="str">
+      <c r="C18" s="152" t="str">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
         <v/>
       </c>
-      <c r="D18" s="153" t="str">
+      <c r="D18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="E18" s="153" t="str">
+      <c r="E18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F18" s="153" t="str">
+      <c r="F18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="G18" s="153" t="str">
+      <c r="G18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H18" s="153" t="str">
+      <c r="H18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I18" s="153" t="str">
+      <c r="I18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J18" s="153" t="str">
+      <c r="J18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="K18" s="153" t="str">
+      <c r="K18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L18" s="153" t="str">
+      <c r="L18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="M18" s="153" t="str">
+      <c r="M18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -7117,47 +7122,47 @@
       <c r="B19" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="C19" s="200" t="str">
+      <c r="C19" s="199" t="str">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
         <v/>
       </c>
-      <c r="D19" s="200" t="str">
+      <c r="D19" s="199" t="str">
         <f>IF(Inputs!D32="","",Inputs!D32)</f>
         <v/>
       </c>
-      <c r="E19" s="200" t="str">
+      <c r="E19" s="199" t="str">
         <f>IF(Inputs!E32="","",Inputs!E32)</f>
         <v/>
       </c>
-      <c r="F19" s="200" t="str">
+      <c r="F19" s="199" t="str">
         <f>IF(Inputs!F32="","",Inputs!F32)</f>
         <v/>
       </c>
-      <c r="G19" s="200" t="str">
+      <c r="G19" s="199" t="str">
         <f>IF(Inputs!G32="","",Inputs!G32)</f>
         <v/>
       </c>
-      <c r="H19" s="200" t="str">
+      <c r="H19" s="199" t="str">
         <f>IF(Inputs!H32="","",Inputs!H32)</f>
         <v/>
       </c>
-      <c r="I19" s="200" t="str">
+      <c r="I19" s="199" t="str">
         <f>IF(Inputs!I32="","",Inputs!I32)</f>
         <v/>
       </c>
-      <c r="J19" s="200" t="str">
+      <c r="J19" s="199" t="str">
         <f>IF(Inputs!J32="","",Inputs!J32)</f>
         <v/>
       </c>
-      <c r="K19" s="200" t="str">
+      <c r="K19" s="199" t="str">
         <f>IF(Inputs!K32="","",Inputs!K32)</f>
         <v/>
       </c>
-      <c r="L19" s="200" t="str">
+      <c r="L19" s="199" t="str">
         <f>IF(Inputs!L32="","",Inputs!L32)</f>
         <v/>
       </c>
-      <c r="M19" s="200" t="str">
+      <c r="M19" s="199" t="str">
         <f>IF(Inputs!M32="","",Inputs!M32)</f>
         <v/>
       </c>
@@ -7168,47 +7173,47 @@
       <c r="B20" s="97" t="s">
         <v>235</v>
       </c>
-      <c r="C20" s="153">
+      <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D20" s="153">
+      <c r="D20" s="152">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E20" s="153" t="str">
+      <c r="E20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="F20" s="153" t="str">
+      <c r="F20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G20" s="153" t="str">
+      <c r="G20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="H20" s="153" t="str">
+      <c r="H20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="I20" s="153" t="str">
+      <c r="I20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="J20" s="153" t="str">
+      <c r="J20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="K20" s="153" t="str">
+      <c r="K20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L20" s="153" t="str">
+      <c r="L20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M20" s="153" t="str">
+      <c r="M20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
@@ -7219,47 +7224,47 @@
       <c r="B21" s="97" t="s">
         <v>107</v>
       </c>
-      <c r="C21" s="200" t="str">
+      <c r="C21" s="199" t="str">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
         <v/>
       </c>
-      <c r="D21" s="200" t="str">
+      <c r="D21" s="199" t="str">
         <f>IF(Inputs!D33="","",Inputs!D33)</f>
         <v/>
       </c>
-      <c r="E21" s="200" t="str">
+      <c r="E21" s="199" t="str">
         <f>IF(Inputs!E33="","",Inputs!E33)</f>
         <v/>
       </c>
-      <c r="F21" s="200" t="str">
+      <c r="F21" s="199" t="str">
         <f>IF(Inputs!F33="","",Inputs!F33)</f>
         <v/>
       </c>
-      <c r="G21" s="200" t="str">
+      <c r="G21" s="199" t="str">
         <f>IF(Inputs!G33="","",Inputs!G33)</f>
         <v/>
       </c>
-      <c r="H21" s="200" t="str">
+      <c r="H21" s="199" t="str">
         <f>IF(Inputs!H33="","",Inputs!H33)</f>
         <v/>
       </c>
-      <c r="I21" s="200" t="str">
+      <c r="I21" s="199" t="str">
         <f>IF(Inputs!I33="","",Inputs!I33)</f>
         <v/>
       </c>
-      <c r="J21" s="200" t="str">
+      <c r="J21" s="199" t="str">
         <f>IF(Inputs!J33="","",Inputs!J33)</f>
         <v/>
       </c>
-      <c r="K21" s="200" t="str">
+      <c r="K21" s="199" t="str">
         <f>IF(Inputs!K33="","",Inputs!K33)</f>
         <v/>
       </c>
-      <c r="L21" s="200" t="str">
+      <c r="L21" s="199" t="str">
         <f>IF(Inputs!L33="","",Inputs!L33)</f>
         <v/>
       </c>
-      <c r="M21" s="200" t="str">
+      <c r="M21" s="199" t="str">
         <f>IF(Inputs!M33="","",Inputs!M33)</f>
         <v/>
       </c>
@@ -7270,47 +7275,47 @@
       <c r="B22" s="98" t="s">
         <v>111</v>
       </c>
-      <c r="C22" s="162">
+      <c r="C22" s="161">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
         <v>1450854360.8200006</v>
       </c>
-      <c r="D22" s="162">
+      <c r="D22" s="161">
         <f t="shared" ref="D22:M22" si="8">IF(D6="","",D14-MAX(D16,0)-MAX(D17,0)-ABS(MAX(D21,0)-MAX(D19,0)))</f>
         <v>234777925.01666689</v>
       </c>
-      <c r="E22" s="162" t="str">
+      <c r="E22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="F22" s="162" t="str">
+      <c r="F22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="G22" s="162" t="str">
+      <c r="G22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="H22" s="162" t="str">
+      <c r="H22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="I22" s="162" t="str">
+      <c r="I22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="J22" s="162" t="str">
+      <c r="J22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="K22" s="162" t="str">
+      <c r="K22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="L22" s="162" t="str">
+      <c r="L22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="M22" s="162" t="str">
+      <c r="M22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -7321,47 +7326,47 @@
       <c r="B23" s="100" t="s">
         <v>112</v>
       </c>
-      <c r="C23" s="154">
+      <c r="C23" s="153">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
         <v>0.15580822321969243</v>
       </c>
-      <c r="D23" s="154">
+      <c r="D23" s="153">
         <f t="shared" si="9"/>
         <v>3.3796519974615018E-2</v>
       </c>
-      <c r="E23" s="154" t="str">
+      <c r="E23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="F23" s="154" t="str">
+      <c r="F23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="G23" s="154" t="str">
+      <c r="G23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="H23" s="154" t="str">
+      <c r="H23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="I23" s="154" t="str">
+      <c r="I23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="J23" s="154" t="str">
+      <c r="J23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="K23" s="154" t="str">
+      <c r="K23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L23" s="154" t="str">
+      <c r="L23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="M23" s="154" t="str">
+      <c r="M23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -7372,7 +7377,7 @@
       <c r="B24" s="101" t="s">
         <v>113</v>
       </c>
-      <c r="C24" s="155">
+      <c r="C24" s="154">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
         <v>1088140770.6150005</v>
       </c>
@@ -7420,50 +7425,50 @@
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
-      <c r="B25" s="235" t="s">
+      <c r="B25" s="234" t="s">
         <v>128</v>
       </c>
-      <c r="C25" s="234">
+      <c r="C25" s="233">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
         <v>5.1796881487772088</v>
       </c>
-      <c r="D25" s="234" t="str">
+      <c r="D25" s="233" t="str">
         <f t="shared" ref="D25:M25" si="10">IF(E24="","",IF(ABS(D24+E24)=ABS(D24)+ABS(E24),IF(D24&lt;0,-1,1)*(D24-E24)/E24,"Turn"))</f>
         <v/>
       </c>
-      <c r="E25" s="234" t="str">
+      <c r="E25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="F25" s="234" t="str">
+      <c r="F25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G25" s="234" t="str">
+      <c r="G25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="H25" s="234" t="str">
+      <c r="H25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I25" s="234" t="str">
+      <c r="I25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="J25" s="234" t="str">
+      <c r="J25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="K25" s="234" t="str">
+      <c r="K25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="L25" s="234" t="str">
+      <c r="L25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="M25" s="234" t="str">
+      <c r="M25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
@@ -7580,43 +7585,43 @@
         <f>Fin_Analysis!C28</f>
         <v>0</v>
       </c>
-      <c r="D28" s="200" t="str">
+      <c r="D28" s="199" t="str">
         <f>IF(Inputs!D34="","",Inputs!D34)</f>
         <v/>
       </c>
-      <c r="E28" s="200" t="str">
+      <c r="E28" s="199" t="str">
         <f>IF(Inputs!E34="","",Inputs!E34)</f>
         <v/>
       </c>
-      <c r="F28" s="200" t="str">
+      <c r="F28" s="199" t="str">
         <f>IF(Inputs!F34="","",Inputs!F34)</f>
         <v/>
       </c>
-      <c r="G28" s="200" t="str">
+      <c r="G28" s="199" t="str">
         <f>IF(Inputs!G34="","",Inputs!G34)</f>
         <v/>
       </c>
-      <c r="H28" s="200" t="str">
+      <c r="H28" s="199" t="str">
         <f>IF(Inputs!H34="","",Inputs!H34)</f>
         <v/>
       </c>
-      <c r="I28" s="200" t="str">
+      <c r="I28" s="199" t="str">
         <f>IF(Inputs!I34="","",Inputs!I34)</f>
         <v/>
       </c>
-      <c r="J28" s="200" t="str">
+      <c r="J28" s="199" t="str">
         <f>IF(Inputs!J34="","",Inputs!J34)</f>
         <v/>
       </c>
-      <c r="K28" s="200" t="str">
+      <c r="K28" s="199" t="str">
         <f>IF(Inputs!K34="","",Inputs!K34)</f>
         <v/>
       </c>
-      <c r="L28" s="200" t="str">
+      <c r="L28" s="199" t="str">
         <f>IF(Inputs!L34="","",Inputs!L34)</f>
         <v/>
       </c>
-      <c r="M28" s="200" t="str">
+      <c r="M28" s="199" t="str">
         <f>IF(Inputs!M34="","",Inputs!M34)</f>
         <v/>
       </c>
@@ -7631,43 +7636,43 @@
         <f>Fin_Analysis!C13</f>
         <v>0</v>
       </c>
-      <c r="D29" s="200" t="str">
+      <c r="D29" s="199" t="str">
         <f>IF(Inputs!D35="","",Inputs!D35)</f>
         <v/>
       </c>
-      <c r="E29" s="200" t="str">
+      <c r="E29" s="199" t="str">
         <f>IF(Inputs!E35="","",Inputs!E35)</f>
         <v/>
       </c>
-      <c r="F29" s="200" t="str">
+      <c r="F29" s="199" t="str">
         <f>IF(Inputs!F35="","",Inputs!F35)</f>
         <v/>
       </c>
-      <c r="G29" s="200" t="str">
+      <c r="G29" s="199" t="str">
         <f>IF(Inputs!G35="","",Inputs!G35)</f>
         <v/>
       </c>
-      <c r="H29" s="200" t="str">
+      <c r="H29" s="199" t="str">
         <f>IF(Inputs!H35="","",Inputs!H35)</f>
         <v/>
       </c>
-      <c r="I29" s="200" t="str">
+      <c r="I29" s="199" t="str">
         <f>IF(Inputs!I35="","",Inputs!I35)</f>
         <v/>
       </c>
-      <c r="J29" s="200" t="str">
+      <c r="J29" s="199" t="str">
         <f>IF(Inputs!J35="","",Inputs!J35)</f>
         <v/>
       </c>
-      <c r="K29" s="200" t="str">
+      <c r="K29" s="199" t="str">
         <f>IF(Inputs!K35="","",Inputs!K35)</f>
         <v/>
       </c>
-      <c r="L29" s="200" t="str">
+      <c r="L29" s="199" t="str">
         <f>IF(Inputs!L35="","",Inputs!L35)</f>
         <v/>
       </c>
-      <c r="M29" s="200" t="str">
+      <c r="M29" s="199" t="str">
         <f>IF(Inputs!M35="","",Inputs!M35)</f>
         <v/>
       </c>
@@ -7682,43 +7687,43 @@
         <f>Fin_Analysis!C18</f>
         <v>0</v>
       </c>
-      <c r="D30" s="200" t="str">
+      <c r="D30" s="199" t="str">
         <f>IF(Inputs!D36="","",Inputs!D36)</f>
         <v/>
       </c>
-      <c r="E30" s="200" t="str">
+      <c r="E30" s="199" t="str">
         <f>IF(Inputs!E36="","",Inputs!E36)</f>
         <v/>
       </c>
-      <c r="F30" s="200" t="str">
+      <c r="F30" s="199" t="str">
         <f>IF(Inputs!F36="","",Inputs!F36)</f>
         <v/>
       </c>
-      <c r="G30" s="200" t="str">
+      <c r="G30" s="199" t="str">
         <f>IF(Inputs!G36="","",Inputs!G36)</f>
         <v/>
       </c>
-      <c r="H30" s="200" t="str">
+      <c r="H30" s="199" t="str">
         <f>IF(Inputs!H36="","",Inputs!H36)</f>
         <v/>
       </c>
-      <c r="I30" s="200" t="str">
+      <c r="I30" s="199" t="str">
         <f>IF(Inputs!I36="","",Inputs!I36)</f>
         <v/>
       </c>
-      <c r="J30" s="200" t="str">
+      <c r="J30" s="199" t="str">
         <f>IF(Inputs!J36="","",Inputs!J36)</f>
         <v/>
       </c>
-      <c r="K30" s="200" t="str">
+      <c r="K30" s="199" t="str">
         <f>IF(Inputs!K36="","",Inputs!K36)</f>
         <v/>
       </c>
-      <c r="L30" s="200" t="str">
+      <c r="L30" s="199" t="str">
         <f>IF(Inputs!L36="","",Inputs!L36)</f>
         <v/>
       </c>
-      <c r="M30" s="200" t="str">
+      <c r="M30" s="199" t="str">
         <f>IF(Inputs!M36="","",Inputs!M36)</f>
         <v/>
       </c>
@@ -7733,43 +7738,43 @@
         <f>Fin_Analysis!I28</f>
         <v>0</v>
       </c>
-      <c r="D31" s="200" t="str">
+      <c r="D31" s="199" t="str">
         <f>IF(Inputs!D37="","",Inputs!D37)</f>
         <v/>
       </c>
-      <c r="E31" s="200" t="str">
+      <c r="E31" s="199" t="str">
         <f>IF(Inputs!E37="","",Inputs!E37)</f>
         <v/>
       </c>
-      <c r="F31" s="200" t="str">
+      <c r="F31" s="199" t="str">
         <f>IF(Inputs!F37="","",Inputs!F37)</f>
         <v/>
       </c>
-      <c r="G31" s="200" t="str">
+      <c r="G31" s="199" t="str">
         <f>IF(Inputs!G37="","",Inputs!G37)</f>
         <v/>
       </c>
-      <c r="H31" s="200" t="str">
+      <c r="H31" s="199" t="str">
         <f>IF(Inputs!H37="","",Inputs!H37)</f>
         <v/>
       </c>
-      <c r="I31" s="200" t="str">
+      <c r="I31" s="199" t="str">
         <f>IF(Inputs!I37="","",Inputs!I37)</f>
         <v/>
       </c>
-      <c r="J31" s="200" t="str">
+      <c r="J31" s="199" t="str">
         <f>IF(Inputs!J37="","",Inputs!J37)</f>
         <v/>
       </c>
-      <c r="K31" s="200" t="str">
+      <c r="K31" s="199" t="str">
         <f>IF(Inputs!K37="","",Inputs!K37)</f>
         <v/>
       </c>
-      <c r="L31" s="200" t="str">
+      <c r="L31" s="199" t="str">
         <f>IF(Inputs!L37="","",Inputs!L37)</f>
         <v/>
       </c>
-      <c r="M31" s="200" t="str">
+      <c r="M31" s="199" t="str">
         <f>IF(Inputs!M37="","",Inputs!M37)</f>
         <v/>
       </c>
@@ -7784,43 +7789,43 @@
         <f>Fin_Analysis!I48</f>
         <v>0</v>
       </c>
-      <c r="D32" s="200" t="str">
+      <c r="D32" s="199" t="str">
         <f>IF(Inputs!D38="","",Inputs!D38)</f>
         <v/>
       </c>
-      <c r="E32" s="200" t="str">
+      <c r="E32" s="199" t="str">
         <f>IF(Inputs!E38="","",Inputs!E38)</f>
         <v/>
       </c>
-      <c r="F32" s="200" t="str">
+      <c r="F32" s="199" t="str">
         <f>IF(Inputs!F38="","",Inputs!F38)</f>
         <v/>
       </c>
-      <c r="G32" s="200" t="str">
+      <c r="G32" s="199" t="str">
         <f>IF(Inputs!G38="","",Inputs!G38)</f>
         <v/>
       </c>
-      <c r="H32" s="200" t="str">
+      <c r="H32" s="199" t="str">
         <f>IF(Inputs!H38="","",Inputs!H38)</f>
         <v/>
       </c>
-      <c r="I32" s="200" t="str">
+      <c r="I32" s="199" t="str">
         <f>IF(Inputs!I38="","",Inputs!I38)</f>
         <v/>
       </c>
-      <c r="J32" s="200" t="str">
+      <c r="J32" s="199" t="str">
         <f>IF(Inputs!J38="","",Inputs!J38)</f>
         <v/>
       </c>
-      <c r="K32" s="200" t="str">
+      <c r="K32" s="199" t="str">
         <f>IF(Inputs!K38="","",Inputs!K38)</f>
         <v/>
       </c>
-      <c r="L32" s="200" t="str">
+      <c r="L32" s="199" t="str">
         <f>IF(Inputs!L38="","",Inputs!L38)</f>
         <v/>
       </c>
-      <c r="M32" s="200" t="str">
+      <c r="M32" s="199" t="str">
         <f>IF(Inputs!M38="","",Inputs!M38)</f>
         <v/>
       </c>
@@ -7835,43 +7840,43 @@
         <f>Fin_Analysis!I15</f>
         <v>0</v>
       </c>
-      <c r="D33" s="200" t="str">
+      <c r="D33" s="199" t="str">
         <f>IF(Inputs!D39="","",Inputs!D39)</f>
         <v/>
       </c>
-      <c r="E33" s="200" t="str">
+      <c r="E33" s="199" t="str">
         <f>IF(Inputs!E39="","",Inputs!E39)</f>
         <v/>
       </c>
-      <c r="F33" s="200" t="str">
+      <c r="F33" s="199" t="str">
         <f>IF(Inputs!F39="","",Inputs!F39)</f>
         <v/>
       </c>
-      <c r="G33" s="200" t="str">
+      <c r="G33" s="199" t="str">
         <f>IF(Inputs!G39="","",Inputs!G39)</f>
         <v/>
       </c>
-      <c r="H33" s="200" t="str">
+      <c r="H33" s="199" t="str">
         <f>IF(Inputs!H39="","",Inputs!H39)</f>
         <v/>
       </c>
-      <c r="I33" s="200" t="str">
+      <c r="I33" s="199" t="str">
         <f>IF(Inputs!I39="","",Inputs!I39)</f>
         <v/>
       </c>
-      <c r="J33" s="200" t="str">
+      <c r="J33" s="199" t="str">
         <f>IF(Inputs!J39="","",Inputs!J39)</f>
         <v/>
       </c>
-      <c r="K33" s="200" t="str">
+      <c r="K33" s="199" t="str">
         <f>IF(Inputs!K39="","",Inputs!K39)</f>
         <v/>
       </c>
-      <c r="L33" s="200" t="str">
+      <c r="L33" s="199" t="str">
         <f>IF(Inputs!L39="","",Inputs!L39)</f>
         <v/>
       </c>
-      <c r="M33" s="200" t="str">
+      <c r="M33" s="199" t="str">
         <f>IF(Inputs!M39="","",Inputs!M39)</f>
         <v/>
       </c>
@@ -7886,43 +7891,43 @@
         <f>Fin_Analysis!I34</f>
         <v>0</v>
       </c>
-      <c r="D34" s="200" t="str">
+      <c r="D34" s="199" t="str">
         <f>IF(Inputs!D40="","",Inputs!D40)</f>
         <v/>
       </c>
-      <c r="E34" s="200" t="str">
+      <c r="E34" s="199" t="str">
         <f>IF(Inputs!E40="","",Inputs!E40)</f>
         <v/>
       </c>
-      <c r="F34" s="200" t="str">
+      <c r="F34" s="199" t="str">
         <f>IF(Inputs!F40="","",Inputs!F40)</f>
         <v/>
       </c>
-      <c r="G34" s="200" t="str">
+      <c r="G34" s="199" t="str">
         <f>IF(Inputs!G40="","",Inputs!G40)</f>
         <v/>
       </c>
-      <c r="H34" s="200" t="str">
+      <c r="H34" s="199" t="str">
         <f>IF(Inputs!H40="","",Inputs!H40)</f>
         <v/>
       </c>
-      <c r="I34" s="200" t="str">
+      <c r="I34" s="199" t="str">
         <f>IF(Inputs!I40="","",Inputs!I40)</f>
         <v/>
       </c>
-      <c r="J34" s="200" t="str">
+      <c r="J34" s="199" t="str">
         <f>IF(Inputs!J40="","",Inputs!J40)</f>
         <v/>
       </c>
-      <c r="K34" s="200" t="str">
+      <c r="K34" s="199" t="str">
         <f>IF(Inputs!K40="","",Inputs!K40)</f>
         <v/>
       </c>
-      <c r="L34" s="200" t="str">
+      <c r="L34" s="199" t="str">
         <f>IF(Inputs!L40="","",Inputs!L40)</f>
         <v/>
       </c>
-      <c r="M34" s="200" t="str">
+      <c r="M34" s="199" t="str">
         <f>IF(Inputs!M40="","",Inputs!M40)</f>
         <v/>
       </c>
@@ -7988,43 +7993,43 @@
         <f>Fin_Analysis!D3</f>
         <v>0</v>
       </c>
-      <c r="D36" s="200" t="str">
+      <c r="D36" s="199" t="str">
         <f>IF(Inputs!D41="","",Inputs!D41)</f>
         <v/>
       </c>
-      <c r="E36" s="200" t="str">
+      <c r="E36" s="199" t="str">
         <f>IF(Inputs!E41="","",Inputs!E41)</f>
         <v/>
       </c>
-      <c r="F36" s="200" t="str">
+      <c r="F36" s="199" t="str">
         <f>IF(Inputs!F41="","",Inputs!F41)</f>
         <v/>
       </c>
-      <c r="G36" s="200" t="str">
+      <c r="G36" s="199" t="str">
         <f>IF(Inputs!G41="","",Inputs!G41)</f>
         <v/>
       </c>
-      <c r="H36" s="200" t="str">
+      <c r="H36" s="199" t="str">
         <f>IF(Inputs!H41="","",Inputs!H41)</f>
         <v/>
       </c>
-      <c r="I36" s="200" t="str">
+      <c r="I36" s="199" t="str">
         <f>IF(Inputs!I41="","",Inputs!I41)</f>
         <v/>
       </c>
-      <c r="J36" s="200" t="str">
+      <c r="J36" s="199" t="str">
         <f>IF(Inputs!J41="","",Inputs!J41)</f>
         <v/>
       </c>
-      <c r="K36" s="200" t="str">
+      <c r="K36" s="199" t="str">
         <f>IF(Inputs!K41="","",Inputs!K41)</f>
         <v/>
       </c>
-      <c r="L36" s="200" t="str">
+      <c r="L36" s="199" t="str">
         <f>IF(Inputs!L41="","",Inputs!L41)</f>
         <v/>
       </c>
-      <c r="M36" s="200" t="str">
+      <c r="M36" s="199" t="str">
         <f>IF(Inputs!M41="","",Inputs!M41)</f>
         <v/>
       </c>
@@ -8039,43 +8044,43 @@
         <f>Fin_Analysis!D4</f>
         <v>0</v>
       </c>
-      <c r="D37" s="200" t="str">
+      <c r="D37" s="199" t="str">
         <f>IF(Inputs!D42="","",Inputs!D42)</f>
         <v/>
       </c>
-      <c r="E37" s="200" t="str">
+      <c r="E37" s="199" t="str">
         <f>IF(Inputs!E42="","",Inputs!E42)</f>
         <v/>
       </c>
-      <c r="F37" s="200" t="str">
+      <c r="F37" s="199" t="str">
         <f>IF(Inputs!F42="","",Inputs!F42)</f>
         <v/>
       </c>
-      <c r="G37" s="200" t="str">
+      <c r="G37" s="199" t="str">
         <f>IF(Inputs!G42="","",Inputs!G42)</f>
         <v/>
       </c>
-      <c r="H37" s="200" t="str">
+      <c r="H37" s="199" t="str">
         <f>IF(Inputs!H42="","",Inputs!H42)</f>
         <v/>
       </c>
-      <c r="I37" s="200" t="str">
+      <c r="I37" s="199" t="str">
         <f>IF(Inputs!I42="","",Inputs!I42)</f>
         <v/>
       </c>
-      <c r="J37" s="200" t="str">
+      <c r="J37" s="199" t="str">
         <f>IF(Inputs!J42="","",Inputs!J42)</f>
         <v/>
       </c>
-      <c r="K37" s="200" t="str">
+      <c r="K37" s="199" t="str">
         <f>IF(Inputs!K42="","",Inputs!K42)</f>
         <v/>
       </c>
-      <c r="L37" s="200" t="str">
+      <c r="L37" s="199" t="str">
         <f>IF(Inputs!L42="","",Inputs!L42)</f>
         <v/>
       </c>
-      <c r="M37" s="200" t="str">
+      <c r="M37" s="199" t="str">
         <f>IF(Inputs!M42="","",Inputs!M42)</f>
         <v/>
       </c>
@@ -8090,43 +8095,43 @@
         <f>Fin_Analysis!C63</f>
         <v>0</v>
       </c>
-      <c r="D38" s="200" t="str">
+      <c r="D38" s="199" t="str">
         <f>IF(Inputs!D43="","",Inputs!D43)</f>
         <v/>
       </c>
-      <c r="E38" s="200" t="str">
+      <c r="E38" s="199" t="str">
         <f>IF(Inputs!E43="","",Inputs!E43)</f>
         <v/>
       </c>
-      <c r="F38" s="200" t="str">
+      <c r="F38" s="199" t="str">
         <f>IF(Inputs!F43="","",Inputs!F43)</f>
         <v/>
       </c>
-      <c r="G38" s="200" t="str">
+      <c r="G38" s="199" t="str">
         <f>IF(Inputs!G43="","",Inputs!G43)</f>
         <v/>
       </c>
-      <c r="H38" s="200" t="str">
+      <c r="H38" s="199" t="str">
         <f>IF(Inputs!H43="","",Inputs!H43)</f>
         <v/>
       </c>
-      <c r="I38" s="200" t="str">
+      <c r="I38" s="199" t="str">
         <f>IF(Inputs!I43="","",Inputs!I43)</f>
         <v/>
       </c>
-      <c r="J38" s="200" t="str">
+      <c r="J38" s="199" t="str">
         <f>IF(Inputs!J43="","",Inputs!J43)</f>
         <v/>
       </c>
-      <c r="K38" s="200" t="str">
+      <c r="K38" s="199" t="str">
         <f>IF(Inputs!K43="","",Inputs!K43)</f>
         <v/>
       </c>
-      <c r="L38" s="200" t="str">
+      <c r="L38" s="199" t="str">
         <f>IF(Inputs!L43="","",Inputs!L43)</f>
         <v/>
       </c>
-      <c r="M38" s="200" t="str">
+      <c r="M38" s="199" t="str">
         <f>IF(Inputs!M43="","",Inputs!M43)</f>
         <v/>
       </c>
@@ -8188,47 +8193,47 @@
       <c r="B40" s="98" t="s">
         <v>157</v>
       </c>
-      <c r="C40" s="156" t="e">
+      <c r="C40" s="155" t="e">
         <f>IF(C6="","",C14/MAX(C39,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D40" s="156" t="e">
+      <c r="D40" s="155" t="e">
         <f>IF(D6="","",D14/MAX(D39,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E40" s="156" t="str">
+      <c r="E40" s="155" t="str">
         <f>IF(E6="","",E14/MAX(E39,0))</f>
         <v/>
       </c>
-      <c r="F40" s="156" t="str">
+      <c r="F40" s="155" t="str">
         <f t="shared" ref="F40:M40" si="33">IF(F39="","",F14/F39)</f>
         <v/>
       </c>
-      <c r="G40" s="156" t="str">
+      <c r="G40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="H40" s="156" t="str">
+      <c r="H40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="I40" s="156" t="str">
+      <c r="I40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="J40" s="156" t="str">
+      <c r="J40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="K40" s="156" t="str">
+      <c r="K40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="L40" s="156" t="str">
+      <c r="L40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="M40" s="156" t="str">
+      <c r="M40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
@@ -8257,47 +8262,47 @@
       <c r="B42" s="95" t="s">
         <v>97</v>
       </c>
-      <c r="C42" s="157">
+      <c r="C42" s="156">
         <f t="shared" ref="C42:M42" si="34">IF(C6="","",C8/C6)</f>
         <v>0.48660635459513968</v>
       </c>
-      <c r="D42" s="157">
+      <c r="D42" s="156">
         <f t="shared" si="34"/>
         <v>0.60694162732677759</v>
       </c>
-      <c r="E42" s="157" t="str">
+      <c r="E42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="F42" s="157" t="str">
+      <c r="F42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="G42" s="157" t="str">
+      <c r="G42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="H42" s="157" t="str">
+      <c r="H42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="I42" s="157" t="str">
+      <c r="I42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="J42" s="157" t="str">
+      <c r="J42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="K42" s="157" t="str">
+      <c r="K42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="L42" s="157" t="str">
+      <c r="L42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="M42" s="157" t="str">
+      <c r="M42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -8308,47 +8313,47 @@
       <c r="B43" s="94" t="s">
         <v>234</v>
       </c>
-      <c r="C43" s="154">
+      <c r="C43" s="153">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
         <v>0.2941332211490556</v>
       </c>
-      <c r="D43" s="154">
+      <c r="D43" s="153">
         <f t="shared" si="35"/>
         <v>0.33210107591309218</v>
       </c>
-      <c r="E43" s="154" t="str">
+      <c r="E43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="F43" s="154" t="str">
+      <c r="F43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="G43" s="154" t="str">
+      <c r="G43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="H43" s="154" t="str">
+      <c r="H43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="I43" s="154" t="str">
+      <c r="I43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="J43" s="154" t="str">
+      <c r="J43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="K43" s="154" t="str">
+      <c r="K43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L43" s="154" t="str">
+      <c r="L43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="M43" s="154" t="str">
+      <c r="M43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
@@ -8359,47 +8364,47 @@
       <c r="B44" s="94" t="s">
         <v>108</v>
       </c>
-      <c r="C44" s="154">
+      <c r="C44" s="153">
         <f t="shared" ref="C44:M44" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D44" s="154">
+      <c r="D44" s="153">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="E44" s="154" t="str">
+      <c r="E44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="F44" s="154" t="str">
+      <c r="F44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="G44" s="154" t="str">
+      <c r="G44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="H44" s="154" t="str">
+      <c r="H44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="I44" s="154" t="str">
+      <c r="I44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="J44" s="154" t="str">
+      <c r="J44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="K44" s="154" t="str">
+      <c r="K44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="L44" s="154" t="str">
+      <c r="L44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="M44" s="154" t="str">
+      <c r="M44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
@@ -8410,47 +8415,47 @@
       <c r="B45" s="94" t="s">
         <v>121</v>
       </c>
-      <c r="C45" s="154">
+      <c r="C45" s="153">
         <f t="shared" ref="C45:M45" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
         <v>2.1757339633768379E-3</v>
       </c>
-      <c r="D45" s="154">
+      <c r="D45" s="153">
         <f t="shared" si="37"/>
         <v>2.3829053680425824E-3</v>
       </c>
-      <c r="E45" s="154" t="str">
+      <c r="E45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="F45" s="154" t="str">
+      <c r="F45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="G45" s="154" t="str">
+      <c r="G45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="H45" s="154" t="str">
+      <c r="H45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="I45" s="154" t="str">
+      <c r="I45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="J45" s="154" t="str">
+      <c r="J45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="K45" s="154" t="str">
+      <c r="K45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="L45" s="154" t="str">
+      <c r="L45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="M45" s="154" t="str">
+      <c r="M45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
@@ -8461,47 +8466,47 @@
       <c r="B46" s="94" t="s">
         <v>129</v>
       </c>
-      <c r="C46" s="154">
+      <c r="C46" s="153">
         <f>IF(C6="","",MAX(C12,0)/C6)</f>
         <v>9.3403926661713623E-3</v>
       </c>
-      <c r="D46" s="154">
+      <c r="D46" s="153">
         <f t="shared" ref="D46:M46" si="38">IF(D6="","",MAX(D12,0)/D6)</f>
         <v>1.3512364759267613E-2</v>
       </c>
-      <c r="E46" s="154" t="str">
+      <c r="E46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="F46" s="154" t="str">
+      <c r="F46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="G46" s="154" t="str">
+      <c r="G46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="H46" s="154" t="str">
+      <c r="H46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="I46" s="154" t="str">
+      <c r="I46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="J46" s="154" t="str">
+      <c r="J46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="K46" s="154" t="str">
+      <c r="K46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="L46" s="154" t="str">
+      <c r="L46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="M46" s="154" t="str">
+      <c r="M46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
@@ -8512,47 +8517,47 @@
       <c r="B47" s="94" t="s">
         <v>236</v>
       </c>
-      <c r="C47" s="154">
+      <c r="C47" s="153">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
         <v>0</v>
       </c>
-      <c r="D47" s="154">
+      <c r="D47" s="153">
         <f t="shared" ref="D47:M47" si="39">IF(D6="","",ABS(MAX(D21,0)-MAX(D19,0))/D6)</f>
         <v>0</v>
       </c>
-      <c r="E47" s="154" t="str">
+      <c r="E47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="F47" s="154" t="str">
+      <c r="F47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="G47" s="154" t="str">
+      <c r="G47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="H47" s="154" t="str">
+      <c r="H47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="I47" s="154" t="str">
+      <c r="I47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="J47" s="154" t="str">
+      <c r="J47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="K47" s="154" t="str">
+      <c r="K47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="L47" s="154" t="str">
+      <c r="L47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="M47" s="154" t="str">
+      <c r="M47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
@@ -8563,47 +8568,47 @@
       <c r="B48" s="94" t="s">
         <v>123</v>
       </c>
-      <c r="C48" s="154">
+      <c r="C48" s="153">
         <f t="shared" ref="C48:M48" si="40">IF(C6="","",C22/C6)</f>
         <v>0.20774429762625657</v>
       </c>
-      <c r="D48" s="154">
+      <c r="D48" s="153">
         <f t="shared" si="40"/>
         <v>4.5062026632820024E-2</v>
       </c>
-      <c r="E48" s="154" t="str">
+      <c r="E48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="F48" s="154" t="str">
+      <c r="F48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="G48" s="154" t="str">
+      <c r="G48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="H48" s="154" t="str">
+      <c r="H48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="I48" s="154" t="str">
+      <c r="I48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="J48" s="154" t="str">
+      <c r="J48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="K48" s="154" t="str">
+      <c r="K48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="L48" s="154" t="str">
+      <c r="L48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="M48" s="154" t="str">
+      <c r="M48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
@@ -8632,47 +8637,47 @@
       <c r="B50" s="95" t="s">
         <v>146</v>
       </c>
-      <c r="C50" s="157">
+      <c r="C50" s="156">
         <f t="shared" ref="C50:M50" si="41">IF(C29="","",C29/C6)</f>
         <v>0</v>
       </c>
-      <c r="D50" s="157" t="str">
+      <c r="D50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="E50" s="157" t="str">
+      <c r="E50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="F50" s="157" t="str">
+      <c r="F50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="G50" s="157" t="str">
+      <c r="G50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="H50" s="157" t="str">
+      <c r="H50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="I50" s="157" t="str">
+      <c r="I50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="J50" s="157" t="str">
+      <c r="J50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="K50" s="157" t="str">
+      <c r="K50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="L50" s="157" t="str">
+      <c r="L50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="M50" s="157" t="str">
+      <c r="M50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
@@ -8683,47 +8688,47 @@
       <c r="B51" s="94" t="s">
         <v>147</v>
       </c>
-      <c r="C51" s="154">
+      <c r="C51" s="153">
         <f t="shared" ref="C51:M51" si="42">IF(C30="","",C30/C6)</f>
         <v>0</v>
       </c>
-      <c r="D51" s="154" t="str">
+      <c r="D51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="E51" s="154" t="str">
+      <c r="E51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="F51" s="154" t="str">
+      <c r="F51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="G51" s="154" t="str">
+      <c r="G51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="H51" s="154" t="str">
+      <c r="H51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="I51" s="154" t="str">
+      <c r="I51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="J51" s="154" t="str">
+      <c r="J51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="K51" s="154" t="str">
+      <c r="K51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="L51" s="154" t="str">
+      <c r="L51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="M51" s="154" t="str">
+      <c r="M51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
@@ -8751,47 +8756,47 @@
       <c r="B53" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="C53" s="157" t="e">
+      <c r="C53" s="156" t="e">
         <f>IF(C36="","",(C27-C36)/C27)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D53" s="157" t="str">
+      <c r="D53" s="156" t="str">
         <f t="shared" ref="D53:M53" si="43">IF(D36="","",(D27-D36)/D27)</f>
         <v/>
       </c>
-      <c r="E53" s="157" t="str">
+      <c r="E53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="F53" s="157" t="str">
+      <c r="F53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="G53" s="157" t="str">
+      <c r="G53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="H53" s="157" t="str">
+      <c r="H53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="I53" s="157" t="str">
+      <c r="I53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="J53" s="157" t="str">
+      <c r="J53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="K53" s="157" t="str">
+      <c r="K53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="L53" s="157" t="str">
+      <c r="L53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="M53" s="157" t="str">
+      <c r="M53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
@@ -8801,47 +8806,47 @@
       <c r="B54" s="94" t="s">
         <v>120</v>
       </c>
-      <c r="C54" s="158" t="str">
+      <c r="C54" s="157" t="str">
         <f t="shared" ref="C54:M54" si="44">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
         <v>-</v>
       </c>
-      <c r="D54" s="158" t="str">
+      <c r="D54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="E54" s="158" t="str">
+      <c r="E54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="F54" s="158" t="str">
+      <c r="F54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="G54" s="158" t="str">
+      <c r="G54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="H54" s="158" t="str">
+      <c r="H54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="I54" s="158" t="str">
+      <c r="I54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="J54" s="158" t="str">
+      <c r="J54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="K54" s="158" t="str">
+      <c r="K54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="L54" s="158" t="str">
+      <c r="L54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="M54" s="158" t="str">
+      <c r="M54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
@@ -8851,47 +8856,47 @@
       <c r="B55" s="94" t="s">
         <v>122</v>
       </c>
-      <c r="C55" s="154">
+      <c r="C55" s="153">
         <f t="shared" ref="C55:M55" si="45">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
         <v>1.0473134465000349E-2</v>
       </c>
-      <c r="D55" s="154">
+      <c r="D55" s="153">
         <f t="shared" si="45"/>
         <v>5.2880563660823929E-2</v>
       </c>
-      <c r="E55" s="154" t="str">
+      <c r="E55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="F55" s="154" t="str">
+      <c r="F55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="G55" s="154" t="str">
+      <c r="G55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H55" s="154" t="str">
+      <c r="H55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I55" s="154" t="str">
+      <c r="I55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J55" s="154" t="str">
+      <c r="J55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K55" s="154" t="str">
+      <c r="K55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L55" s="154" t="str">
+      <c r="L55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="M55" s="154" t="str">
+      <c r="M55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
@@ -8901,47 +8906,47 @@
       <c r="B56" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="C56" s="159" t="e">
+      <c r="C56" s="158" t="e">
         <f t="shared" ref="C56:M56" si="46">IF(C28="","",C28/C31)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D56" s="159" t="str">
+      <c r="D56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="E56" s="159" t="str">
+      <c r="E56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="F56" s="159" t="str">
+      <c r="F56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="G56" s="159" t="str">
+      <c r="G56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="H56" s="159" t="str">
+      <c r="H56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="I56" s="159" t="str">
+      <c r="I56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="J56" s="159" t="str">
+      <c r="J56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="K56" s="159" t="str">
+      <c r="K56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="L56" s="159" t="str">
+      <c r="L56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="M56" s="159" t="str">
+      <c r="M56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
@@ -10239,8 +10244,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H103" sqref="H103"/>
+    <sheetView showGridLines="0" topLeftCell="B70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10289,7 +10294,7 @@
       <c r="H3" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="205">
+      <c r="I3" s="204">
         <f>Inputs!C83</f>
         <v>0</v>
       </c>
@@ -10386,7 +10391,7 @@
         <v>31</v>
       </c>
       <c r="C9" s="86"/>
-      <c r="D9" s="204">
+      <c r="D9" s="203">
         <f>Inputs!C14</f>
         <v>45473</v>
       </c>
@@ -10433,7 +10438,7 @@
         <f>Inputs!C48</f>
         <v>0</v>
       </c>
-      <c r="D11" s="199">
+      <c r="D11" s="198">
         <f>Inputs!D48</f>
         <v>0.9</v>
       </c>
@@ -10461,7 +10466,7 @@
         <f>Inputs!C49</f>
         <v>0</v>
       </c>
-      <c r="D12" s="199">
+      <c r="D12" s="198">
         <f>Inputs!D49</f>
         <v>0.8</v>
       </c>
@@ -10489,7 +10494,7 @@
         <f>Inputs!C50</f>
         <v>0</v>
       </c>
-      <c r="D13" s="199">
+      <c r="D13" s="198">
         <f>Inputs!D50</f>
         <v>0.6</v>
       </c>
@@ -10517,7 +10522,7 @@
         <f>Inputs!C51</f>
         <v>0</v>
       </c>
-      <c r="D14" s="199">
+      <c r="D14" s="198">
         <f>Inputs!D51</f>
         <v>0.6</v>
       </c>
@@ -10530,7 +10535,7 @@
       <c r="H14" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="I14" s="206">
+      <c r="I14" s="205">
         <f>Inputs!C76</f>
         <v>0</v>
       </c>
@@ -10545,7 +10550,7 @@
         <f>Inputs!C52</f>
         <v>0</v>
       </c>
-      <c r="D15" s="199">
+      <c r="D15" s="198">
         <f>Inputs!D52</f>
         <v>0.5</v>
       </c>
@@ -10572,7 +10577,7 @@
         <f>Inputs!C53</f>
         <v>0</v>
       </c>
-      <c r="D16" s="199">
+      <c r="D16" s="198">
         <f>Inputs!D53</f>
         <v>0.6</v>
       </c>
@@ -10594,7 +10599,7 @@
         <f>Inputs!C54</f>
         <v>0</v>
       </c>
-      <c r="D17" s="199">
+      <c r="D17" s="198">
         <f>Inputs!D54</f>
         <v>0.1</v>
       </c>
@@ -10616,7 +10621,7 @@
         <f>Inputs!C55</f>
         <v>0</v>
       </c>
-      <c r="D18" s="199">
+      <c r="D18" s="198">
         <f>Inputs!D55</f>
         <v>0.5</v>
       </c>
@@ -10637,7 +10642,7 @@
         <f>Inputs!C56</f>
         <v>0</v>
       </c>
-      <c r="D19" s="199">
+      <c r="D19" s="198">
         <f>Inputs!D56</f>
         <v>0.6</v>
       </c>
@@ -10662,7 +10667,7 @@
         <f>Inputs!C57</f>
         <v>0</v>
       </c>
-      <c r="D20" s="199">
+      <c r="D20" s="198">
         <f>Inputs!D57</f>
         <v>0.6</v>
       </c>
@@ -10689,7 +10694,7 @@
         <f>Inputs!C58</f>
         <v>0</v>
       </c>
-      <c r="D21" s="199">
+      <c r="D21" s="198">
         <f>Inputs!D58</f>
         <v>0.9</v>
       </c>
@@ -10710,7 +10715,7 @@
         <f>Inputs!C59</f>
         <v>0</v>
       </c>
-      <c r="D22" s="199">
+      <c r="D22" s="198">
         <f>Inputs!D59</f>
         <v>0.05</v>
       </c>
@@ -10875,7 +10880,7 @@
       <c r="H28" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="I28" s="207">
+      <c r="I28" s="206">
         <f>Inputs!C77</f>
         <v>0</v>
       </c>
@@ -10904,7 +10909,7 @@
         <f>Inputs!C60</f>
         <v>0</v>
       </c>
-      <c r="D30" s="199">
+      <c r="D30" s="198">
         <f>Inputs!D60</f>
         <v>0.8</v>
       </c>
@@ -10930,7 +10935,7 @@
         <f>Inputs!C61</f>
         <v>0</v>
       </c>
-      <c r="D31" s="199">
+      <c r="D31" s="198">
         <f>Inputs!D61</f>
         <v>0.6</v>
       </c>
@@ -10957,7 +10962,7 @@
         <f>Inputs!C62</f>
         <v>0</v>
       </c>
-      <c r="D32" s="199">
+      <c r="D32" s="198">
         <f>Inputs!D62</f>
         <v>0.5</v>
       </c>
@@ -10984,7 +10989,7 @@
         <f>Inputs!C63</f>
         <v>0</v>
       </c>
-      <c r="D33" s="199">
+      <c r="D33" s="198">
         <f>Inputs!D63</f>
         <v>0.5</v>
       </c>
@@ -11000,7 +11005,7 @@
       <c r="H33" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="I33" s="206">
+      <c r="I33" s="205">
         <f>Inputs!C81</f>
         <v>0</v>
       </c>
@@ -11014,7 +11019,7 @@
         <f>Inputs!C64</f>
         <v>0</v>
       </c>
-      <c r="D34" s="199">
+      <c r="D34" s="198">
         <f>Inputs!D64</f>
         <v>0.4</v>
       </c>
@@ -11041,7 +11046,7 @@
         <f>Inputs!C65</f>
         <v>0</v>
       </c>
-      <c r="D35" s="199">
+      <c r="D35" s="198">
         <f>Inputs!D65</f>
         <v>0.1</v>
       </c>
@@ -11067,7 +11072,7 @@
         <f>Inputs!C66</f>
         <v>0</v>
       </c>
-      <c r="D36" s="199">
+      <c r="D36" s="198">
         <f>Inputs!D66</f>
         <v>0.2</v>
       </c>
@@ -11094,7 +11099,7 @@
         <f>Inputs!C67</f>
         <v>0</v>
       </c>
-      <c r="D37" s="199">
+      <c r="D37" s="198">
         <f>Inputs!D67</f>
         <v>0.1</v>
       </c>
@@ -11121,7 +11126,7 @@
         <f>Inputs!C68</f>
         <v>0</v>
       </c>
-      <c r="D38" s="199">
+      <c r="D38" s="198">
         <f>Inputs!D68</f>
         <v>0.1</v>
       </c>
@@ -11142,7 +11147,7 @@
         <f>Inputs!C69</f>
         <v>0</v>
       </c>
-      <c r="D39" s="199">
+      <c r="D39" s="198">
         <f>Inputs!D69</f>
         <v>0.05</v>
       </c>
@@ -11163,7 +11168,7 @@
         <f>Inputs!C70</f>
         <v>0</v>
       </c>
-      <c r="D40" s="199">
+      <c r="D40" s="198">
         <f>Inputs!D70</f>
         <v>0.05</v>
       </c>
@@ -11184,7 +11189,7 @@
         <f>Inputs!C71</f>
         <v>0</v>
       </c>
-      <c r="D41" s="199">
+      <c r="D41" s="198">
         <f>Inputs!D71</f>
         <v>0.9</v>
       </c>
@@ -11205,7 +11210,7 @@
         <f>Inputs!C72</f>
         <v>0</v>
       </c>
-      <c r="D42" s="199">
+      <c r="D42" s="198">
         <f>Inputs!D72</f>
         <v>0</v>
       </c>
@@ -11351,7 +11356,7 @@
       <c r="H48" s="80" t="s">
         <v>84</v>
       </c>
-      <c r="I48" s="208">
+      <c r="I48" s="207">
         <f>Inputs!C82</f>
         <v>0</v>
       </c>
@@ -11460,11 +11465,11 @@
         <v>89</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="283">
+      <c r="D56" s="284">
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="281"/>
+      <c r="E56" s="282"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11475,11 +11480,11 @@
         <v>90</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="282">
+      <c r="D57" s="283">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="281"/>
+      <c r="E57" s="282"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
@@ -11491,11 +11496,11 @@
         <v>92</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="282">
+      <c r="D58" s="283">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="281"/>
+      <c r="E58" s="282"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11591,8 +11596,8 @@
       <c r="B64" s="121" t="s">
         <v>151</v>
       </c>
-      <c r="C64" s="209"/>
-      <c r="D64" s="209"/>
+      <c r="C64" s="208"/>
+      <c r="D64" s="208"/>
       <c r="E64" s="69">
         <f>D56+D57+D58</f>
         <v>0</v>
@@ -11672,8 +11677,8 @@
       <c r="B69" s="121" t="s">
         <v>152</v>
       </c>
-      <c r="C69" s="209"/>
-      <c r="D69" s="209"/>
+      <c r="C69" s="208"/>
+      <c r="D69" s="208"/>
       <c r="E69" s="126">
         <f>I49-E64</f>
         <v>0</v>
@@ -11709,19 +11714,19 @@
       <c r="B72" s="106" t="s">
         <v>127</v>
       </c>
-      <c r="C72" s="270">
+      <c r="C72" s="271">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="270"/>
-      <c r="E72" s="284" t="s">
+      <c r="D72" s="271"/>
+      <c r="E72" s="285" t="s">
         <v>206</v>
       </c>
-      <c r="F72" s="284"/>
-      <c r="H72" s="284" t="s">
+      <c r="F72" s="285"/>
+      <c r="H72" s="285" t="s">
         <v>205</v>
       </c>
-      <c r="I72" s="284"/>
+      <c r="I72" s="285"/>
       <c r="K72" s="50" t="s">
         <v>7</v>
       </c>
@@ -11731,18 +11736,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1CNY)</v>
       </c>
-      <c r="C73" s="271" t="s">
+      <c r="C73" s="272" t="s">
         <v>100</v>
       </c>
-      <c r="D73" s="271"/>
-      <c r="E73" s="285" t="s">
+      <c r="D73" s="272"/>
+      <c r="E73" s="286" t="s">
         <v>101</v>
       </c>
-      <c r="F73" s="271"/>
-      <c r="H73" s="285" t="s">
+      <c r="F73" s="272"/>
+      <c r="H73" s="286" t="s">
         <v>101</v>
       </c>
-      <c r="I73" s="271"/>
+      <c r="I73" s="272"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11753,17 +11758,17 @@
         <f>Data!C6</f>
         <v>6983846860.7700005</v>
       </c>
-      <c r="D74" s="210"/>
-      <c r="E74" s="239">
+      <c r="D74" s="209"/>
+      <c r="E74" s="238">
         <f>Inputs!E91</f>
         <v>6983846860.7700005</v>
       </c>
-      <c r="F74" s="210"/>
-      <c r="H74" s="239">
+      <c r="F74" s="209"/>
+      <c r="H74" s="238">
         <f>Inputs!F91</f>
         <v>6983846860.7700005</v>
       </c>
-      <c r="I74" s="210"/>
+      <c r="I74" s="209"/>
       <c r="K74" s="24"/>
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11774,23 +11779,23 @@
         <f>Data!C8</f>
         <v>3398384261.9699998</v>
       </c>
-      <c r="D75" s="160">
+      <c r="D75" s="159">
         <f>C75/$C$74</f>
         <v>0.48660635459513968</v>
       </c>
-      <c r="E75" s="239">
+      <c r="E75" s="238">
         <f>Inputs!E92</f>
         <v>3398384261.9699998</v>
       </c>
-      <c r="F75" s="161">
+      <c r="F75" s="160">
         <f>E75/E74</f>
         <v>0.48660635459513968</v>
       </c>
-      <c r="H75" s="239">
+      <c r="H75" s="238">
         <f>Inputs!F92</f>
         <v>3398384261.9699998</v>
       </c>
-      <c r="I75" s="161">
+      <c r="I75" s="160">
         <f>H75/$H$74</f>
         <v>0.48660635459513968</v>
       </c>
@@ -11800,21 +11805,21 @@
       <c r="B76" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="C76" s="162">
+      <c r="C76" s="161">
         <f>C74-C75</f>
         <v>3585462598.8000007</v>
       </c>
-      <c r="D76" s="211"/>
-      <c r="E76" s="163">
+      <c r="D76" s="210"/>
+      <c r="E76" s="162">
         <f>E74-E75</f>
         <v>3585462598.8000007</v>
       </c>
-      <c r="F76" s="211"/>
-      <c r="H76" s="163">
+      <c r="F76" s="210"/>
+      <c r="H76" s="162">
         <f>H74-H75</f>
         <v>3585462598.8000007</v>
       </c>
-      <c r="I76" s="211"/>
+      <c r="I76" s="210"/>
       <c r="K76" s="24"/>
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11825,23 +11830,23 @@
         <f>Data!C10+MAX(Data!C11,0)</f>
         <v>2054181373.1700001</v>
       </c>
-      <c r="D77" s="160">
+      <c r="D77" s="159">
         <f>C77/$C$74</f>
         <v>0.2941332211490556</v>
       </c>
-      <c r="E77" s="239">
+      <c r="E77" s="238">
         <f>Inputs!E93</f>
         <v>2054181373.1700003</v>
       </c>
-      <c r="F77" s="161">
+      <c r="F77" s="160">
         <f>E77/E74</f>
         <v>0.2941332211490556</v>
       </c>
-      <c r="H77" s="239">
+      <c r="H77" s="238">
         <f>Inputs!F93</f>
         <v>2054181373.1700003</v>
       </c>
-      <c r="I77" s="161">
+      <c r="I77" s="160">
         <f>H77/$H$74</f>
         <v>0.2941332211490556</v>
       </c>
@@ -11855,54 +11860,54 @@
         <f>MAX(Data!C12,0)</f>
         <v>65231872</v>
       </c>
-      <c r="D78" s="160">
+      <c r="D78" s="159">
         <f>C78/$C$74</f>
         <v>9.3403926661713623E-3</v>
       </c>
-      <c r="E78" s="181">
+      <c r="E78" s="180">
         <f>E74*F78</f>
         <v>65231872</v>
       </c>
-      <c r="F78" s="161">
+      <c r="F78" s="160">
         <f>I78</f>
         <v>9.3403926661713623E-3</v>
       </c>
-      <c r="H78" s="239">
+      <c r="H78" s="238">
         <f>Inputs!F97</f>
         <v>65231872</v>
       </c>
-      <c r="I78" s="161">
+      <c r="I78" s="160">
         <f>H78/$H$74</f>
         <v>9.3403926661713623E-3</v>
       </c>
       <c r="K78" s="24"/>
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B79" s="257" t="s">
+      <c r="B79" s="256" t="s">
         <v>232</v>
       </c>
-      <c r="C79" s="258">
+      <c r="C79" s="257">
         <f>C76-C77-C78</f>
         <v>1466049353.6300006</v>
       </c>
-      <c r="D79" s="259">
+      <c r="D79" s="258">
         <f>C79/C74</f>
         <v>0.2099200315896334</v>
       </c>
-      <c r="E79" s="260">
+      <c r="E79" s="259">
         <f>E76-E77-E78</f>
         <v>1466049353.6300004</v>
       </c>
-      <c r="F79" s="259">
+      <c r="F79" s="258">
         <f>E79/E74</f>
         <v>0.20992003158963338</v>
       </c>
-      <c r="G79" s="261"/>
-      <c r="H79" s="260">
+      <c r="G79" s="260"/>
+      <c r="H79" s="259">
         <f>H76-H77-H78</f>
         <v>1466049353.6300004</v>
       </c>
-      <c r="I79" s="259">
+      <c r="I79" s="258">
         <f>H79/H74</f>
         <v>0.20992003158963338</v>
       </c>
@@ -11916,27 +11921,27 @@
         <f>MAX(Data!C16,0)</f>
         <v>0</v>
       </c>
-      <c r="D80" s="160">
+      <c r="D80" s="159">
         <f>C80/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E80" s="181">
+      <c r="E80" s="180">
         <f>E74*F80</f>
         <v>0</v>
       </c>
-      <c r="F80" s="161">
+      <c r="F80" s="160">
         <f>I80</f>
         <v>0</v>
       </c>
-      <c r="H80" s="239">
+      <c r="H80" s="238">
         <f>Inputs!F96</f>
         <v>0</v>
       </c>
-      <c r="I80" s="161">
+      <c r="I80" s="160">
         <f>H80/$H$74</f>
         <v>0</v>
       </c>
-      <c r="K80" s="182" t="s">
+      <c r="K80" s="181" t="s">
         <v>131</v>
       </c>
     </row>
@@ -11948,23 +11953,23 @@
         <f>MAX(Data!C17,0)</f>
         <v>15194992.810000001</v>
       </c>
-      <c r="D81" s="160">
+      <c r="D81" s="159">
         <f>C81/$C$74</f>
         <v>2.1757339633768379E-3</v>
       </c>
-      <c r="E81" s="181">
+      <c r="E81" s="180">
         <f>E74*F81</f>
         <v>15194992.810000001</v>
       </c>
-      <c r="F81" s="161">
+      <c r="F81" s="160">
         <f>I81</f>
         <v>2.1757339633768379E-3</v>
       </c>
-      <c r="H81" s="239">
+      <c r="H81" s="238">
         <f>Inputs!F94</f>
         <v>15194992.810000001</v>
       </c>
-      <c r="I81" s="161">
+      <c r="I81" s="160">
         <f>H81/$H$74</f>
         <v>2.1757339633768379E-3</v>
       </c>
@@ -11978,23 +11983,23 @@
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
         <v>0</v>
       </c>
-      <c r="D82" s="160">
+      <c r="D82" s="159">
         <f>C82/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E82" s="239">
+      <c r="E82" s="238">
         <f>Inputs!E95</f>
         <v>0</v>
       </c>
-      <c r="F82" s="161">
+      <c r="F82" s="160">
         <f>E82/E74</f>
         <v>0</v>
       </c>
-      <c r="H82" s="239">
+      <c r="H82" s="238">
         <f>Inputs!F95</f>
         <v>0</v>
       </c>
-      <c r="I82" s="161">
+      <c r="I82" s="160">
         <f>H82/$H$74</f>
         <v>0</v>
       </c>
@@ -12004,27 +12009,27 @@
       <c r="B83" s="105" t="s">
         <v>125</v>
       </c>
-      <c r="C83" s="164">
+      <c r="C83" s="163">
         <f>C79-C81-C82-C80</f>
         <v>1450854360.8200006</v>
       </c>
-      <c r="D83" s="165">
+      <c r="D83" s="164">
         <f>C83/$C$74</f>
         <v>0.20774429762625657</v>
       </c>
-      <c r="E83" s="166">
+      <c r="E83" s="165">
         <f>E79-E81-E82-E80</f>
         <v>1450854360.8200004</v>
       </c>
-      <c r="F83" s="165">
+      <c r="F83" s="164">
         <f>E83/E74</f>
         <v>0.20774429762625654</v>
       </c>
-      <c r="H83" s="166">
+      <c r="H83" s="165">
         <f>H79-H81-H82-H80</f>
         <v>1450854360.8200004</v>
       </c>
-      <c r="I83" s="165">
+      <c r="I83" s="164">
         <f>H83/$H$74</f>
         <v>0.20774429762625654</v>
       </c>
@@ -12034,49 +12039,49 @@
       <c r="B84" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="C84" s="212"/>
-      <c r="D84" s="160">
+      <c r="C84" s="211"/>
+      <c r="D84" s="159">
         <f>I84</f>
         <v>0.25</v>
       </c>
-      <c r="E84" s="213"/>
-      <c r="F84" s="180">
+      <c r="E84" s="212"/>
+      <c r="F84" s="179">
         <f t="shared" ref="F84" si="3">I84</f>
         <v>0.25</v>
       </c>
-      <c r="H84" s="213"/>
-      <c r="I84" s="203">
+      <c r="H84" s="212"/>
+      <c r="I84" s="202">
         <f>Inputs!C16</f>
         <v>0.25</v>
       </c>
       <c r="K84" s="24"/>
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B85" s="264" t="s">
+      <c r="B85" s="263" t="s">
         <v>164</v>
       </c>
-      <c r="C85" s="258">
+      <c r="C85" s="257">
         <f>C83*(1-I84)</f>
         <v>1088140770.6150005</v>
       </c>
-      <c r="D85" s="259">
+      <c r="D85" s="258">
         <f>C85/$C$74</f>
         <v>0.15580822321969243</v>
       </c>
-      <c r="E85" s="265">
+      <c r="E85" s="264">
         <f>E83*(1-F84)</f>
         <v>1088140770.6150002</v>
       </c>
-      <c r="F85" s="259">
+      <c r="F85" s="258">
         <f>E85/E74</f>
         <v>0.1558082232196924</v>
       </c>
-      <c r="G85" s="261"/>
-      <c r="H85" s="265">
+      <c r="G85" s="260"/>
+      <c r="H85" s="264">
         <f>H83*(1-I84)</f>
         <v>1088140770.6150002</v>
       </c>
-      <c r="I85" s="259">
+      <c r="I85" s="258">
         <f>H85/$H$74</f>
         <v>0.1558082232196924</v>
       </c>
@@ -12086,69 +12091,69 @@
       <c r="B86" s="87" t="s">
         <v>160</v>
       </c>
-      <c r="C86" s="168">
+      <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
         <v>0.37186016159111168</v>
       </c>
-      <c r="D86" s="210"/>
-      <c r="E86" s="169">
+      <c r="D86" s="209"/>
+      <c r="E86" s="168">
         <f>E85*Data!C4/Common_Shares</f>
         <v>0.37186016159111157</v>
       </c>
-      <c r="F86" s="210"/>
-      <c r="H86" s="169">
+      <c r="F86" s="209"/>
+      <c r="H86" s="168">
         <f>H85*Data!C4/Common_Shares</f>
         <v>0.37186016159111157</v>
       </c>
-      <c r="I86" s="210"/>
+      <c r="I86" s="209"/>
       <c r="K86" s="24"/>
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
         <v>208</v>
       </c>
-      <c r="C87" s="262">
+      <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.7763585507419067E-2</v>
-      </c>
-      <c r="D87" s="210"/>
-      <c r="E87" s="263">
+        <v>3.780051583227919E-2</v>
+      </c>
+      <c r="D87" s="209"/>
+      <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.776358550741906E-2</v>
-      </c>
-      <c r="F87" s="210"/>
-      <c r="H87" s="263">
+        <v>3.7800515832279183E-2</v>
+      </c>
+      <c r="F87" s="209"/>
+      <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.776358550741906E-2</v>
-      </c>
-      <c r="I87" s="210"/>
+        <v>3.7800515832279183E-2</v>
+      </c>
+      <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
         <v>207</v>
       </c>
-      <c r="C88" s="170">
+      <c r="C88" s="169">
         <f>Inputs!C44</f>
         <v>0.16</v>
       </c>
-      <c r="D88" s="167">
+      <c r="D88" s="166">
         <f>C88/C86</f>
         <v>0.43026926927421733</v>
       </c>
-      <c r="E88" s="171">
+      <c r="E88" s="170">
         <f>Inputs!E98</f>
         <v>0.16</v>
       </c>
-      <c r="F88" s="167">
+      <c r="F88" s="166">
         <f>E88/E86</f>
         <v>0.43026926927421749</v>
       </c>
-      <c r="H88" s="171">
+      <c r="H88" s="170">
         <f>Inputs!F98</f>
         <v>0.16</v>
       </c>
-      <c r="I88" s="167">
+      <c r="I88" s="166">
         <f>H88/H86</f>
         <v>0.43026926927421749</v>
       </c>
@@ -12158,21 +12163,21 @@
       <c r="B89" s="87" t="s">
         <v>221</v>
       </c>
-      <c r="C89" s="262">
+      <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.6248510341451628E-2</v>
-      </c>
-      <c r="D89" s="210"/>
-      <c r="E89" s="262">
+        <v>1.6264400325343251E-2</v>
+      </c>
+      <c r="D89" s="209"/>
+      <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.6248510341451628E-2</v>
-      </c>
-      <c r="F89" s="210"/>
-      <c r="H89" s="262">
+        <v>1.6264400325343251E-2</v>
+      </c>
+      <c r="F89" s="209"/>
+      <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.6248510341451628E-2</v>
-      </c>
-      <c r="I89" s="210"/>
+        <v>1.6264400325343251E-2</v>
+      </c>
+      <c r="I89" s="209"/>
       <c r="K89" s="24"/>
     </row>
     <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12194,22 +12199,22 @@
       <c r="B92" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="C92" s="199" t="str">
+      <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="E92" s="284" t="s">
+      <c r="E92" s="285" t="s">
         <v>206</v>
       </c>
-      <c r="F92" s="284"/>
+      <c r="F92" s="285"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="284" t="s">
+      <c r="H92" s="285" t="s">
         <v>205</v>
       </c>
-      <c r="I92" s="284"/>
+      <c r="I92" s="285"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12219,9 +12224,9 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>6.8999999999999992E-2</v>
-      </c>
-      <c r="D93" s="240">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="D93" s="239">
         <f>Inputs!C86</f>
         <v>5</v>
       </c>
@@ -12229,15 +12234,15 @@
         <v>209</v>
       </c>
       <c r="F93" s="144">
-        <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>6.9563301744614039</v>
+        <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
+        <v>6.6615493855132453</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
-        <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>6.9563301744614039</v>
+        <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
+        <v>6.6615493855132453</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12245,24 +12250,27 @@
       <c r="B94" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C94" s="183">
+      <c r="C94" s="182">
         <f>Dashboard!G20</f>
         <v>0.15</v>
       </c>
-      <c r="D94" s="145"/>
+      <c r="D94" s="270">
+        <f>Inputs!D87</f>
+        <v>0</v>
+      </c>
       <c r="E94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="F94" s="144">
-        <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>2.695429570875453</v>
+        <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
+        <v>2.5809508396194336</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
-        <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>2.695429570875453</v>
+        <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
+        <v>2.5809508396194336</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12283,14 +12291,14 @@
       <c r="D96" s="124" t="s">
         <v>213</v>
       </c>
-      <c r="E96" s="184" t="str">
+      <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F96" s="228" t="s">
+      <c r="F96" s="227" t="s">
         <v>237</v>
       </c>
-      <c r="H96" s="184" t="str">
+      <c r="H96" s="183" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
@@ -12305,21 +12313,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>10120370557.384657</v>
-      </c>
-      <c r="D97" s="214"/>
+        <v>9691510692.695364</v>
+      </c>
+      <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>3.4585255257957042</v>
-      </c>
-      <c r="F97" s="214"/>
+        <v>3.3119673755178045</v>
+      </c>
+      <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>3.4585255257957042</v>
+        <v>3.3119673755178045</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>4.9830088796667429</v>
+        <v>4.7054517566539973</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12331,14 +12339,14 @@
         <f>E53*Exchange_Rate</f>
         <v>0</v>
       </c>
-      <c r="D98" s="214"/>
-      <c r="E98" s="214"/>
-      <c r="F98" s="214"/>
+      <c r="D98" s="213"/>
+      <c r="E98" s="213"/>
+      <c r="F98" s="213"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
         <v>0</v>
       </c>
-      <c r="I98" s="216"/>
+      <c r="I98" s="215"/>
       <c r="K98" s="24"/>
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -12349,17 +12357,17 @@
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
         <v>0</v>
       </c>
-      <c r="D99" s="215"/>
-      <c r="E99" s="146">
+      <c r="D99" s="214"/>
+      <c r="E99" s="145">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
         <v>0</v>
       </c>
-      <c r="F99" s="215"/>
-      <c r="H99" s="146">
+      <c r="F99" s="214"/>
+      <c r="H99" s="145">
         <f>C99*Data!$C$4/Common_Shares</f>
         <v>0</v>
       </c>
-      <c r="I99" s="217"/>
+      <c r="I99" s="216"/>
       <c r="K99" s="24"/>
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
@@ -12368,27 +12376,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>10120370557.384657</v>
+        <v>9691510692.695364</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>2.9397466969263486</v>
+        <v>2.8151722691901337</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>3.4585255257957042</v>
+        <v>3.3119673755178045</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>3.4585255257957042</v>
+        <v>3.3119673755178045</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>3.4585255257957042</v>
+        <v>3.3119673755178045</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>4.9830088796667429</v>
+        <v>4.7054517566539973</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12407,14 +12415,14 @@
       <c r="D102" s="124" t="s">
         <v>213</v>
       </c>
-      <c r="E102" s="184" t="str">
+      <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F102" s="228" t="s">
+      <c r="F102" s="227" t="s">
         <v>237</v>
       </c>
-      <c r="H102" s="184" t="str">
+      <c r="H102" s="183" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
@@ -12429,27 +12437,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>3921427733.3671784</v>
+        <v>3754879114.74301</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.1390891431331789</v>
+        <v>1.0907104055462646</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.3401048742743282</v>
+        <v>1.2831887124073702</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>1.3401048742743282</v>
+        <v>1.2831887124073702</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.3401048742743282</v>
+        <v>1.2831887124073702</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>1.9308096581583878</v>
+        <v>1.8230803315119739</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12468,14 +12476,14 @@
       <c r="D105" s="124" t="s">
         <v>213</v>
       </c>
-      <c r="E105" s="185" t="str">
+      <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F105" s="228" t="s">
+      <c r="F105" s="227" t="s">
         <v>237</v>
       </c>
-      <c r="H105" s="185" t="str">
+      <c r="H105" s="184" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
@@ -12490,27 +12498,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>7020899145.3759174</v>
+        <v>6723194903.7191868</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>2.0394179200297637</v>
+        <v>1.9529413373681992</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>2.3993152000350162</v>
+        <v>2.2975780439625875</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>2.3993152000350162</v>
+        <v>2.2975780439625875</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>2.3993152000350162</v>
+        <v>2.2975780439625875</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>3.4569092689125656</v>
+        <v>3.2642660440829854</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0696.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0696.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A77339B7-0409-4B98-BA07-E7E3A1AEF3E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F6247CA8-EEBF-44EB-A035-05EA18976712}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3580,7 +3580,7 @@
   <dimension ref="A2:M98"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E91" sqref="E91:F98"/>
+      <selection activeCell="E87" sqref="E87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -4158,7 +4158,7 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>1.6264400325343251E-2</v>
+        <v>1.6199302793753267E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4582,7 +4582,9 @@
       <c r="C87" s="236" t="s">
         <v>267</v>
       </c>
-      <c r="D87" s="269"/>
+      <c r="D87" s="269">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
@@ -4894,7 +4896,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>10.54</v>
+        <v>10.56</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>268</v>
@@ -4935,7 +4937,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>30842.249068059999</v>
+        <v>30900.77325984</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -4984,7 +4986,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0714173714319866</v>
+        <v>1.0691539843877156</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5030,10 +5032,10 @@
         <v>253</v>
       </c>
       <c r="C12" s="174">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="D12" s="172">
-        <v>6.6000000000000003E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5080,7 +5082,7 @@
         <v>254</v>
       </c>
       <c r="C17" s="175">
-        <v>7.1999999999999995E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="D17" s="176"/>
     </row>
@@ -5167,7 +5169,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>26.454665445228265</v>
+        <v>26.560974552567586</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5199,7 +5201,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>1.6264400325343251E-2</v>
+        <v>1.6199302793753267E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5229,20 +5231,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>1.0907104055462646</v>
+        <v>1.088057713155437</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>2.0965423812387698</v>
+        <v>1.9068075223277969</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>1.2831887124073702</v>
+        <v>1.2800678978299258</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>1.8230803315119739</v>
+        <v>1.6580934976763453</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -12114,17 +12116,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.780051583227919E-2</v>
+        <v>3.7649220965927724E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.7800515832279183E-2</v>
+        <v>3.7649220965927717E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.7800515832279183E-2</v>
+        <v>3.7649220965927717E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12165,17 +12167,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.6264400325343251E-2</v>
+        <v>1.6199302793753267E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.6264400325343251E-2</v>
+        <v>1.6199302793753267E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.6264400325343251E-2</v>
+        <v>1.6199302793753267E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12224,7 +12226,7 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>7.1999999999999995E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="D93" s="239">
         <f>Inputs!C86</f>
@@ -12235,14 +12237,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>6.6615493855132453</v>
+        <v>6.6426326803068942</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>6.6615493855132453</v>
+        <v>6.6426326803068942</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12256,21 +12258,21 @@
       </c>
       <c r="D94" s="270">
         <f>Inputs!D87</f>
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>2.5809508396194336</v>
+        <v>2.5746737667882362</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>2.5809508396194336</v>
+        <v>2.5746737667882362</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12313,21 +12315,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>9691510692.695364</v>
+        <v>9663989850.295454</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>3.3119673755178045</v>
+        <v>3.3025624297807106</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>3.3119673755178045</v>
+        <v>3.3025624297807106</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>4.7054517566539973</v>
+        <v>4.2778647130928533</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12376,27 +12378,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>9691510692.695364</v>
+        <v>9663989850.295454</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>2.8151722691901337</v>
+        <v>2.8071780653136038</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>3.3119673755178045</v>
+        <v>3.3025624297807106</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>3.3119673755178045</v>
+        <v>3.3025624297807106</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>3.3119673755178045</v>
+        <v>3.3025624297807106</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>4.7054517566539973</v>
+        <v>4.2778647130928533</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12437,27 +12439,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>3754879114.74301</v>
+        <v>3745746957.2010012</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.0907104055462646</v>
+        <v>1.088057713155437</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.2831887124073702</v>
+        <v>1.2800678978299258</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>1.2831887124073702</v>
+        <v>1.2800678978299258</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.2831887124073702</v>
+        <v>1.2800678978299258</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>1.8230803315119739</v>
+        <v>1.6580934976763453</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12498,27 +12500,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>6723194903.7191868</v>
+        <v>6704868403.7482281</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>1.9529413373681992</v>
+        <v>1.9476178892345204</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>2.2975780439625875</v>
+        <v>2.2913151638053182</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>2.2975780439625875</v>
+        <v>2.2913151638053182</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>2.2975780439625875</v>
+        <v>2.2913151638053182</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>3.2642660440829854</v>
+        <v>2.9679791053845994</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0696.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0696.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F6247CA8-EEBF-44EB-A035-05EA18976712}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D126FD4-CBCB-4008-8D82-5BBFEEB1D630}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4158,7 +4158,7 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>1.6199302793753267E-2</v>
+        <v>1.609927311278226E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4896,7 +4896,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>10.56</v>
+        <v>10.64</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>268</v>
@@ -4937,7 +4937,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>30900.77325984</v>
+        <v>31134.870026960001</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -4986,7 +4986,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0691539843877156</v>
+        <v>1.0706016620000203</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5169,7 +5169,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>26.560974552567586</v>
+        <v>26.726005966853169</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5201,7 +5201,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>1.6199302793753267E-2</v>
+        <v>1.609927311278226E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5231,20 +5231,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>1.088057713155437</v>
+        <v>1.0889948522745936</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>1.9068075223277969</v>
+        <v>1.9084498469032949</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>1.2800678978299258</v>
+        <v>1.2811704144406983</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>1.6580934976763453</v>
+        <v>1.6595216060028652</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -12116,17 +12116,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.7649220965927724E-2</v>
+        <v>3.7416739382616568E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.7649220965927717E-2</v>
+        <v>3.7416739382616554E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.7649220965927717E-2</v>
+        <v>3.7416739382616554E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12167,17 +12167,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.6199302793753267E-2</v>
+        <v>1.609927311278226E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.6199302793753267E-2</v>
+        <v>1.609927311278226E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.6199302793753267E-2</v>
+        <v>1.609927311278226E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12237,14 +12237,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>6.6426326803068942</v>
+        <v>6.6441790451512803</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>6.6426326803068942</v>
+        <v>6.6441790451512803</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12265,14 +12265,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>2.5746737667882362</v>
+        <v>2.5768913214976514</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>2.5746737667882362</v>
+        <v>2.5768913214976514</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12315,21 +12315,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>9663989850.295454</v>
+        <v>9666239568.8754539</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>3.3025624297807106</v>
+        <v>3.3033312464056226</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>3.3025624297807106</v>
+        <v>3.3033312464056226</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>4.2778647130928533</v>
+        <v>4.2788605742099346</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12378,27 +12378,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>9663989850.295454</v>
+        <v>9666239568.8754539</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>2.8071780653136038</v>
+        <v>2.8078315594447787</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>3.3025624297807106</v>
+        <v>3.3033312464056226</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>3.3025624297807106</v>
+        <v>3.3033312464056221</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>3.3025624297807106</v>
+        <v>3.3033312464056221</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>4.2778647130928533</v>
+        <v>4.2788605742099346</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12439,27 +12439,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>3745746957.2010012</v>
+        <v>3748973151.8794756</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.088057713155437</v>
+        <v>1.0889948522745936</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.2800678978299258</v>
+        <v>1.2811704144406983</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>1.2800678978299258</v>
+        <v>1.2811704144406983</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.2800678978299258</v>
+        <v>1.2811704144406983</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>1.6580934976763453</v>
+        <v>1.6595216060028652</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12500,27 +12500,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>6704868403.7482281</v>
+        <v>6707606360.3774652</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>1.9476178892345204</v>
+        <v>1.9484132058596861</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>2.2913151638053182</v>
+        <v>2.2922508304231606</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>2.2913151638053182</v>
+        <v>2.2922508304231601</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>2.2913151638053182</v>
+        <v>2.2922508304231601</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>2.9679791053845994</v>
+        <v>2.9691910901064</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0696.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0696.HK_Valuation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D126FD4-CBCB-4008-8D82-5BBFEEB1D630}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{195FFB50-C3BE-423C-A74E-6856EAFE0262}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="271">
   <si>
     <t>Company Info:</t>
   </si>
@@ -935,6 +935,17 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
+    <t>CN</t>
+  </si>
+  <si>
+    <t>LT AR or Prepayments</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prepayments or Contract Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
     <t>0696.HK</t>
   </si>
   <si>
@@ -945,9 +956,6 @@
   </si>
   <si>
     <t>CNY</t>
-  </si>
-  <si>
-    <t>CN</t>
   </si>
   <si>
     <t>Strongly agree</t>
@@ -3580,7 +3588,7 @@
   <dimension ref="A2:M98"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E87" sqref="E87"/>
+      <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -3601,7 +3609,7 @@
         <v>194</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3609,7 +3617,7 @@
         <v>195</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3642,7 +3650,7 @@
         <v>216</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3658,7 +3666,7 @@
         <v>218</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3690,7 +3698,7 @@
         <v>255</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3707,7 +3715,7 @@
         <v>224</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D17" s="24"/>
     </row>
@@ -3725,7 +3733,7 @@
         <v>239</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D19" s="24"/>
     </row>
@@ -3734,7 +3742,7 @@
         <v>228</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D20" s="24"/>
     </row>
@@ -3743,7 +3751,7 @@
         <v>231</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D21" s="24"/>
     </row>
@@ -3752,7 +3760,7 @@
         <v>230</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -4158,7 +4166,7 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>1.609927311278226E-2</v>
+        <v>1.5751607277814078E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4279,7 +4287,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>117</v>
+        <v>261</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
@@ -4391,7 +4399,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>67</v>
+        <v>260</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -4580,7 +4588,7 @@
         <v>248</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D87" s="269">
         <v>0.02</v>
@@ -4896,10 +4904,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>10.64</v>
+        <v>10.88</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4937,7 +4945,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>31134.870026960001</v>
+        <v>31837.160328320002</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -4986,7 +4994,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0706016620000203</v>
+        <v>1.0711092948913574</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5032,10 +5040,10 @@
         <v>253</v>
       </c>
       <c r="C12" s="174">
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D12" s="172">
-        <v>8.5999999999999993E-2</v>
+        <v>7.5250000000000011E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5082,7 +5090,7 @@
         <v>254</v>
       </c>
       <c r="C17" s="175">
-        <v>9.1999999999999998E-2</v>
+        <v>8.0500000000000002E-2</v>
       </c>
       <c r="D17" s="176"/>
     </row>
@@ -5169,7 +5177,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>26.726005966853169</v>
+        <v>27.315896193034586</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5201,7 +5209,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>1.609927311278226E-2</v>
+        <v>1.5751607277814078E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5231,20 +5239,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>1.0889948522745936</v>
+        <v>1.2943916748939839</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>1.9084498469032949</v>
+        <v>2.3917179962474919</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>1.2811704144406983</v>
+        <v>1.5228137351693929</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>1.6595216060028652</v>
+        <v>2.0797547793456452</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -12116,17 +12124,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.7416739382616568E-2</v>
+        <v>3.6608720172797961E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.7416739382616554E-2</v>
+        <v>3.6608720172797954E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.7416739382616554E-2</v>
+        <v>3.6608720172797954E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12167,17 +12175,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.609927311278226E-2</v>
+        <v>1.5751607277814078E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.609927311278226E-2</v>
+        <v>1.5751607277814078E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.609927311278226E-2</v>
+        <v>1.5751607277814078E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12226,7 +12234,7 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>9.1999999999999998E-2</v>
+        <v>8.0500000000000002E-2</v>
       </c>
       <c r="D93" s="239">
         <f>Inputs!C86</f>
@@ -12237,14 +12245,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>6.6441790451512803</v>
+        <v>7.8801113904502031</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>6.6441790451512803</v>
+        <v>7.8801113904502031</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12265,14 +12273,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>2.5768913214976514</v>
+        <v>3.0629223514566788</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>2.5768913214976514</v>
+        <v>3.0629223514566788</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12315,21 +12323,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>9666239568.8754539</v>
+        <v>11464327498.083189</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>3.3033312464056226</v>
+        <v>3.9178080548908998</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>3.3033312464056226</v>
+        <v>3.9178080548908998</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>4.2788605742099346</v>
+        <v>5.3506741097340109</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12378,27 +12386,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>9666239568.8754539</v>
+        <v>11464327498.083189</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>2.8078315594447787</v>
+        <v>3.3301368466572647</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>3.3033312464056226</v>
+        <v>3.9178080548908998</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>3.3033312464056221</v>
+        <v>3.9178080548908998</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>3.3033312464056221</v>
+        <v>3.9178080548908998</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>4.2788605742099346</v>
+        <v>5.3506741097340109</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12439,27 +12447,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>3748973151.8794756</v>
+        <v>4456072154.1135836</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.0889948522745936</v>
+        <v>1.2943916748939839</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.2811704144406983</v>
+        <v>1.5228137351693929</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>1.2811704144406983</v>
+        <v>1.5228137351693929</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.2811704144406983</v>
+        <v>1.5228137351693929</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>1.6595216060028652</v>
+        <v>2.0797547793456452</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12500,27 +12508,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>6707606360.3774652</v>
+        <v>7960199826.0983868</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>1.9484132058596861</v>
+        <v>2.3122642607756241</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>2.2922508304231606</v>
+        <v>2.7203108950301464</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>2.2922508304231601</v>
+        <v>2.7203108950301464</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>2.2922508304231601</v>
+        <v>2.7203108950301464</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>2.9691910901064</v>
+        <v>3.7152144445398281</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0696.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0696.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{195FFB50-C3BE-423C-A74E-6856EAFE0262}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D9A7688-A3EB-4767-A8ED-C682097981FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="272">
   <si>
     <t>Company Info:</t>
   </si>
@@ -943,6 +943,10 @@
   </si>
   <si>
     <t>Prepayments or Contract Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ΔWC/Δsales</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -3587,7 +3591,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3609,7 +3613,7 @@
         <v>194</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3617,7 +3621,7 @@
         <v>195</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3650,7 +3654,7 @@
         <v>216</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3666,7 +3670,7 @@
         <v>218</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3715,7 +3719,7 @@
         <v>224</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D17" s="24"/>
     </row>
@@ -3733,7 +3737,7 @@
         <v>239</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D19" s="24"/>
     </row>
@@ -3742,7 +3746,7 @@
         <v>228</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D20" s="24"/>
     </row>
@@ -3751,7 +3755,7 @@
         <v>231</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D21" s="24"/>
     </row>
@@ -3760,7 +3764,7 @@
         <v>230</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -4166,7 +4170,7 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>1.5751607277814078E-2</v>
+        <v>1.6216807293169426E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4588,7 +4592,7 @@
         <v>248</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D87" s="269">
         <v>0.02</v>
@@ -4904,10 +4908,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>10.88</v>
+        <v>10.56</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4945,7 +4949,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>31837.160328320002</v>
+        <v>30900.77325984</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -4994,7 +4998,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0711092948913574</v>
+        <v>1.0703092813491821</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5015,7 +5019,7 @@
         <v>175</v>
       </c>
       <c r="C10" s="172">
-        <v>4.2099999999999999E-2</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
         <v>182</v>
@@ -5026,7 +5030,7 @@
         <v>179</v>
       </c>
       <c r="C11" s="173">
-        <v>5.3099999999999994E-2</v>
+        <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
         <v>189</v>
@@ -5053,7 +5057,7 @@
         <v>176</v>
       </c>
       <c r="C14" s="172">
-        <v>2.1309999999999999E-2</v>
+        <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
         <v>181</v>
@@ -5177,7 +5181,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>27.315896193034586</v>
+        <v>26.532304509497894</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5209,7 +5213,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>1.5751607277814078E-2</v>
+        <v>1.6216807293169426E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5239,20 +5243,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>1.2943916748939839</v>
+        <v>1.2963894579996891</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>2.3917179962474919</v>
+        <v>2.3954094089003934</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>1.5228137351693929</v>
+        <v>1.5251640682349283</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>2.0797547793456452</v>
+        <v>2.0829647033916467</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -5287,8 +5291,8 @@
         <v>225</v>
       </c>
       <c r="C34" s="225" t="e">
-        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
-IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
+        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C55&lt;0.8),"Strongly disagree",
+IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C55&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C55&lt;1.4),"agree","Strongly agree")))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -6314,12 +6318,12 @@
   <sheetPr codeName="Sheet2">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N930"/>
+  <dimension ref="A1:N931"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="B19" sqref="B19"/>
+      <selection pane="topRight" activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -8745,118 +8749,119 @@
       <c r="N51" s="87"/>
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="16"/>
-      <c r="B52" s="102" t="s">
+      <c r="A52" s="4"/>
+      <c r="B52" s="94" t="s">
+        <v>262</v>
+      </c>
+      <c r="C52" s="153" t="e">
+        <f>IF(D6="","",C16/(C6-D6))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D52" s="153" t="str">
+        <f t="shared" ref="D52:M52" si="43">IF(E6="","",D16/(D6-E6))</f>
+        <v/>
+      </c>
+      <c r="E52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="F52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="H52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="I52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="J52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="K52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="L52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="M52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="N52" s="87"/>
+    </row>
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="16"/>
+      <c r="B53" s="102" t="s">
         <v>124</v>
       </c>
-      <c r="C52" s="36"/>
-      <c r="D52" s="36"/>
-      <c r="E52" s="36"/>
-      <c r="F52" s="36"/>
-      <c r="G52" s="36"/>
-      <c r="H52" s="36"/>
-      <c r="I52" s="36"/>
-      <c r="J52" s="36"/>
-      <c r="K52" s="36"/>
-      <c r="L52" s="36"/>
-      <c r="M52" s="36"/>
-    </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="4"/>
-      <c r="B53" s="95" t="s">
+      <c r="C53" s="36"/>
+      <c r="D53" s="36"/>
+      <c r="E53" s="36"/>
+      <c r="F53" s="36"/>
+      <c r="G53" s="36"/>
+      <c r="H53" s="36"/>
+      <c r="I53" s="36"/>
+      <c r="J53" s="36"/>
+      <c r="K53" s="36"/>
+      <c r="L53" s="36"/>
+      <c r="M53" s="36"/>
+    </row>
+    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="4"/>
+      <c r="B54" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="C53" s="156" t="e">
+      <c r="C54" s="156" t="e">
         <f>IF(C36="","",(C27-C36)/C27)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D53" s="156" t="str">
-        <f t="shared" ref="D53:M53" si="43">IF(D36="","",(D27-D36)/D27)</f>
-        <v/>
-      </c>
-      <c r="E53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="F53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="G53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="H53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="I53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="J53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="K53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="L53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="M53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-    </row>
-    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="4"/>
-      <c r="B54" s="94" t="s">
-        <v>120</v>
-      </c>
-      <c r="C54" s="157" t="str">
-        <f t="shared" ref="C54:M54" si="44">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
-        <v>-</v>
-      </c>
-      <c r="D54" s="157" t="str">
+      <c r="D54" s="156" t="str">
+        <f t="shared" ref="D54:M54" si="44">IF(D36="","",(D27-D36)/D27)</f>
+        <v/>
+      </c>
+      <c r="E54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="E54" s="157" t="str">
+      <c r="F54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="F54" s="157" t="str">
+      <c r="G54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="G54" s="157" t="str">
+      <c r="H54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="H54" s="157" t="str">
+      <c r="I54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="I54" s="157" t="str">
+      <c r="J54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="J54" s="157" t="str">
+      <c r="K54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="K54" s="157" t="str">
+      <c r="L54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="L54" s="157" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="M54" s="157" t="str">
+      <c r="M54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
@@ -8864,107 +8869,154 @@
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
       <c r="B55" s="94" t="s">
-        <v>122</v>
-      </c>
-      <c r="C55" s="153">
-        <f t="shared" ref="C55:M55" si="45">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
-        <v>1.0473134465000349E-2</v>
-      </c>
-      <c r="D55" s="153">
+        <v>120</v>
+      </c>
+      <c r="C55" s="157" t="str">
+        <f t="shared" ref="C55:M55" si="45">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
+        <v>-</v>
+      </c>
+      <c r="D55" s="157" t="str">
         <f t="shared" si="45"/>
-        <v>5.2880563660823929E-2</v>
-      </c>
-      <c r="E55" s="153" t="str">
+        <v/>
+      </c>
+      <c r="E55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="F55" s="153" t="str">
+      <c r="F55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="G55" s="153" t="str">
+      <c r="G55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H55" s="153" t="str">
+      <c r="H55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I55" s="153" t="str">
+      <c r="I55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J55" s="153" t="str">
+      <c r="J55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K55" s="153" t="str">
+      <c r="K55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L55" s="153" t="str">
+      <c r="L55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="M55" s="153" t="str">
+      <c r="M55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
-      <c r="B56" s="98" t="s">
+      <c r="B56" s="94" t="s">
+        <v>122</v>
+      </c>
+      <c r="C56" s="153">
+        <f t="shared" ref="C56:M56" si="46">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
+        <v>1.0473134465000349E-2</v>
+      </c>
+      <c r="D56" s="153">
+        <f t="shared" si="46"/>
+        <v>5.2880563660823929E-2</v>
+      </c>
+      <c r="E56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="F56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="G56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="H56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="I56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="J56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="K56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="L56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="M56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="4"/>
+      <c r="B57" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="C56" s="158" t="e">
-        <f t="shared" ref="C56:M56" si="46">IF(C28="","",C28/C31)</f>
+      <c r="C57" s="158" t="e">
+        <f t="shared" ref="C57:M57" si="47">IF(C28="","",C28/C31)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="E56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="F56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="G56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="H56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="I56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="J56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="K56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="L56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="M56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="4"/>
-    </row>
+      <c r="D57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="E57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="F57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="G57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="H57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="I57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="J57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="K57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="L57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="M57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
     </row>
@@ -9532,7 +9584,9 @@
     <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A247" s="4"/>
     </row>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A248" s="4"/>
+    </row>
     <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10215,6 +10269,7 @@
     <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M23 C27:M40">
@@ -12124,17 +12179,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.6608720172797961E-2</v>
+        <v>3.7689903628311885E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.6608720172797954E-2</v>
+        <v>3.7689903628311865E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.6608720172797954E-2</v>
+        <v>3.7689903628311865E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12175,17 +12230,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.5751607277814078E-2</v>
+        <v>1.6216807293169426E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.5751607277814078E-2</v>
+        <v>1.6216807293169426E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.5751607277814078E-2</v>
+        <v>1.6216807293169426E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12245,14 +12300,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>7.8801113904502031</v>
+        <v>7.9153755780464561</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>7.8801113904502031</v>
+        <v>7.9153755780464561</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12273,14 +12328,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>3.0629223514566788</v>
+        <v>3.0676497107610627</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>3.0629223514566788</v>
+        <v>3.0676497107610627</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12323,21 +12378,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>11464327498.083189</v>
+        <v>11515631366.20455</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>3.9178080548908998</v>
+        <v>3.9353405885529513</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>3.9178080548908998</v>
+        <v>3.9353405885529513</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>5.3506741097340109</v>
+        <v>5.374618844297121</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12386,27 +12441,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>11464327498.083189</v>
+        <v>11515631366.20455</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>3.3301368466572647</v>
+        <v>3.3450395002700084</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>3.9178080548908998</v>
+        <v>3.9353405885529513</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>3.9178080548908998</v>
+        <v>3.9353405885529513</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>3.9178080548908998</v>
+        <v>3.9353405885529513</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>5.3506741097340109</v>
+        <v>5.374618844297121</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12447,27 +12502,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>4456072154.1135836</v>
+        <v>4462949721.2672977</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.2943916748939839</v>
+        <v>1.2963894579996891</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.5228137351693929</v>
+        <v>1.5251640682349283</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>1.5228137351693929</v>
+        <v>1.5251640682349283</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.5228137351693929</v>
+        <v>1.5251640682349283</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>2.0797547793456452</v>
+        <v>2.0829647033916467</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12508,27 +12563,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>7960199826.0983868</v>
+        <v>7989290543.7359238</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>2.3122642607756241</v>
+        <v>2.3207144791348489</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>2.7203108950301464</v>
+        <v>2.7302523283939397</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>2.7203108950301464</v>
+        <v>2.7302523283939397</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>2.7203108950301464</v>
+        <v>2.7302523283939397</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>3.7152144445398281</v>
+        <v>3.7287917738443839</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0696.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0696.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D9A7688-A3EB-4767-A8ED-C682097981FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B71C0CD-30AD-42D3-BA17-F6E8696652F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4170,7 +4170,7 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>1.6216807293169426E-2</v>
+        <v>1.605867608925042E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4908,7 +4908,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>10.56</v>
+        <v>10.66</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>271</v>
@@ -4949,7 +4949,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>30900.77325984</v>
+        <v>31193.394218740003</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -4998,7 +4998,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0703092813491821</v>
+        <v>1.0699092944463093</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5181,7 +5181,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>26.532304509497894</v>
+        <v>26.793570458914548</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5213,7 +5213,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>1.6216807293169426E-2</v>
+        <v>1.605867608925042E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5243,20 +5243,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>1.2963894579996891</v>
+        <v>1.2948970318220594</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>2.3954094089003934</v>
+        <v>2.3926517717675679</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>1.5251640682349283</v>
+        <v>1.5234082727318345</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>2.0829647033916467</v>
+        <v>2.080566758058755</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -10309,8 +10309,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C82" sqref="C82"/>
+    <sheetView showGridLines="0" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I100" sqref="I100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -12179,17 +12179,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.7689903628311885E-2</v>
+        <v>3.7322386784299895E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.7689903628311865E-2</v>
+        <v>3.7322386784299881E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.7689903628311865E-2</v>
+        <v>3.7322386784299881E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12230,17 +12230,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.6216807293169426E-2</v>
+        <v>1.605867608925042E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.6216807293169426E-2</v>
+        <v>1.605867608925042E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.6216807293169426E-2</v>
+        <v>1.605867608925042E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12300,14 +12300,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>7.9153755780464561</v>
+        <v>7.8984157961508092</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>7.9153755780464561</v>
+        <v>7.8984157961508092</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12328,14 +12328,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>3.0676497107610627</v>
+        <v>3.0641181788561349</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>3.0676497107610627</v>
+        <v>3.0641181788561349</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12378,21 +12378,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>11515631366.20455</v>
+        <v>11490957540.631044</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>3.9353405885529513</v>
+        <v>3.9269085795587024</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>3.9353405885529513</v>
+        <v>3.9269085795587024</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>5.374618844297121</v>
+        <v>5.3631029834926984</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12401,7 +12401,7 @@
         <v>144</v>
       </c>
       <c r="C98" s="91">
-        <f>E53*Exchange_Rate</f>
+        <f>-E53*Exchange_Rate</f>
         <v>0</v>
       </c>
       <c r="D98" s="213"/>
@@ -12440,28 +12440,28 @@
         <v>114</v>
       </c>
       <c r="C100" s="91">
-        <f>C97-C98+$C$99</f>
-        <v>11515631366.20455</v>
+        <f>C97+C98+$C$99</f>
+        <v>11490957540.631044</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>3.3450395002700084</v>
+        <v>3.3378722926248972</v>
       </c>
       <c r="E100" s="109">
-        <f>MAX(E97-H98+E99,0)</f>
-        <v>3.9353405885529513</v>
+        <f>MAX(E97+H98+E99,0)</f>
+        <v>3.9269085795587024</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>3.9353405885529513</v>
+        <v>3.9269085795587024</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>3.9353405885529513</v>
+        <v>3.9269085795587024</v>
       </c>
       <c r="I100" s="109">
-        <f>MAX(I97-H98+H99,0)</f>
-        <v>5.374618844297121</v>
+        <f>MAX(I97+H98+H99,0)</f>
+        <v>5.3631029834926984</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12502,27 +12502,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>4462949721.2672977</v>
+        <v>4457811895.6298218</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.2963894579996891</v>
+        <v>1.2948970318220594</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.5251640682349283</v>
+        <v>1.5234082727318345</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>1.5251640682349283</v>
+        <v>1.5234082727318345</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.5251640682349283</v>
+        <v>1.5234082727318345</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>2.0829647033916467</v>
+        <v>2.080566758058755</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12563,27 +12563,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>7989290543.7359238</v>
+        <v>7974384718.1304331</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>2.3207144791348489</v>
+        <v>2.3163846622234781</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>2.7302523283939397</v>
+        <v>2.7251584261452684</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>2.7302523283939397</v>
+        <v>2.7251584261452684</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>2.7302523283939397</v>
+        <v>2.7251584261452684</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>3.7287917738443839</v>
+        <v>3.7218348707757265</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0696.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0696.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B71C0CD-30AD-42D3-BA17-F6E8696652F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D885B15-1881-4189-AB9F-769E9D861352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4170,7 +4170,7 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>1.605867608925042E-2</v>
+        <v>1.637110032421377E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4908,7 +4908,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>10.66</v>
+        <v>10.46</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>271</v>
@@ -4949,7 +4949,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>31193.394218740003</v>
+        <v>30608.152300940001</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -4998,7 +4998,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0699092944463093</v>
+        <v>1.0702606836954753</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5181,7 +5181,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>26.793570458914548</v>
+        <v>26.282244977622256</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5213,7 +5213,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>1.605867608925042E-2</v>
+        <v>1.637110032421377E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5243,20 +5243,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>1.2948970318220594</v>
+        <v>1.2973150086893039</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>2.3926517717675679</v>
+        <v>2.3971195993193581</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>1.5234082727318345</v>
+        <v>1.5262529513991812</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>2.080566758058755</v>
+        <v>2.0844518254950941</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -12179,17 +12179,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.7322386784299895E-2</v>
+        <v>3.8048500074915205E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.7322386784299881E-2</v>
+        <v>3.8048500074915198E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.7322386784299881E-2</v>
+        <v>3.8048500074915198E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12230,17 +12230,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.605867608925042E-2</v>
+        <v>1.637110032421377E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.605867608925042E-2</v>
+        <v>1.637110032421377E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.605867608925042E-2</v>
+        <v>1.637110032421377E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12300,14 +12300,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>7.8984157961508092</v>
+        <v>7.9287016688058065</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>7.8984157961508092</v>
+        <v>7.9287016688058065</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12328,14 +12328,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>3.0641181788561349</v>
+        <v>3.0698398437398304</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>3.0641181788561349</v>
+        <v>3.0698398437398304</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12378,21 +12378,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>11490957540.631044</v>
+        <v>11535018740.464197</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>3.9269085795587024</v>
+        <v>3.9419660108509738</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>3.9269085795587024</v>
+        <v>3.9419660108509738</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>5.3631029834926984</v>
+        <v>5.3836673926331811</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12441,27 +12441,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>11490957540.631044</v>
+        <v>11535018740.464197</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>3.3378722926248972</v>
+        <v>3.3506711092233274</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>3.9269085795587024</v>
+        <v>3.9419660108509738</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>3.9269085795587024</v>
+        <v>3.9419660108509738</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>3.9269085795587024</v>
+        <v>3.9419660108509738</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>5.3631029834926984</v>
+        <v>5.3836673926331811</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12502,27 +12502,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>4457811895.6298218</v>
+        <v>4466136021.6238346</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.2948970318220594</v>
+        <v>1.2973150086893039</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.5234082727318345</v>
+        <v>1.5262529513991812</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>1.5234082727318345</v>
+        <v>1.5262529513991812</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.5234082727318345</v>
+        <v>1.5262529513991812</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>2.080566758058755</v>
+        <v>2.0844518254950941</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12563,27 +12563,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>7974384718.1304331</v>
+        <v>8000577381.0440168</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>2.3163846622234781</v>
+        <v>2.3239930589563156</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>2.7251584261452684</v>
+        <v>2.7341094811250777</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>2.7251584261452684</v>
+        <v>2.7341094811250777</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>2.7251584261452684</v>
+        <v>2.7341094811250777</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>3.7218348707757265</v>
+        <v>3.7340596090641376</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0696.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0696.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D885B15-1881-4189-AB9F-769E9D861352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{97F674FE-C386-4E6B-9A81-CB985C5329E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4170,7 +4170,7 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>1.637110032421377E-2</v>
+        <v>1.6214556164211694E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4908,7 +4908,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>10.46</v>
+        <v>10.56</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>271</v>
@@ -4949,7 +4949,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>30608.152300940001</v>
+        <v>30900.77325984</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -4998,7 +4998,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0702606836954753</v>
+        <v>1.0701607068379719</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5044,10 +5044,10 @@
         <v>253</v>
       </c>
       <c r="C12" s="174">
-        <v>7.0000000000000007E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="D12" s="172">
-        <v>7.5250000000000011E-2</v>
+        <v>8.0625000000000002E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5094,7 +5094,7 @@
         <v>254</v>
       </c>
       <c r="C17" s="175">
-        <v>8.0500000000000002E-2</v>
+        <v>8.6249999999999993E-2</v>
       </c>
       <c r="D17" s="176"/>
     </row>
@@ -5181,7 +5181,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>26.282244977622256</v>
+        <v>26.535988090990458</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5213,7 +5213,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>1.637110032421377E-2</v>
+        <v>1.6214556164211694E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5243,20 +5243,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>1.2973150086893039</v>
+        <v>1.1836951876313249</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>2.3971195993193581</v>
+        <v>2.1298992032849511</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>1.5262529513991812</v>
+        <v>1.3925825736839117</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>2.0844518254950941</v>
+        <v>1.8520862637260445</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -12179,17 +12179,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.8048500074915205E-2</v>
+        <v>3.7684671720949484E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.8048500074915198E-2</v>
+        <v>3.768467172094947E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.8048500074915198E-2</v>
+        <v>3.768467172094947E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12230,17 +12230,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.637110032421377E-2</v>
+        <v>1.6214556164211694E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.637110032421377E-2</v>
+        <v>1.6214556164211694E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.637110032421377E-2</v>
+        <v>1.6214556164211694E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12289,7 +12289,7 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>8.0500000000000002E-2</v>
+        <v>8.6249999999999993E-2</v>
       </c>
       <c r="D93" s="239">
         <f>Inputs!C86</f>
@@ -12300,14 +12300,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>7.9287016688058065</v>
+        <v>7.2271951160848102</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>7.9287016688058065</v>
+        <v>7.2271951160848102</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12328,14 +12328,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>3.0698398437398304</v>
+        <v>2.8009809687663831</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>3.0698398437398304</v>
+        <v>2.8009809687663831</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12378,21 +12378,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>11535018740.464197</v>
+        <v>10514436611.106075</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>3.9419660108509738</v>
+        <v>3.593193273178791</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>3.9419660108509738</v>
+        <v>3.593193273178791</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>5.3836673926331811</v>
+        <v>4.7788217588868038</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12441,27 +12441,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>11535018740.464197</v>
+        <v>10514436611.106075</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>3.3506711092233274</v>
+        <v>3.0542142822019724</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>3.9419660108509738</v>
+        <v>3.593193273178791</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>3.9419660108509738</v>
+        <v>3.593193273178791</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>3.9419660108509738</v>
+        <v>3.593193273178791</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>5.3836673926331811</v>
+        <v>4.7788217588868038</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12502,27 +12502,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>4466136021.6238346</v>
+        <v>4074988480.5881615</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.2973150086893039</v>
+        <v>1.1836951876313249</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.5262529513991812</v>
+        <v>1.3925825736839117</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>1.5262529513991812</v>
+        <v>1.3925825736839117</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.5262529513991812</v>
+        <v>1.3925825736839117</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>2.0844518254950941</v>
+        <v>1.8520862637260445</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12563,27 +12563,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>8000577381.0440168</v>
+        <v>7294712545.8471184</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>2.3239930589563156</v>
+        <v>2.1189547349166489</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>2.7341094811250777</v>
+        <v>2.4928879234313515</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>2.7341094811250777</v>
+        <v>2.4928879234313515</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>2.7341094811250777</v>
+        <v>2.4928879234313515</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>3.7340596090641376</v>
+        <v>3.3154540113064241</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0696.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0696.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{97F674FE-C386-4E6B-9A81-CB985C5329E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C519EED2-0223-4A42-B02A-3B423909C808}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,6 +26,17 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mi73Cg0ax9bLfpeUuF69nNRn7idDQ=="/>
@@ -4170,7 +4181,7 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>1.6214556164211694E-2</v>
+        <v>1.6169270405471888E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4908,7 +4919,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>10.56</v>
+        <v>10.58</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>271</v>
@@ -4949,7 +4960,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>30900.77325984</v>
+        <v>30959.297451619997</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -4998,7 +5009,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0701607068379719</v>
+        <v>1.0691930055618286</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5181,7 +5192,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>26.535988090990458</v>
+        <v>26.610308225695132</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5213,7 +5224,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>1.6214556164211694E-2</v>
+        <v>1.6169270405471888E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5243,20 +5254,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>1.1836951876313249</v>
+        <v>1.1823613377359519</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>2.1298992032849511</v>
+        <v>2.1274991210178751</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>1.3925825736839117</v>
+        <v>1.3910133385128847</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>1.8520862637260445</v>
+        <v>1.8499992356677177</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -12179,17 +12190,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.7684671720949484E-2</v>
+        <v>3.7579421911182229E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.768467172094947E-2</v>
+        <v>3.7579421911182215E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.768467172094947E-2</v>
+        <v>3.7579421911182215E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12230,17 +12241,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.6214556164211694E-2</v>
+        <v>1.6169270405471888E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.6214556164211694E-2</v>
+        <v>1.6169270405471888E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.6214556164211694E-2</v>
+        <v>1.6169270405471888E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12300,14 +12311,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>7.2271951160848102</v>
+        <v>7.2169987414871501</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>7.2271951160848102</v>
+        <v>7.2169987414871501</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12328,14 +12339,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>2.8009809687663831</v>
+        <v>2.7978246763262602</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>2.8009809687663831</v>
+        <v>2.7978246763262602</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12378,21 +12389,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>10514436611.106075</v>
+        <v>10499602483.529861</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>3.593193273178791</v>
+        <v>3.5881238729444482</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>3.593193273178791</v>
+        <v>3.5881238729444482</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>4.7788217588868038</v>
+        <v>4.7720796333448199</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12441,27 +12452,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>10514436611.106075</v>
+        <v>10499602483.529861</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>3.0542142822019724</v>
+        <v>3.0499052920027809</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>3.593193273178791</v>
+        <v>3.5881238729444482</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>3.593193273178791</v>
+        <v>3.5881238729444482</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>3.593193273178791</v>
+        <v>3.5881238729444482</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>4.7788217588868038</v>
+        <v>4.7720796333448199</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12502,27 +12513,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>4074988480.5881615</v>
+        <v>4070396569.5833063</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.1836951876313249</v>
+        <v>1.1823613377359519</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.3925825736839117</v>
+        <v>1.3910133385128847</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>1.3925825736839117</v>
+        <v>1.3910133385128847</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.3925825736839117</v>
+        <v>1.3910133385128847</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>1.8520862637260445</v>
+        <v>1.8499992356677177</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12563,27 +12574,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>7294712545.8471184</v>
+        <v>7284999526.5565844</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>2.1189547349166489</v>
+        <v>2.1161333148693666</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>2.4928879234313515</v>
+        <v>2.4895686057286666</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>2.4928879234313515</v>
+        <v>2.4895686057286666</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>2.4928879234313515</v>
+        <v>2.4895686057286666</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>3.3154540113064241</v>
+        <v>3.3110394345062688</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0696.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0696.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C519EED2-0223-4A42-B02A-3B423909C808}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{25898FBE-D5E8-4128-B509-A89EEB12EF42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="275">
   <si>
     <t>Company Info:</t>
   </si>
@@ -105,9 +105,6 @@
     <t>Interest-bearing Debt</t>
   </si>
   <si>
-    <t>Total Liabilities / Total Assets</t>
-  </si>
-  <si>
     <t>Current Ratio</t>
   </si>
   <si>
@@ -126,15 +123,9 @@
     <t>Discount</t>
   </si>
   <si>
-    <t>Orderly Liquidation Values =</t>
-  </si>
-  <si>
     <t>Book Current Ratio</t>
   </si>
   <si>
-    <t>Orderly Liquidation Value per Shares =</t>
-  </si>
-  <si>
     <t>Book Quick Ratio</t>
   </si>
   <si>
@@ -449,10 +440,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Solvency Analysis</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Pre-tax Profit =</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -549,10 +536,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Profibility Qaulity Analysis</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>2. Total Debt + PS + Options</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -914,10 +897,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Cost Analysis</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Dividend Yield</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -958,6 +937,42 @@
   </si>
   <si>
     <t>ΔWC/Δsales</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Minority interests</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Profibility Analysis</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Asset Turnover</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leverage Analysis</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sales/Op_Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Common_Equity / Total Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROE</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>EBIT ROE</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pre-tax ROE</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1546,7 +1561,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="287">
+  <cellXfs count="291">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2186,6 +2201,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="187" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3602,7 +3627,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3616,28 +3641,28 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C6" s="189">
         <v>45603</v>
@@ -3653,24 +3678,24 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E8" s="267"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C10" s="193">
         <v>2926209589</v>
@@ -3678,10 +3703,10 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3702,7 +3727,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="218" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C14" s="219">
         <v>45473</v>
@@ -3710,15 +3735,15 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="218" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="222" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C16" s="223">
         <v>0.25</v>
@@ -3727,61 +3752,61 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="240" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="240" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C18" s="242" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="240" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="241" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="224" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="226" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D22" s="24"/>
     </row>
     <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B24" s="115" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C24" s="48">
         <f>C12</f>
@@ -3850,7 +3875,7 @@
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="97" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C26" s="150">
         <v>3398384261.9699998</v>
@@ -3870,7 +3895,7 @@
     </row>
     <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B27" s="97" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C27" s="150">
         <v>1191142720.1700001</v>
@@ -3890,7 +3915,7 @@
     </row>
     <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B28" s="97" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C28" s="150">
         <v>863038653</v>
@@ -3910,7 +3935,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C29" s="150">
         <v>15194992.810000001</v>
@@ -3930,7 +3955,7 @@
     </row>
     <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B30" s="99" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C30" s="150">
         <v>48923904</v>
@@ -3950,7 +3975,7 @@
     </row>
     <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B31" s="97" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C31" s="150"/>
       <c r="D31" s="150"/>
@@ -3966,7 +3991,7 @@
     </row>
     <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B32" s="97" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C32" s="150"/>
       <c r="D32" s="150"/>
@@ -3982,7 +4007,7 @@
     </row>
     <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="97" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C33" s="150"/>
       <c r="D33" s="150"/>
@@ -4014,7 +4039,7 @@
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C35" s="217"/>
       <c r="D35" s="150"/>
@@ -4030,7 +4055,7 @@
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C36" s="217"/>
       <c r="D36" s="150"/>
@@ -4062,7 +4087,7 @@
     </row>
     <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C38" s="217"/>
       <c r="D38" s="150"/>
@@ -4110,7 +4135,7 @@
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B41" s="94" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C41" s="217"/>
       <c r="D41" s="150"/>
@@ -4126,7 +4151,7 @@
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
-        <v>138</v>
+        <v>257</v>
       </c>
       <c r="C42" s="217"/>
       <c r="D42" s="150"/>
@@ -4142,7 +4167,7 @@
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C43" s="217"/>
       <c r="D43" s="150"/>
@@ -4158,7 +4183,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C44" s="250">
         <f>0.16</f>
@@ -4177,11 +4202,11 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>1.6169270405471888E-2</v>
+        <v>1.6262504688838289E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4226,21 +4251,21 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C47" s="194" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D47" s="194" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="E47" s="111" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="48" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B48" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C48" s="59"/>
       <c r="D48" s="60">
@@ -4250,7 +4275,7 @@
     </row>
     <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C49" s="59"/>
       <c r="D49" s="60">
@@ -4260,7 +4285,7 @@
     </row>
     <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C50" s="59"/>
       <c r="D50" s="60">
@@ -4271,7 +4296,7 @@
     </row>
     <row r="51" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C51" s="59"/>
       <c r="D51" s="60">
@@ -4281,7 +4306,7 @@
     </row>
     <row r="52" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C52" s="59"/>
       <c r="D52" s="60">
@@ -4291,7 +4316,7 @@
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C53" s="59"/>
       <c r="D53" s="60">
@@ -4302,7 +4327,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
@@ -4312,7 +4337,7 @@
     </row>
     <row r="55" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C55" s="59"/>
       <c r="D55" s="60">
@@ -4323,7 +4348,7 @@
     </row>
     <row r="56" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C56" s="59"/>
       <c r="D56" s="60">
@@ -4331,24 +4356,24 @@
         <v>0.6</v>
       </c>
       <c r="E56" s="221" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C57" s="59"/>
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
       <c r="E57" s="221" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="58" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B58" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C58" s="59"/>
       <c r="D58" s="60">
@@ -4359,7 +4384,7 @@
     </row>
     <row r="59" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B59" s="35" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C59" s="120"/>
       <c r="D59" s="195">
@@ -4370,7 +4395,7 @@
     </row>
     <row r="60" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C60" s="59"/>
       <c r="D60" s="60">
@@ -4381,7 +4406,7 @@
     </row>
     <row r="61" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B61" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C61" s="59"/>
       <c r="D61" s="60">
@@ -4392,7 +4417,7 @@
     </row>
     <row r="62" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C62" s="59"/>
       <c r="D62" s="60">
@@ -4403,7 +4428,7 @@
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
@@ -4414,7 +4439,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -4424,31 +4449,31 @@
     </row>
     <row r="65" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C65" s="59"/>
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
       <c r="E65" s="221" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="66" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B66" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C66" s="59"/>
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
       <c r="E66" s="221" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="67" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C67" s="59"/>
       <c r="D67" s="60">
@@ -4456,12 +4481,12 @@
         <v>0.1</v>
       </c>
       <c r="E67" s="221" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C68" s="59"/>
       <c r="D68" s="60">
@@ -4472,7 +4497,7 @@
     </row>
     <row r="69" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B69" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C69" s="59"/>
       <c r="D69" s="60">
@@ -4483,7 +4508,7 @@
     </row>
     <row r="70" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B70" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C70" s="59"/>
       <c r="D70" s="60">
@@ -4493,7 +4518,7 @@
     </row>
     <row r="71" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B71" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C71" s="59"/>
       <c r="D71" s="60">
@@ -4504,7 +4529,7 @@
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B72" s="246" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C72" s="247"/>
       <c r="D72" s="248">
@@ -4514,25 +4539,25 @@
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C73" s="59"/>
     </row>
     <row r="74" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C74" s="59"/>
     </row>
     <row r="75" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B75" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C75" s="59"/>
     </row>
     <row r="76" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B76" s="86" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C76" s="120"/>
     </row>
@@ -4544,55 +4569,55 @@
     </row>
     <row r="78" spans="2:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B78" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C78" s="59"/>
     </row>
     <row r="79" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B79" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C79" s="59"/>
     </row>
     <row r="80" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B80" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C80" s="59"/>
     </row>
     <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B81" s="86" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C81" s="120"/>
     </row>
     <row r="82" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C82" s="83"/>
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C83" s="59"/>
     </row>
     <row r="84" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B84" s="20" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C84" s="59"/>
     </row>
     <row r="85" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B85" s="20" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C85" s="59"/>
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C86" s="197">
         <v>5</v>
@@ -4600,10 +4625,10 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="D87" s="269">
         <v>0.02</v>
@@ -4611,18 +4636,18 @@
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
-        <v>127</v>
-      </c>
-      <c r="C89" s="271">
+        <v>123</v>
+      </c>
+      <c r="C89" s="275">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="271"/>
+      <c r="D89" s="275"/>
       <c r="E89" s="89" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="F89" s="89" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -4631,20 +4656,20 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1CNY)</v>
       </c>
-      <c r="C90" s="272" t="s">
-        <v>100</v>
-      </c>
-      <c r="D90" s="272"/>
+      <c r="C90" s="276" t="s">
+        <v>97</v>
+      </c>
+      <c r="D90" s="276"/>
       <c r="E90" s="235" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F90" s="255" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C91" s="77">
         <f>C25</f>
@@ -4662,7 +4687,7 @@
     </row>
     <row r="92" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B92" s="104" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C92" s="77">
         <f>C26</f>
@@ -4683,7 +4708,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4704,7 +4729,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4722,7 +4747,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4743,7 +4768,7 @@
     </row>
     <row r="96" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B96" s="28" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C96" s="77">
         <f>MAX(C31,0)</f>
@@ -4761,7 +4786,7 @@
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
@@ -4779,7 +4804,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C98" s="237">
         <f>C44</f>
@@ -4907,62 +4932,62 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="C3" s="277" t="str">
+        <v>189</v>
+      </c>
+      <c r="C3" s="281" t="str">
         <f>Inputs!C4</f>
         <v>0696.HK</v>
       </c>
-      <c r="D3" s="278"/>
+      <c r="D3" s="282"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>10.58</v>
+        <v>10.52</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>195</v>
-      </c>
-      <c r="C4" s="279" t="str">
+        <v>190</v>
+      </c>
+      <c r="C4" s="283" t="str">
         <f>Inputs!C5</f>
         <v>中國民航信息網絡</v>
       </c>
-      <c r="D4" s="280"/>
+      <c r="D4" s="284"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="283">
+      <c r="G4" s="287">
         <f>Inputs!C10</f>
         <v>2926209589</v>
       </c>
-      <c r="H4" s="283"/>
+      <c r="H4" s="287"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="C5" s="281">
+        <v>158</v>
+      </c>
+      <c r="C5" s="285">
         <f>Inputs!C6</f>
         <v>45603</v>
       </c>
-      <c r="D5" s="282"/>
+      <c r="D5" s="286"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="G5" s="275">
+        <v>96</v>
+      </c>
+      <c r="G5" s="279">
         <f>G3*G4/1000000</f>
-        <v>30959.297451619997</v>
-      </c>
-      <c r="H5" s="275"/>
+        <v>30783.724876279997</v>
+      </c>
+      <c r="H5" s="279"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -4985,16 +5010,16 @@
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="276" t="str">
+      <c r="G6" s="280" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="276"/>
+      <c r="H6" s="280"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
@@ -5009,7 +5034,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0691930055618286</v>
+        <v>1.0692596832911174</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5019,40 +5044,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C10" s="172">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C11" s="173">
         <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C12" s="174">
         <v>7.4999999999999997E-2</v>
@@ -5065,29 +5090,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C14" s="172">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C16" s="173">
         <v>0.16</v>
@@ -5097,12 +5122,12 @@
         <v>CN</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="C17" s="175">
         <v>8.6249999999999993E-2</v>
@@ -5112,29 +5137,29 @@
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="142" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C19" s="135" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="137" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C20" s="171">
         <f>Fin_Analysis!I75</f>
         <v>0.48660635459513968</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="G20" s="172">
         <v>0.15</v>
@@ -5142,7 +5167,7 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="137" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C21" s="171">
         <f>Fin_Analysis!I77</f>
@@ -5153,26 +5178,26 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="137" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C22" s="171">
         <f>Fin_Analysis!I78</f>
         <v>9.3403926661713623E-3</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="137" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C23" s="171">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G23" s="177" t="e">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
@@ -5181,30 +5206,30 @@
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C24" s="171">
         <f>Fin_Analysis!I81</f>
         <v>2.1757339633768379E-3</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>26.610308225695132</v>
+        <v>26.457749129476422</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C25" s="171">
         <f>Fin_Analysis!I82</f>
         <v>0</v>
       </c>
       <c r="F25" s="140" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
@@ -5213,18 +5238,18 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C26" s="171">
         <f>Fin_Analysis!I83</f>
         <v>0.20774429762625654</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>1.6169270405471888E-2</v>
+        <v>1.6262504688838289E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5234,62 +5259,62 @@
         <v>6</v>
       </c>
       <c r="C28" s="89" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D28" s="43" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>237</v>
-      </c>
-      <c r="G28" s="273" t="s">
-        <v>257</v>
-      </c>
-      <c r="H28" s="273"/>
+        <v>232</v>
+      </c>
+      <c r="G28" s="277" t="s">
+        <v>251</v>
+      </c>
+      <c r="H28" s="277"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>1.1823613377359519</v>
+        <v>1.1829776189629415</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>2.1274991210178751</v>
+        <v>2.1286080356338002</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>1.3910133385128847</v>
-      </c>
-      <c r="G29" s="274">
+        <v>1.3917383752505195</v>
+      </c>
+      <c r="G29" s="278">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>1.8499992356677177</v>
-      </c>
-      <c r="H29" s="274"/>
+        <v>1.8509635092467831</v>
+      </c>
+      <c r="H29" s="278"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="196" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C32" s="224"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
@@ -5299,25 +5324,25 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C34" s="225" t="e">
-        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C55&lt;0.8),"Strongly disagree",
-IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C55&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C55&lt;1.4),"agree","Strongly agree")))</f>
+        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C56&lt;0.8),"Strongly disagree",
+IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C56&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C56&lt;1.4),"agree","Strongly agree")))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="196" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C35" s="224"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
@@ -5327,7 +5352,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
@@ -5337,14 +5362,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="196" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C38" s="224"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
@@ -5354,7 +5379,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
@@ -5369,14 +5394,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="226" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
@@ -6329,12 +6354,12 @@
   <sheetPr codeName="Sheet2">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N931"/>
+  <dimension ref="A1:N932"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="D52" sqref="D52"/>
+      <selection pane="topRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -6361,16 +6386,16 @@
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="148" t="s">
+        <v>194</v>
+      </c>
+      <c r="F2" s="119" t="s">
+        <v>197</v>
+      </c>
+      <c r="G2" s="148" t="s">
+        <v>198</v>
+      </c>
+      <c r="H2" s="147" t="s">
         <v>199</v>
-      </c>
-      <c r="F2" s="119" t="s">
-        <v>202</v>
-      </c>
-      <c r="G2" s="148" t="s">
-        <v>203</v>
-      </c>
-      <c r="H2" s="147" t="s">
-        <v>204</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -6388,7 +6413,7 @@
         <v>45291</v>
       </c>
       <c r="E3" s="146" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="F3" s="85" t="str">
         <f>H14</f>
@@ -6421,7 +6446,7 @@
         <v>CNY</v>
       </c>
       <c r="E4" s="146" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F4" s="93" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -6432,7 +6457,7 @@
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="115" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -6584,7 +6609,7 @@
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
       <c r="B8" s="97" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C8" s="199">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
@@ -6635,7 +6660,7 @@
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
       <c r="B9" s="98" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C9" s="151">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
@@ -6686,7 +6711,7 @@
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
       <c r="B10" s="97" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C10" s="199">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
@@ -6737,7 +6762,7 @@
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
       <c r="B11" s="97" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C11" s="199">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
@@ -6788,7 +6813,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C12" s="199">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6839,7 +6864,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="228" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6890,7 +6915,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="228" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -6941,7 +6966,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="231" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C15" s="232">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -6992,7 +7017,7 @@
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
       <c r="B16" s="97" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C16" s="199" t="str">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
@@ -7043,7 +7068,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C17" s="199">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7094,7 +7119,7 @@
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
       <c r="B18" s="94" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C18" s="152" t="str">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
@@ -7145,7 +7170,7 @@
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
       <c r="B19" s="97" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C19" s="199" t="str">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
@@ -7196,7 +7221,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -7247,7 +7272,7 @@
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
       <c r="B21" s="97" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C21" s="199" t="str">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
@@ -7298,7 +7323,7 @@
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
       <c r="B22" s="98" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C22" s="161">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
@@ -7349,7 +7374,7 @@
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4"/>
       <c r="B23" s="100" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C23" s="153">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
@@ -7400,7 +7425,7 @@
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4"/>
       <c r="B24" s="101" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C24" s="154">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
@@ -7451,7 +7476,7 @@
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
       <c r="B25" s="234" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C25" s="233">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
@@ -7502,7 +7527,7 @@
     <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
       <c r="B26" s="114" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
@@ -7655,7 +7680,7 @@
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="94" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C29" s="65">
         <f>Fin_Analysis!C13</f>
@@ -7706,7 +7731,7 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C30" s="65">
         <f>Fin_Analysis!C18</f>
@@ -7808,7 +7833,7 @@
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
       <c r="B32" s="94" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C32" s="65">
         <f>Fin_Analysis!I48</f>
@@ -8012,7 +8037,7 @@
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="94" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C36" s="65">
         <f>Fin_Analysis!D3</f>
@@ -8063,7 +8088,7 @@
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="94" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C37" s="65">
         <f>Fin_Analysis!D4</f>
@@ -8114,7 +8139,7 @@
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
       <c r="B38" s="94" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C38" s="65">
         <f>Fin_Analysis!C63</f>
@@ -8165,7 +8190,7 @@
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="4"/>
       <c r="B39" s="94" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C39" s="65">
         <f>Fin_Analysis!C68</f>
@@ -8216,7 +8241,7 @@
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="98" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C40" s="155" t="e">
         <f>IF(C6="","",C14/MAX(C39,0))</f>
@@ -8267,7 +8292,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8285,7 +8310,7 @@
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
       <c r="B42" s="95" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C42" s="156">
         <f t="shared" ref="C42:M42" si="34">IF(C6="","",C8/C6)</f>
@@ -8336,7 +8361,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C43" s="153">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8387,7 +8412,7 @@
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="94" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C44" s="153">
         <f t="shared" ref="C44:M44" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
@@ -8438,7 +8463,7 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C45" s="153">
         <f t="shared" ref="C45:M45" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
@@ -8489,7 +8514,7 @@
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="94" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C46" s="153">
         <f>IF(C6="","",MAX(C12,0)/C6)</f>
@@ -8540,7 +8565,7 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C47" s="153">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -8591,7 +8616,7 @@
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
       <c r="B48" s="94" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C48" s="153">
         <f t="shared" ref="C48:M48" si="40">IF(C6="","",C22/C6)</f>
@@ -8642,7 +8667,7 @@
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="16"/>
       <c r="B49" s="102" t="s">
-        <v>149</v>
+        <v>259</v>
       </c>
       <c r="C49" s="36"/>
       <c r="D49" s="36"/>
@@ -8659,50 +8684,50 @@
     </row>
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
-      <c r="B50" s="95" t="s">
-        <v>146</v>
-      </c>
-      <c r="C50" s="156">
-        <f t="shared" ref="C50:M50" si="41">IF(C29="","",C29/C6)</f>
-        <v>0</v>
-      </c>
-      <c r="D50" s="156" t="str">
+      <c r="B50" s="271" t="s">
+        <v>261</v>
+      </c>
+      <c r="C50" s="272" t="e">
+        <f>IF(C6="","",C6/C39)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D50" s="272" t="e">
+        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D39)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="E50" s="156" t="str">
+      <c r="F50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="F50" s="156" t="str">
+      <c r="G50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="G50" s="156" t="str">
+      <c r="H50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="H50" s="156" t="str">
+      <c r="I50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="I50" s="156" t="str">
+      <c r="J50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="J50" s="156" t="str">
+      <c r="K50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="K50" s="156" t="str">
+      <c r="L50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="L50" s="156" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="M50" s="156" t="str">
+      <c r="M50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
@@ -8711,10 +8736,10 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C51" s="153">
-        <f t="shared" ref="C51:M51" si="42">IF(C30="","",C30/C6)</f>
+        <f t="shared" ref="C51:M51" si="42">IF(C29="","",C29/C6)</f>
         <v>0</v>
       </c>
       <c r="D51" s="153" t="str">
@@ -8762,167 +8787,168 @@
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="4"/>
       <c r="B52" s="94" t="s">
-        <v>262</v>
-      </c>
-      <c r="C52" s="153" t="e">
+        <v>143</v>
+      </c>
+      <c r="C52" s="153">
+        <f t="shared" ref="C52:M52" si="43">IF(C30="","",C30/C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="E52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="F52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="H52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="I52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="J52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="K52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="L52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="M52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="N52" s="87"/>
+    </row>
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="4"/>
+      <c r="B53" s="94" t="s">
+        <v>256</v>
+      </c>
+      <c r="C53" s="153" t="e">
         <f>IF(D6="","",C16/(C6-D6))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D52" s="153" t="str">
-        <f t="shared" ref="D52:M52" si="43">IF(E6="","",D16/(D6-E6))</f>
-        <v/>
-      </c>
-      <c r="E52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="F52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="G52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="H52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="I52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="J52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="K52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="L52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="M52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="N52" s="87"/>
-    </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="16"/>
-      <c r="B53" s="102" t="s">
-        <v>124</v>
-      </c>
-      <c r="C53" s="36"/>
-      <c r="D53" s="36"/>
-      <c r="E53" s="36"/>
-      <c r="F53" s="36"/>
-      <c r="G53" s="36"/>
-      <c r="H53" s="36"/>
-      <c r="I53" s="36"/>
-      <c r="J53" s="36"/>
-      <c r="K53" s="36"/>
-      <c r="L53" s="36"/>
-      <c r="M53" s="36"/>
+      <c r="D53" s="153" t="str">
+        <f t="shared" ref="D53:M53" si="44">IF(E6="","",D16/(D6-E6))</f>
+        <v/>
+      </c>
+      <c r="E53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="F53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="G53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="H53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="I53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="J53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="K53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="L53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="M53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="N53" s="87"/>
     </row>
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="4"/>
-      <c r="B54" s="95" t="s">
-        <v>19</v>
-      </c>
-      <c r="C54" s="156" t="e">
-        <f>IF(C36="","",(C27-C36)/C27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D54" s="156" t="str">
-        <f t="shared" ref="D54:M54" si="44">IF(D36="","",(D27-D36)/D27)</f>
-        <v/>
-      </c>
-      <c r="E54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="F54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="G54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="H54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="I54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="J54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="K54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="L54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="M54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
+      <c r="A54" s="16"/>
+      <c r="B54" s="102" t="s">
+        <v>260</v>
+      </c>
+      <c r="C54" s="36"/>
+      <c r="D54" s="36"/>
+      <c r="E54" s="36"/>
+      <c r="F54" s="36"/>
+      <c r="G54" s="36"/>
+      <c r="H54" s="36"/>
+      <c r="I54" s="36"/>
+      <c r="J54" s="36"/>
+      <c r="K54" s="36"/>
+      <c r="L54" s="36"/>
+      <c r="M54" s="36"/>
     </row>
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
-      <c r="B55" s="94" t="s">
-        <v>120</v>
-      </c>
-      <c r="C55" s="157" t="str">
-        <f t="shared" ref="C55:M55" si="45">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
-        <v>-</v>
-      </c>
-      <c r="D55" s="157" t="str">
+      <c r="B55" s="95" t="s">
+        <v>262</v>
+      </c>
+      <c r="C55" s="156" t="e">
+        <f>IF(C36="","",(C36-C37)/C27)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D55" s="156" t="str">
+        <f t="shared" ref="D55:M55" si="45">IF(D36="","",(D36-D37)/D27)</f>
+        <v/>
+      </c>
+      <c r="E55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="E55" s="157" t="str">
+      <c r="F55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="F55" s="157" t="str">
+      <c r="G55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="G55" s="157" t="str">
+      <c r="H55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H55" s="157" t="str">
+      <c r="I55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I55" s="157" t="str">
+      <c r="J55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J55" s="157" t="str">
+      <c r="K55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K55" s="157" t="str">
+      <c r="L55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L55" s="157" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="M55" s="157" t="str">
+      <c r="M55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
@@ -8930,112 +8956,302 @@
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
       <c r="B56" s="94" t="s">
-        <v>122</v>
-      </c>
-      <c r="C56" s="153">
-        <f t="shared" ref="C56:M56" si="46">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
-        <v>1.0473134465000349E-2</v>
-      </c>
-      <c r="D56" s="153">
+        <v>117</v>
+      </c>
+      <c r="C56" s="157" t="str">
+        <f t="shared" ref="C56:M56" si="46">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
+        <v>-</v>
+      </c>
+      <c r="D56" s="157" t="str">
         <f t="shared" si="46"/>
-        <v>5.2880563660823929E-2</v>
-      </c>
-      <c r="E56" s="153" t="str">
+        <v/>
+      </c>
+      <c r="E56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="F56" s="153" t="str">
+      <c r="F56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="G56" s="153" t="str">
+      <c r="G56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="H56" s="153" t="str">
+      <c r="H56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="I56" s="153" t="str">
+      <c r="I56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="J56" s="153" t="str">
+      <c r="J56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="K56" s="153" t="str">
+      <c r="K56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="L56" s="153" t="str">
+      <c r="L56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="M56" s="153" t="str">
+      <c r="M56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
     </row>
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="4"/>
-      <c r="B57" s="98" t="s">
-        <v>20</v>
-      </c>
-      <c r="C57" s="158" t="e">
-        <f t="shared" ref="C57:M57" si="47">IF(C28="","",C28/C31)</f>
+      <c r="B57" s="94" t="s">
+        <v>119</v>
+      </c>
+      <c r="C57" s="153">
+        <f t="shared" ref="C57:M57" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
+        <v>1.0473134465000349E-2</v>
+      </c>
+      <c r="D57" s="153">
+        <f t="shared" si="47"/>
+        <v>5.2880563660823929E-2</v>
+      </c>
+      <c r="E57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="F57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="G57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="H57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="I57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="J57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="K57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="L57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="M57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="4"/>
+      <c r="B58" s="98" t="s">
+        <v>19</v>
+      </c>
+      <c r="C58" s="158" t="e">
+        <f t="shared" ref="C58:M58" si="48">IF(C28="","",C28/C31)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="E57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="F57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="G57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="H57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="I57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="J57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="K57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="L57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="M57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-    </row>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+      <c r="D58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="E58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="F58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="G58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="H58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="I58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="J58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="K58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="L58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="M58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+    </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="4"/>
+      <c r="A59" s="16"/>
+      <c r="B59" s="102" t="s">
+        <v>263</v>
+      </c>
+      <c r="C59" s="273" t="str">
+        <f>IFERROR(IF(C13*C50*(1/C55)=C60,"","Error"),"")</f>
+        <v/>
+      </c>
+      <c r="D59" s="273" t="str">
+        <f t="shared" ref="D59:M59" si="49">IFERROR(IF(D13*D50*(1/D55)=D60,"","Error"),"")</f>
+        <v/>
+      </c>
+      <c r="E59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="F59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="G59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="H59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="I59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="J59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="K59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="L59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="M59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
     </row>
     <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
+      <c r="B60" s="271" t="s">
+        <v>264</v>
+      </c>
+      <c r="C60" s="274" t="e">
+        <f>IF(C14="","",C14/(C36-C37))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D60" s="274" t="e">
+        <f t="shared" ref="D60:M60" si="50">IF(D14="","",D14/(D36-D37))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="F60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="G60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="H60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="I60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="J60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="K60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="L60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="M60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
     </row>
     <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
+      <c r="B61" s="271" t="s">
+        <v>265</v>
+      </c>
+      <c r="C61" s="274" t="e">
+        <f>IF(C22="","",C22/(C36-C37))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D61" s="274" t="e">
+        <f t="shared" ref="D61:M61" si="51">IF(D22="","",D22/(D36-D37))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="F61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="G61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="H61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="I61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="J61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="K61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="L61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="M61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
     </row>
     <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="4"/>
@@ -9598,7 +9814,9 @@
     <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A248" s="4"/>
     </row>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A249" s="4"/>
+    </row>
     <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10281,6 +10499,7 @@
     <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M23 C27:M40">
@@ -10320,8 +10539,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I100" sqref="I100"/>
+    <sheetView showGridLines="0" topLeftCell="A78" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10339,7 +10558,7 @@
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" s="45"/>
       <c r="D2" s="64"/>
@@ -10354,7 +10573,7 @@
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" s="87"/>
       <c r="D3" s="116">
@@ -10368,7 +10587,7 @@
       <c r="F3" s="87"/>
       <c r="G3" s="87"/>
       <c r="H3" s="47" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I3" s="204">
         <f>Inputs!C83</f>
@@ -10378,7 +10597,7 @@
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" s="87"/>
       <c r="D4" s="65">
@@ -10396,10 +10615,10 @@
       <c r="C5" s="87"/>
       <c r="D5" s="87"/>
       <c r="E5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="I5" s="63" t="e">
         <f>C28/I28</f>
@@ -10408,12 +10627,13 @@
       <c r="K5" s="24"/>
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="20" t="s">
-        <v>26</v>
+      <c r="B6" s="20" t="str">
+        <f>"Adj. Net Asset in "&amp;Dashboard!G6</f>
+        <v>Adj. Net Asset in CNY</v>
       </c>
       <c r="C6" s="87"/>
       <c r="D6" s="69">
-        <f>(E49-I49-E53)*Exchange_Rate</f>
+        <f>(E49-I49-E53)</f>
         <v>0</v>
       </c>
       <c r="E6" s="56" t="e">
@@ -10423,7 +10643,7 @@
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
       <c r="H6" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I6" s="63" t="e">
         <f>(C24+C25)/I28</f>
@@ -10433,8 +10653,9 @@
       <c r="K6" s="24"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="19" t="s">
-        <v>28</v>
+      <c r="B7" s="19" t="str">
+        <f>"Adj. Net Asset per Shares in "&amp;Dashboard!H3</f>
+        <v>Adj. Net Asset per Shares in HKD</v>
       </c>
       <c r="C7" s="87"/>
       <c r="D7" s="66">
@@ -10446,7 +10667,7 @@
         <v>HKD</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I7" s="63" t="e">
         <f>C24/I28</f>
@@ -10464,7 +10685,7 @@
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C9" s="86"/>
       <c r="D9" s="203">
@@ -10483,32 +10704,32 @@
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="74" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="74" t="s">
+        <v>191</v>
+      </c>
+      <c r="E10" s="74" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="111" t="s">
         <v>32</v>
-      </c>
-      <c r="C10" s="74" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="74" t="s">
-        <v>196</v>
-      </c>
-      <c r="E10" s="74" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="111" t="s">
-        <v>35</v>
       </c>
       <c r="G10" s="87"/>
       <c r="H10" s="22" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I10" s="74" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K10" s="24"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C11" s="40">
         <f>Inputs!C48</f>
@@ -10525,7 +10746,7 @@
       <c r="F11" s="112"/>
       <c r="G11" s="87"/>
       <c r="H11" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I11" s="40">
         <f>Inputs!C73</f>
@@ -10536,7 +10757,7 @@
     </row>
     <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C12" s="40">
         <f>Inputs!C49</f>
@@ -10553,7 +10774,7 @@
       <c r="F12" s="112"/>
       <c r="G12" s="87"/>
       <c r="H12" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I12" s="40">
         <f>Inputs!C74</f>
@@ -10564,7 +10785,7 @@
     </row>
     <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C13" s="40">
         <f>Inputs!C50</f>
@@ -10581,7 +10802,7 @@
       <c r="F13" s="112"/>
       <c r="G13" s="87"/>
       <c r="H13" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I13" s="40">
         <f>Inputs!C75</f>
@@ -10592,7 +10813,7 @@
     </row>
     <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C14" s="40">
         <f>Inputs!C51</f>
@@ -10609,7 +10830,7 @@
       <c r="F14" s="112"/>
       <c r="G14" s="87"/>
       <c r="H14" s="86" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I14" s="205">
         <f>Inputs!C76</f>
@@ -10620,7 +10841,7 @@
     </row>
     <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C15" s="40">
         <f>Inputs!C52</f>
@@ -10637,7 +10858,7 @@
       <c r="F15" s="112"/>
       <c r="G15" s="87"/>
       <c r="H15" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I15" s="84">
         <f>SUM(I11:I14)</f>
@@ -10647,7 +10868,7 @@
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
@@ -10669,7 +10890,7 @@
     </row>
     <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C17" s="40">
         <f>Inputs!C54</f>
@@ -10691,7 +10912,7 @@
     </row>
     <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C18" s="40">
         <f>Inputs!C55</f>
@@ -10712,7 +10933,7 @@
     </row>
     <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C19" s="40">
         <f>Inputs!C56</f>
@@ -10737,7 +10958,7 @@
     </row>
     <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C20" s="40">
         <f>Inputs!C57</f>
@@ -10764,7 +10985,7 @@
     </row>
     <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C21" s="40">
         <f>Inputs!C58</f>
@@ -10785,7 +11006,7 @@
     </row>
     <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C22" s="40">
         <f>Inputs!C59</f>
@@ -10802,7 +11023,7 @@
       <c r="F22" s="112"/>
       <c r="G22" s="87"/>
       <c r="H22" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I22" s="52">
         <f>I28-SUM(I11:I14)</f>
@@ -10814,13 +11035,13 @@
       <c r="D23" s="87"/>
       <c r="E23" s="87"/>
       <c r="F23" s="111" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G23" s="87"/>
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="23" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C24" s="61">
         <f>SUM(C11:C14)</f>
@@ -10842,7 +11063,7 @@
     </row>
     <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="23" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C25" s="61">
         <f>SUM(C15:C17)</f>
@@ -10862,7 +11083,7 @@
       </c>
       <c r="G25" s="87"/>
       <c r="H25" s="23" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I25" s="63" t="e">
         <f>E28/I28</f>
@@ -10871,7 +11092,7 @@
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="23" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C26" s="61">
         <f>C18+C19+C20</f>
@@ -10891,7 +11112,7 @@
       </c>
       <c r="G26" s="87"/>
       <c r="H26" s="23" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I26" s="63" t="e">
         <f>E24/($I$28-I22)</f>
@@ -10904,7 +11125,7 @@
     </row>
     <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="23" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C27" s="77">
         <f>C21+C22</f>
@@ -10924,7 +11145,7 @@
       </c>
       <c r="G27" s="87"/>
       <c r="H27" s="23" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I27" s="63" t="e">
         <f>(E25+E24)/$I$28</f>
@@ -10970,7 +11191,7 @@
       <c r="D29" s="87"/>
       <c r="E29" s="87"/>
       <c r="F29" s="112" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G29" s="87"/>
       <c r="H29" s="87"/>
@@ -10979,7 +11200,7 @@
     </row>
     <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C30" s="40">
         <f>Inputs!C60</f>
@@ -10995,7 +11216,7 @@
       <c r="F30" s="112"/>
       <c r="G30" s="87"/>
       <c r="H30" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I30" s="40">
         <f>Inputs!C78</f>
@@ -11005,7 +11226,7 @@
     </row>
     <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C31" s="40">
         <f>Inputs!C61</f>
@@ -11022,7 +11243,7 @@
       <c r="F31" s="112"/>
       <c r="G31" s="87"/>
       <c r="H31" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I31" s="40">
         <f>Inputs!C79</f>
@@ -11032,7 +11253,7 @@
     </row>
     <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C32" s="40">
         <f>Inputs!C62</f>
@@ -11049,7 +11270,7 @@
       <c r="F32" s="112"/>
       <c r="G32" s="87"/>
       <c r="H32" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I32" s="40">
         <f>Inputs!C80</f>
@@ -11059,7 +11280,7 @@
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
@@ -11079,7 +11300,7 @@
         <v>1</v>
       </c>
       <c r="H33" s="86" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I33" s="205">
         <f>Inputs!C81</f>
@@ -11089,7 +11310,7 @@
     </row>
     <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C34" s="40">
         <f>Inputs!C64</f>
@@ -11106,7 +11327,7 @@
       <c r="F34" s="112"/>
       <c r="G34" s="87"/>
       <c r="H34" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I34" s="84">
         <f>SUM(I30:I33)</f>
@@ -11116,7 +11337,7 @@
     </row>
     <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C35" s="40">
         <f>Inputs!C65</f>
@@ -11142,7 +11363,7 @@
     </row>
     <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C36" s="40">
         <f>Inputs!C66</f>
@@ -11169,7 +11390,7 @@
     </row>
     <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C37" s="40">
         <f>Inputs!C67</f>
@@ -11196,7 +11417,7 @@
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C38" s="40">
         <f>Inputs!C68</f>
@@ -11217,7 +11438,7 @@
     </row>
     <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C39" s="40">
         <f>Inputs!C69</f>
@@ -11238,7 +11459,7 @@
     </row>
     <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C40" s="40">
         <f>Inputs!C70</f>
@@ -11259,7 +11480,7 @@
     </row>
     <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C41" s="40">
         <f>Inputs!C71</f>
@@ -11280,7 +11501,7 @@
     </row>
     <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C42" s="40">
         <f>Inputs!C72</f>
@@ -11297,7 +11518,7 @@
       <c r="F42" s="112"/>
       <c r="G42" s="87"/>
       <c r="H42" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I42" s="52">
         <f>I48-SUM(I30:I33)</f>
@@ -11315,7 +11536,7 @@
     </row>
     <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="23" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C44" s="61">
         <f>SUM(C30:C31)</f>
@@ -11334,7 +11555,7 @@
     </row>
     <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="23" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C45" s="61">
         <f>SUM(C32:C35)</f>
@@ -11353,7 +11574,7 @@
     </row>
     <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="23" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C46" s="61">
         <f>C36+C37+C38+C39</f>
@@ -11370,7 +11591,7 @@
       <c r="F46" s="87"/>
       <c r="G46" s="87"/>
       <c r="H46" s="23" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I46" s="63" t="e">
         <f>(E44+E24)/E64</f>
@@ -11383,7 +11604,7 @@
     </row>
     <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="23" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C47" s="61">
         <f>C40+C41+C42</f>
@@ -11400,7 +11621,7 @@
       <c r="F47" s="87"/>
       <c r="G47" s="87"/>
       <c r="H47" s="23" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I47" s="63" t="e">
         <f>(E44+E45+E24+E25)/$I$49</f>
@@ -11413,7 +11634,7 @@
     </row>
     <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="80" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C48" s="81">
         <f>SUM(C30:C42)</f>
@@ -11430,7 +11651,7 @@
       <c r="F48" s="87"/>
       <c r="G48" s="87"/>
       <c r="H48" s="80" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I48" s="207">
         <f>Inputs!C82</f>
@@ -11457,7 +11678,7 @@
       <c r="F49" s="87"/>
       <c r="G49" s="87"/>
       <c r="H49" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="I49" s="52">
         <f>I28+I48</f>
@@ -11473,14 +11694,14 @@
     </row>
     <row r="51" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
     <row r="52" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="44" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C52" s="87"/>
       <c r="D52" s="74" t="str">
@@ -11497,7 +11718,7 @@
     </row>
     <row r="53" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C53" s="88">
         <f>MAX(D4,0)</f>
@@ -11527,7 +11748,7 @@
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="125"/>
@@ -11538,14 +11759,14 @@
     </row>
     <row r="56" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="20" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="284">
+      <c r="D56" s="288">
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="282"/>
+      <c r="E56" s="286"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11553,30 +11774,30 @@
     </row>
     <row r="57" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="20" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="283">
+      <c r="D57" s="287">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="282"/>
+      <c r="E57" s="286"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="20" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="283">
+      <c r="D58" s="287">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="282"/>
+      <c r="E58" s="286"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11593,11 +11814,11 @@
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E60" s="87"/>
       <c r="F60" s="9"/>
@@ -11607,7 +11828,7 @@
     </row>
     <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="19" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C61" s="68">
         <f>C14+C15+(C19*G19)+(C20*G20)+C31+C32+(C35*G35)+(C36*G36)+(C37*G37)</f>
@@ -11628,7 +11849,7 @@
     </row>
     <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C62" s="117">
         <f>C11+C30</f>
@@ -11649,7 +11870,7 @@
     </row>
     <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
@@ -11670,7 +11891,7 @@
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="121" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C64" s="208"/>
       <c r="D64" s="208"/>
@@ -11685,7 +11906,7 @@
     </row>
     <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C65" s="68">
         <f>C63-E64</f>
@@ -11716,11 +11937,11 @@
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E67" s="61"/>
       <c r="F67" s="87"/>
@@ -11730,7 +11951,7 @@
     </row>
     <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
@@ -11751,7 +11972,7 @@
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="121" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C69" s="208"/>
       <c r="D69" s="208"/>
@@ -11766,7 +11987,7 @@
     </row>
     <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
@@ -11788,21 +12009,21 @@
     <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
       <c r="B72" s="106" t="s">
-        <v>127</v>
-      </c>
-      <c r="C72" s="271">
+        <v>123</v>
+      </c>
+      <c r="C72" s="275">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="271"/>
-      <c r="E72" s="285" t="s">
-        <v>206</v>
-      </c>
-      <c r="F72" s="285"/>
-      <c r="H72" s="285" t="s">
-        <v>205</v>
-      </c>
-      <c r="I72" s="285"/>
+      <c r="D72" s="275"/>
+      <c r="E72" s="289" t="s">
+        <v>201</v>
+      </c>
+      <c r="F72" s="289"/>
+      <c r="H72" s="289" t="s">
+        <v>200</v>
+      </c>
+      <c r="I72" s="289"/>
       <c r="K72" s="50" t="s">
         <v>7</v>
       </c>
@@ -11812,23 +12033,23 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1CNY)</v>
       </c>
-      <c r="C73" s="272" t="s">
-        <v>100</v>
-      </c>
-      <c r="D73" s="272"/>
-      <c r="E73" s="286" t="s">
-        <v>101</v>
-      </c>
-      <c r="F73" s="272"/>
-      <c r="H73" s="286" t="s">
-        <v>101</v>
-      </c>
-      <c r="I73" s="272"/>
+      <c r="C73" s="276" t="s">
+        <v>97</v>
+      </c>
+      <c r="D73" s="276"/>
+      <c r="E73" s="290" t="s">
+        <v>98</v>
+      </c>
+      <c r="F73" s="276"/>
+      <c r="H73" s="290" t="s">
+        <v>98</v>
+      </c>
+      <c r="I73" s="276"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C74" s="77">
         <f>Data!C6</f>
@@ -11849,7 +12070,7 @@
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B75" s="104" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C75" s="77">
         <f>Data!C8</f>
@@ -11879,7 +12100,7 @@
     </row>
     <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="35" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C76" s="161">
         <f>C74-C75</f>
@@ -11900,7 +12121,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -11930,7 +12151,7 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
@@ -11960,7 +12181,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="256" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C79" s="257">
         <f>C76-C77-C78</f>
@@ -11991,7 +12212,7 @@
     </row>
     <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="28" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C80" s="77">
         <f>MAX(Data!C16,0)</f>
@@ -12018,12 +12239,12 @@
         <v>0</v>
       </c>
       <c r="K80" s="181" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -12053,7 +12274,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -12083,7 +12304,7 @@
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B83" s="105" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C83" s="163">
         <f>C79-C81-C82-C80</f>
@@ -12113,7 +12334,7 @@
     </row>
     <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B84" s="28" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C84" s="211"/>
       <c r="D84" s="159">
@@ -12134,7 +12355,7 @@
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="263" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C85" s="257">
         <f>C83*(1-I84)</f>
@@ -12165,7 +12386,7 @@
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
@@ -12186,28 +12407,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.7579421911182229E-2</v>
+        <v>3.7796110134172604E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.7579421911182215E-2</v>
+        <v>3.7796110134172597E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.7579421911182215E-2</v>
+        <v>3.7796110134172597E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C88" s="169">
         <f>Inputs!C44</f>
@@ -12237,21 +12458,21 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.6169270405471888E-2</v>
+        <v>1.6262504688838289E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.6169270405471888E-2</v>
+        <v>1.6262504688838289E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.6169270405471888E-2</v>
+        <v>1.6262504688838289E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12268,29 +12489,29 @@
       </c>
       <c r="C91" s="21"/>
       <c r="K91" s="50" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="E92" s="285" t="s">
-        <v>206</v>
-      </c>
-      <c r="F92" s="285"/>
+        <v>151</v>
+      </c>
+      <c r="E92" s="289" t="s">
+        <v>201</v>
+      </c>
+      <c r="F92" s="289"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="285" t="s">
-        <v>205</v>
-      </c>
-      <c r="I92" s="285"/>
+      <c r="H92" s="289" t="s">
+        <v>200</v>
+      </c>
+      <c r="I92" s="289"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12307,24 +12528,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>7.2169987414871501</v>
+        <v>7.2249884260779114</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>7.2169987414871501</v>
+        <v>7.2249884260779114</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C94" s="182">
         <f>Dashboard!G20</f>
@@ -12335,18 +12556,18 @@
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>2.7978246763262602</v>
+        <v>2.7992829841797033</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>2.7978246763262602</v>
+        <v>2.7992829841797033</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12365,51 +12586,51 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="227" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="H96" s="183" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
       <c r="I96" s="124" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K96" s="24"/>
     </row>
     <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>10499602483.529861</v>
+        <v>10511226222.867592</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>3.5881238729444482</v>
+        <v>3.5920961582453459</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>3.5881238729444482</v>
+        <v>3.5920961582453459</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>4.7720796333448199</v>
+        <v>4.7773626342816558</v>
       </c>
       <c r="K97" s="24"/>
     </row>
     <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C98" s="91">
         <f>-E53*Exchange_Rate</f>
@@ -12427,7 +12648,7 @@
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B99" s="105" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
@@ -12448,31 +12669,31 @@
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B100" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>10499602483.529861</v>
+        <v>10511226222.867592</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>3.0499052920027809</v>
+        <v>3.0532817345085435</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>3.5881238729444482</v>
+        <v>3.5920961582453459</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>3.5881238729444482</v>
+        <v>3.5920961582453454</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>3.5881238729444482</v>
+        <v>3.5920961582453454</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>4.7720796333448199</v>
+        <v>4.7773626342816558</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12482,58 +12703,58 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C102" s="127" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="227" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="H102" s="183" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
       <c r="I102" s="124" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K102" s="24"/>
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>4070396569.5833063</v>
+        <v>4072518179.0373502</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.1823613377359519</v>
+        <v>1.1829776189629415</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.3910133385128847</v>
+        <v>1.3917383752505195</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>1.3910133385128847</v>
+        <v>1.3917383752505195</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.3910133385128847</v>
+        <v>1.3917383752505195</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>1.8499992356677177</v>
+        <v>1.8509635092467831</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12543,58 +12764,58 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="227" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="H105" s="184" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
       <c r="I105" s="124" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K105" s="24"/>
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>7284999526.5565844</v>
+        <v>7291872200.9524708</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>2.1161333148693666</v>
+        <v>2.1181296767357427</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>2.4895686057286666</v>
+        <v>2.4919172667479326</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>2.4895686057286666</v>
+        <v>2.4919172667479326</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>2.4895686057286666</v>
+        <v>2.4919172667479326</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>3.3110394345062688</v>
+        <v>3.3141630717642192</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -12603,7 +12824,7 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C108" s="128" t="str">
         <f>Inputs!C87</f>
@@ -12612,6 +12833,7 @@
       <c r="K108" s="24"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="11">
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D57:E57"/>

--- a/financial_models/opportunities/0696.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0696.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{25898FBE-D5E8-4128-B509-A89EEB12EF42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD92A33C-6E3E-4315-A0B8-3FDDDFF82B66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="273">
   <si>
     <t>Company Info:</t>
   </si>
@@ -524,14 +524,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>ST AR / Sales</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>ST Inventory / Sales</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>ST Inventory</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -598,21 +590,9 @@
     <t>Value Range</t>
   </si>
   <si>
-    <t>COGS</t>
-  </si>
-  <si>
-    <t>Interest</t>
-  </si>
-  <si>
-    <t>ΔWC</t>
-  </si>
-  <si>
     <t>- Non-controling Interests</t>
   </si>
   <si>
-    <t xml:space="preserve">Pre-tax Profit </t>
-  </si>
-  <si>
     <t>Normalized Payout Ratio</t>
   </si>
   <si>
@@ -640,9 +620,6 @@
     <t>https://fred.stlouisfed.org/series/DGS10</t>
   </si>
   <si>
-    <t>Normalized Cost Structure</t>
-  </si>
-  <si>
     <t>Price Indicators</t>
   </si>
   <si>
@@ -664,9 +641,6 @@
     <t>Market Yields</t>
   </si>
   <si>
-    <t>Non-controlling Interests</t>
-  </si>
-  <si>
     <t>Watchlist &amp; Comp_Group:</t>
   </si>
   <si>
@@ -866,14 +840,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>CAPX-D&amp;A</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>OPEX+R&amp;D</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>unclear</t>
   </si>
   <si>
@@ -956,10 +922,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Sales/Op_Assets</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Common_Equity / Total Assets</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -973,6 +935,42 @@
   </si>
   <si>
     <t>Pre-tax ROE</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sales/Total_Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST_AR / Sales</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST_Inventory / Sales</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sales Turnover</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>EBIT Margin</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Interest Expense</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normalized ΔWC</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normalized CAPX-D&amp;A</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROE &amp; Cost Structure</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1297,7 +1295,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -1555,13 +1553,129 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="291">
+  <cellXfs count="299">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2211,6 +2325,30 @@
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2450,981 +2588,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t>Normalized Cost Structure</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000B-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="6"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000D-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:cat>
-            <c:strRef>
-              <c:f>Dashboard!$B$20:$B$26</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>COGS</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>OPEX+R&amp;D</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Non-controlling Interests</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>ΔWC</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Interest</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>CAPX-D&amp;A</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Pre-tax Profit </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Dashboard!$C$20:$C$26</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.48660635459513968</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.2941332211490556</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9.3403926661713623E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.1757339633768379E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.20774429762625654</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0A50-CA42-B693-027654020280}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent5"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>387350</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1003300</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{773B95BE-F378-2977-0A32-CF810A38528E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3627,7 +2790,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3641,28 +2804,28 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C6" s="189">
         <v>45603</v>
@@ -3678,7 +2841,7 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C8" s="191" t="s">
         <v>67</v>
@@ -3687,15 +2850,15 @@
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="C10" s="193">
         <v>2926209589</v>
@@ -3703,10 +2866,10 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3727,7 +2890,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="218" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="C14" s="219">
         <v>45473</v>
@@ -3735,10 +2898,10 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="218" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3752,55 +2915,55 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="240" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="240" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C18" s="242" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="240" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="241" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="224" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="226" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -3935,7 +3098,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="C29" s="150">
         <v>15194992.810000001</v>
@@ -4055,7 +3218,7 @@
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C36" s="217"/>
       <c r="D36" s="150"/>
@@ -4151,7 +3314,7 @@
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="C42" s="217"/>
       <c r="D42" s="150"/>
@@ -4183,7 +3346,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C44" s="250">
         <f>0.16</f>
@@ -4202,11 +3365,11 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>1.6262504688838289E-2</v>
+        <v>1.6385588761642672E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4251,13 +3414,13 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="C47" s="194" t="s">
         <v>30</v>
       </c>
       <c r="D47" s="194" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="E47" s="111" t="s">
         <v>32</v>
@@ -4316,7 +3479,7 @@
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C53" s="59"/>
       <c r="D53" s="60">
@@ -4327,7 +3490,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
@@ -4428,7 +3591,7 @@
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
@@ -4439,7 +3602,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -4599,7 +3762,7 @@
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="C83" s="59"/>
     </row>
@@ -4617,7 +3780,7 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="C86" s="197">
         <v>5</v>
@@ -4625,10 +3788,10 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D87" s="269">
         <v>0.02</v>
@@ -4638,16 +3801,16 @@
       <c r="B89" s="106" t="s">
         <v>123</v>
       </c>
-      <c r="C89" s="275">
+      <c r="C89" s="283">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="275"/>
+      <c r="D89" s="283"/>
       <c r="E89" s="89" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="F89" s="89" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -4656,10 +3819,10 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1CNY)</v>
       </c>
-      <c r="C90" s="276" t="s">
+      <c r="C90" s="284" t="s">
         <v>97</v>
       </c>
-      <c r="D90" s="276"/>
+      <c r="D90" s="284"/>
       <c r="E90" s="235" t="s">
         <v>98</v>
       </c>
@@ -4708,7 +3871,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4729,7 +3892,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4747,7 +3910,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4786,7 +3949,7 @@
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
@@ -4804,7 +3967,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C98" s="237">
         <f>C44</f>
@@ -4890,8 +4053,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:D3"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4932,62 +4095,62 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="C3" s="281" t="str">
+        <v>181</v>
+      </c>
+      <c r="C3" s="289" t="str">
         <f>Inputs!C4</f>
         <v>0696.HK</v>
       </c>
-      <c r="D3" s="282"/>
+      <c r="D3" s="290"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>10.52</v>
+        <v>10.44</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>190</v>
-      </c>
-      <c r="C4" s="283" t="str">
+        <v>182</v>
+      </c>
+      <c r="C4" s="291" t="str">
         <f>Inputs!C5</f>
         <v>中國民航信息網絡</v>
       </c>
-      <c r="D4" s="284"/>
+      <c r="D4" s="292"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="287">
+      <c r="G4" s="295">
         <f>Inputs!C10</f>
         <v>2926209589</v>
       </c>
-      <c r="H4" s="287"/>
+      <c r="H4" s="295"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="C5" s="285">
+        <v>156</v>
+      </c>
+      <c r="C5" s="293">
         <f>Inputs!C6</f>
         <v>45603</v>
       </c>
-      <c r="D5" s="286"/>
+      <c r="D5" s="294"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="G5" s="279">
+      <c r="G5" s="287">
         <f>G3*G4/1000000</f>
-        <v>30783.724876279997</v>
-      </c>
-      <c r="H5" s="279"/>
+        <v>30549.628109159999</v>
+      </c>
+      <c r="H5" s="287"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -5010,16 +4173,16 @@
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="280" t="str">
+      <c r="G6" s="288" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="280"/>
+      <c r="H6" s="288"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
@@ -5034,7 +4197,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0692596832911174</v>
+        <v>1.0691596666971843</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5044,40 +4207,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C10" s="172">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C11" s="173">
         <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="C12" s="174">
         <v>7.4999999999999997E-2</v>
@@ -5090,29 +4253,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C14" s="172">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="C16" s="173">
         <v>0.16</v>
@@ -5122,12 +4285,12 @@
         <v>CN</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="C17" s="175">
         <v>8.6249999999999993E-2</v>
@@ -5135,9 +4298,9 @@
       <c r="D17" s="176"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="142" t="s">
-        <v>178</v>
+        <v>263</v>
       </c>
       <c r="C19" s="135" t="s">
         <v>48</v>
@@ -5145,59 +4308,59 @@
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="137" t="s">
-        <v>164</v>
-      </c>
-      <c r="C20" s="171">
-        <f>Fin_Analysis!I75</f>
-        <v>0.48660635459513968</v>
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="275" t="s">
+        <v>253</v>
+      </c>
+      <c r="C20" s="276" t="e">
+        <f>C23*C22*(1/C21)</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="G20" s="172">
         <v>0.15</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="137" t="s">
-        <v>239</v>
-      </c>
-      <c r="C21" s="171">
-        <f>Fin_Analysis!I77</f>
-        <v>0.2941332211490556</v>
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="277" t="s">
+        <v>251</v>
+      </c>
+      <c r="C21" s="278" t="e">
+        <f>Data!C55</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="F21" s="87"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="137" t="s">
-        <v>186</v>
-      </c>
-      <c r="C22" s="171">
-        <f>Fin_Analysis!I78</f>
-        <v>9.3403926661713623E-3</v>
+      <c r="B22" s="279" t="s">
+        <v>258</v>
+      </c>
+      <c r="C22" s="280" t="e">
+        <f>Data!C50</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="137" t="s">
-        <v>166</v>
-      </c>
-      <c r="C23" s="171">
-        <f>Fin_Analysis!I80</f>
-        <v>0</v>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="281" t="s">
+        <v>259</v>
+      </c>
+      <c r="C23" s="282">
+        <f>Data!C13</f>
+        <v>0.2099200315896334</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="G23" s="177" t="e">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
@@ -5206,30 +4369,30 @@
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
-        <v>165</v>
+        <v>260</v>
       </c>
       <c r="C24" s="171">
         <f>Fin_Analysis!I81</f>
         <v>2.1757339633768379E-3</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>26.457749129476422</v>
+        <v>26.259005735664669</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>238</v>
+        <v>261</v>
       </c>
       <c r="C25" s="171">
-        <f>Fin_Analysis!I82</f>
+        <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
       <c r="F25" s="140" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
@@ -5238,18 +4401,18 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
-        <v>168</v>
+        <v>262</v>
       </c>
       <c r="C26" s="171">
-        <f>Fin_Analysis!I83</f>
-        <v>0.20774429762625654</v>
+        <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
+        <v>0</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>1.6262504688838289E-2</v>
+        <v>1.6385588761642672E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5259,62 +4422,62 @@
         <v>6</v>
       </c>
       <c r="C28" s="89" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D28" s="43" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>232</v>
-      </c>
-      <c r="G28" s="277" t="s">
-        <v>251</v>
-      </c>
-      <c r="H28" s="277"/>
+        <v>224</v>
+      </c>
+      <c r="G28" s="285" t="s">
+        <v>241</v>
+      </c>
+      <c r="H28" s="285"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>1.1829776189629415</v>
+        <v>1.1835834503346772</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>2.1286080356338002</v>
+        <v>2.1296981471502345</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>1.3917383752505195</v>
-      </c>
-      <c r="G29" s="278">
+        <v>1.3924511180407966</v>
+      </c>
+      <c r="G29" s="286">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>1.8509635092467831</v>
-      </c>
-      <c r="H29" s="278"/>
+        <v>1.851911432304552</v>
+      </c>
+      <c r="H29" s="286"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="196" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="C32" s="224"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
@@ -5324,7 +4487,7 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="C34" s="225" t="e">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C56&lt;0.8),"Strongly disagree",
@@ -5335,14 +4498,14 @@
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="196" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="C35" s="224"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
@@ -5352,7 +4515,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
@@ -5362,14 +4525,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="196" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="C38" s="224"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
@@ -5379,7 +4542,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
@@ -5394,14 +4557,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="226" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
@@ -6345,7 +5508,6 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup scale="99" orientation="landscape" r:id="rId6"/>
-  <drawing r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -6359,7 +5521,7 @@
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="C4" sqref="C4"/>
+      <selection pane="topRight" activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -6386,16 +5548,16 @@
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="148" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="F2" s="119" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="G2" s="148" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="H2" s="147" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -6413,7 +5575,7 @@
         <v>45291</v>
       </c>
       <c r="E3" s="146" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="F3" s="85" t="str">
         <f>H14</f>
@@ -6446,7 +5608,7 @@
         <v>CNY</v>
       </c>
       <c r="E4" s="146" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="F4" s="93" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -6813,7 +5975,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="C12" s="199">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6864,7 +6026,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="228" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6915,7 +6077,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="228" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -6966,7 +6128,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="231" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="C15" s="232">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -7068,7 +6230,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="C17" s="199">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7221,7 +6383,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -7731,7 +6893,7 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C30" s="65">
         <f>Fin_Analysis!C18</f>
@@ -8241,7 +7403,7 @@
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="98" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C40" s="155" t="e">
         <f>IF(C6="","",C14/MAX(C39,0))</f>
@@ -8292,7 +7454,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8361,7 +7523,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="C43" s="153">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8565,7 +7727,7 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="C47" s="153">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -8667,7 +7829,7 @@
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="16"/>
       <c r="B49" s="102" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="C49" s="36"/>
       <c r="D49" s="36"/>
@@ -8685,14 +7847,14 @@
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
       <c r="B50" s="271" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="C50" s="272" t="e">
-        <f>IF(C6="","",C6/C39)</f>
+        <f>IF(C6="","",C6/C27)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D50" s="272" t="e">
-        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D39)</f>
+        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D27)</f>
         <v>#VALUE!</v>
       </c>
       <c r="E50" s="272" t="str">
@@ -8736,7 +7898,7 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>142</v>
+        <v>256</v>
       </c>
       <c r="C51" s="153">
         <f t="shared" ref="C51:M51" si="42">IF(C29="","",C29/C6)</f>
@@ -8787,7 +7949,7 @@
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="4"/>
       <c r="B52" s="94" t="s">
-        <v>143</v>
+        <v>257</v>
       </c>
       <c r="C52" s="153">
         <f t="shared" ref="C52:M52" si="43">IF(C30="","",C30/C6)</f>
@@ -8838,7 +8000,7 @@
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
       <c r="B53" s="94" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="C53" s="153" t="e">
         <f>IF(D6="","",C16/(C6-D6))</f>
@@ -8889,7 +8051,7 @@
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="16"/>
       <c r="B54" s="102" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="C54" s="36"/>
       <c r="D54" s="36"/>
@@ -8906,7 +8068,7 @@
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
       <c r="B55" s="95" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="C55" s="156" t="e">
         <f>IF(C36="","",(C36-C37)/C27)</f>
@@ -9106,7 +8268,7 @@
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="16"/>
       <c r="B59" s="102" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="C59" s="273" t="str">
         <f>IFERROR(IF(C13*C50*(1/C55)=C60,"","Error"),"")</f>
@@ -9156,7 +8318,7 @@
     <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
       <c r="B60" s="271" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="C60" s="274" t="e">
         <f>IF(C14="","",C14/(C36-C37))</f>
@@ -9206,7 +8368,7 @@
     <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
       <c r="B61" s="271" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="C61" s="274" t="e">
         <f>IF(C22="","",C22/(C36-C37))</f>
@@ -10710,7 +9872,7 @@
         <v>30</v>
       </c>
       <c r="D10" s="74" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="E10" s="74" t="s">
         <v>31</v>
@@ -10868,7 +10030,7 @@
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
@@ -11280,7 +10442,7 @@
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
@@ -11748,7 +10910,7 @@
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="125"/>
@@ -11762,11 +10924,11 @@
         <v>86</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="288">
+      <c r="D56" s="296">
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="286"/>
+      <c r="E56" s="294"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11777,11 +10939,11 @@
         <v>87</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="287">
+      <c r="D57" s="295">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="286"/>
+      <c r="E57" s="294"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
@@ -11793,11 +10955,11 @@
         <v>89</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="287">
+      <c r="D58" s="295">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="286"/>
+      <c r="E58" s="294"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11814,7 +10976,7 @@
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
@@ -11891,7 +11053,7 @@
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="121" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C64" s="208"/>
       <c r="D64" s="208"/>
@@ -11937,7 +11099,7 @@
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
@@ -11972,7 +11134,7 @@
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="121" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C69" s="208"/>
       <c r="D69" s="208"/>
@@ -12011,19 +11173,19 @@
       <c r="B72" s="106" t="s">
         <v>123</v>
       </c>
-      <c r="C72" s="275">
+      <c r="C72" s="283">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="275"/>
-      <c r="E72" s="289" t="s">
-        <v>201</v>
-      </c>
-      <c r="F72" s="289"/>
-      <c r="H72" s="289" t="s">
-        <v>200</v>
-      </c>
-      <c r="I72" s="289"/>
+      <c r="D72" s="283"/>
+      <c r="E72" s="297" t="s">
+        <v>193</v>
+      </c>
+      <c r="F72" s="297"/>
+      <c r="H72" s="297" t="s">
+        <v>192</v>
+      </c>
+      <c r="I72" s="297"/>
       <c r="K72" s="50" t="s">
         <v>7</v>
       </c>
@@ -12033,18 +11195,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1CNY)</v>
       </c>
-      <c r="C73" s="276" t="s">
+      <c r="C73" s="284" t="s">
         <v>97</v>
       </c>
-      <c r="D73" s="276"/>
-      <c r="E73" s="290" t="s">
+      <c r="D73" s="284"/>
+      <c r="E73" s="298" t="s">
         <v>98</v>
       </c>
-      <c r="F73" s="276"/>
-      <c r="H73" s="290" t="s">
+      <c r="F73" s="284"/>
+      <c r="H73" s="298" t="s">
         <v>98</v>
       </c>
-      <c r="I73" s="276"/>
+      <c r="I73" s="284"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12121,7 +11283,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -12151,7 +11313,7 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
@@ -12181,7 +11343,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="256" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="C79" s="257">
         <f>C76-C77-C78</f>
@@ -12244,7 +11406,7 @@
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -12274,7 +11436,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -12355,7 +11517,7 @@
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="263" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C85" s="257">
         <f>C83*(1-I84)</f>
@@ -12386,7 +11548,7 @@
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
@@ -12407,28 +11569,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.7796110134172604E-2</v>
+        <v>3.8082173029187177E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.7796110134172597E-2</v>
+        <v>3.8082173029187157E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.7796110134172597E-2</v>
+        <v>3.8082173029187157E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C88" s="169">
         <f>Inputs!C44</f>
@@ -12458,21 +11620,21 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.6262504688838289E-2</v>
+        <v>1.6385588761642672E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.6262504688838289E-2</v>
+        <v>1.6385588761642672E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.6262504688838289E-2</v>
+        <v>1.6385588761642672E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12494,24 +11656,24 @@
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="E92" s="289" t="s">
-        <v>201</v>
-      </c>
-      <c r="F92" s="289"/>
+        <v>149</v>
+      </c>
+      <c r="E92" s="297" t="s">
+        <v>193</v>
+      </c>
+      <c r="F92" s="297"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="289" t="s">
-        <v>200</v>
-      </c>
-      <c r="I92" s="289"/>
+      <c r="H92" s="297" t="s">
+        <v>192</v>
+      </c>
+      <c r="I92" s="297"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12528,24 +11690,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>7.2249884260779114</v>
+        <v>7.2342748182757939</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>7.2249884260779114</v>
+        <v>7.2342748182757939</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C94" s="182">
         <f>Dashboard!G20</f>
@@ -12556,18 +11718,18 @@
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>2.7992829841797033</v>
+        <v>2.8007165645137664</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>2.7992829841797033</v>
+        <v>2.8007165645137664</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12586,14 +11748,14 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="227" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H96" s="183" t="str">
         <f>H72</f>
@@ -12610,21 +11772,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>10511226222.867592</v>
+        <v>10524736468.618837</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>3.5920961582453459</v>
+        <v>3.5967131364009886</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>3.5920961582453459</v>
+        <v>3.5967131364009886</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>4.7773626342816558</v>
+        <v>4.7835030542349006</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12673,27 +11835,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>10511226222.867592</v>
+        <v>10524736468.618837</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>3.0532817345085435</v>
+        <v>3.05720616594084</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>3.5920961582453459</v>
+        <v>3.5967131364009886</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>3.5920961582453454</v>
+        <v>3.5967131364009886</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>3.5920961582453454</v>
+        <v>3.5967131364009886</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>4.7773626342816558</v>
+        <v>4.7835030542349006</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12703,21 +11865,21 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C102" s="127" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="227" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H102" s="183" t="str">
         <f>H96</f>
@@ -12730,31 +11892,31 @@
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>4072518179.0373502</v>
+        <v>4074603813.8247499</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.1829776189629415</v>
+        <v>1.1835834503346772</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.3917383752505195</v>
+        <v>1.3924511180407966</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>1.3917383752505195</v>
+        <v>1.3924511180407966</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.3917383752505195</v>
+        <v>1.3924511180407966</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>1.8509635092467831</v>
+        <v>1.851911432304552</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12764,21 +11926,21 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="227" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H105" s="184" t="str">
         <f>H96</f>
@@ -12791,31 +11953,31 @@
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>7291872200.9524708</v>
+        <v>7299670141.2217941</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>2.1181296767357427</v>
+        <v>2.1203948081377586</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>2.4919172667479326</v>
+        <v>2.4945821272208928</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>2.4919172667479326</v>
+        <v>2.4945821272208928</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>2.4919172667479326</v>
+        <v>2.4945821272208928</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>3.3141630717642192</v>
+        <v>3.3177072432697265</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -12824,7 +11986,7 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C108" s="128" t="str">
         <f>Inputs!C87</f>

--- a/financial_models/opportunities/0696.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0696.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD92A33C-6E3E-4315-A0B8-3FDDDFF82B66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A4A54175-FC85-4D33-8B9D-C0D169C458F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="274">
   <si>
     <t>Company Info:</t>
   </si>
@@ -404,10 +404,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Noncurrent Liabilities</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>ST AR</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -906,10 +902,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Minority interests</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Profibility Analysis</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -971,6 +963,18 @@
   </si>
   <si>
     <t>ROE &amp; Cost Structure</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total Liabilities</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_2</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_1</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -2399,7 +2403,7 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="23">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2496,12 +2500,28 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7B7B7"/>
+          <bgColor rgb="FFB7B7B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7B7B7"/>
+          <bgColor rgb="FFB7B7B7"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2790,7 +2810,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -2804,28 +2824,28 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C6" s="189">
         <v>45603</v>
@@ -2841,7 +2861,7 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C8" s="191" t="s">
         <v>67</v>
@@ -2850,15 +2870,15 @@
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C10" s="193">
         <v>2926209589</v>
@@ -2866,10 +2886,10 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2890,7 +2910,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="218" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C14" s="219">
         <v>45473</v>
@@ -2898,10 +2918,10 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="218" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2915,61 +2935,61 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="240" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="240" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C18" s="242" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="240" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="241" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="224" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="226" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D22" s="24"/>
     </row>
     <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B24" s="115" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C24" s="48">
         <f>C12</f>
@@ -3098,7 +3118,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C29" s="150">
         <v>15194992.810000001</v>
@@ -3184,9 +3204,9 @@
       <c r="L33" s="150"/>
       <c r="M33" s="150"/>
     </row>
-    <row r="34" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B34" s="94" t="s">
-        <v>14</v>
+    <row r="34" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
+      <c r="B34" s="97" t="s">
+        <v>264</v>
       </c>
       <c r="C34" s="217"/>
       <c r="D34" s="150"/>
@@ -3202,7 +3222,7 @@
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C35" s="217"/>
       <c r="D35" s="150"/>
@@ -3218,7 +3238,7 @@
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C36" s="217"/>
       <c r="D36" s="150"/>
@@ -3233,10 +3253,11 @@
       <c r="M36" s="150"/>
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B37" s="94" t="s">
-        <v>15</v>
-      </c>
-      <c r="C37" s="217"/>
+      <c r="B37" s="94" t="str">
+        <f>"Total Liabilities"&amp;IF(C77+C82=0,"",IF(C37=C77+C82,""," Error"))</f>
+        <v>Total Liabilities</v>
+      </c>
+      <c r="C37" s="150"/>
       <c r="D37" s="150"/>
       <c r="E37" s="150"/>
       <c r="F37" s="150"/>
@@ -3248,9 +3269,9 @@
       <c r="L37" s="150"/>
       <c r="M37" s="150"/>
     </row>
-    <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
-        <v>112</v>
+        <v>263</v>
       </c>
       <c r="C38" s="217"/>
       <c r="D38" s="150"/>
@@ -3297,10 +3318,11 @@
       <c r="M40" s="150"/>
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B41" s="94" t="s">
-        <v>133</v>
-      </c>
-      <c r="C41" s="217"/>
+      <c r="B41" s="94" t="str">
+        <f>"Total Equity"&amp;IF(C83="","",IF(C41=Fin_Analysis!D3,""," Error"))</f>
+        <v>Total Equity</v>
+      </c>
+      <c r="C41" s="150"/>
       <c r="D41" s="150"/>
       <c r="E41" s="150"/>
       <c r="F41" s="150"/>
@@ -3314,9 +3336,9 @@
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
-        <v>247</v>
-      </c>
-      <c r="C42" s="217"/>
+        <v>133</v>
+      </c>
+      <c r="C42" s="150"/>
       <c r="D42" s="150"/>
       <c r="E42" s="150"/>
       <c r="F42" s="150"/>
@@ -3330,7 +3352,7 @@
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C43" s="217"/>
       <c r="D43" s="150"/>
@@ -3346,7 +3368,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C44" s="250">
         <f>0.16</f>
@@ -3365,11 +3387,11 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>1.6385588761642672E-2</v>
+        <v>1.6416015185687458E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -3414,13 +3436,13 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C47" s="194" t="s">
         <v>30</v>
       </c>
       <c r="D47" s="194" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E47" s="111" t="s">
         <v>32</v>
@@ -3438,7 +3460,7 @@
     </row>
     <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C49" s="59"/>
       <c r="D49" s="60">
@@ -3448,7 +3470,7 @@
     </row>
     <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C50" s="59"/>
       <c r="D50" s="60">
@@ -3479,7 +3501,7 @@
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C53" s="59"/>
       <c r="D53" s="60">
@@ -3490,7 +3512,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
@@ -3524,7 +3546,7 @@
     </row>
     <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C57" s="59"/>
       <c r="D57" s="60">
@@ -3591,7 +3613,7 @@
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
@@ -3602,7 +3624,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -3649,7 +3671,7 @@
     </row>
     <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C68" s="59"/>
       <c r="D68" s="60">
@@ -3762,7 +3784,7 @@
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C83" s="59"/>
     </row>
@@ -3780,7 +3802,7 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C86" s="197">
         <v>5</v>
@@ -3788,10 +3810,10 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D87" s="269">
         <v>0.02</v>
@@ -3799,7 +3821,7 @@
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C89" s="283">
         <f>C24</f>
@@ -3807,10 +3829,10 @@
       </c>
       <c r="D89" s="283"/>
       <c r="E89" s="89" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F89" s="89" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -3832,7 +3854,7 @@
     </row>
     <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C91" s="77">
         <f>C25</f>
@@ -3871,7 +3893,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -3892,7 +3914,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -3910,7 +3932,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -3949,7 +3971,7 @@
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
@@ -3967,7 +3989,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C98" s="237">
         <f>C44</f>
@@ -3990,28 +4012,33 @@
     <mergeCell ref="C90:D90"/>
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
-  <conditionalFormatting sqref="C16 C25:M33 C44:M44 E91:F93 F94 E95:F95 F96:F98">
-    <cfRule type="containsBlanks" dxfId="20" priority="11">
+  <conditionalFormatting sqref="C16 C25:M33 D34:M43 C44:M44 E91:F93 F94 E95:F95 F96:F98">
+    <cfRule type="containsBlanks" dxfId="22" priority="14">
       <formula>LEN(TRIM(C16))=0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C37">
+    <cfRule type="containsBlanks" dxfId="21" priority="3">
+      <formula>LEN(TRIM(C37))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C41:C42">
+    <cfRule type="containsBlanks" dxfId="20" priority="1">
+      <formula>LEN(TRIM(C41))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C87">
-    <cfRule type="containsBlanks" dxfId="19" priority="4">
+    <cfRule type="containsBlanks" dxfId="19" priority="7">
       <formula>LEN(TRIM(C87))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98">
-    <cfRule type="containsBlanks" dxfId="18" priority="3">
+    <cfRule type="containsBlanks" dxfId="18" priority="6">
       <formula>LEN(TRIM(C98))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D34:M43">
-    <cfRule type="containsBlanks" dxfId="17" priority="17">
-      <formula>LEN(TRIM(D34))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E98">
-    <cfRule type="containsBlanks" dxfId="16" priority="1">
+    <cfRule type="containsBlanks" dxfId="17" priority="4">
       <formula>LEN(TRIM(E98))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4053,8 +4080,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4095,7 +4122,7 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C3" s="289" t="str">
         <f>Inputs!C4</f>
@@ -4107,15 +4134,15 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>10.44</v>
+        <v>10.42</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C4" s="291" t="str">
         <f>Inputs!C5</f>
@@ -4135,7 +4162,7 @@
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C5" s="293">
         <f>Inputs!C6</f>
@@ -4148,7 +4175,7 @@
       </c>
       <c r="G5" s="287">
         <f>G3*G4/1000000</f>
-        <v>30549.628109159999</v>
+        <v>30491.103917380002</v>
       </c>
       <c r="H5" s="287"/>
       <c r="I5" s="38"/>
@@ -4182,7 +4209,7 @@
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
@@ -4197,7 +4224,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0691596666971843</v>
+        <v>1.0690929889678955</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4207,40 +4234,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C10" s="172">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C11" s="173">
         <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C12" s="174">
         <v>7.4999999999999997E-2</v>
@@ -4253,29 +4280,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C14" s="172">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C16" s="173">
         <v>0.16</v>
@@ -4285,12 +4312,12 @@
         <v>CN</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C17" s="175">
         <v>8.6249999999999993E-2</v>
@@ -4300,7 +4327,7 @@
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="142" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C19" s="135" t="s">
         <v>48</v>
@@ -4308,21 +4335,21 @@
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B20" s="275" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C20" s="276" t="e">
         <f>C23*C22*(1/C21)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G20" s="172">
         <v>0.15</v>
@@ -4330,10 +4357,10 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B21" s="277" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C21" s="278" t="e">
-        <f>Data!C55</f>
+        <f>Data!C53</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F21" s="87"/>
@@ -4341,58 +4368,58 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="279" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C22" s="280" t="e">
-        <f>Data!C50</f>
+        <f>Data!C48</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B23" s="281" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C23" s="282">
         <f>Data!C13</f>
         <v>0.2099200315896334</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G23" s="177" t="e">
-        <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
+        <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C24" s="171">
         <f>Fin_Analysis!I81</f>
         <v>2.1757339633768379E-3</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>26.259005735664669</v>
+        <v>26.210335724430497</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C25" s="171">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
       <c r="F25" s="140" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
@@ -4401,18 +4428,18 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C26" s="171">
         <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
         <v>0</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>1.6385588761642672E-2</v>
+        <v>1.6416015185687458E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4422,40 +4449,40 @@
         <v>6</v>
       </c>
       <c r="C28" s="89" t="s">
+        <v>158</v>
+      </c>
+      <c r="D28" s="43" t="s">
         <v>159</v>
-      </c>
-      <c r="D28" s="43" t="s">
-        <v>160</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G28" s="285" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H28" s="285"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>1.1835834503346772</v>
+        <v>1.1836867943864464</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>2.1296981471502345</v>
+        <v>2.1298841007773404</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>1.3924511180407966</v>
+        <v>1.3925726992781724</v>
       </c>
       <c r="G29" s="286">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>1.851911432304552</v>
+        <v>1.852073131110731</v>
       </c>
       <c r="H29" s="286"/>
     </row>
@@ -4463,21 +4490,21 @@
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="196" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C32" s="224"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
@@ -4487,25 +4514,25 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C34" s="225" t="e">
-        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C56&lt;0.8),"Strongly disagree",
-IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C56&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C56&lt;1.4),"agree","Strongly agree")))</f>
+        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
+IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="196" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C35" s="224"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
@@ -4515,7 +4542,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
@@ -4525,14 +4552,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="196" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C38" s="224"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
@@ -4542,7 +4569,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
@@ -4557,14 +4584,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="226" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
@@ -5464,27 +5491,27 @@
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
-    <cfRule type="containsBlanks" dxfId="15" priority="5">
+    <cfRule type="containsBlanks" dxfId="16" priority="5">
       <formula>LEN(TRIM(C11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="containsBlanks" dxfId="14" priority="3">
+    <cfRule type="containsBlanks" dxfId="15" priority="3">
       <formula>LEN(TRIM(D12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="containsBlanks" dxfId="13" priority="2">
+    <cfRule type="containsBlanks" dxfId="14" priority="2">
       <formula>LEN(TRIM(D17))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="cellIs" dxfId="12" priority="41" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="41" operator="greaterThan">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20">
-    <cfRule type="containsBlanks" dxfId="11" priority="1">
+    <cfRule type="containsBlanks" dxfId="12" priority="1">
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5516,12 +5543,12 @@
   <sheetPr codeName="Sheet2">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N932"/>
+  <dimension ref="A1:N930"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="C60" sqref="C60"/>
+      <selection pane="topRight" activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5548,16 +5575,16 @@
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="148" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F2" s="119" t="s">
+        <v>188</v>
+      </c>
+      <c r="G2" s="148" t="s">
         <v>189</v>
       </c>
-      <c r="G2" s="148" t="s">
+      <c r="H2" s="147" t="s">
         <v>190</v>
-      </c>
-      <c r="H2" s="147" t="s">
-        <v>191</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -5575,7 +5602,7 @@
         <v>45291</v>
       </c>
       <c r="E3" s="146" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F3" s="85" t="str">
         <f>H14</f>
@@ -5608,7 +5635,7 @@
         <v>CNY</v>
       </c>
       <c r="E4" s="146" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F4" s="93" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -5619,7 +5646,7 @@
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="115" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -5975,7 +6002,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C12" s="199">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6026,7 +6053,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="228" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6077,7 +6104,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="228" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -6128,7 +6155,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="231" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C15" s="232">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -6230,7 +6257,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C17" s="199">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -6383,7 +6410,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -6638,7 +6665,7 @@
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
       <c r="B25" s="234" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C25" s="233">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
@@ -6689,7 +6716,7 @@
     <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
       <c r="B26" s="114" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
@@ -6743,15 +6770,15 @@
         <v>13</v>
       </c>
       <c r="C27" s="65">
-        <f>IF(C36="","",C36+C31+C32)</f>
+        <f>IF(C34="","",C34+C30)</f>
         <v>0</v>
       </c>
       <c r="D27" s="65" t="str">
-        <f t="shared" ref="D27:M27" si="20">IF(D36="","",D36+D31+D32)</f>
+        <f>IF(D34="","",D34+D30)</f>
         <v/>
       </c>
       <c r="E27" s="65" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="E27:M27" si="20">IF(E34="","",E34+E30)</f>
         <v/>
       </c>
       <c r="F27" s="65" t="str">
@@ -6791,50 +6818,50 @@
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
       <c r="B28" s="94" t="s">
-        <v>14</v>
+        <v>112</v>
       </c>
       <c r="C28" s="65">
-        <f>Fin_Analysis!C28</f>
+        <f>Fin_Analysis!C13</f>
         <v>0</v>
       </c>
       <c r="D28" s="199" t="str">
-        <f>IF(Inputs!D34="","",Inputs!D34)</f>
+        <f>IF(Inputs!D35="","",Inputs!D35)</f>
         <v/>
       </c>
       <c r="E28" s="199" t="str">
-        <f>IF(Inputs!E34="","",Inputs!E34)</f>
+        <f>IF(Inputs!E35="","",Inputs!E35)</f>
         <v/>
       </c>
       <c r="F28" s="199" t="str">
-        <f>IF(Inputs!F34="","",Inputs!F34)</f>
+        <f>IF(Inputs!F35="","",Inputs!F35)</f>
         <v/>
       </c>
       <c r="G28" s="199" t="str">
-        <f>IF(Inputs!G34="","",Inputs!G34)</f>
+        <f>IF(Inputs!G35="","",Inputs!G35)</f>
         <v/>
       </c>
       <c r="H28" s="199" t="str">
-        <f>IF(Inputs!H34="","",Inputs!H34)</f>
+        <f>IF(Inputs!H35="","",Inputs!H35)</f>
         <v/>
       </c>
       <c r="I28" s="199" t="str">
-        <f>IF(Inputs!I34="","",Inputs!I34)</f>
+        <f>IF(Inputs!I35="","",Inputs!I35)</f>
         <v/>
       </c>
       <c r="J28" s="199" t="str">
-        <f>IF(Inputs!J34="","",Inputs!J34)</f>
+        <f>IF(Inputs!J35="","",Inputs!J35)</f>
         <v/>
       </c>
       <c r="K28" s="199" t="str">
-        <f>IF(Inputs!K34="","",Inputs!K34)</f>
+        <f>IF(Inputs!K35="","",Inputs!K35)</f>
         <v/>
       </c>
       <c r="L28" s="199" t="str">
-        <f>IF(Inputs!L34="","",Inputs!L34)</f>
+        <f>IF(Inputs!L35="","",Inputs!L35)</f>
         <v/>
       </c>
       <c r="M28" s="199" t="str">
-        <f>IF(Inputs!M34="","",Inputs!M34)</f>
+        <f>IF(Inputs!M35="","",Inputs!M35)</f>
         <v/>
       </c>
       <c r="N28" s="87"/>
@@ -6842,50 +6869,50 @@
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="94" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="C29" s="65">
-        <f>Fin_Analysis!C13</f>
+        <f>Fin_Analysis!C18</f>
         <v>0</v>
       </c>
       <c r="D29" s="199" t="str">
-        <f>IF(Inputs!D35="","",Inputs!D35)</f>
+        <f>IF(Inputs!D36="","",Inputs!D36)</f>
         <v/>
       </c>
       <c r="E29" s="199" t="str">
-        <f>IF(Inputs!E35="","",Inputs!E35)</f>
+        <f>IF(Inputs!E36="","",Inputs!E36)</f>
         <v/>
       </c>
       <c r="F29" s="199" t="str">
-        <f>IF(Inputs!F35="","",Inputs!F35)</f>
+        <f>IF(Inputs!F36="","",Inputs!F36)</f>
         <v/>
       </c>
       <c r="G29" s="199" t="str">
-        <f>IF(Inputs!G35="","",Inputs!G35)</f>
+        <f>IF(Inputs!G36="","",Inputs!G36)</f>
         <v/>
       </c>
       <c r="H29" s="199" t="str">
-        <f>IF(Inputs!H35="","",Inputs!H35)</f>
+        <f>IF(Inputs!H36="","",Inputs!H36)</f>
         <v/>
       </c>
       <c r="I29" s="199" t="str">
-        <f>IF(Inputs!I35="","",Inputs!I35)</f>
+        <f>IF(Inputs!I36="","",Inputs!I36)</f>
         <v/>
       </c>
       <c r="J29" s="199" t="str">
-        <f>IF(Inputs!J35="","",Inputs!J35)</f>
+        <f>IF(Inputs!J36="","",Inputs!J36)</f>
         <v/>
       </c>
       <c r="K29" s="199" t="str">
-        <f>IF(Inputs!K35="","",Inputs!K35)</f>
+        <f>IF(Inputs!K36="","",Inputs!K36)</f>
         <v/>
       </c>
       <c r="L29" s="199" t="str">
-        <f>IF(Inputs!L35="","",Inputs!L35)</f>
+        <f>IF(Inputs!L36="","",Inputs!L36)</f>
         <v/>
       </c>
       <c r="M29" s="199" t="str">
-        <f>IF(Inputs!M35="","",Inputs!M35)</f>
+        <f>IF(Inputs!M36="","",Inputs!M36)</f>
         <v/>
       </c>
       <c r="N29" s="87"/>
@@ -6893,101 +6920,101 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>142</v>
+        <v>262</v>
       </c>
       <c r="C30" s="65">
-        <f>Fin_Analysis!C18</f>
+        <f>Inputs!C37</f>
         <v>0</v>
       </c>
       <c r="D30" s="199" t="str">
-        <f>IF(Inputs!D36="","",Inputs!D36)</f>
+        <f>IF(Inputs!D37="","",Inputs!D37)</f>
         <v/>
       </c>
       <c r="E30" s="199" t="str">
-        <f>IF(Inputs!E36="","",Inputs!E36)</f>
+        <f>IF(Inputs!E37="","",Inputs!E37)</f>
         <v/>
       </c>
       <c r="F30" s="199" t="str">
-        <f>IF(Inputs!F36="","",Inputs!F36)</f>
+        <f>IF(Inputs!F37="","",Inputs!F37)</f>
         <v/>
       </c>
       <c r="G30" s="199" t="str">
-        <f>IF(Inputs!G36="","",Inputs!G36)</f>
+        <f>IF(Inputs!G37="","",Inputs!G37)</f>
         <v/>
       </c>
       <c r="H30" s="199" t="str">
-        <f>IF(Inputs!H36="","",Inputs!H36)</f>
+        <f>IF(Inputs!H37="","",Inputs!H37)</f>
         <v/>
       </c>
       <c r="I30" s="199" t="str">
-        <f>IF(Inputs!I36="","",Inputs!I36)</f>
+        <f>IF(Inputs!I37="","",Inputs!I37)</f>
         <v/>
       </c>
       <c r="J30" s="199" t="str">
-        <f>IF(Inputs!J36="","",Inputs!J36)</f>
+        <f>IF(Inputs!J37="","",Inputs!J37)</f>
         <v/>
       </c>
       <c r="K30" s="199" t="str">
-        <f>IF(Inputs!K36="","",Inputs!K36)</f>
+        <f>IF(Inputs!K37="","",Inputs!K37)</f>
         <v/>
       </c>
       <c r="L30" s="199" t="str">
-        <f>IF(Inputs!L36="","",Inputs!L36)</f>
+        <f>IF(Inputs!L37="","",Inputs!L37)</f>
         <v/>
       </c>
       <c r="M30" s="199" t="str">
-        <f>IF(Inputs!M36="","",Inputs!M36)</f>
+        <f>IF(Inputs!M37="","",Inputs!M37)</f>
         <v/>
       </c>
       <c r="N30" s="87"/>
     </row>
-    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
       <c r="B31" s="94" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C31" s="65">
-        <f>Fin_Analysis!I28</f>
+        <f>Fin_Analysis!I15</f>
         <v>0</v>
       </c>
       <c r="D31" s="199" t="str">
-        <f>IF(Inputs!D37="","",Inputs!D37)</f>
+        <f>IF(Inputs!D39="","",Inputs!D39)</f>
         <v/>
       </c>
       <c r="E31" s="199" t="str">
-        <f>IF(Inputs!E37="","",Inputs!E37)</f>
+        <f>IF(Inputs!E39="","",Inputs!E39)</f>
         <v/>
       </c>
       <c r="F31" s="199" t="str">
-        <f>IF(Inputs!F37="","",Inputs!F37)</f>
+        <f>IF(Inputs!F39="","",Inputs!F39)</f>
         <v/>
       </c>
       <c r="G31" s="199" t="str">
-        <f>IF(Inputs!G37="","",Inputs!G37)</f>
+        <f>IF(Inputs!G39="","",Inputs!G39)</f>
         <v/>
       </c>
       <c r="H31" s="199" t="str">
-        <f>IF(Inputs!H37="","",Inputs!H37)</f>
+        <f>IF(Inputs!H39="","",Inputs!H39)</f>
         <v/>
       </c>
       <c r="I31" s="199" t="str">
-        <f>IF(Inputs!I37="","",Inputs!I37)</f>
+        <f>IF(Inputs!I39="","",Inputs!I39)</f>
         <v/>
       </c>
       <c r="J31" s="199" t="str">
-        <f>IF(Inputs!J37="","",Inputs!J37)</f>
+        <f>IF(Inputs!J39="","",Inputs!J39)</f>
         <v/>
       </c>
       <c r="K31" s="199" t="str">
-        <f>IF(Inputs!K37="","",Inputs!K37)</f>
+        <f>IF(Inputs!K39="","",Inputs!K39)</f>
         <v/>
       </c>
       <c r="L31" s="199" t="str">
-        <f>IF(Inputs!L37="","",Inputs!L37)</f>
+        <f>IF(Inputs!L39="","",Inputs!L39)</f>
         <v/>
       </c>
       <c r="M31" s="199" t="str">
-        <f>IF(Inputs!M37="","",Inputs!M37)</f>
+        <f>IF(Inputs!M39="","",Inputs!M39)</f>
         <v/>
       </c>
       <c r="N31" s="87"/>
@@ -6995,101 +7022,101 @@
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
       <c r="B32" s="94" t="s">
-        <v>112</v>
+        <v>17</v>
       </c>
       <c r="C32" s="65">
-        <f>Fin_Analysis!I48</f>
+        <f>Fin_Analysis!I34</f>
         <v>0</v>
       </c>
       <c r="D32" s="199" t="str">
-        <f>IF(Inputs!D38="","",Inputs!D38)</f>
+        <f>IF(Inputs!D40="","",Inputs!D40)</f>
         <v/>
       </c>
       <c r="E32" s="199" t="str">
-        <f>IF(Inputs!E38="","",Inputs!E38)</f>
+        <f>IF(Inputs!E40="","",Inputs!E40)</f>
         <v/>
       </c>
       <c r="F32" s="199" t="str">
-        <f>IF(Inputs!F38="","",Inputs!F38)</f>
+        <f>IF(Inputs!F40="","",Inputs!F40)</f>
         <v/>
       </c>
       <c r="G32" s="199" t="str">
-        <f>IF(Inputs!G38="","",Inputs!G38)</f>
+        <f>IF(Inputs!G40="","",Inputs!G40)</f>
         <v/>
       </c>
       <c r="H32" s="199" t="str">
-        <f>IF(Inputs!H38="","",Inputs!H38)</f>
+        <f>IF(Inputs!H40="","",Inputs!H40)</f>
         <v/>
       </c>
       <c r="I32" s="199" t="str">
-        <f>IF(Inputs!I38="","",Inputs!I38)</f>
+        <f>IF(Inputs!I40="","",Inputs!I40)</f>
         <v/>
       </c>
       <c r="J32" s="199" t="str">
-        <f>IF(Inputs!J38="","",Inputs!J38)</f>
+        <f>IF(Inputs!J40="","",Inputs!J40)</f>
         <v/>
       </c>
       <c r="K32" s="199" t="str">
-        <f>IF(Inputs!K38="","",Inputs!K38)</f>
+        <f>IF(Inputs!K40="","",Inputs!K40)</f>
         <v/>
       </c>
       <c r="L32" s="199" t="str">
-        <f>IF(Inputs!L38="","",Inputs!L38)</f>
+        <f>IF(Inputs!L40="","",Inputs!L40)</f>
         <v/>
       </c>
       <c r="M32" s="199" t="str">
-        <f>IF(Inputs!M38="","",Inputs!M38)</f>
+        <f>IF(Inputs!M40="","",Inputs!M40)</f>
         <v/>
       </c>
       <c r="N32" s="87"/>
     </row>
-    <row r="33" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
       <c r="B33" s="94" t="s">
-        <v>16</v>
-      </c>
-      <c r="C33" s="65">
-        <f>Fin_Analysis!I15</f>
-        <v>0</v>
-      </c>
-      <c r="D33" s="199" t="str">
-        <f>IF(Inputs!D39="","",Inputs!D39)</f>
-        <v/>
-      </c>
-      <c r="E33" s="199" t="str">
-        <f>IF(Inputs!E39="","",Inputs!E39)</f>
-        <v/>
-      </c>
-      <c r="F33" s="199" t="str">
-        <f>IF(Inputs!F39="","",Inputs!F39)</f>
-        <v/>
-      </c>
-      <c r="G33" s="199" t="str">
-        <f>IF(Inputs!G39="","",Inputs!G39)</f>
-        <v/>
-      </c>
-      <c r="H33" s="199" t="str">
-        <f>IF(Inputs!H39="","",Inputs!H39)</f>
-        <v/>
-      </c>
-      <c r="I33" s="199" t="str">
-        <f>IF(Inputs!I39="","",Inputs!I39)</f>
-        <v/>
-      </c>
-      <c r="J33" s="199" t="str">
-        <f>IF(Inputs!J39="","",Inputs!J39)</f>
-        <v/>
-      </c>
-      <c r="K33" s="199" t="str">
-        <f>IF(Inputs!K39="","",Inputs!K39)</f>
-        <v/>
-      </c>
-      <c r="L33" s="199" t="str">
-        <f>IF(Inputs!L39="","",Inputs!L39)</f>
-        <v/>
-      </c>
-      <c r="M33" s="199" t="str">
-        <f>IF(Inputs!M39="","",Inputs!M39)</f>
+        <v>18</v>
+      </c>
+      <c r="C33" s="77">
+        <f t="shared" ref="C33" si="21">IF(OR(C31="",C32=""),"",C31+C32)</f>
+        <v>0</v>
+      </c>
+      <c r="D33" s="77" t="str">
+        <f t="shared" ref="D33" si="22">IF(OR(D31="",D32=""),"",D31+D32)</f>
+        <v/>
+      </c>
+      <c r="E33" s="77" t="str">
+        <f t="shared" ref="E33" si="23">IF(OR(E31="",E32=""),"",E31+E32)</f>
+        <v/>
+      </c>
+      <c r="F33" s="77" t="str">
+        <f t="shared" ref="F33" si="24">IF(OR(F31="",F32=""),"",F31+F32)</f>
+        <v/>
+      </c>
+      <c r="G33" s="77" t="str">
+        <f t="shared" ref="G33" si="25">IF(OR(G31="",G32=""),"",G31+G32)</f>
+        <v/>
+      </c>
+      <c r="H33" s="77" t="str">
+        <f t="shared" ref="H33" si="26">IF(OR(H31="",H32=""),"",H31+H32)</f>
+        <v/>
+      </c>
+      <c r="I33" s="77" t="str">
+        <f t="shared" ref="I33" si="27">IF(OR(I31="",I32=""),"",I31+I32)</f>
+        <v/>
+      </c>
+      <c r="J33" s="77" t="str">
+        <f t="shared" ref="J33" si="28">IF(OR(J31="",J32=""),"",J31+J32)</f>
+        <v/>
+      </c>
+      <c r="K33" s="77" t="str">
+        <f t="shared" ref="K33" si="29">IF(OR(K31="",K32=""),"",K31+K32)</f>
+        <v/>
+      </c>
+      <c r="L33" s="77" t="str">
+        <f t="shared" ref="L33" si="30">IF(OR(L31="",L32=""),"",L31+L32)</f>
+        <v/>
+      </c>
+      <c r="M33" s="77" t="str">
+        <f t="shared" ref="M33" si="31">IF(OR(M31="",M32=""),"",M31+M32)</f>
         <v/>
       </c>
       <c r="N33" s="87"/>
@@ -7097,50 +7124,50 @@
     <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
       <c r="B34" s="94" t="s">
-        <v>17</v>
+        <v>132</v>
       </c>
       <c r="C34" s="65">
-        <f>Fin_Analysis!I34</f>
+        <f>Inputs!C41</f>
         <v>0</v>
       </c>
       <c r="D34" s="199" t="str">
-        <f>IF(Inputs!D40="","",Inputs!D40)</f>
+        <f>IF(Inputs!D41="","",Inputs!D41)</f>
         <v/>
       </c>
       <c r="E34" s="199" t="str">
-        <f>IF(Inputs!E40="","",Inputs!E40)</f>
+        <f>IF(Inputs!E41="","",Inputs!E41)</f>
         <v/>
       </c>
       <c r="F34" s="199" t="str">
-        <f>IF(Inputs!F40="","",Inputs!F40)</f>
+        <f>IF(Inputs!F41="","",Inputs!F41)</f>
         <v/>
       </c>
       <c r="G34" s="199" t="str">
-        <f>IF(Inputs!G40="","",Inputs!G40)</f>
+        <f>IF(Inputs!G41="","",Inputs!G41)</f>
         <v/>
       </c>
       <c r="H34" s="199" t="str">
-        <f>IF(Inputs!H40="","",Inputs!H40)</f>
+        <f>IF(Inputs!H41="","",Inputs!H41)</f>
         <v/>
       </c>
       <c r="I34" s="199" t="str">
-        <f>IF(Inputs!I40="","",Inputs!I40)</f>
+        <f>IF(Inputs!I41="","",Inputs!I41)</f>
         <v/>
       </c>
       <c r="J34" s="199" t="str">
-        <f>IF(Inputs!J40="","",Inputs!J40)</f>
+        <f>IF(Inputs!J41="","",Inputs!J41)</f>
         <v/>
       </c>
       <c r="K34" s="199" t="str">
-        <f>IF(Inputs!K40="","",Inputs!K40)</f>
+        <f>IF(Inputs!K41="","",Inputs!K41)</f>
         <v/>
       </c>
       <c r="L34" s="199" t="str">
-        <f>IF(Inputs!L40="","",Inputs!L40)</f>
+        <f>IF(Inputs!L41="","",Inputs!L41)</f>
         <v/>
       </c>
       <c r="M34" s="199" t="str">
-        <f>IF(Inputs!M40="","",Inputs!M40)</f>
+        <f>IF(Inputs!M41="","",Inputs!M41)</f>
         <v/>
       </c>
       <c r="N34" s="87"/>
@@ -7148,50 +7175,50 @@
     <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
       <c r="B35" s="94" t="s">
-        <v>18</v>
-      </c>
-      <c r="C35" s="77">
-        <f t="shared" ref="C35" si="21">IF(OR(C33="",C34=""),"",C33+C34)</f>
-        <v>0</v>
-      </c>
-      <c r="D35" s="77" t="str">
-        <f t="shared" ref="D35" si="22">IF(OR(D33="",D34=""),"",D33+D34)</f>
-        <v/>
-      </c>
-      <c r="E35" s="77" t="str">
-        <f t="shared" ref="E35" si="23">IF(OR(E33="",E34=""),"",E33+E34)</f>
-        <v/>
-      </c>
-      <c r="F35" s="77" t="str">
-        <f t="shared" ref="F35" si="24">IF(OR(F33="",F34=""),"",F33+F34)</f>
-        <v/>
-      </c>
-      <c r="G35" s="77" t="str">
-        <f t="shared" ref="G35" si="25">IF(OR(G33="",G34=""),"",G33+G34)</f>
-        <v/>
-      </c>
-      <c r="H35" s="77" t="str">
-        <f t="shared" ref="H35" si="26">IF(OR(H33="",H34=""),"",H33+H34)</f>
-        <v/>
-      </c>
-      <c r="I35" s="77" t="str">
-        <f t="shared" ref="I35" si="27">IF(OR(I33="",I34=""),"",I33+I34)</f>
-        <v/>
-      </c>
-      <c r="J35" s="77" t="str">
-        <f t="shared" ref="J35" si="28">IF(OR(J33="",J34=""),"",J33+J34)</f>
-        <v/>
-      </c>
-      <c r="K35" s="77" t="str">
-        <f t="shared" ref="K35" si="29">IF(OR(K33="",K34=""),"",K33+K34)</f>
-        <v/>
-      </c>
-      <c r="L35" s="77" t="str">
-        <f t="shared" ref="L35" si="30">IF(OR(L33="",L34=""),"",L33+L34)</f>
-        <v/>
-      </c>
-      <c r="M35" s="77" t="str">
-        <f t="shared" ref="M35" si="31">IF(OR(M33="",M34=""),"",M33+M34)</f>
+        <v>133</v>
+      </c>
+      <c r="C35" s="65">
+        <f>Inputs!C42</f>
+        <v>0</v>
+      </c>
+      <c r="D35" s="199" t="str">
+        <f>IF(Inputs!D42="","",Inputs!D42)</f>
+        <v/>
+      </c>
+      <c r="E35" s="199" t="str">
+        <f>IF(Inputs!E42="","",Inputs!E42)</f>
+        <v/>
+      </c>
+      <c r="F35" s="199" t="str">
+        <f>IF(Inputs!F42="","",Inputs!F42)</f>
+        <v/>
+      </c>
+      <c r="G35" s="199" t="str">
+        <f>IF(Inputs!G42="","",Inputs!G42)</f>
+        <v/>
+      </c>
+      <c r="H35" s="199" t="str">
+        <f>IF(Inputs!H42="","",Inputs!H42)</f>
+        <v/>
+      </c>
+      <c r="I35" s="199" t="str">
+        <f>IF(Inputs!I42="","",Inputs!I42)</f>
+        <v/>
+      </c>
+      <c r="J35" s="199" t="str">
+        <f>IF(Inputs!J42="","",Inputs!J42)</f>
+        <v/>
+      </c>
+      <c r="K35" s="199" t="str">
+        <f>IF(Inputs!K42="","",Inputs!K42)</f>
+        <v/>
+      </c>
+      <c r="L35" s="199" t="str">
+        <f>IF(Inputs!L42="","",Inputs!L42)</f>
+        <v/>
+      </c>
+      <c r="M35" s="199" t="str">
+        <f>IF(Inputs!M42="","",Inputs!M42)</f>
         <v/>
       </c>
       <c r="N35" s="87"/>
@@ -7199,50 +7226,50 @@
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="94" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C36" s="65">
-        <f>Fin_Analysis!D3</f>
+        <f>Inputs!C40</f>
         <v>0</v>
       </c>
       <c r="D36" s="199" t="str">
-        <f>IF(Inputs!D41="","",Inputs!D41)</f>
+        <f>IF(Inputs!D43="","",Inputs!D43)</f>
         <v/>
       </c>
       <c r="E36" s="199" t="str">
-        <f>IF(Inputs!E41="","",Inputs!E41)</f>
+        <f>IF(Inputs!E43="","",Inputs!E43)</f>
         <v/>
       </c>
       <c r="F36" s="199" t="str">
-        <f>IF(Inputs!F41="","",Inputs!F41)</f>
+        <f>IF(Inputs!F43="","",Inputs!F43)</f>
         <v/>
       </c>
       <c r="G36" s="199" t="str">
-        <f>IF(Inputs!G41="","",Inputs!G41)</f>
+        <f>IF(Inputs!G43="","",Inputs!G43)</f>
         <v/>
       </c>
       <c r="H36" s="199" t="str">
-        <f>IF(Inputs!H41="","",Inputs!H41)</f>
+        <f>IF(Inputs!H43="","",Inputs!H43)</f>
         <v/>
       </c>
       <c r="I36" s="199" t="str">
-        <f>IF(Inputs!I41="","",Inputs!I41)</f>
+        <f>IF(Inputs!I43="","",Inputs!I43)</f>
         <v/>
       </c>
       <c r="J36" s="199" t="str">
-        <f>IF(Inputs!J41="","",Inputs!J41)</f>
+        <f>IF(Inputs!J43="","",Inputs!J43)</f>
         <v/>
       </c>
       <c r="K36" s="199" t="str">
-        <f>IF(Inputs!K41="","",Inputs!K41)</f>
+        <f>IF(Inputs!K43="","",Inputs!K43)</f>
         <v/>
       </c>
       <c r="L36" s="199" t="str">
-        <f>IF(Inputs!L41="","",Inputs!L41)</f>
+        <f>IF(Inputs!L43="","",Inputs!L43)</f>
         <v/>
       </c>
       <c r="M36" s="199" t="str">
-        <f>IF(Inputs!M41="","",Inputs!M41)</f>
+        <f>IF(Inputs!M43="","",Inputs!M43)</f>
         <v/>
       </c>
       <c r="N36" s="87"/>
@@ -7250,272 +7277,272 @@
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="94" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C37" s="65">
-        <f>Fin_Analysis!D4</f>
-        <v>0</v>
-      </c>
-      <c r="D37" s="199" t="str">
-        <f>IF(Inputs!D42="","",Inputs!D42)</f>
-        <v/>
-      </c>
-      <c r="E37" s="199" t="str">
-        <f>IF(Inputs!E42="","",Inputs!E42)</f>
-        <v/>
-      </c>
-      <c r="F37" s="199" t="str">
-        <f>IF(Inputs!F42="","",Inputs!F42)</f>
-        <v/>
-      </c>
-      <c r="G37" s="199" t="str">
-        <f>IF(Inputs!G42="","",Inputs!G42)</f>
-        <v/>
-      </c>
-      <c r="H37" s="199" t="str">
-        <f>IF(Inputs!H42="","",Inputs!H42)</f>
-        <v/>
-      </c>
-      <c r="I37" s="199" t="str">
-        <f>IF(Inputs!I42="","",Inputs!I42)</f>
-        <v/>
-      </c>
-      <c r="J37" s="199" t="str">
-        <f>IF(Inputs!J42="","",Inputs!J42)</f>
-        <v/>
-      </c>
-      <c r="K37" s="199" t="str">
-        <f>IF(Inputs!K42="","",Inputs!K42)</f>
-        <v/>
-      </c>
-      <c r="L37" s="199" t="str">
-        <f>IF(Inputs!L42="","",Inputs!L42)</f>
-        <v/>
-      </c>
-      <c r="M37" s="199" t="str">
-        <f>IF(Inputs!M42="","",Inputs!M42)</f>
+        <f>Fin_Analysis!C68</f>
+        <v>0</v>
+      </c>
+      <c r="D37" s="65" t="str">
+        <f t="shared" ref="D37:M37" si="32">IF(D36="","",D27-D36)</f>
+        <v/>
+      </c>
+      <c r="E37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="F37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="G37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="H37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="I37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="J37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="K37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="L37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="M37" s="65" t="str">
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="N37" s="87"/>
     </row>
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
-      <c r="B38" s="94" t="s">
-        <v>132</v>
-      </c>
-      <c r="C38" s="65">
-        <f>Fin_Analysis!C63</f>
-        <v>0</v>
-      </c>
-      <c r="D38" s="199" t="str">
-        <f>IF(Inputs!D43="","",Inputs!D43)</f>
-        <v/>
-      </c>
-      <c r="E38" s="199" t="str">
-        <f>IF(Inputs!E43="","",Inputs!E43)</f>
-        <v/>
-      </c>
-      <c r="F38" s="199" t="str">
-        <f>IF(Inputs!F43="","",Inputs!F43)</f>
-        <v/>
-      </c>
-      <c r="G38" s="199" t="str">
-        <f>IF(Inputs!G43="","",Inputs!G43)</f>
-        <v/>
-      </c>
-      <c r="H38" s="199" t="str">
-        <f>IF(Inputs!H43="","",Inputs!H43)</f>
-        <v/>
-      </c>
-      <c r="I38" s="199" t="str">
-        <f>IF(Inputs!I43="","",Inputs!I43)</f>
-        <v/>
-      </c>
-      <c r="J38" s="199" t="str">
-        <f>IF(Inputs!J43="","",Inputs!J43)</f>
-        <v/>
-      </c>
-      <c r="K38" s="199" t="str">
-        <f>IF(Inputs!K43="","",Inputs!K43)</f>
-        <v/>
-      </c>
-      <c r="L38" s="199" t="str">
-        <f>IF(Inputs!L43="","",Inputs!L43)</f>
-        <v/>
-      </c>
-      <c r="M38" s="199" t="str">
-        <f>IF(Inputs!M43="","",Inputs!M43)</f>
+      <c r="B38" s="98" t="s">
+        <v>149</v>
+      </c>
+      <c r="C38" s="155" t="e">
+        <f>IF(C6="","",C14/MAX(C37,0))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D38" s="155" t="e">
+        <f>IF(D6="","",D14/MAX(D37,0))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E38" s="155" t="str">
+        <f>IF(E6="","",E14/MAX(E37,0))</f>
+        <v/>
+      </c>
+      <c r="F38" s="155" t="str">
+        <f t="shared" ref="F38:M38" si="33">IF(F37="","",F14/F37)</f>
+        <v/>
+      </c>
+      <c r="G38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="H38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="I38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="J38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="K38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="L38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="M38" s="155" t="str">
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="N38" s="87"/>
     </row>
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="4"/>
-      <c r="B39" s="94" t="s">
-        <v>136</v>
-      </c>
-      <c r="C39" s="65">
-        <f>Fin_Analysis!C68</f>
-        <v>0</v>
-      </c>
-      <c r="D39" s="65" t="str">
-        <f>IF(D38="","",D27-D38)</f>
-        <v/>
-      </c>
-      <c r="E39" s="65" t="str">
-        <f t="shared" ref="E39:M39" si="32">IF(E38="","",E27-E38)</f>
-        <v/>
-      </c>
-      <c r="F39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="G39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="H39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="I39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="J39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="K39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="L39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="M39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
+      <c r="A39" s="16"/>
+      <c r="B39" s="55" t="s">
+        <v>246</v>
+      </c>
+      <c r="C39" s="54"/>
+      <c r="D39" s="54"/>
+      <c r="E39" s="54"/>
+      <c r="F39" s="54"/>
+      <c r="G39" s="54"/>
+      <c r="H39" s="54"/>
+      <c r="I39" s="54"/>
+      <c r="J39" s="54"/>
+      <c r="K39" s="54"/>
+      <c r="L39" s="54"/>
+      <c r="M39" s="54"/>
       <c r="N39" s="87"/>
     </row>
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
-      <c r="B40" s="98" t="s">
-        <v>150</v>
-      </c>
-      <c r="C40" s="155" t="e">
-        <f>IF(C6="","",C14/MAX(C39,0))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D40" s="155" t="e">
-        <f>IF(D6="","",D14/MAX(D39,0))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E40" s="155" t="str">
-        <f>IF(E6="","",E14/MAX(E39,0))</f>
-        <v/>
-      </c>
-      <c r="F40" s="155" t="str">
-        <f t="shared" ref="F40:M40" si="33">IF(F39="","",F14/F39)</f>
-        <v/>
-      </c>
-      <c r="G40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="H40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="I40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="J40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="K40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="L40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="M40" s="155" t="str">
-        <f t="shared" si="33"/>
+      <c r="B40" s="95" t="s">
+        <v>94</v>
+      </c>
+      <c r="C40" s="156">
+        <f t="shared" ref="C40:M40" si="34">IF(C6="","",C8/C6)</f>
+        <v>0.48660635459513968</v>
+      </c>
+      <c r="D40" s="156">
+        <f t="shared" si="34"/>
+        <v>0.60694162732677759</v>
+      </c>
+      <c r="E40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="F40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="G40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="H40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="I40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="J40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="K40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="L40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="M40" s="156" t="str">
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="N40" s="87"/>
     </row>
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="16"/>
-      <c r="B41" s="55" t="s">
-        <v>248</v>
-      </c>
-      <c r="C41" s="54"/>
-      <c r="D41" s="54"/>
-      <c r="E41" s="54"/>
-      <c r="F41" s="54"/>
-      <c r="G41" s="54"/>
-      <c r="H41" s="54"/>
-      <c r="I41" s="54"/>
-      <c r="J41" s="54"/>
-      <c r="K41" s="54"/>
-      <c r="L41" s="54"/>
-      <c r="M41" s="54"/>
+      <c r="A41" s="4"/>
+      <c r="B41" s="94" t="s">
+        <v>220</v>
+      </c>
+      <c r="C41" s="153">
+        <f t="shared" ref="C41:M41" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
+        <v>0.2941332211490556</v>
+      </c>
+      <c r="D41" s="153">
+        <f t="shared" si="35"/>
+        <v>0.33210107591309218</v>
+      </c>
+      <c r="E41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="F41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="G41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="H41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="I41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="J41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="K41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="L41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="M41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
       <c r="N41" s="87"/>
     </row>
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
-      <c r="B42" s="95" t="s">
-        <v>94</v>
-      </c>
-      <c r="C42" s="156">
-        <f t="shared" ref="C42:M42" si="34">IF(C6="","",C8/C6)</f>
-        <v>0.48660635459513968</v>
-      </c>
-      <c r="D42" s="156">
-        <f t="shared" si="34"/>
-        <v>0.60694162732677759</v>
-      </c>
-      <c r="E42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="F42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="G42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="H42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="I42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="J42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="K42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="L42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="M42" s="156" t="str">
-        <f t="shared" si="34"/>
+      <c r="B42" s="94" t="s">
+        <v>105</v>
+      </c>
+      <c r="C42" s="153">
+        <f t="shared" ref="C42:M42" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D42" s="153">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="E42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="F42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="G42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="H42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="I42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="J42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="K42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="L42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="M42" s="153" t="str">
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="N42" s="87"/>
@@ -7523,50 +7550,50 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>221</v>
+        <v>117</v>
       </c>
       <c r="C43" s="153">
-        <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
-        <v>0.2941332211490556</v>
+        <f t="shared" ref="C43:M43" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
+        <v>2.1757339633768379E-3</v>
       </c>
       <c r="D43" s="153">
-        <f t="shared" si="35"/>
-        <v>0.33210107591309218</v>
+        <f t="shared" si="37"/>
+        <v>2.3829053680425824E-3</v>
       </c>
       <c r="E43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="F43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="G43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="H43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="J43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="K43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="L43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="M43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="N43" s="87"/>
@@ -7574,50 +7601,50 @@
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="94" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="C44" s="153">
-        <f t="shared" ref="C44:M44" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
-        <v>0</v>
+        <f t="shared" ref="C44:M44" si="38">IF(C6="","",MAX(C12,0)/C6)</f>
+        <v>9.3403926661713623E-3</v>
       </c>
       <c r="D44" s="153">
-        <f t="shared" si="36"/>
-        <v>0</v>
+        <f t="shared" si="38"/>
+        <v>1.3512364759267613E-2</v>
       </c>
       <c r="E44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="F44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="G44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="H44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="I44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="J44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="K44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="L44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="M44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="N44" s="87"/>
@@ -7625,50 +7652,50 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
-        <v>118</v>
+        <v>222</v>
       </c>
       <c r="C45" s="153">
-        <f t="shared" ref="C45:M45" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
-        <v>2.1757339633768379E-3</v>
+        <f t="shared" ref="C45:M45" si="39">IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
+        <v>0</v>
       </c>
       <c r="D45" s="153">
-        <f t="shared" si="37"/>
-        <v>2.3829053680425824E-3</v>
+        <f t="shared" si="39"/>
+        <v>0</v>
       </c>
       <c r="E45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="F45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="G45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="H45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="J45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="K45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="L45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="M45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="N45" s="87"/>
@@ -7676,221 +7703,221 @@
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="94" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C46" s="153">
-        <f>IF(C6="","",MAX(C12,0)/C6)</f>
-        <v>9.3403926661713623E-3</v>
+        <f t="shared" ref="C46:M46" si="40">IF(C6="","",C22/C6)</f>
+        <v>0.20774429762625657</v>
       </c>
       <c r="D46" s="153">
-        <f t="shared" ref="D46:M46" si="38">IF(D6="","",MAX(D12,0)/D6)</f>
-        <v>1.3512364759267613E-2</v>
+        <f t="shared" si="40"/>
+        <v>4.5062026632820024E-2</v>
       </c>
       <c r="E46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="F46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="G46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="H46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="I46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="J46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="K46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="L46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="M46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="N46" s="87"/>
     </row>
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="4"/>
-      <c r="B47" s="94" t="s">
-        <v>223</v>
-      </c>
-      <c r="C47" s="153">
-        <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
-        <v>0</v>
-      </c>
-      <c r="D47" s="153">
-        <f t="shared" ref="D47:M47" si="39">IF(D6="","",ABS(MAX(D21,0)-MAX(D19,0))/D6)</f>
-        <v>0</v>
-      </c>
-      <c r="E47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="F47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="G47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="H47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="I47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="J47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="K47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="L47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="M47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
+      <c r="A47" s="16"/>
+      <c r="B47" s="102" t="s">
+        <v>247</v>
+      </c>
+      <c r="C47" s="36"/>
+      <c r="D47" s="36"/>
+      <c r="E47" s="36"/>
+      <c r="F47" s="36"/>
+      <c r="G47" s="36"/>
+      <c r="H47" s="36"/>
+      <c r="I47" s="36"/>
+      <c r="J47" s="36"/>
+      <c r="K47" s="36"/>
+      <c r="L47" s="36"/>
+      <c r="M47" s="36"/>
       <c r="N47" s="87"/>
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
-      <c r="B48" s="94" t="s">
-        <v>120</v>
-      </c>
-      <c r="C48" s="153">
-        <f t="shared" ref="C48:M48" si="40">IF(C6="","",C22/C6)</f>
-        <v>0.20774429762625657</v>
-      </c>
-      <c r="D48" s="153">
-        <f t="shared" si="40"/>
-        <v>4.5062026632820024E-2</v>
-      </c>
-      <c r="E48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="F48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="G48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="H48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="I48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="J48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="K48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="L48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="M48" s="153" t="str">
-        <f t="shared" si="40"/>
+      <c r="B48" s="271" t="s">
+        <v>253</v>
+      </c>
+      <c r="C48" s="272" t="e">
+        <f t="shared" ref="C48:M48" si="41">IF(C6="","",C6/C27)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D48" s="272" t="e">
+        <f t="shared" si="41"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="F48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="G48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="H48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="I48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="J48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="K48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="L48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="M48" s="272" t="str">
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="N48" s="87"/>
     </row>
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="16"/>
-      <c r="B49" s="102" t="s">
-        <v>249</v>
-      </c>
-      <c r="C49" s="36"/>
-      <c r="D49" s="36"/>
-      <c r="E49" s="36"/>
-      <c r="F49" s="36"/>
-      <c r="G49" s="36"/>
-      <c r="H49" s="36"/>
-      <c r="I49" s="36"/>
-      <c r="J49" s="36"/>
-      <c r="K49" s="36"/>
-      <c r="L49" s="36"/>
-      <c r="M49" s="36"/>
+      <c r="A49" s="4"/>
+      <c r="B49" s="94" t="s">
+        <v>254</v>
+      </c>
+      <c r="C49" s="153">
+        <f t="shared" ref="C49:M49" si="42">IF(C28="","",C28/C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="E49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="F49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="G49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="H49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="I49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="J49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="K49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="L49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="M49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
       <c r="N49" s="87"/>
     </row>
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
-      <c r="B50" s="271" t="s">
+      <c r="B50" s="94" t="s">
         <v>255</v>
       </c>
-      <c r="C50" s="272" t="e">
-        <f>IF(C6="","",C6/C27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D50" s="272" t="e">
-        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D27)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="F50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="G50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="H50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="I50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="J50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="K50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="L50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="M50" s="272" t="str">
-        <f t="shared" si="41"/>
+      <c r="C50" s="153">
+        <f t="shared" ref="C50:M50" si="43">IF(C29="","",C29/C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="E50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="F50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="H50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="I50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="J50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="K50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="L50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="M50" s="153" t="str">
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="N50" s="87"/>
@@ -7898,522 +7925,426 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>256</v>
-      </c>
-      <c r="C51" s="153">
-        <f t="shared" ref="C51:M51" si="42">IF(C29="","",C29/C6)</f>
-        <v>0</v>
+        <v>245</v>
+      </c>
+      <c r="C51" s="153" t="e">
+        <f t="shared" ref="C51:M51" si="44">IF(D6="","",C16/(C6-D6))</f>
+        <v>#VALUE!</v>
       </c>
       <c r="D51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="E51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="F51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="G51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="H51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="I51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="J51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="K51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="L51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="M51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="N51" s="87"/>
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="4"/>
-      <c r="B52" s="94" t="s">
-        <v>257</v>
-      </c>
-      <c r="C52" s="153">
-        <f t="shared" ref="C52:M52" si="43">IF(C30="","",C30/C6)</f>
-        <v>0</v>
-      </c>
-      <c r="D52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="E52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="F52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="G52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="H52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="I52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="J52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="K52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="L52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="M52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="N52" s="87"/>
+      <c r="A52" s="16"/>
+      <c r="B52" s="102" t="s">
+        <v>248</v>
+      </c>
+      <c r="C52" s="36"/>
+      <c r="D52" s="36"/>
+      <c r="E52" s="36"/>
+      <c r="F52" s="36"/>
+      <c r="G52" s="36"/>
+      <c r="H52" s="36"/>
+      <c r="I52" s="36"/>
+      <c r="J52" s="36"/>
+      <c r="K52" s="36"/>
+      <c r="L52" s="36"/>
+      <c r="M52" s="36"/>
     </row>
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
-      <c r="B53" s="94" t="s">
-        <v>246</v>
-      </c>
-      <c r="C53" s="153" t="e">
-        <f>IF(D6="","",C16/(C6-D6))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D53" s="153" t="str">
-        <f t="shared" ref="D53:M53" si="44">IF(E6="","",D16/(D6-E6))</f>
-        <v/>
-      </c>
-      <c r="E53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="F53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="G53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="H53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="I53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="J53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="K53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="L53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="M53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="N53" s="87"/>
+      <c r="B53" s="95" t="s">
+        <v>249</v>
+      </c>
+      <c r="C53" s="156" t="e">
+        <f t="shared" ref="C53:M53" si="45">IF(C34="","",(C34-C35)/C27)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="E53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="F53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="G53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="H53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="I53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="J53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="K53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="L53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="M53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
     </row>
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="16"/>
-      <c r="B54" s="102" t="s">
-        <v>250</v>
-      </c>
-      <c r="C54" s="36"/>
-      <c r="D54" s="36"/>
-      <c r="E54" s="36"/>
-      <c r="F54" s="36"/>
-      <c r="G54" s="36"/>
-      <c r="H54" s="36"/>
-      <c r="I54" s="36"/>
-      <c r="J54" s="36"/>
-      <c r="K54" s="36"/>
-      <c r="L54" s="36"/>
-      <c r="M54" s="36"/>
+      <c r="A54" s="4"/>
+      <c r="B54" s="94" t="s">
+        <v>116</v>
+      </c>
+      <c r="C54" s="157" t="str">
+        <f t="shared" ref="C54:M54" si="46">IF(OR(C22="",C33=""),"",IF(C33&lt;=0,"-",C22/C33))</f>
+        <v>-</v>
+      </c>
+      <c r="D54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="E54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="F54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="G54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="H54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="I54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="J54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="K54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="L54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="M54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
     </row>
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
-      <c r="B55" s="95" t="s">
-        <v>251</v>
-      </c>
-      <c r="C55" s="156" t="e">
-        <f>IF(C36="","",(C36-C37)/C27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D55" s="156" t="str">
-        <f t="shared" ref="D55:M55" si="45">IF(D36="","",(D36-D37)/D27)</f>
-        <v/>
-      </c>
-      <c r="E55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="F55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="G55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="H55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="I55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="J55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="K55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="L55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="M55" s="156" t="str">
-        <f t="shared" si="45"/>
+      <c r="B55" s="94" t="s">
+        <v>118</v>
+      </c>
+      <c r="C55" s="153">
+        <f t="shared" ref="C55:M55" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
+        <v>1.0473134465000349E-2</v>
+      </c>
+      <c r="D55" s="153">
+        <f t="shared" si="47"/>
+        <v>5.2880563660823929E-2</v>
+      </c>
+      <c r="E55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="F55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="G55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="H55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="I55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="J55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="K55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="L55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="M55" s="153" t="str">
+        <f t="shared" si="47"/>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
-      <c r="B56" s="94" t="s">
-        <v>117</v>
-      </c>
-      <c r="C56" s="157" t="str">
-        <f t="shared" ref="C56:M56" si="46">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
-        <v>-</v>
-      </c>
-      <c r="D56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="E56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="F56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="G56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="H56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="I56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="J56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="K56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="L56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="M56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
+      <c r="B56" s="98" t="s">
+        <v>19</v>
+      </c>
+      <c r="C56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/C30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/D30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/E30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/F30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/G30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/H30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/I30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/J30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/K30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/L30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/M30)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="4"/>
-      <c r="B57" s="94" t="s">
-        <v>119</v>
-      </c>
-      <c r="C57" s="153">
-        <f t="shared" ref="C57:M57" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
-        <v>1.0473134465000349E-2</v>
-      </c>
-      <c r="D57" s="153">
-        <f t="shared" si="47"/>
-        <v>5.2880563660823929E-2</v>
-      </c>
-      <c r="E57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="F57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="G57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="H57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="I57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="J57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="K57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="L57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="M57" s="153" t="str">
-        <f t="shared" si="47"/>
+      <c r="A57" s="16"/>
+      <c r="B57" s="102" t="s">
+        <v>250</v>
+      </c>
+      <c r="C57" s="273" t="str">
+        <f t="shared" ref="C57:M57" si="48">IFERROR(IF(C13*C48*(1/C53)=C58,"","Error"),"")</f>
+        <v/>
+      </c>
+      <c r="D57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="E57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="F57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="G57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="H57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="I57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="J57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="K57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="L57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="M57" s="273" t="str">
+        <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
-      <c r="B58" s="98" t="s">
-        <v>19</v>
-      </c>
-      <c r="C58" s="158" t="e">
-        <f t="shared" ref="C58:M58" si="48">IF(C28="","",C28/C31)</f>
+      <c r="B58" s="271" t="s">
+        <v>251</v>
+      </c>
+      <c r="C58" s="274" t="e">
+        <f t="shared" ref="C58:M58" si="49">IF(C14="","",C14/(C34-C35))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="E58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="F58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="G58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="H58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="I58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="J58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="K58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="L58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="M58" s="158" t="str">
-        <f t="shared" si="48"/>
+      <c r="D58" s="274" t="e">
+        <f t="shared" si="49"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="F58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="G58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="H58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="I58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="J58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="K58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="L58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="M58" s="274" t="str">
+        <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="16"/>
-      <c r="B59" s="102" t="s">
+      <c r="A59" s="4"/>
+      <c r="B59" s="271" t="s">
         <v>252</v>
       </c>
-      <c r="C59" s="273" t="str">
-        <f>IFERROR(IF(C13*C50*(1/C55)=C60,"","Error"),"")</f>
-        <v/>
-      </c>
-      <c r="D59" s="273" t="str">
-        <f t="shared" ref="D59:M59" si="49">IFERROR(IF(D13*D50*(1/D55)=D60,"","Error"),"")</f>
-        <v/>
-      </c>
-      <c r="E59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="F59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="G59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="H59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="I59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="J59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="K59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="L59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="M59" s="273" t="str">
-        <f t="shared" si="49"/>
+      <c r="C59" s="274" t="e">
+        <f t="shared" ref="C59:M59" si="50">IF(C22="","",C22/(C34-C35))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D59" s="274" t="e">
+        <f t="shared" si="50"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="F59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="G59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="H59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="I59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="J59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="K59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="L59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="M59" s="274" t="str">
+        <f t="shared" si="50"/>
         <v/>
       </c>
     </row>
     <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
-      <c r="B60" s="271" t="s">
-        <v>253</v>
-      </c>
-      <c r="C60" s="274" t="e">
-        <f>IF(C14="","",C14/(C36-C37))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D60" s="274" t="e">
-        <f t="shared" ref="D60:M60" si="50">IF(D14="","",D14/(D36-D37))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="F60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="G60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="H60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="I60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="J60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="K60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="L60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="M60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
     </row>
     <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
-      <c r="B61" s="271" t="s">
-        <v>254</v>
-      </c>
-      <c r="C61" s="274" t="e">
-        <f>IF(C22="","",C22/(C36-C37))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D61" s="274" t="e">
-        <f t="shared" ref="D61:M61" si="51">IF(D22="","",D22/(D36-D37))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="F61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="G61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="H61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="I61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="J61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="K61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="L61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="M61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
     </row>
     <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="4"/>
@@ -8973,12 +8904,8 @@
     <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A247" s="4"/>
     </row>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A248" s="4"/>
-    </row>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A249" s="4"/>
-    </row>
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -9660,27 +9587,30 @@
     <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
-  <conditionalFormatting sqref="C6:M23 C27:M40">
-    <cfRule type="containsBlanks" dxfId="10" priority="4">
+  <conditionalFormatting sqref="C6:M23">
+    <cfRule type="containsBlanks" dxfId="11" priority="5">
       <formula>LEN(TRIM(C6))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:M25">
-    <cfRule type="containsBlanks" dxfId="9" priority="3">
+    <cfRule type="containsBlanks" dxfId="10" priority="4">
       <formula>LEN(TRIM(C25))=0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C27:M38">
+    <cfRule type="containsBlanks" dxfId="9" priority="1">
+      <formula>LEN(TRIM(C27))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D24:M24">
-    <cfRule type="containsBlanks" dxfId="8" priority="2">
+    <cfRule type="containsBlanks" dxfId="8" priority="3">
       <formula>LEN(TRIM(D24))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="containsBlanks" dxfId="7" priority="1">
+    <cfRule type="containsBlanks" dxfId="7" priority="2">
       <formula>LEN(TRIM(F4))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9872,7 +9802,7 @@
         <v>30</v>
       </c>
       <c r="D10" s="74" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E10" s="74" t="s">
         <v>31</v>
@@ -9919,7 +9849,7 @@
     </row>
     <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C12" s="40">
         <f>Inputs!C49</f>
@@ -9947,7 +9877,7 @@
     </row>
     <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C13" s="40">
         <f>Inputs!C50</f>
@@ -10030,7 +9960,7 @@
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
@@ -10052,7 +9982,7 @@
     </row>
     <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C17" s="40">
         <f>Inputs!C54</f>
@@ -10120,7 +10050,7 @@
     </row>
     <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C20" s="40">
         <f>Inputs!C57</f>
@@ -10442,7 +10372,7 @@
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
@@ -10579,7 +10509,7 @@
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C38" s="40">
         <f>Inputs!C68</f>
@@ -10910,7 +10840,7 @@
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="125"/>
@@ -10976,7 +10906,7 @@
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
@@ -11011,7 +10941,7 @@
     </row>
     <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C62" s="117">
         <f>C11+C30</f>
@@ -11032,7 +10962,7 @@
     </row>
     <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
@@ -11053,7 +10983,7 @@
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="121" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C64" s="208"/>
       <c r="D64" s="208"/>
@@ -11068,7 +10998,7 @@
     </row>
     <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C65" s="68">
         <f>C63-E64</f>
@@ -11099,7 +11029,7 @@
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
@@ -11113,7 +11043,7 @@
     </row>
     <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
@@ -11134,7 +11064,7 @@
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="121" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C69" s="208"/>
       <c r="D69" s="208"/>
@@ -11149,7 +11079,7 @@
     </row>
     <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
@@ -11171,7 +11101,7 @@
     <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
       <c r="B72" s="106" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C72" s="283">
         <f>Data!C5</f>
@@ -11179,11 +11109,11 @@
       </c>
       <c r="D72" s="283"/>
       <c r="E72" s="297" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F72" s="297"/>
       <c r="H72" s="297" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I72" s="297"/>
       <c r="K72" s="50" t="s">
@@ -11211,7 +11141,7 @@
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C74" s="77">
         <f>Data!C6</f>
@@ -11283,7 +11213,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -11313,7 +11243,7 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
@@ -11343,7 +11273,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="256" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C79" s="257">
         <f>C76-C77-C78</f>
@@ -11401,12 +11331,12 @@
         <v>0</v>
       </c>
       <c r="K80" s="181" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -11436,7 +11366,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -11466,7 +11396,7 @@
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B83" s="105" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C83" s="163">
         <f>C79-C81-C82-C80</f>
@@ -11517,7 +11447,7 @@
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="263" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C85" s="257">
         <f>C83*(1-I84)</f>
@@ -11548,7 +11478,7 @@
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
@@ -11569,28 +11499,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.8082173029187177E-2</v>
+        <v>3.815288787269925E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.8082173029187157E-2</v>
+        <v>3.8152887872699243E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.8082173029187157E-2</v>
+        <v>3.8152887872699243E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C88" s="169">
         <f>Inputs!C44</f>
@@ -11620,21 +11550,21 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.6385588761642672E-2</v>
+        <v>1.6416015185687458E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.6385588761642672E-2</v>
+        <v>1.6416015185687458E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.6385588761642672E-2</v>
+        <v>1.6416015185687458E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -11651,27 +11581,27 @@
       </c>
       <c r="C91" s="21"/>
       <c r="K91" s="50" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E92" s="297" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F92" s="297"/>
       <c r="G92" s="87"/>
       <c r="H92" s="297" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I92" s="297"/>
       <c r="K92" s="24"/>
@@ -11690,24 +11620,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>7.2342748182757939</v>
+        <v>7.2362878554612902</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>7.2342748182757939</v>
+        <v>7.2362878554612902</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C94" s="182">
         <f>Dashboard!G20</f>
@@ -11718,18 +11648,18 @@
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>2.8007165645137664</v>
+        <v>2.8009611078094272</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>2.8007165645137664</v>
+        <v>2.8009611078094272</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11748,14 +11678,14 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="227" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H96" s="183" t="str">
         <f>H72</f>
@@ -11768,31 +11698,31 @@
     </row>
     <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>10524736468.618837</v>
+        <v>10527665122.341717</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>3.5967131364009886</v>
+        <v>3.5977139716569075</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>3.5967131364009886</v>
+        <v>3.5977139716569075</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>4.7835030542349006</v>
+        <v>4.784834130226205</v>
       </c>
       <c r="K97" s="24"/>
     </row>
     <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C98" s="91">
         <f>-E53*Exchange_Rate</f>
@@ -11810,7 +11740,7 @@
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B99" s="105" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
@@ -11835,27 +11765,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>10524736468.618837</v>
+        <v>10527665122.341717</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>3.05720616594084</v>
+        <v>3.0580568759083713</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>3.5967131364009886</v>
+        <v>3.5977139716569075</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>3.5967131364009886</v>
+        <v>3.5977139716569075</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>3.5967131364009886</v>
+        <v>3.5977139716569075</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>4.7835030542349006</v>
+        <v>4.784834130226205</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11865,21 +11795,21 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C102" s="127" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="227" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H102" s="183" t="str">
         <f>H96</f>
@@ -11892,31 +11822,31 @@
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>4074603813.8247499</v>
+        <v>4074959586.0074015</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.1835834503346772</v>
+        <v>1.1836867943864464</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.3924511180407966</v>
+        <v>1.3925726992781724</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>1.3924511180407966</v>
+        <v>1.3925726992781724</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.3924511180407966</v>
+        <v>1.3925726992781724</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>1.851911432304552</v>
+        <v>1.852073131110731</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11926,21 +11856,21 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="227" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H105" s="184" t="str">
         <f>H96</f>
@@ -11953,31 +11883,31 @@
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>7299670141.2217941</v>
+        <v>7301312354.1745596</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>2.1203948081377586</v>
+        <v>2.1208718351474087</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>2.4945821272208928</v>
+        <v>2.4951433354675401</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>2.4945821272208928</v>
+        <v>2.4951433354675401</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>2.4945821272208928</v>
+        <v>2.4951433354675401</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>3.3177072432697265</v>
+        <v>3.318453630668468</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -11986,7 +11916,7 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C108" s="128" t="str">
         <f>Inputs!C87</f>

--- a/financial_models/opportunities/0696.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0696.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A4A54175-FC85-4D33-8B9D-C0D169C458F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D4DE4CE4-F84E-4509-8800-6D620346CECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="276">
   <si>
     <t>Company Info:</t>
   </si>
@@ -745,10 +745,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Common Equity =</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>D/P Dividend Yield</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -942,10 +938,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Sales Turnover</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>EBIT Margin</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -975,6 +967,22 @@
   </si>
   <si>
     <t>PlaceHolder_1</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Asset Turnover Ratio</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t># In general, the higher the accounts receivable, the higher the inventory, and the lower the fixed assets, the lower the asset turnover ratio.</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_3</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_4</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1914,7 +1922,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2150,12 +2157,8 @@
     <xf numFmtId="181" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2354,6 +2357,11 @@
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2593,8 +2601,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
       <color rgb="FFB6D7A8"/>
-      <color rgb="FF0000FF"/>
       <color rgb="FFFFFFCC"/>
       <color rgb="FFCCFF33"/>
     </mruColors>
@@ -2810,7 +2818,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C73" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -2828,162 +2836,162 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B4" s="141" t="s">
+      <c r="B4" s="140" t="s">
         <v>180</v>
       </c>
-      <c r="C4" s="188" t="s">
-        <v>265</v>
+      <c r="C4" s="187" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B5" s="141" t="s">
+      <c r="B5" s="140" t="s">
         <v>181</v>
       </c>
-      <c r="C5" s="191" t="s">
-        <v>266</v>
+      <c r="C5" s="190" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B6" s="141" t="s">
+      <c r="B6" s="140" t="s">
         <v>155</v>
       </c>
-      <c r="C6" s="189">
+      <c r="C6" s="188">
         <v>45603</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B7" s="140" t="s">
+      <c r="B7" s="139" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="190">
+      <c r="C7" s="189">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B8" s="140" t="s">
+      <c r="B8" s="139" t="s">
         <v>201</v>
       </c>
-      <c r="C8" s="191" t="s">
+      <c r="C8" s="190" t="s">
         <v>67</v>
       </c>
-      <c r="E8" s="267"/>
+      <c r="E8" s="264"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B9" s="140" t="s">
+      <c r="B9" s="139" t="s">
         <v>202</v>
       </c>
-      <c r="C9" s="192" t="s">
-        <v>267</v>
+      <c r="C9" s="191" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B10" s="140" t="s">
+      <c r="B10" s="139" t="s">
         <v>203</v>
       </c>
-      <c r="C10" s="193">
+      <c r="C10" s="192">
         <v>2926209589</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B11" s="140" t="s">
+      <c r="B11" s="139" t="s">
         <v>204</v>
       </c>
-      <c r="C11" s="192" t="s">
-        <v>268</v>
+      <c r="C11" s="191" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B12" s="218" t="s">
+      <c r="B12" s="215" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="219">
+      <c r="C12" s="216">
         <v>45291</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B13" s="218" t="s">
+      <c r="B13" s="215" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="220">
+      <c r="C13" s="217">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B14" s="218" t="s">
+      <c r="B14" s="215" t="s">
         <v>205</v>
       </c>
-      <c r="C14" s="219">
+      <c r="C14" s="216">
         <v>45473</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B15" s="218" t="s">
-        <v>238</v>
-      </c>
-      <c r="C15" s="176" t="s">
-        <v>242</v>
+      <c r="B15" s="215" t="s">
+        <v>237</v>
+      </c>
+      <c r="C15" s="175" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B16" s="222" t="s">
+      <c r="B16" s="219" t="s">
         <v>93</v>
       </c>
-      <c r="C16" s="223">
+      <c r="C16" s="220">
         <v>0.25</v>
       </c>
       <c r="D16" s="24"/>
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B17" s="240" t="s">
-        <v>210</v>
-      </c>
-      <c r="C17" s="242" t="s">
-        <v>269</v>
+      <c r="B17" s="237" t="s">
+        <v>209</v>
+      </c>
+      <c r="C17" s="239" t="s">
+        <v>271</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B18" s="240" t="s">
+      <c r="B18" s="237" t="s">
+        <v>223</v>
+      </c>
+      <c r="C18" s="239" t="s">
+        <v>228</v>
+      </c>
+      <c r="D18" s="24"/>
+    </row>
+    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B19" s="237" t="s">
         <v>224</v>
       </c>
-      <c r="C18" s="242" t="s">
-        <v>229</v>
-      </c>
-      <c r="D18" s="24"/>
-    </row>
-    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B19" s="240" t="s">
-        <v>225</v>
-      </c>
-      <c r="C19" s="242" t="s">
-        <v>270</v>
+      <c r="C19" s="239" t="s">
+        <v>272</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B20" s="241" t="s">
-        <v>214</v>
-      </c>
-      <c r="C20" s="242" t="s">
-        <v>270</v>
+      <c r="B20" s="238" t="s">
+        <v>213</v>
+      </c>
+      <c r="C20" s="239" t="s">
+        <v>272</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B21" s="224" t="s">
-        <v>217</v>
-      </c>
-      <c r="C21" s="242" t="s">
-        <v>269</v>
+      <c r="B21" s="221" t="s">
+        <v>216</v>
+      </c>
+      <c r="C21" s="239" t="s">
+        <v>271</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
-      <c r="B22" s="226" t="s">
-        <v>216</v>
-      </c>
-      <c r="C22" s="243" t="s">
-        <v>271</v>
+      <c r="B22" s="223" t="s">
+        <v>215</v>
+      </c>
+      <c r="C22" s="240" t="s">
+        <v>273</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -3040,408 +3048,412 @@
       <c r="B25" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="149">
+      <c r="C25" s="148">
         <v>6983846860.7700005</v>
       </c>
-      <c r="D25" s="149">
+      <c r="D25" s="148">
         <v>5210105771.0900002</v>
       </c>
-      <c r="E25" s="149"/>
-      <c r="F25" s="149"/>
-      <c r="G25" s="149"/>
-      <c r="H25" s="149"/>
-      <c r="I25" s="149"/>
-      <c r="J25" s="149"/>
-      <c r="K25" s="149"/>
-      <c r="L25" s="149"/>
-      <c r="M25" s="149"/>
+      <c r="E25" s="148"/>
+      <c r="F25" s="148"/>
+      <c r="G25" s="148"/>
+      <c r="H25" s="148"/>
+      <c r="I25" s="148"/>
+      <c r="J25" s="148"/>
+      <c r="K25" s="148"/>
+      <c r="L25" s="148"/>
+      <c r="M25" s="148"/>
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="97" t="s">
         <v>102</v>
       </c>
-      <c r="C26" s="150">
+      <c r="C26" s="149">
         <v>3398384261.9699998</v>
       </c>
-      <c r="D26" s="150">
+      <c r="D26" s="149">
         <v>3162230075.25</v>
       </c>
-      <c r="E26" s="150"/>
-      <c r="F26" s="150"/>
-      <c r="G26" s="150"/>
-      <c r="H26" s="150"/>
-      <c r="I26" s="150"/>
-      <c r="J26" s="150"/>
-      <c r="K26" s="150"/>
-      <c r="L26" s="150"/>
-      <c r="M26" s="150"/>
+      <c r="E26" s="149"/>
+      <c r="F26" s="149"/>
+      <c r="G26" s="149"/>
+      <c r="H26" s="149"/>
+      <c r="I26" s="149"/>
+      <c r="J26" s="149"/>
+      <c r="K26" s="149"/>
+      <c r="L26" s="149"/>
+      <c r="M26" s="149"/>
     </row>
     <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B27" s="97" t="s">
         <v>100</v>
       </c>
-      <c r="C27" s="150">
+      <c r="C27" s="149">
         <v>1191142720.1700001</v>
       </c>
-      <c r="D27" s="150">
+      <c r="D27" s="149">
         <v>1028568099.8399999</v>
       </c>
-      <c r="E27" s="150"/>
-      <c r="F27" s="150"/>
-      <c r="G27" s="150"/>
-      <c r="H27" s="150"/>
-      <c r="I27" s="150"/>
-      <c r="J27" s="150"/>
-      <c r="K27" s="150"/>
-      <c r="L27" s="150"/>
-      <c r="M27" s="150"/>
+      <c r="E27" s="149"/>
+      <c r="F27" s="149"/>
+      <c r="G27" s="149"/>
+      <c r="H27" s="149"/>
+      <c r="I27" s="149"/>
+      <c r="J27" s="149"/>
+      <c r="K27" s="149"/>
+      <c r="L27" s="149"/>
+      <c r="M27" s="149"/>
     </row>
     <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B28" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="C28" s="150">
+      <c r="C28" s="149">
         <v>863038653</v>
       </c>
-      <c r="D28" s="150">
+      <c r="D28" s="149">
         <v>701713632.36000001</v>
       </c>
-      <c r="E28" s="150"/>
-      <c r="F28" s="150"/>
-      <c r="G28" s="150"/>
-      <c r="H28" s="150"/>
-      <c r="I28" s="150"/>
-      <c r="J28" s="150"/>
-      <c r="K28" s="150"/>
-      <c r="L28" s="150"/>
-      <c r="M28" s="150"/>
+      <c r="E28" s="149"/>
+      <c r="F28" s="149"/>
+      <c r="G28" s="149"/>
+      <c r="H28" s="149"/>
+      <c r="I28" s="149"/>
+      <c r="J28" s="149"/>
+      <c r="K28" s="149"/>
+      <c r="L28" s="149"/>
+      <c r="M28" s="149"/>
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>239</v>
-      </c>
-      <c r="C29" s="150">
+        <v>238</v>
+      </c>
+      <c r="C29" s="149">
         <v>15194992.810000001</v>
       </c>
-      <c r="D29" s="150">
+      <c r="D29" s="149">
         <v>12415189.01</v>
       </c>
-      <c r="E29" s="150"/>
-      <c r="F29" s="150"/>
-      <c r="G29" s="150"/>
-      <c r="H29" s="150"/>
-      <c r="I29" s="150"/>
-      <c r="J29" s="150"/>
-      <c r="K29" s="150"/>
-      <c r="L29" s="150"/>
-      <c r="M29" s="150"/>
+      <c r="E29" s="149"/>
+      <c r="F29" s="149"/>
+      <c r="G29" s="149"/>
+      <c r="H29" s="149"/>
+      <c r="I29" s="149"/>
+      <c r="J29" s="149"/>
+      <c r="K29" s="149"/>
+      <c r="L29" s="149"/>
+      <c r="M29" s="149"/>
     </row>
     <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B30" s="99" t="s">
         <v>107</v>
       </c>
-      <c r="C30" s="150">
+      <c r="C30" s="149">
         <v>48923904</v>
       </c>
-      <c r="D30" s="150">
+      <c r="D30" s="149">
         <v>52800637.210000001</v>
       </c>
-      <c r="E30" s="150"/>
-      <c r="F30" s="150"/>
-      <c r="G30" s="150"/>
-      <c r="H30" s="150"/>
-      <c r="I30" s="150"/>
-      <c r="J30" s="150"/>
-      <c r="K30" s="150"/>
-      <c r="L30" s="150"/>
-      <c r="M30" s="150"/>
+      <c r="E30" s="149"/>
+      <c r="F30" s="149"/>
+      <c r="G30" s="149"/>
+      <c r="H30" s="149"/>
+      <c r="I30" s="149"/>
+      <c r="J30" s="149"/>
+      <c r="K30" s="149"/>
+      <c r="L30" s="149"/>
+      <c r="M30" s="149"/>
     </row>
     <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B31" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="C31" s="150"/>
-      <c r="D31" s="150"/>
-      <c r="E31" s="150"/>
-      <c r="F31" s="150"/>
-      <c r="G31" s="150"/>
-      <c r="H31" s="150"/>
-      <c r="I31" s="150"/>
-      <c r="J31" s="150"/>
-      <c r="K31" s="150"/>
-      <c r="L31" s="150"/>
-      <c r="M31" s="150"/>
+      <c r="C31" s="149"/>
+      <c r="D31" s="149"/>
+      <c r="E31" s="149"/>
+      <c r="F31" s="149"/>
+      <c r="G31" s="149"/>
+      <c r="H31" s="149"/>
+      <c r="I31" s="149"/>
+      <c r="J31" s="149"/>
+      <c r="K31" s="149"/>
+      <c r="L31" s="149"/>
+      <c r="M31" s="149"/>
     </row>
     <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B32" s="97" t="s">
         <v>101</v>
       </c>
-      <c r="C32" s="150"/>
-      <c r="D32" s="150"/>
-      <c r="E32" s="150"/>
-      <c r="F32" s="150"/>
-      <c r="G32" s="150"/>
-      <c r="H32" s="150"/>
-      <c r="I32" s="150"/>
-      <c r="J32" s="150"/>
-      <c r="K32" s="150"/>
-      <c r="L32" s="150"/>
-      <c r="M32" s="150"/>
+      <c r="C32" s="149"/>
+      <c r="D32" s="149"/>
+      <c r="E32" s="149"/>
+      <c r="F32" s="149"/>
+      <c r="G32" s="149"/>
+      <c r="H32" s="149"/>
+      <c r="I32" s="149"/>
+      <c r="J32" s="149"/>
+      <c r="K32" s="149"/>
+      <c r="L32" s="149"/>
+      <c r="M32" s="149"/>
     </row>
     <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="C33" s="150"/>
-      <c r="D33" s="150"/>
-      <c r="E33" s="150"/>
-      <c r="F33" s="150"/>
-      <c r="G33" s="150"/>
-      <c r="H33" s="150"/>
-      <c r="I33" s="150"/>
-      <c r="J33" s="150"/>
-      <c r="K33" s="150"/>
-      <c r="L33" s="150"/>
-      <c r="M33" s="150"/>
+      <c r="C33" s="149"/>
+      <c r="D33" s="149"/>
+      <c r="E33" s="149"/>
+      <c r="F33" s="149"/>
+      <c r="G33" s="149"/>
+      <c r="H33" s="149"/>
+      <c r="I33" s="149"/>
+      <c r="J33" s="149"/>
+      <c r="K33" s="149"/>
+      <c r="L33" s="149"/>
+      <c r="M33" s="149"/>
     </row>
     <row r="34" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B34" s="97" t="s">
-        <v>264</v>
-      </c>
-      <c r="C34" s="217"/>
-      <c r="D34" s="150"/>
-      <c r="E34" s="150"/>
-      <c r="F34" s="150"/>
-      <c r="G34" s="150"/>
-      <c r="H34" s="150"/>
-      <c r="I34" s="150"/>
-      <c r="J34" s="150"/>
-      <c r="K34" s="150"/>
-      <c r="L34" s="150"/>
-      <c r="M34" s="150"/>
+        <v>262</v>
+      </c>
+      <c r="C34" s="214"/>
+      <c r="D34" s="149"/>
+      <c r="E34" s="149"/>
+      <c r="F34" s="149"/>
+      <c r="G34" s="149"/>
+      <c r="H34" s="149"/>
+      <c r="I34" s="149"/>
+      <c r="J34" s="149"/>
+      <c r="K34" s="149"/>
+      <c r="L34" s="149"/>
+      <c r="M34" s="149"/>
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
         <v>112</v>
       </c>
-      <c r="C35" s="217"/>
-      <c r="D35" s="150"/>
-      <c r="E35" s="150"/>
-      <c r="F35" s="150"/>
-      <c r="G35" s="150"/>
-      <c r="H35" s="150"/>
-      <c r="I35" s="150"/>
-      <c r="J35" s="150"/>
-      <c r="K35" s="150"/>
-      <c r="L35" s="150"/>
-      <c r="M35" s="150"/>
+      <c r="C35" s="214"/>
+      <c r="D35" s="149"/>
+      <c r="E35" s="149"/>
+      <c r="F35" s="149"/>
+      <c r="G35" s="149"/>
+      <c r="H35" s="149"/>
+      <c r="I35" s="149"/>
+      <c r="J35" s="149"/>
+      <c r="K35" s="149"/>
+      <c r="L35" s="149"/>
+      <c r="M35" s="149"/>
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
         <v>141</v>
       </c>
-      <c r="C36" s="217"/>
-      <c r="D36" s="150"/>
-      <c r="E36" s="150"/>
-      <c r="F36" s="150"/>
-      <c r="G36" s="150"/>
-      <c r="H36" s="150"/>
-      <c r="I36" s="150"/>
-      <c r="J36" s="150"/>
-      <c r="K36" s="150"/>
-      <c r="L36" s="150"/>
-      <c r="M36" s="150"/>
+      <c r="C36" s="214"/>
+      <c r="D36" s="149"/>
+      <c r="E36" s="149"/>
+      <c r="F36" s="149"/>
+      <c r="G36" s="149"/>
+      <c r="H36" s="149"/>
+      <c r="I36" s="149"/>
+      <c r="J36" s="149"/>
+      <c r="K36" s="149"/>
+      <c r="L36" s="149"/>
+      <c r="M36" s="149"/>
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B37" s="94" t="str">
-        <f>"Total Liabilities"&amp;IF(C77+C82=0,"",IF(C37=C77+C82,""," Error"))</f>
-        <v>Total Liabilities</v>
-      </c>
-      <c r="C37" s="150"/>
-      <c r="D37" s="150"/>
-      <c r="E37" s="150"/>
-      <c r="F37" s="150"/>
-      <c r="G37" s="150"/>
-      <c r="H37" s="150"/>
-      <c r="I37" s="150"/>
-      <c r="J37" s="150"/>
-      <c r="K37" s="150"/>
-      <c r="L37" s="150"/>
-      <c r="M37" s="150"/>
+      <c r="B37" s="94" t="s">
+        <v>260</v>
+      </c>
+      <c r="C37" s="149">
+        <v>0</v>
+      </c>
+      <c r="D37" s="149"/>
+      <c r="E37" s="149"/>
+      <c r="F37" s="149"/>
+      <c r="G37" s="149"/>
+      <c r="H37" s="149"/>
+      <c r="I37" s="149"/>
+      <c r="J37" s="149"/>
+      <c r="K37" s="149"/>
+      <c r="L37" s="149"/>
+      <c r="M37" s="149"/>
     </row>
     <row r="38" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
-        <v>263</v>
-      </c>
-      <c r="C38" s="217"/>
-      <c r="D38" s="150"/>
-      <c r="E38" s="150"/>
-      <c r="F38" s="150"/>
-      <c r="G38" s="150"/>
-      <c r="H38" s="150"/>
-      <c r="I38" s="150"/>
-      <c r="J38" s="150"/>
-      <c r="K38" s="150"/>
-      <c r="L38" s="150"/>
-      <c r="M38" s="150"/>
+        <v>261</v>
+      </c>
+      <c r="C38" s="214"/>
+      <c r="D38" s="149"/>
+      <c r="E38" s="149"/>
+      <c r="F38" s="149"/>
+      <c r="G38" s="149"/>
+      <c r="H38" s="149"/>
+      <c r="I38" s="149"/>
+      <c r="J38" s="149"/>
+      <c r="K38" s="149"/>
+      <c r="L38" s="149"/>
+      <c r="M38" s="149"/>
     </row>
     <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="217"/>
-      <c r="D39" s="150"/>
-      <c r="E39" s="150"/>
-      <c r="F39" s="150"/>
-      <c r="G39" s="150"/>
-      <c r="H39" s="150"/>
-      <c r="I39" s="150"/>
-      <c r="J39" s="150"/>
-      <c r="K39" s="150"/>
-      <c r="L39" s="150"/>
-      <c r="M39" s="150"/>
+      <c r="C39" s="214"/>
+      <c r="D39" s="149"/>
+      <c r="E39" s="149"/>
+      <c r="F39" s="149"/>
+      <c r="G39" s="149"/>
+      <c r="H39" s="149"/>
+      <c r="I39" s="149"/>
+      <c r="J39" s="149"/>
+      <c r="K39" s="149"/>
+      <c r="L39" s="149"/>
+      <c r="M39" s="149"/>
     </row>
     <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B40" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="217"/>
-      <c r="D40" s="150"/>
-      <c r="E40" s="150"/>
-      <c r="F40" s="150"/>
-      <c r="G40" s="150"/>
-      <c r="H40" s="150"/>
-      <c r="I40" s="150"/>
-      <c r="J40" s="150"/>
-      <c r="K40" s="150"/>
-      <c r="L40" s="150"/>
-      <c r="M40" s="150"/>
+      <c r="C40" s="214"/>
+      <c r="D40" s="149"/>
+      <c r="E40" s="149"/>
+      <c r="F40" s="149"/>
+      <c r="G40" s="149"/>
+      <c r="H40" s="149"/>
+      <c r="I40" s="149"/>
+      <c r="J40" s="149"/>
+      <c r="K40" s="149"/>
+      <c r="L40" s="149"/>
+      <c r="M40" s="149"/>
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B41" s="94" t="str">
-        <f>"Total Equity"&amp;IF(C83="","",IF(C41=Fin_Analysis!D3,""," Error"))</f>
-        <v>Total Equity</v>
-      </c>
-      <c r="C41" s="150"/>
-      <c r="D41" s="150"/>
-      <c r="E41" s="150"/>
-      <c r="F41" s="150"/>
-      <c r="G41" s="150"/>
-      <c r="H41" s="150"/>
-      <c r="I41" s="150"/>
-      <c r="J41" s="150"/>
-      <c r="K41" s="150"/>
-      <c r="L41" s="150"/>
-      <c r="M41" s="150"/>
+      <c r="B41" s="94" t="s">
+        <v>132</v>
+      </c>
+      <c r="C41" s="149">
+        <v>0</v>
+      </c>
+      <c r="D41" s="149"/>
+      <c r="E41" s="149"/>
+      <c r="F41" s="149"/>
+      <c r="G41" s="149"/>
+      <c r="H41" s="149"/>
+      <c r="I41" s="149"/>
+      <c r="J41" s="149"/>
+      <c r="K41" s="149"/>
+      <c r="L41" s="149"/>
+      <c r="M41" s="149"/>
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
         <v>133</v>
       </c>
-      <c r="C42" s="150"/>
-      <c r="D42" s="150"/>
-      <c r="E42" s="150"/>
-      <c r="F42" s="150"/>
-      <c r="G42" s="150"/>
-      <c r="H42" s="150"/>
-      <c r="I42" s="150"/>
-      <c r="J42" s="150"/>
-      <c r="K42" s="150"/>
-      <c r="L42" s="150"/>
-      <c r="M42" s="150"/>
+      <c r="C42" s="149">
+        <v>0</v>
+      </c>
+      <c r="D42" s="149"/>
+      <c r="E42" s="149"/>
+      <c r="F42" s="149"/>
+      <c r="G42" s="149"/>
+      <c r="H42" s="149"/>
+      <c r="I42" s="149"/>
+      <c r="J42" s="149"/>
+      <c r="K42" s="149"/>
+      <c r="L42" s="149"/>
+      <c r="M42" s="149"/>
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
         <v>131</v>
       </c>
-      <c r="C43" s="217"/>
-      <c r="D43" s="150"/>
-      <c r="E43" s="150"/>
-      <c r="F43" s="150"/>
-      <c r="G43" s="150"/>
-      <c r="H43" s="150"/>
-      <c r="I43" s="150"/>
-      <c r="J43" s="150"/>
-      <c r="K43" s="150"/>
-      <c r="L43" s="150"/>
-      <c r="M43" s="150"/>
+      <c r="C43" s="214"/>
+      <c r="D43" s="149"/>
+      <c r="E43" s="149"/>
+      <c r="F43" s="149"/>
+      <c r="G43" s="149"/>
+      <c r="H43" s="149"/>
+      <c r="I43" s="149"/>
+      <c r="J43" s="149"/>
+      <c r="K43" s="149"/>
+      <c r="L43" s="149"/>
+      <c r="M43" s="149"/>
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
         <v>193</v>
       </c>
-      <c r="C44" s="250">
+      <c r="C44" s="247">
         <f>0.16</f>
         <v>0.16</v>
       </c>
-      <c r="D44" s="250"/>
-      <c r="E44" s="250"/>
-      <c r="F44" s="250"/>
-      <c r="G44" s="250"/>
-      <c r="H44" s="250"/>
-      <c r="I44" s="250"/>
-      <c r="J44" s="250"/>
-      <c r="K44" s="250"/>
-      <c r="L44" s="250"/>
-      <c r="M44" s="250"/>
+      <c r="D44" s="247"/>
+      <c r="E44" s="247"/>
+      <c r="F44" s="247"/>
+      <c r="G44" s="247"/>
+      <c r="H44" s="247"/>
+      <c r="I44" s="247"/>
+      <c r="J44" s="247"/>
+      <c r="K44" s="247"/>
+      <c r="L44" s="247"/>
+      <c r="M44" s="247"/>
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>235</v>
-      </c>
-      <c r="C45" s="152">
+        <v>234</v>
+      </c>
+      <c r="C45" s="151">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>1.6416015185687458E-2</v>
-      </c>
-      <c r="D45" s="152" t="str">
+        <v>1.6593915822050716E-2</v>
+      </c>
+      <c r="D45" s="151" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="E45" s="152" t="str">
+      <c r="E45" s="151" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="F45" s="152" t="str">
+      <c r="F45" s="151" t="str">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="G45" s="152" t="str">
+      <c r="G45" s="151" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="H45" s="152" t="str">
+      <c r="H45" s="151" t="str">
         <f>IF(H44="","",H44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="I45" s="152" t="str">
+      <c r="I45" s="151" t="str">
         <f>IF(I44="","",I44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="J45" s="152" t="str">
+      <c r="J45" s="151" t="str">
         <f>IF(J44="","",J44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="K45" s="152" t="str">
+      <c r="K45" s="151" t="str">
         <f>IF(K44="","",K44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="L45" s="152" t="str">
+      <c r="L45" s="151" t="str">
         <f>IF(L44="","",L44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="M45" s="152" t="str">
+      <c r="M45" s="151" t="str">
         <f>IF(M44="","",M44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="C47" s="194" t="s">
+        <v>232</v>
+      </c>
+      <c r="C47" s="193" t="s">
         <v>30</v>
       </c>
-      <c r="D47" s="194" t="s">
+      <c r="D47" s="193" t="s">
         <v>182</v>
       </c>
       <c r="E47" s="111" t="s">
@@ -3512,7 +3524,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
@@ -3540,7 +3552,7 @@
         <f>D50</f>
         <v>0.6</v>
       </c>
-      <c r="E56" s="221" t="s">
+      <c r="E56" s="218" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3552,7 +3564,7 @@
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
-      <c r="E57" s="221" t="s">
+      <c r="E57" s="218" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3571,8 +3583,8 @@
       <c r="B59" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="C59" s="120"/>
-      <c r="D59" s="195">
+      <c r="C59" s="119"/>
+      <c r="D59" s="194">
         <f>D70</f>
         <v>0.05</v>
       </c>
@@ -3624,7 +3636,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -3640,7 +3652,7 @@
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
-      <c r="E65" s="221" t="s">
+      <c r="E65" s="218" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3652,7 +3664,7 @@
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
-      <c r="E66" s="221" t="s">
+      <c r="E66" s="218" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3665,7 +3677,7 @@
         <f>D65</f>
         <v>0.1</v>
       </c>
-      <c r="E67" s="221" t="s">
+      <c r="E67" s="218" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3713,14 +3725,14 @@
       <c r="E71" s="112"/>
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="246" t="s">
+      <c r="B72" s="243" t="s">
         <v>72</v>
       </c>
-      <c r="C72" s="247"/>
-      <c r="D72" s="248">
-        <v>0</v>
-      </c>
-      <c r="E72" s="249"/>
+      <c r="C72" s="244"/>
+      <c r="D72" s="245">
+        <v>0</v>
+      </c>
+      <c r="E72" s="246"/>
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
@@ -3744,7 +3756,7 @@
       <c r="B76" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="C76" s="120"/>
+      <c r="C76" s="119"/>
     </row>
     <row r="77" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B77" s="80" t="s">
@@ -3774,19 +3786,19 @@
       <c r="B81" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="C81" s="120"/>
-    </row>
-    <row r="82" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C81" s="119"/>
+    </row>
+    <row r="82" spans="2:8" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
-        <v>81</v>
-      </c>
-      <c r="C82" s="83"/>
-    </row>
-    <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
+        <v>265</v>
+      </c>
+      <c r="C82" s="214"/>
+    </row>
+    <row r="83" spans="2:8" ht="14.25" hidden="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>206</v>
-      </c>
-      <c r="C83" s="59"/>
+        <v>266</v>
+      </c>
+      <c r="C83" s="214"/>
     </row>
     <row r="84" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B84" s="20" t="s">
@@ -3802,20 +3814,20 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="C86" s="197">
+        <v>233</v>
+      </c>
+      <c r="C86" s="196">
         <v>5</v>
       </c>
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="C87" s="236" t="s">
-        <v>272</v>
-      </c>
-      <c r="D87" s="269">
+        <v>231</v>
+      </c>
+      <c r="C87" s="233" t="s">
+        <v>274</v>
+      </c>
+      <c r="D87" s="266">
         <v>0.02</v>
       </c>
     </row>
@@ -3845,10 +3857,10 @@
         <v>97</v>
       </c>
       <c r="D90" s="284"/>
-      <c r="E90" s="235" t="s">
+      <c r="E90" s="232" t="s">
         <v>98</v>
       </c>
-      <c r="F90" s="255" t="s">
+      <c r="F90" s="252" t="s">
         <v>98</v>
       </c>
     </row>
@@ -3860,12 +3872,12 @@
         <f>C25</f>
         <v>6983846860.7700005</v>
       </c>
-      <c r="D91" s="209"/>
-      <c r="E91" s="251">
+      <c r="D91" s="206"/>
+      <c r="E91" s="248">
         <f>C91</f>
         <v>6983846860.7700005</v>
       </c>
-      <c r="F91" s="251">
+      <c r="F91" s="248">
         <f>C91</f>
         <v>6983846860.7700005</v>
       </c>
@@ -3878,75 +3890,75 @@
         <f>C26</f>
         <v>3398384261.9699998</v>
       </c>
-      <c r="D92" s="159">
+      <c r="D92" s="158">
         <f>C92/C91</f>
         <v>0.48660635459513968</v>
       </c>
-      <c r="E92" s="252">
+      <c r="E92" s="249">
         <f>E91*D92</f>
         <v>3398384261.9699998</v>
       </c>
-      <c r="F92" s="252">
+      <c r="F92" s="249">
         <f>F91*D92</f>
         <v>3398384261.9699998</v>
       </c>
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
         <v>2054181373.1700001</v>
       </c>
-      <c r="D93" s="159">
+      <c r="D93" s="158">
         <f>C93/C91</f>
         <v>0.2941332211490556</v>
       </c>
-      <c r="E93" s="252">
+      <c r="E93" s="249">
         <f>E91*D93</f>
         <v>2054181373.1700003</v>
       </c>
-      <c r="F93" s="252">
+      <c r="F93" s="249">
         <f>F91*D93</f>
         <v>2054181373.1700003</v>
       </c>
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
         <v>15194992.810000001</v>
       </c>
-      <c r="D94" s="159">
+      <c r="D94" s="158">
         <f>C94/C91</f>
         <v>2.1757339633768379E-3</v>
       </c>
-      <c r="E94" s="253"/>
-      <c r="F94" s="252">
+      <c r="E94" s="250"/>
+      <c r="F94" s="249">
         <f>F91*D94</f>
         <v>15194992.810000001</v>
       </c>
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
         <v>0</v>
       </c>
-      <c r="D95" s="159">
+      <c r="D95" s="158">
         <f>C95/C91</f>
         <v>0</v>
       </c>
-      <c r="E95" s="252">
+      <c r="E95" s="249">
         <f>E91*D95</f>
         <v>0</v>
       </c>
-      <c r="F95" s="252">
+      <c r="F95" s="249">
         <f>F91*D95</f>
         <v>0</v>
       </c>
@@ -3959,12 +3971,12 @@
         <f>MAX(C31,0)</f>
         <v>0</v>
       </c>
-      <c r="D96" s="159">
+      <c r="D96" s="158">
         <f>C96/C91</f>
         <v>0</v>
       </c>
-      <c r="E96" s="253"/>
-      <c r="F96" s="252">
+      <c r="E96" s="250"/>
+      <c r="F96" s="249">
         <f>F91*D96</f>
         <v>0</v>
       </c>
@@ -3977,12 +3989,12 @@
         <f>MAX(C30,0)/(1-C16)</f>
         <v>65231872</v>
       </c>
-      <c r="D97" s="159">
+      <c r="D97" s="158">
         <f>C97/C91</f>
         <v>9.3403926661713623E-3</v>
       </c>
-      <c r="E97" s="253"/>
-      <c r="F97" s="252">
+      <c r="E97" s="250"/>
+      <c r="F97" s="249">
         <f>F91*D97</f>
         <v>65231872</v>
       </c>
@@ -3991,16 +4003,16 @@
       <c r="B98" s="86" t="s">
         <v>193</v>
       </c>
-      <c r="C98" s="237">
+      <c r="C98" s="234">
         <f>C44</f>
         <v>0.16</v>
       </c>
-      <c r="D98" s="266"/>
-      <c r="E98" s="254">
+      <c r="D98" s="263"/>
+      <c r="E98" s="251">
         <f>F98</f>
         <v>0.16</v>
       </c>
-      <c r="F98" s="254">
+      <c r="F98" s="251">
         <f>C98</f>
         <v>0.16</v>
       </c>
@@ -4081,7 +4093,7 @@
   <dimension ref="A1:J923"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4133,11 +4145,11 @@
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="132">
-        <v>10.42</v>
-      </c>
-      <c r="H3" s="134" t="s">
-        <v>273</v>
+      <c r="G3" s="131">
+        <v>10.3</v>
+      </c>
+      <c r="H3" s="133" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4175,7 +4187,7 @@
       </c>
       <c r="G5" s="287">
         <f>G3*G4/1000000</f>
-        <v>30491.103917380002</v>
+        <v>30139.958766700001</v>
       </c>
       <c r="H5" s="287"/>
       <c r="I5" s="38"/>
@@ -4185,11 +4197,11 @@
       <c r="B6" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="185">
+      <c r="C6" s="184">
         <f>Inputs!C7</f>
         <v>8</v>
       </c>
-      <c r="D6" s="186">
+      <c r="D6" s="185">
         <f>EOMONTH(EDATE(Fin_Analysis!D9,C6),0)</f>
         <v>45716</v>
       </c>
@@ -4211,11 +4223,11 @@
       <c r="B7" s="86" t="s">
         <v>178</v>
       </c>
-      <c r="C7" s="187" t="str">
+      <c r="C7" s="186" t="str">
         <f>Inputs!C8</f>
         <v>N</v>
       </c>
-      <c r="D7" s="187" t="str">
+      <c r="D7" s="186" t="str">
         <f>Inputs!C9</f>
         <v>C0009</v>
       </c>
@@ -4223,8 +4235,8 @@
       <c r="F7" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="133">
-        <v>1.0690929889678955</v>
+      <c r="G7" s="132">
+        <v>1.0682333310445149</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4233,10 +4245,10 @@
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="139" t="s">
+      <c r="B9" s="138" t="s">
         <v>177</v>
       </c>
-      <c r="F9" s="143" t="s">
+      <c r="F9" s="142" t="s">
         <v>172</v>
       </c>
     </row>
@@ -4244,7 +4256,7 @@
       <c r="B10" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C10" s="172">
+      <c r="C10" s="171">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
@@ -4252,13 +4264,13 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="122" t="s">
+      <c r="B11" s="121" t="s">
         <v>167</v>
       </c>
-      <c r="C11" s="173">
+      <c r="C11" s="172">
         <v>5.2299999999999999E-2</v>
       </c>
-      <c r="D11" s="137" t="s">
+      <c r="D11" s="136" t="s">
         <v>176</v>
       </c>
       <c r="F11" s="110" t="s">
@@ -4267,12 +4279,12 @@
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>236</v>
-      </c>
-      <c r="C12" s="174">
+        <v>235</v>
+      </c>
+      <c r="C12" s="173">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="D12" s="172">
+      <c r="D12" s="171">
         <v>8.0625000000000002E-2</v>
       </c>
       <c r="F12" s="110"/>
@@ -4282,7 +4294,7 @@
       <c r="B14" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C14" s="172">
+      <c r="C14" s="171">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
@@ -4293,7 +4305,7 @@
       <c r="B15" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C15" s="172">
+      <c r="C15" s="171">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
@@ -4301,13 +4313,13 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="122" t="s">
+      <c r="B16" s="121" t="s">
         <v>174</v>
       </c>
-      <c r="C16" s="173">
+      <c r="C16" s="172">
         <v>0.16</v>
       </c>
-      <c r="D16" s="265" t="str">
+      <c r="D16" s="262" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
@@ -4317,49 +4329,49 @@
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>237</v>
-      </c>
-      <c r="C17" s="175">
+        <v>236</v>
+      </c>
+      <c r="C17" s="174">
         <v>8.6249999999999993E-2</v>
       </c>
-      <c r="D17" s="176"/>
+      <c r="D17" s="175"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="142" t="s">
-        <v>261</v>
-      </c>
-      <c r="C19" s="135" t="s">
+      <c r="B19" s="141" t="s">
+        <v>259</v>
+      </c>
+      <c r="C19" s="134" t="s">
         <v>48</v>
       </c>
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
-      <c r="F19" s="142" t="s">
+      <c r="F19" s="141" t="s">
         <v>198</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="275" t="s">
-        <v>251</v>
-      </c>
-      <c r="C20" s="276" t="e">
+      <c r="B20" s="272" t="s">
+        <v>250</v>
+      </c>
+      <c r="C20" s="273" t="e">
         <f>C23*C22*(1/C21)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F20" s="87" t="s">
         <v>197</v>
       </c>
-      <c r="G20" s="172">
+      <c r="G20" s="171">
         <v>0.15</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="277" t="s">
-        <v>249</v>
-      </c>
-      <c r="C21" s="278" t="e">
+      <c r="B21" s="274" t="s">
+        <v>248</v>
+      </c>
+      <c r="C21" s="275" t="e">
         <f>Data!C53</f>
         <v>#DIV/0!</v>
       </c>
@@ -4367,79 +4379,79 @@
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="279" t="s">
-        <v>256</v>
-      </c>
-      <c r="C22" s="280" t="e">
+      <c r="B22" s="276" t="s">
+        <v>263</v>
+      </c>
+      <c r="C22" s="277" t="e">
         <f>Data!C48</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F22" s="142" t="s">
+      <c r="F22" s="141" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="281" t="s">
-        <v>257</v>
-      </c>
-      <c r="C23" s="282">
+      <c r="B23" s="278" t="s">
+        <v>255</v>
+      </c>
+      <c r="C23" s="279">
         <f>Data!C13</f>
         <v>0.2099200315896334</v>
       </c>
-      <c r="F23" s="140" t="s">
+      <c r="F23" s="139" t="s">
         <v>175</v>
       </c>
-      <c r="G23" s="177" t="e">
+      <c r="G23" s="176" t="e">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="137" t="s">
-        <v>258</v>
-      </c>
-      <c r="C24" s="171">
+      <c r="B24" s="136" t="s">
+        <v>256</v>
+      </c>
+      <c r="C24" s="170">
         <f>Fin_Analysis!I81</f>
         <v>2.1757339633768379E-3</v>
       </c>
-      <c r="F24" s="140" t="s">
-        <v>241</v>
-      </c>
-      <c r="G24" s="268">
+      <c r="F24" s="139" t="s">
+        <v>240</v>
+      </c>
+      <c r="G24" s="265">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>26.210335724430497</v>
+        <v>25.929339035362403</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="137" t="s">
-        <v>259</v>
-      </c>
-      <c r="C25" s="171">
+      <c r="B25" s="136" t="s">
+        <v>257</v>
+      </c>
+      <c r="C25" s="170">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
-      <c r="F25" s="140" t="s">
+      <c r="F25" s="139" t="s">
         <v>162</v>
       </c>
-      <c r="G25" s="171">
+      <c r="G25" s="170">
         <f>Fin_Analysis!I88</f>
         <v>0.43026926927421749</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="138" t="s">
-        <v>260</v>
-      </c>
-      <c r="C26" s="171">
+      <c r="B26" s="137" t="s">
+        <v>258</v>
+      </c>
+      <c r="C26" s="170">
         <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
         <v>0</v>
       </c>
-      <c r="F26" s="141" t="s">
+      <c r="F26" s="140" t="s">
         <v>179</v>
       </c>
-      <c r="G26" s="178">
+      <c r="G26" s="177">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>1.6416015185687458E-2</v>
+        <v>1.6593915822050716E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4456,10 +4468,10 @@
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G28" s="285" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H28" s="285"/>
     </row>
@@ -4467,22 +4479,22 @@
       <c r="B29" s="87" t="s">
         <v>160</v>
       </c>
-      <c r="C29" s="130">
+      <c r="C29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>1.1836867943864464</v>
-      </c>
-      <c r="D29" s="129">
+        <v>1.1837704090052865</v>
+      </c>
+      <c r="D29" s="128">
         <f>G29*(1+G20)</f>
-        <v>2.1298841007773404</v>
+        <v>2.1300345539614978</v>
       </c>
       <c r="E29" s="87"/>
-      <c r="F29" s="131">
+      <c r="F29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>1.3925726992781724</v>
+        <v>1.3926710694179842</v>
       </c>
       <c r="G29" s="286">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>1.852073131110731</v>
+        <v>1.8522039599665199</v>
       </c>
       <c r="H29" s="286"/>
     </row>
@@ -4490,23 +4502,23 @@
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
-      <c r="B32" s="196" t="s">
-        <v>209</v>
-      </c>
-      <c r="C32" s="224"/>
+      <c r="B32" s="195" t="s">
+        <v>208</v>
+      </c>
+      <c r="C32" s="221"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>210</v>
-      </c>
-      <c r="C33" s="245" t="str">
+        <v>209</v>
+      </c>
+      <c r="C33" s="242" t="str">
         <f>Inputs!C17</f>
         <v>Strongly agree</v>
       </c>
@@ -4514,9 +4526,9 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>211</v>
-      </c>
-      <c r="C34" s="225" t="e">
+        <v>210</v>
+      </c>
+      <c r="C34" s="222" t="e">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
 IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
         <v>#DIV/0!</v>
@@ -4524,17 +4536,17 @@
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
-      <c r="B35" s="196" t="s">
-        <v>212</v>
-      </c>
-      <c r="C35" s="224"/>
+      <c r="B35" s="195" t="s">
+        <v>211</v>
+      </c>
+      <c r="C35" s="221"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>224</v>
-      </c>
-      <c r="C36" s="245" t="str">
+        <v>223</v>
+      </c>
+      <c r="C36" s="242" t="str">
         <f>Inputs!C18</f>
         <v>unclear</v>
       </c>
@@ -4542,26 +4554,26 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>225</v>
-      </c>
-      <c r="C37" s="245" t="str">
+        <v>224</v>
+      </c>
+      <c r="C37" s="242" t="str">
         <f>Inputs!C19</f>
         <v>agree</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
-      <c r="B38" s="196" t="s">
-        <v>213</v>
-      </c>
-      <c r="C38" s="224"/>
+      <c r="B38" s="195" t="s">
+        <v>212</v>
+      </c>
+      <c r="C38" s="221"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>214</v>
-      </c>
-      <c r="C39" s="245" t="str">
+        <v>213</v>
+      </c>
+      <c r="C39" s="242" t="str">
         <f>Inputs!C20</f>
         <v>agree</v>
       </c>
@@ -4569,9 +4581,9 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C40" s="245" t="str">
+        <v>216</v>
+      </c>
+      <c r="C40" s="242" t="str">
         <f>Inputs!C21</f>
         <v>Strongly agree</v>
       </c>
@@ -4584,16 +4596,16 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
-      <c r="B43" s="226" t="s">
-        <v>216</v>
-      </c>
-      <c r="C43" s="244" t="str">
+      <c r="B43" s="223" t="s">
+        <v>215</v>
+      </c>
+      <c r="C43" s="241" t="str">
         <f>Inputs!C22</f>
         <v>Consumer Monopoly</v>
       </c>
@@ -5545,10 +5557,10 @@
   </sheetPr>
   <dimension ref="A1:N930"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="D36" sqref="D36"/>
+      <selection pane="topRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5574,16 +5586,16 @@
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="148" t="s">
+      <c r="E2" s="147" t="s">
         <v>185</v>
       </c>
-      <c r="F2" s="119" t="s">
+      <c r="F2" s="118" t="s">
         <v>188</v>
       </c>
-      <c r="G2" s="148" t="s">
+      <c r="G2" s="147" t="s">
         <v>189</v>
       </c>
-      <c r="H2" s="147" t="s">
+      <c r="H2" s="146" t="s">
         <v>190</v>
       </c>
       <c r="I2" s="7"/>
@@ -5597,11 +5609,11 @@
       <c r="B3" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="201">
+      <c r="C3" s="200">
         <f>Inputs!C12</f>
         <v>45291</v>
       </c>
-      <c r="E3" s="146" t="s">
+      <c r="E3" s="145" t="s">
         <v>186</v>
       </c>
       <c r="F3" s="85" t="str">
@@ -5626,7 +5638,7 @@
       <c r="B4" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="128">
+      <c r="C4" s="127">
         <f>Inputs!C13</f>
         <v>1</v>
       </c>
@@ -5634,7 +5646,7 @@
         <f>Dashboard!G6</f>
         <v>CNY</v>
       </c>
-      <c r="E4" s="146" t="s">
+      <c r="E4" s="145" t="s">
         <v>187</v>
       </c>
       <c r="F4" s="93" t="e">
@@ -5698,47 +5710,47 @@
       <c r="B6" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="200">
+      <c r="C6" s="199">
         <f>IF(Inputs!C25=""," ",Inputs!C25)</f>
         <v>6983846860.7700005</v>
       </c>
-      <c r="D6" s="200">
+      <c r="D6" s="199">
         <f>IF(Inputs!D25="","",Inputs!D25)</f>
         <v>5210105771.0900002</v>
       </c>
-      <c r="E6" s="200" t="str">
+      <c r="E6" s="199" t="str">
         <f>IF(Inputs!E25="","",Inputs!E25)</f>
         <v/>
       </c>
-      <c r="F6" s="200" t="str">
+      <c r="F6" s="199" t="str">
         <f>IF(Inputs!F25="","",Inputs!F25)</f>
         <v/>
       </c>
-      <c r="G6" s="200" t="str">
+      <c r="G6" s="199" t="str">
         <f>IF(Inputs!G25="","",Inputs!G25)</f>
         <v/>
       </c>
-      <c r="H6" s="200" t="str">
+      <c r="H6" s="199" t="str">
         <f>IF(Inputs!H25="","",Inputs!H25)</f>
         <v/>
       </c>
-      <c r="I6" s="200" t="str">
+      <c r="I6" s="199" t="str">
         <f>IF(Inputs!I25="","",Inputs!I25)</f>
         <v/>
       </c>
-      <c r="J6" s="200" t="str">
+      <c r="J6" s="199" t="str">
         <f>IF(Inputs!J25="","",Inputs!J25)</f>
         <v/>
       </c>
-      <c r="K6" s="200" t="str">
+      <c r="K6" s="199" t="str">
         <f>IF(Inputs!K25="","",Inputs!K25)</f>
         <v/>
       </c>
-      <c r="L6" s="200" t="str">
+      <c r="L6" s="199" t="str">
         <f>IF(Inputs!L25="","",Inputs!L25)</f>
         <v/>
       </c>
-      <c r="M6" s="200" t="str">
+      <c r="M6" s="199" t="str">
         <f>IF(Inputs!M25="","",Inputs!M25)</f>
         <v/>
       </c>
@@ -5800,47 +5812,47 @@
       <c r="B8" s="97" t="s">
         <v>102</v>
       </c>
-      <c r="C8" s="199">
+      <c r="C8" s="198">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
         <v>3398384261.9699998</v>
       </c>
-      <c r="D8" s="199">
+      <c r="D8" s="198">
         <f>IF(Inputs!D26="","",Inputs!D26)</f>
         <v>3162230075.25</v>
       </c>
-      <c r="E8" s="199" t="str">
+      <c r="E8" s="198" t="str">
         <f>IF(Inputs!E26="","",Inputs!E26)</f>
         <v/>
       </c>
-      <c r="F8" s="199" t="str">
+      <c r="F8" s="198" t="str">
         <f>IF(Inputs!F26="","",Inputs!F26)</f>
         <v/>
       </c>
-      <c r="G8" s="199" t="str">
+      <c r="G8" s="198" t="str">
         <f>IF(Inputs!G26="","",Inputs!G26)</f>
         <v/>
       </c>
-      <c r="H8" s="199" t="str">
+      <c r="H8" s="198" t="str">
         <f>IF(Inputs!H26="","",Inputs!H26)</f>
         <v/>
       </c>
-      <c r="I8" s="199" t="str">
+      <c r="I8" s="198" t="str">
         <f>IF(Inputs!I26="","",Inputs!I26)</f>
         <v/>
       </c>
-      <c r="J8" s="199" t="str">
+      <c r="J8" s="198" t="str">
         <f>IF(Inputs!J26="","",Inputs!J26)</f>
         <v/>
       </c>
-      <c r="K8" s="199" t="str">
+      <c r="K8" s="198" t="str">
         <f>IF(Inputs!K26="","",Inputs!K26)</f>
         <v/>
       </c>
-      <c r="L8" s="199" t="str">
+      <c r="L8" s="198" t="str">
         <f>IF(Inputs!L26="","",Inputs!L26)</f>
         <v/>
       </c>
-      <c r="M8" s="199" t="str">
+      <c r="M8" s="198" t="str">
         <f>IF(Inputs!M26="","",Inputs!M26)</f>
         <v/>
       </c>
@@ -5851,47 +5863,47 @@
       <c r="B9" s="98" t="s">
         <v>99</v>
       </c>
-      <c r="C9" s="151">
+      <c r="C9" s="150">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
         <v>3585462598.8000007</v>
       </c>
-      <c r="D9" s="151">
+      <c r="D9" s="150">
         <f t="shared" si="2"/>
         <v>2047875695.8400002</v>
       </c>
-      <c r="E9" s="151" t="str">
+      <c r="E9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F9" s="151" t="str">
+      <c r="F9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G9" s="151" t="str">
+      <c r="G9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H9" s="151" t="str">
+      <c r="H9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I9" s="151" t="str">
+      <c r="I9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J9" s="151" t="str">
+      <c r="J9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K9" s="151" t="str">
+      <c r="K9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L9" s="151" t="str">
+      <c r="L9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M9" s="151" t="str">
+      <c r="M9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -5902,47 +5914,47 @@
       <c r="B10" s="97" t="s">
         <v>100</v>
       </c>
-      <c r="C10" s="199">
+      <c r="C10" s="198">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
         <v>1191142720.1700001</v>
       </c>
-      <c r="D10" s="199">
+      <c r="D10" s="198">
         <f>IF(Inputs!D27="","",Inputs!D27)</f>
         <v>1028568099.8399999</v>
       </c>
-      <c r="E10" s="199" t="str">
+      <c r="E10" s="198" t="str">
         <f>IF(Inputs!E27="","",Inputs!E27)</f>
         <v/>
       </c>
-      <c r="F10" s="199" t="str">
+      <c r="F10" s="198" t="str">
         <f>IF(Inputs!F27="","",Inputs!F27)</f>
         <v/>
       </c>
-      <c r="G10" s="199" t="str">
+      <c r="G10" s="198" t="str">
         <f>IF(Inputs!G27="","",Inputs!G27)</f>
         <v/>
       </c>
-      <c r="H10" s="199" t="str">
+      <c r="H10" s="198" t="str">
         <f>IF(Inputs!H27="","",Inputs!H27)</f>
         <v/>
       </c>
-      <c r="I10" s="199" t="str">
+      <c r="I10" s="198" t="str">
         <f>IF(Inputs!I27="","",Inputs!I27)</f>
         <v/>
       </c>
-      <c r="J10" s="199" t="str">
+      <c r="J10" s="198" t="str">
         <f>IF(Inputs!J27="","",Inputs!J27)</f>
         <v/>
       </c>
-      <c r="K10" s="199" t="str">
+      <c r="K10" s="198" t="str">
         <f>IF(Inputs!K27="","",Inputs!K27)</f>
         <v/>
       </c>
-      <c r="L10" s="199" t="str">
+      <c r="L10" s="198" t="str">
         <f>IF(Inputs!L27="","",Inputs!L27)</f>
         <v/>
       </c>
-      <c r="M10" s="199" t="str">
+      <c r="M10" s="198" t="str">
         <f>IF(Inputs!M27="","",Inputs!M27)</f>
         <v/>
       </c>
@@ -5953,47 +5965,47 @@
       <c r="B11" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="C11" s="199">
+      <c r="C11" s="198">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
         <v>863038653</v>
       </c>
-      <c r="D11" s="199">
+      <c r="D11" s="198">
         <f>IF(Inputs!D28="","",Inputs!D28)</f>
         <v>701713632.36000001</v>
       </c>
-      <c r="E11" s="199" t="str">
+      <c r="E11" s="198" t="str">
         <f>IF(Inputs!E28="","",Inputs!E28)</f>
         <v/>
       </c>
-      <c r="F11" s="199" t="str">
+      <c r="F11" s="198" t="str">
         <f>IF(Inputs!F28="","",Inputs!F28)</f>
         <v/>
       </c>
-      <c r="G11" s="199" t="str">
+      <c r="G11" s="198" t="str">
         <f>IF(Inputs!G28="","",Inputs!G28)</f>
         <v/>
       </c>
-      <c r="H11" s="199" t="str">
+      <c r="H11" s="198" t="str">
         <f>IF(Inputs!H28="","",Inputs!H28)</f>
         <v/>
       </c>
-      <c r="I11" s="199" t="str">
+      <c r="I11" s="198" t="str">
         <f>IF(Inputs!I28="","",Inputs!I28)</f>
         <v/>
       </c>
-      <c r="J11" s="199" t="str">
+      <c r="J11" s="198" t="str">
         <f>IF(Inputs!J28="","",Inputs!J28)</f>
         <v/>
       </c>
-      <c r="K11" s="199" t="str">
+      <c r="K11" s="198" t="str">
         <f>IF(Inputs!K28="","",Inputs!K28)</f>
         <v/>
       </c>
-      <c r="L11" s="199" t="str">
+      <c r="L11" s="198" t="str">
         <f>IF(Inputs!L28="","",Inputs!L28)</f>
         <v/>
       </c>
-      <c r="M11" s="199" t="str">
+      <c r="M11" s="198" t="str">
         <f>IF(Inputs!M28="","",Inputs!M28)</f>
         <v/>
       </c>
@@ -6002,49 +6014,49 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>226</v>
-      </c>
-      <c r="C12" s="199">
+        <v>225</v>
+      </c>
+      <c r="C12" s="198">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>65231872</v>
       </c>
-      <c r="D12" s="199">
+      <c r="D12" s="198">
         <f>IF(Inputs!D30="","",MAX(Inputs!D30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>70400849.61333333</v>
       </c>
-      <c r="E12" s="199" t="str">
+      <c r="E12" s="198" t="str">
         <f>IF(Inputs!E30="","",MAX(Inputs!E30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="F12" s="199" t="str">
+      <c r="F12" s="198" t="str">
         <f>IF(Inputs!F30="","",MAX(Inputs!F30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="G12" s="199" t="str">
+      <c r="G12" s="198" t="str">
         <f>IF(Inputs!G30="","",MAX(Inputs!G30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="H12" s="199" t="str">
+      <c r="H12" s="198" t="str">
         <f>IF(Inputs!H30="","",MAX(Inputs!H30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="I12" s="199" t="str">
+      <c r="I12" s="198" t="str">
         <f>IF(Inputs!I30="","",MAX(Inputs!I30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="J12" s="199" t="str">
+      <c r="J12" s="198" t="str">
         <f>IF(Inputs!J30="","",MAX(Inputs!J30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="K12" s="199" t="str">
+      <c r="K12" s="198" t="str">
         <f>IF(Inputs!K30="","",MAX(Inputs!K30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="L12" s="199" t="str">
+      <c r="L12" s="198" t="str">
         <f>IF(Inputs!L30="","",MAX(Inputs!L30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="M12" s="199" t="str">
+      <c r="M12" s="198" t="str">
         <f>IF(Inputs!M30="","",MAX(Inputs!M30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
@@ -6052,50 +6064,50 @@
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
-      <c r="B13" s="228" t="s">
-        <v>227</v>
-      </c>
-      <c r="C13" s="229">
+      <c r="B13" s="225" t="s">
+        <v>226</v>
+      </c>
+      <c r="C13" s="226">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
         <v>0.2099200315896334</v>
       </c>
-      <c r="D13" s="229">
+      <c r="D13" s="226">
         <f t="shared" si="3"/>
         <v>4.7444932000862604E-2</v>
       </c>
-      <c r="E13" s="229" t="str">
+      <c r="E13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F13" s="229" t="str">
+      <c r="F13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G13" s="229" t="str">
+      <c r="G13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H13" s="229" t="str">
+      <c r="H13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I13" s="229" t="str">
+      <c r="I13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J13" s="229" t="str">
+      <c r="J13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K13" s="229" t="str">
+      <c r="K13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L13" s="229" t="str">
+      <c r="L13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M13" s="229" t="str">
+      <c r="M13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -6103,50 +6115,50 @@
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
-      <c r="B14" s="228" t="s">
-        <v>219</v>
-      </c>
-      <c r="C14" s="230">
+      <c r="B14" s="225" t="s">
+        <v>218</v>
+      </c>
+      <c r="C14" s="227">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
         <v>1466049353.6300006</v>
       </c>
-      <c r="D14" s="230">
+      <c r="D14" s="227">
         <f t="shared" ref="D14:M14" si="4">IF(D6="","",D9-D10-MAX(D11,0)-MAX(D12,0))</f>
         <v>247193114.02666688</v>
       </c>
-      <c r="E14" s="230" t="str">
+      <c r="E14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="F14" s="230" t="str">
+      <c r="F14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G14" s="230" t="str">
+      <c r="G14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="H14" s="230" t="str">
+      <c r="H14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I14" s="230" t="str">
+      <c r="I14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J14" s="230" t="str">
+      <c r="J14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="K14" s="230" t="str">
+      <c r="K14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L14" s="230" t="str">
+      <c r="L14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M14" s="230" t="str">
+      <c r="M14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -6154,50 +6166,50 @@
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
-      <c r="B15" s="231" t="s">
-        <v>228</v>
-      </c>
-      <c r="C15" s="232">
+      <c r="B15" s="228" t="s">
+        <v>227</v>
+      </c>
+      <c r="C15" s="229">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
         <v>4.9307855698271803</v>
       </c>
-      <c r="D15" s="232" t="str">
+      <c r="D15" s="229" t="str">
         <f t="shared" ref="D15:M15" si="5">IF(E14="","",IF(ABS(D14+E14)=ABS(D14)+ABS(E14),IF(D14&lt;0,-1,1)*(D14-E14)/E14,"Turn"))</f>
         <v/>
       </c>
-      <c r="E15" s="232" t="str">
+      <c r="E15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="F15" s="232" t="str">
+      <c r="F15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="G15" s="232" t="str">
+      <c r="G15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="H15" s="232" t="str">
+      <c r="H15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I15" s="232" t="str">
+      <c r="I15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="J15" s="232" t="str">
+      <c r="J15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K15" s="232" t="str">
+      <c r="K15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L15" s="232" t="str">
+      <c r="L15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M15" s="232" t="str">
+      <c r="M15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -6208,47 +6220,47 @@
       <c r="B16" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="C16" s="199" t="str">
+      <c r="C16" s="198" t="str">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
         <v/>
       </c>
-      <c r="D16" s="199" t="str">
+      <c r="D16" s="198" t="str">
         <f>IF(Inputs!D31="","",Inputs!D31)</f>
         <v/>
       </c>
-      <c r="E16" s="199" t="str">
+      <c r="E16" s="198" t="str">
         <f>IF(Inputs!E31="","",Inputs!E31)</f>
         <v/>
       </c>
-      <c r="F16" s="199" t="str">
+      <c r="F16" s="198" t="str">
         <f>IF(Inputs!F31="","",Inputs!F31)</f>
         <v/>
       </c>
-      <c r="G16" s="199" t="str">
+      <c r="G16" s="198" t="str">
         <f>IF(Inputs!G31="","",Inputs!G31)</f>
         <v/>
       </c>
-      <c r="H16" s="199" t="str">
+      <c r="H16" s="198" t="str">
         <f>IF(Inputs!H31="","",Inputs!H31)</f>
         <v/>
       </c>
-      <c r="I16" s="199" t="str">
+      <c r="I16" s="198" t="str">
         <f>IF(Inputs!I31="","",Inputs!I31)</f>
         <v/>
       </c>
-      <c r="J16" s="199" t="str">
+      <c r="J16" s="198" t="str">
         <f>IF(Inputs!J31="","",Inputs!J31)</f>
         <v/>
       </c>
-      <c r="K16" s="199" t="str">
+      <c r="K16" s="198" t="str">
         <f>IF(Inputs!K31="","",Inputs!K31)</f>
         <v/>
       </c>
-      <c r="L16" s="199" t="str">
+      <c r="L16" s="198" t="str">
         <f>IF(Inputs!L31="","",Inputs!L31)</f>
         <v/>
       </c>
-      <c r="M16" s="199" t="str">
+      <c r="M16" s="198" t="str">
         <f>IF(Inputs!M31="","",Inputs!M31)</f>
         <v/>
       </c>
@@ -6257,49 +6269,49 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>239</v>
-      </c>
-      <c r="C17" s="199">
+        <v>238</v>
+      </c>
+      <c r="C17" s="198">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
         <v>15194992.810000001</v>
       </c>
-      <c r="D17" s="199">
+      <c r="D17" s="198">
         <f>IF(Inputs!D29="","",Inputs!D29)</f>
         <v>12415189.01</v>
       </c>
-      <c r="E17" s="199" t="str">
+      <c r="E17" s="198" t="str">
         <f>IF(Inputs!E29="","",Inputs!E29)</f>
         <v/>
       </c>
-      <c r="F17" s="199" t="str">
+      <c r="F17" s="198" t="str">
         <f>IF(Inputs!F29="","",Inputs!F29)</f>
         <v/>
       </c>
-      <c r="G17" s="199" t="str">
+      <c r="G17" s="198" t="str">
         <f>IF(Inputs!G29="","",Inputs!G29)</f>
         <v/>
       </c>
-      <c r="H17" s="199" t="str">
+      <c r="H17" s="198" t="str">
         <f>IF(Inputs!H29="","",Inputs!H29)</f>
         <v/>
       </c>
-      <c r="I17" s="199" t="str">
+      <c r="I17" s="198" t="str">
         <f>IF(Inputs!I29="","",Inputs!I29)</f>
         <v/>
       </c>
-      <c r="J17" s="199" t="str">
+      <c r="J17" s="198" t="str">
         <f>IF(Inputs!J29="","",Inputs!J29)</f>
         <v/>
       </c>
-      <c r="K17" s="199" t="str">
+      <c r="K17" s="198" t="str">
         <f>IF(Inputs!K29="","",Inputs!K29)</f>
         <v/>
       </c>
-      <c r="L17" s="199" t="str">
+      <c r="L17" s="198" t="str">
         <f>IF(Inputs!L29="","",Inputs!L29)</f>
         <v/>
       </c>
-      <c r="M17" s="199" t="str">
+      <c r="M17" s="198" t="str">
         <f>IF(Inputs!M29="","",Inputs!M29)</f>
         <v/>
       </c>
@@ -6310,47 +6322,47 @@
       <c r="B18" s="94" t="s">
         <v>95</v>
       </c>
-      <c r="C18" s="152" t="str">
+      <c r="C18" s="151" t="str">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
         <v/>
       </c>
-      <c r="D18" s="152" t="str">
+      <c r="D18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="E18" s="152" t="str">
+      <c r="E18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F18" s="152" t="str">
+      <c r="F18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="G18" s="152" t="str">
+      <c r="G18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H18" s="152" t="str">
+      <c r="H18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I18" s="152" t="str">
+      <c r="I18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J18" s="152" t="str">
+      <c r="J18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="K18" s="152" t="str">
+      <c r="K18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L18" s="152" t="str">
+      <c r="L18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="M18" s="152" t="str">
+      <c r="M18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -6361,47 +6373,47 @@
       <c r="B19" s="97" t="s">
         <v>101</v>
       </c>
-      <c r="C19" s="199" t="str">
+      <c r="C19" s="198" t="str">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
         <v/>
       </c>
-      <c r="D19" s="199" t="str">
+      <c r="D19" s="198" t="str">
         <f>IF(Inputs!D32="","",Inputs!D32)</f>
         <v/>
       </c>
-      <c r="E19" s="199" t="str">
+      <c r="E19" s="198" t="str">
         <f>IF(Inputs!E32="","",Inputs!E32)</f>
         <v/>
       </c>
-      <c r="F19" s="199" t="str">
+      <c r="F19" s="198" t="str">
         <f>IF(Inputs!F32="","",Inputs!F32)</f>
         <v/>
       </c>
-      <c r="G19" s="199" t="str">
+      <c r="G19" s="198" t="str">
         <f>IF(Inputs!G32="","",Inputs!G32)</f>
         <v/>
       </c>
-      <c r="H19" s="199" t="str">
+      <c r="H19" s="198" t="str">
         <f>IF(Inputs!H32="","",Inputs!H32)</f>
         <v/>
       </c>
-      <c r="I19" s="199" t="str">
+      <c r="I19" s="198" t="str">
         <f>IF(Inputs!I32="","",Inputs!I32)</f>
         <v/>
       </c>
-      <c r="J19" s="199" t="str">
+      <c r="J19" s="198" t="str">
         <f>IF(Inputs!J32="","",Inputs!J32)</f>
         <v/>
       </c>
-      <c r="K19" s="199" t="str">
+      <c r="K19" s="198" t="str">
         <f>IF(Inputs!K32="","",Inputs!K32)</f>
         <v/>
       </c>
-      <c r="L19" s="199" t="str">
+      <c r="L19" s="198" t="str">
         <f>IF(Inputs!L32="","",Inputs!L32)</f>
         <v/>
       </c>
-      <c r="M19" s="199" t="str">
+      <c r="M19" s="198" t="str">
         <f>IF(Inputs!M32="","",Inputs!M32)</f>
         <v/>
       </c>
@@ -6410,49 +6422,49 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>221</v>
-      </c>
-      <c r="C20" s="152">
+        <v>220</v>
+      </c>
+      <c r="C20" s="151">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D20" s="152">
+      <c r="D20" s="151">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E20" s="152" t="str">
+      <c r="E20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="F20" s="152" t="str">
+      <c r="F20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G20" s="152" t="str">
+      <c r="G20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="H20" s="152" t="str">
+      <c r="H20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="I20" s="152" t="str">
+      <c r="I20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="J20" s="152" t="str">
+      <c r="J20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="K20" s="152" t="str">
+      <c r="K20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L20" s="152" t="str">
+      <c r="L20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M20" s="152" t="str">
+      <c r="M20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
@@ -6463,47 +6475,47 @@
       <c r="B21" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="C21" s="199" t="str">
+      <c r="C21" s="198" t="str">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
         <v/>
       </c>
-      <c r="D21" s="199" t="str">
+      <c r="D21" s="198" t="str">
         <f>IF(Inputs!D33="","",Inputs!D33)</f>
         <v/>
       </c>
-      <c r="E21" s="199" t="str">
+      <c r="E21" s="198" t="str">
         <f>IF(Inputs!E33="","",Inputs!E33)</f>
         <v/>
       </c>
-      <c r="F21" s="199" t="str">
+      <c r="F21" s="198" t="str">
         <f>IF(Inputs!F33="","",Inputs!F33)</f>
         <v/>
       </c>
-      <c r="G21" s="199" t="str">
+      <c r="G21" s="198" t="str">
         <f>IF(Inputs!G33="","",Inputs!G33)</f>
         <v/>
       </c>
-      <c r="H21" s="199" t="str">
+      <c r="H21" s="198" t="str">
         <f>IF(Inputs!H33="","",Inputs!H33)</f>
         <v/>
       </c>
-      <c r="I21" s="199" t="str">
+      <c r="I21" s="198" t="str">
         <f>IF(Inputs!I33="","",Inputs!I33)</f>
         <v/>
       </c>
-      <c r="J21" s="199" t="str">
+      <c r="J21" s="198" t="str">
         <f>IF(Inputs!J33="","",Inputs!J33)</f>
         <v/>
       </c>
-      <c r="K21" s="199" t="str">
+      <c r="K21" s="198" t="str">
         <f>IF(Inputs!K33="","",Inputs!K33)</f>
         <v/>
       </c>
-      <c r="L21" s="199" t="str">
+      <c r="L21" s="198" t="str">
         <f>IF(Inputs!L33="","",Inputs!L33)</f>
         <v/>
       </c>
-      <c r="M21" s="199" t="str">
+      <c r="M21" s="198" t="str">
         <f>IF(Inputs!M33="","",Inputs!M33)</f>
         <v/>
       </c>
@@ -6514,47 +6526,47 @@
       <c r="B22" s="98" t="s">
         <v>108</v>
       </c>
-      <c r="C22" s="161">
+      <c r="C22" s="160">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
         <v>1450854360.8200006</v>
       </c>
-      <c r="D22" s="161">
+      <c r="D22" s="160">
         <f t="shared" ref="D22:M22" si="8">IF(D6="","",D14-MAX(D16,0)-MAX(D17,0)-ABS(MAX(D21,0)-MAX(D19,0)))</f>
         <v>234777925.01666689</v>
       </c>
-      <c r="E22" s="161" t="str">
+      <c r="E22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="F22" s="161" t="str">
+      <c r="F22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="G22" s="161" t="str">
+      <c r="G22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="H22" s="161" t="str">
+      <c r="H22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="I22" s="161" t="str">
+      <c r="I22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="J22" s="161" t="str">
+      <c r="J22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="K22" s="161" t="str">
+      <c r="K22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="L22" s="161" t="str">
+      <c r="L22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="M22" s="161" t="str">
+      <c r="M22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -6565,47 +6577,47 @@
       <c r="B23" s="100" t="s">
         <v>109</v>
       </c>
-      <c r="C23" s="153">
+      <c r="C23" s="152">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
         <v>0.15580822321969243</v>
       </c>
-      <c r="D23" s="153">
+      <c r="D23" s="152">
         <f t="shared" si="9"/>
         <v>3.3796519974615018E-2</v>
       </c>
-      <c r="E23" s="153" t="str">
+      <c r="E23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="F23" s="153" t="str">
+      <c r="F23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="G23" s="153" t="str">
+      <c r="G23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="H23" s="153" t="str">
+      <c r="H23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="I23" s="153" t="str">
+      <c r="I23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="J23" s="153" t="str">
+      <c r="J23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="K23" s="153" t="str">
+      <c r="K23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L23" s="153" t="str">
+      <c r="L23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="M23" s="153" t="str">
+      <c r="M23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -6616,7 +6628,7 @@
       <c r="B24" s="101" t="s">
         <v>110</v>
       </c>
-      <c r="C24" s="154">
+      <c r="C24" s="153">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
         <v>1088140770.6150005</v>
       </c>
@@ -6664,50 +6676,50 @@
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
-      <c r="B25" s="234" t="s">
+      <c r="B25" s="231" t="s">
         <v>123</v>
       </c>
-      <c r="C25" s="233">
+      <c r="C25" s="230">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
         <v>5.1796881487772088</v>
       </c>
-      <c r="D25" s="233" t="str">
+      <c r="D25" s="230" t="str">
         <f t="shared" ref="D25:M25" si="10">IF(E24="","",IF(ABS(D24+E24)=ABS(D24)+ABS(E24),IF(D24&lt;0,-1,1)*(D24-E24)/E24,"Turn"))</f>
         <v/>
       </c>
-      <c r="E25" s="233" t="str">
+      <c r="E25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="F25" s="233" t="str">
+      <c r="F25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G25" s="233" t="str">
+      <c r="G25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="H25" s="233" t="str">
+      <c r="H25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I25" s="233" t="str">
+      <c r="I25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="J25" s="233" t="str">
+      <c r="J25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="K25" s="233" t="str">
+      <c r="K25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="L25" s="233" t="str">
+      <c r="L25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="M25" s="233" t="str">
+      <c r="M25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
@@ -6824,43 +6836,43 @@
         <f>Fin_Analysis!C13</f>
         <v>0</v>
       </c>
-      <c r="D28" s="199" t="str">
+      <c r="D28" s="198" t="str">
         <f>IF(Inputs!D35="","",Inputs!D35)</f>
         <v/>
       </c>
-      <c r="E28" s="199" t="str">
+      <c r="E28" s="198" t="str">
         <f>IF(Inputs!E35="","",Inputs!E35)</f>
         <v/>
       </c>
-      <c r="F28" s="199" t="str">
+      <c r="F28" s="198" t="str">
         <f>IF(Inputs!F35="","",Inputs!F35)</f>
         <v/>
       </c>
-      <c r="G28" s="199" t="str">
+      <c r="G28" s="198" t="str">
         <f>IF(Inputs!G35="","",Inputs!G35)</f>
         <v/>
       </c>
-      <c r="H28" s="199" t="str">
+      <c r="H28" s="198" t="str">
         <f>IF(Inputs!H35="","",Inputs!H35)</f>
         <v/>
       </c>
-      <c r="I28" s="199" t="str">
+      <c r="I28" s="198" t="str">
         <f>IF(Inputs!I35="","",Inputs!I35)</f>
         <v/>
       </c>
-      <c r="J28" s="199" t="str">
+      <c r="J28" s="198" t="str">
         <f>IF(Inputs!J35="","",Inputs!J35)</f>
         <v/>
       </c>
-      <c r="K28" s="199" t="str">
+      <c r="K28" s="198" t="str">
         <f>IF(Inputs!K35="","",Inputs!K35)</f>
         <v/>
       </c>
-      <c r="L28" s="199" t="str">
+      <c r="L28" s="198" t="str">
         <f>IF(Inputs!L35="","",Inputs!L35)</f>
         <v/>
       </c>
-      <c r="M28" s="199" t="str">
+      <c r="M28" s="198" t="str">
         <f>IF(Inputs!M35="","",Inputs!M35)</f>
         <v/>
       </c>
@@ -6875,43 +6887,43 @@
         <f>Fin_Analysis!C18</f>
         <v>0</v>
       </c>
-      <c r="D29" s="199" t="str">
+      <c r="D29" s="198" t="str">
         <f>IF(Inputs!D36="","",Inputs!D36)</f>
         <v/>
       </c>
-      <c r="E29" s="199" t="str">
+      <c r="E29" s="198" t="str">
         <f>IF(Inputs!E36="","",Inputs!E36)</f>
         <v/>
       </c>
-      <c r="F29" s="199" t="str">
+      <c r="F29" s="198" t="str">
         <f>IF(Inputs!F36="","",Inputs!F36)</f>
         <v/>
       </c>
-      <c r="G29" s="199" t="str">
+      <c r="G29" s="198" t="str">
         <f>IF(Inputs!G36="","",Inputs!G36)</f>
         <v/>
       </c>
-      <c r="H29" s="199" t="str">
+      <c r="H29" s="198" t="str">
         <f>IF(Inputs!H36="","",Inputs!H36)</f>
         <v/>
       </c>
-      <c r="I29" s="199" t="str">
+      <c r="I29" s="198" t="str">
         <f>IF(Inputs!I36="","",Inputs!I36)</f>
         <v/>
       </c>
-      <c r="J29" s="199" t="str">
+      <c r="J29" s="198" t="str">
         <f>IF(Inputs!J36="","",Inputs!J36)</f>
         <v/>
       </c>
-      <c r="K29" s="199" t="str">
+      <c r="K29" s="198" t="str">
         <f>IF(Inputs!K36="","",Inputs!K36)</f>
         <v/>
       </c>
-      <c r="L29" s="199" t="str">
+      <c r="L29" s="198" t="str">
         <f>IF(Inputs!L36="","",Inputs!L36)</f>
         <v/>
       </c>
-      <c r="M29" s="199" t="str">
+      <c r="M29" s="198" t="str">
         <f>IF(Inputs!M36="","",Inputs!M36)</f>
         <v/>
       </c>
@@ -6920,49 +6932,49 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C30" s="65">
         <f>Inputs!C37</f>
         <v>0</v>
       </c>
-      <c r="D30" s="199" t="str">
+      <c r="D30" s="198" t="str">
         <f>IF(Inputs!D37="","",Inputs!D37)</f>
         <v/>
       </c>
-      <c r="E30" s="199" t="str">
+      <c r="E30" s="198" t="str">
         <f>IF(Inputs!E37="","",Inputs!E37)</f>
         <v/>
       </c>
-      <c r="F30" s="199" t="str">
+      <c r="F30" s="198" t="str">
         <f>IF(Inputs!F37="","",Inputs!F37)</f>
         <v/>
       </c>
-      <c r="G30" s="199" t="str">
+      <c r="G30" s="198" t="str">
         <f>IF(Inputs!G37="","",Inputs!G37)</f>
         <v/>
       </c>
-      <c r="H30" s="199" t="str">
+      <c r="H30" s="198" t="str">
         <f>IF(Inputs!H37="","",Inputs!H37)</f>
         <v/>
       </c>
-      <c r="I30" s="199" t="str">
+      <c r="I30" s="198" t="str">
         <f>IF(Inputs!I37="","",Inputs!I37)</f>
         <v/>
       </c>
-      <c r="J30" s="199" t="str">
+      <c r="J30" s="198" t="str">
         <f>IF(Inputs!J37="","",Inputs!J37)</f>
         <v/>
       </c>
-      <c r="K30" s="199" t="str">
+      <c r="K30" s="198" t="str">
         <f>IF(Inputs!K37="","",Inputs!K37)</f>
         <v/>
       </c>
-      <c r="L30" s="199" t="str">
+      <c r="L30" s="198" t="str">
         <f>IF(Inputs!L37="","",Inputs!L37)</f>
         <v/>
       </c>
-      <c r="M30" s="199" t="str">
+      <c r="M30" s="198" t="str">
         <f>IF(Inputs!M37="","",Inputs!M37)</f>
         <v/>
       </c>
@@ -6977,43 +6989,43 @@
         <f>Fin_Analysis!I15</f>
         <v>0</v>
       </c>
-      <c r="D31" s="199" t="str">
+      <c r="D31" s="198" t="str">
         <f>IF(Inputs!D39="","",Inputs!D39)</f>
         <v/>
       </c>
-      <c r="E31" s="199" t="str">
+      <c r="E31" s="198" t="str">
         <f>IF(Inputs!E39="","",Inputs!E39)</f>
         <v/>
       </c>
-      <c r="F31" s="199" t="str">
+      <c r="F31" s="198" t="str">
         <f>IF(Inputs!F39="","",Inputs!F39)</f>
         <v/>
       </c>
-      <c r="G31" s="199" t="str">
+      <c r="G31" s="198" t="str">
         <f>IF(Inputs!G39="","",Inputs!G39)</f>
         <v/>
       </c>
-      <c r="H31" s="199" t="str">
+      <c r="H31" s="198" t="str">
         <f>IF(Inputs!H39="","",Inputs!H39)</f>
         <v/>
       </c>
-      <c r="I31" s="199" t="str">
+      <c r="I31" s="198" t="str">
         <f>IF(Inputs!I39="","",Inputs!I39)</f>
         <v/>
       </c>
-      <c r="J31" s="199" t="str">
+      <c r="J31" s="198" t="str">
         <f>IF(Inputs!J39="","",Inputs!J39)</f>
         <v/>
       </c>
-      <c r="K31" s="199" t="str">
+      <c r="K31" s="198" t="str">
         <f>IF(Inputs!K39="","",Inputs!K39)</f>
         <v/>
       </c>
-      <c r="L31" s="199" t="str">
+      <c r="L31" s="198" t="str">
         <f>IF(Inputs!L39="","",Inputs!L39)</f>
         <v/>
       </c>
-      <c r="M31" s="199" t="str">
+      <c r="M31" s="198" t="str">
         <f>IF(Inputs!M39="","",Inputs!M39)</f>
         <v/>
       </c>
@@ -7028,43 +7040,43 @@
         <f>Fin_Analysis!I34</f>
         <v>0</v>
       </c>
-      <c r="D32" s="199" t="str">
+      <c r="D32" s="198" t="str">
         <f>IF(Inputs!D40="","",Inputs!D40)</f>
         <v/>
       </c>
-      <c r="E32" s="199" t="str">
+      <c r="E32" s="198" t="str">
         <f>IF(Inputs!E40="","",Inputs!E40)</f>
         <v/>
       </c>
-      <c r="F32" s="199" t="str">
+      <c r="F32" s="198" t="str">
         <f>IF(Inputs!F40="","",Inputs!F40)</f>
         <v/>
       </c>
-      <c r="G32" s="199" t="str">
+      <c r="G32" s="198" t="str">
         <f>IF(Inputs!G40="","",Inputs!G40)</f>
         <v/>
       </c>
-      <c r="H32" s="199" t="str">
+      <c r="H32" s="198" t="str">
         <f>IF(Inputs!H40="","",Inputs!H40)</f>
         <v/>
       </c>
-      <c r="I32" s="199" t="str">
+      <c r="I32" s="198" t="str">
         <f>IF(Inputs!I40="","",Inputs!I40)</f>
         <v/>
       </c>
-      <c r="J32" s="199" t="str">
+      <c r="J32" s="198" t="str">
         <f>IF(Inputs!J40="","",Inputs!J40)</f>
         <v/>
       </c>
-      <c r="K32" s="199" t="str">
+      <c r="K32" s="198" t="str">
         <f>IF(Inputs!K40="","",Inputs!K40)</f>
         <v/>
       </c>
-      <c r="L32" s="199" t="str">
+      <c r="L32" s="198" t="str">
         <f>IF(Inputs!L40="","",Inputs!L40)</f>
         <v/>
       </c>
-      <c r="M32" s="199" t="str">
+      <c r="M32" s="198" t="str">
         <f>IF(Inputs!M40="","",Inputs!M40)</f>
         <v/>
       </c>
@@ -7130,43 +7142,43 @@
         <f>Inputs!C41</f>
         <v>0</v>
       </c>
-      <c r="D34" s="199" t="str">
+      <c r="D34" s="198" t="str">
         <f>IF(Inputs!D41="","",Inputs!D41)</f>
         <v/>
       </c>
-      <c r="E34" s="199" t="str">
+      <c r="E34" s="198" t="str">
         <f>IF(Inputs!E41="","",Inputs!E41)</f>
         <v/>
       </c>
-      <c r="F34" s="199" t="str">
+      <c r="F34" s="198" t="str">
         <f>IF(Inputs!F41="","",Inputs!F41)</f>
         <v/>
       </c>
-      <c r="G34" s="199" t="str">
+      <c r="G34" s="198" t="str">
         <f>IF(Inputs!G41="","",Inputs!G41)</f>
         <v/>
       </c>
-      <c r="H34" s="199" t="str">
+      <c r="H34" s="198" t="str">
         <f>IF(Inputs!H41="","",Inputs!H41)</f>
         <v/>
       </c>
-      <c r="I34" s="199" t="str">
+      <c r="I34" s="198" t="str">
         <f>IF(Inputs!I41="","",Inputs!I41)</f>
         <v/>
       </c>
-      <c r="J34" s="199" t="str">
+      <c r="J34" s="198" t="str">
         <f>IF(Inputs!J41="","",Inputs!J41)</f>
         <v/>
       </c>
-      <c r="K34" s="199" t="str">
+      <c r="K34" s="198" t="str">
         <f>IF(Inputs!K41="","",Inputs!K41)</f>
         <v/>
       </c>
-      <c r="L34" s="199" t="str">
+      <c r="L34" s="198" t="str">
         <f>IF(Inputs!L41="","",Inputs!L41)</f>
         <v/>
       </c>
-      <c r="M34" s="199" t="str">
+      <c r="M34" s="198" t="str">
         <f>IF(Inputs!M41="","",Inputs!M41)</f>
         <v/>
       </c>
@@ -7181,43 +7193,43 @@
         <f>Inputs!C42</f>
         <v>0</v>
       </c>
-      <c r="D35" s="199" t="str">
+      <c r="D35" s="198" t="str">
         <f>IF(Inputs!D42="","",Inputs!D42)</f>
         <v/>
       </c>
-      <c r="E35" s="199" t="str">
+      <c r="E35" s="198" t="str">
         <f>IF(Inputs!E42="","",Inputs!E42)</f>
         <v/>
       </c>
-      <c r="F35" s="199" t="str">
+      <c r="F35" s="198" t="str">
         <f>IF(Inputs!F42="","",Inputs!F42)</f>
         <v/>
       </c>
-      <c r="G35" s="199" t="str">
+      <c r="G35" s="198" t="str">
         <f>IF(Inputs!G42="","",Inputs!G42)</f>
         <v/>
       </c>
-      <c r="H35" s="199" t="str">
+      <c r="H35" s="198" t="str">
         <f>IF(Inputs!H42="","",Inputs!H42)</f>
         <v/>
       </c>
-      <c r="I35" s="199" t="str">
+      <c r="I35" s="198" t="str">
         <f>IF(Inputs!I42="","",Inputs!I42)</f>
         <v/>
       </c>
-      <c r="J35" s="199" t="str">
+      <c r="J35" s="198" t="str">
         <f>IF(Inputs!J42="","",Inputs!J42)</f>
         <v/>
       </c>
-      <c r="K35" s="199" t="str">
+      <c r="K35" s="198" t="str">
         <f>IF(Inputs!K42="","",Inputs!K42)</f>
         <v/>
       </c>
-      <c r="L35" s="199" t="str">
+      <c r="L35" s="198" t="str">
         <f>IF(Inputs!L42="","",Inputs!L42)</f>
         <v/>
       </c>
-      <c r="M35" s="199" t="str">
+      <c r="M35" s="198" t="str">
         <f>IF(Inputs!M42="","",Inputs!M42)</f>
         <v/>
       </c>
@@ -7232,43 +7244,43 @@
         <f>Inputs!C40</f>
         <v>0</v>
       </c>
-      <c r="D36" s="199" t="str">
+      <c r="D36" s="198" t="str">
         <f>IF(Inputs!D43="","",Inputs!D43)</f>
         <v/>
       </c>
-      <c r="E36" s="199" t="str">
+      <c r="E36" s="198" t="str">
         <f>IF(Inputs!E43="","",Inputs!E43)</f>
         <v/>
       </c>
-      <c r="F36" s="199" t="str">
+      <c r="F36" s="198" t="str">
         <f>IF(Inputs!F43="","",Inputs!F43)</f>
         <v/>
       </c>
-      <c r="G36" s="199" t="str">
+      <c r="G36" s="198" t="str">
         <f>IF(Inputs!G43="","",Inputs!G43)</f>
         <v/>
       </c>
-      <c r="H36" s="199" t="str">
+      <c r="H36" s="198" t="str">
         <f>IF(Inputs!H43="","",Inputs!H43)</f>
         <v/>
       </c>
-      <c r="I36" s="199" t="str">
+      <c r="I36" s="198" t="str">
         <f>IF(Inputs!I43="","",Inputs!I43)</f>
         <v/>
       </c>
-      <c r="J36" s="199" t="str">
+      <c r="J36" s="198" t="str">
         <f>IF(Inputs!J43="","",Inputs!J43)</f>
         <v/>
       </c>
-      <c r="K36" s="199" t="str">
+      <c r="K36" s="198" t="str">
         <f>IF(Inputs!K43="","",Inputs!K43)</f>
         <v/>
       </c>
-      <c r="L36" s="199" t="str">
+      <c r="L36" s="198" t="str">
         <f>IF(Inputs!L43="","",Inputs!L43)</f>
         <v/>
       </c>
-      <c r="M36" s="199" t="str">
+      <c r="M36" s="198" t="str">
         <f>IF(Inputs!M43="","",Inputs!M43)</f>
         <v/>
       </c>
@@ -7330,47 +7342,47 @@
       <c r="B38" s="98" t="s">
         <v>149</v>
       </c>
-      <c r="C38" s="155" t="e">
+      <c r="C38" s="154" t="e">
         <f>IF(C6="","",C14/MAX(C37,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D38" s="155" t="e">
+      <c r="D38" s="154" t="e">
         <f>IF(D6="","",D14/MAX(D37,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E38" s="155" t="str">
+      <c r="E38" s="154" t="str">
         <f>IF(E6="","",E14/MAX(E37,0))</f>
         <v/>
       </c>
-      <c r="F38" s="155" t="str">
+      <c r="F38" s="154" t="str">
         <f t="shared" ref="F38:M38" si="33">IF(F37="","",F14/F37)</f>
         <v/>
       </c>
-      <c r="G38" s="155" t="str">
+      <c r="G38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="H38" s="155" t="str">
+      <c r="H38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="I38" s="155" t="str">
+      <c r="I38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="J38" s="155" t="str">
+      <c r="J38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="K38" s="155" t="str">
+      <c r="K38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="L38" s="155" t="str">
+      <c r="L38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="M38" s="155" t="str">
+      <c r="M38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
@@ -7379,7 +7391,7 @@
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="16"/>
       <c r="B39" s="55" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C39" s="54"/>
       <c r="D39" s="54"/>
@@ -7399,47 +7411,47 @@
       <c r="B40" s="95" t="s">
         <v>94</v>
       </c>
-      <c r="C40" s="156">
+      <c r="C40" s="155">
         <f t="shared" ref="C40:M40" si="34">IF(C6="","",C8/C6)</f>
         <v>0.48660635459513968</v>
       </c>
-      <c r="D40" s="156">
+      <c r="D40" s="155">
         <f t="shared" si="34"/>
         <v>0.60694162732677759</v>
       </c>
-      <c r="E40" s="156" t="str">
+      <c r="E40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="F40" s="156" t="str">
+      <c r="F40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="G40" s="156" t="str">
+      <c r="G40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="H40" s="156" t="str">
+      <c r="H40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="I40" s="156" t="str">
+      <c r="I40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="J40" s="156" t="str">
+      <c r="J40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="K40" s="156" t="str">
+      <c r="K40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="L40" s="156" t="str">
+      <c r="L40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="M40" s="156" t="str">
+      <c r="M40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -7448,49 +7460,49 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="4"/>
       <c r="B41" s="94" t="s">
-        <v>220</v>
-      </c>
-      <c r="C41" s="153">
+        <v>219</v>
+      </c>
+      <c r="C41" s="152">
         <f t="shared" ref="C41:M41" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
         <v>0.2941332211490556</v>
       </c>
-      <c r="D41" s="153">
+      <c r="D41" s="152">
         <f t="shared" si="35"/>
         <v>0.33210107591309218</v>
       </c>
-      <c r="E41" s="153" t="str">
+      <c r="E41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="F41" s="153" t="str">
+      <c r="F41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="G41" s="153" t="str">
+      <c r="G41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="H41" s="153" t="str">
+      <c r="H41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="I41" s="153" t="str">
+      <c r="I41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="J41" s="153" t="str">
+      <c r="J41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="K41" s="153" t="str">
+      <c r="K41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L41" s="153" t="str">
+      <c r="L41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="M41" s="153" t="str">
+      <c r="M41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
@@ -7501,47 +7513,47 @@
       <c r="B42" s="94" t="s">
         <v>105</v>
       </c>
-      <c r="C42" s="153">
+      <c r="C42" s="152">
         <f t="shared" ref="C42:M42" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D42" s="153">
+      <c r="D42" s="152">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="E42" s="153" t="str">
+      <c r="E42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="F42" s="153" t="str">
+      <c r="F42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="G42" s="153" t="str">
+      <c r="G42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="H42" s="153" t="str">
+      <c r="H42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="I42" s="153" t="str">
+      <c r="I42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="J42" s="153" t="str">
+      <c r="J42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="K42" s="153" t="str">
+      <c r="K42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="L42" s="153" t="str">
+      <c r="L42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="M42" s="153" t="str">
+      <c r="M42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
@@ -7552,47 +7564,47 @@
       <c r="B43" s="94" t="s">
         <v>117</v>
       </c>
-      <c r="C43" s="153">
+      <c r="C43" s="152">
         <f t="shared" ref="C43:M43" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
         <v>2.1757339633768379E-3</v>
       </c>
-      <c r="D43" s="153">
+      <c r="D43" s="152">
         <f t="shared" si="37"/>
         <v>2.3829053680425824E-3</v>
       </c>
-      <c r="E43" s="153" t="str">
+      <c r="E43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="F43" s="153" t="str">
+      <c r="F43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="G43" s="153" t="str">
+      <c r="G43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="H43" s="153" t="str">
+      <c r="H43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="I43" s="153" t="str">
+      <c r="I43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="J43" s="153" t="str">
+      <c r="J43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="K43" s="153" t="str">
+      <c r="K43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="L43" s="153" t="str">
+      <c r="L43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="M43" s="153" t="str">
+      <c r="M43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
@@ -7603,47 +7615,47 @@
       <c r="B44" s="94" t="s">
         <v>124</v>
       </c>
-      <c r="C44" s="153">
+      <c r="C44" s="152">
         <f t="shared" ref="C44:M44" si="38">IF(C6="","",MAX(C12,0)/C6)</f>
         <v>9.3403926661713623E-3</v>
       </c>
-      <c r="D44" s="153">
+      <c r="D44" s="152">
         <f t="shared" si="38"/>
         <v>1.3512364759267613E-2</v>
       </c>
-      <c r="E44" s="153" t="str">
+      <c r="E44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="F44" s="153" t="str">
+      <c r="F44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="G44" s="153" t="str">
+      <c r="G44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="H44" s="153" t="str">
+      <c r="H44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="I44" s="153" t="str">
+      <c r="I44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="J44" s="153" t="str">
+      <c r="J44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="K44" s="153" t="str">
+      <c r="K44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="L44" s="153" t="str">
+      <c r="L44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="M44" s="153" t="str">
+      <c r="M44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
@@ -7652,49 +7664,49 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
-        <v>222</v>
-      </c>
-      <c r="C45" s="153">
+        <v>221</v>
+      </c>
+      <c r="C45" s="152">
         <f t="shared" ref="C45:M45" si="39">IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
         <v>0</v>
       </c>
-      <c r="D45" s="153">
+      <c r="D45" s="152">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="E45" s="153" t="str">
+      <c r="E45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="F45" s="153" t="str">
+      <c r="F45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="G45" s="153" t="str">
+      <c r="G45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="H45" s="153" t="str">
+      <c r="H45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="I45" s="153" t="str">
+      <c r="I45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="J45" s="153" t="str">
+      <c r="J45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="K45" s="153" t="str">
+      <c r="K45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="L45" s="153" t="str">
+      <c r="L45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="M45" s="153" t="str">
+      <c r="M45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
@@ -7705,47 +7717,47 @@
       <c r="B46" s="94" t="s">
         <v>119</v>
       </c>
-      <c r="C46" s="153">
+      <c r="C46" s="152">
         <f t="shared" ref="C46:M46" si="40">IF(C6="","",C22/C6)</f>
         <v>0.20774429762625657</v>
       </c>
-      <c r="D46" s="153">
+      <c r="D46" s="152">
         <f t="shared" si="40"/>
         <v>4.5062026632820024E-2</v>
       </c>
-      <c r="E46" s="153" t="str">
+      <c r="E46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="F46" s="153" t="str">
+      <c r="F46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="G46" s="153" t="str">
+      <c r="G46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="H46" s="153" t="str">
+      <c r="H46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="I46" s="153" t="str">
+      <c r="I46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="J46" s="153" t="str">
+      <c r="J46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="K46" s="153" t="str">
+      <c r="K46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="L46" s="153" t="str">
+      <c r="L46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="M46" s="153" t="str">
+      <c r="M46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
@@ -7754,9 +7766,11 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="16"/>
       <c r="B47" s="102" t="s">
-        <v>247</v>
-      </c>
-      <c r="C47" s="36"/>
+        <v>246</v>
+      </c>
+      <c r="C47" s="280" t="s">
+        <v>264</v>
+      </c>
       <c r="D47" s="36"/>
       <c r="E47" s="36"/>
       <c r="F47" s="36"/>
@@ -7771,50 +7785,50 @@
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
-      <c r="B48" s="271" t="s">
-        <v>253</v>
-      </c>
-      <c r="C48" s="272" t="e">
+      <c r="B48" s="268" t="s">
+        <v>252</v>
+      </c>
+      <c r="C48" s="269" t="e">
         <f t="shared" ref="C48:M48" si="41">IF(C6="","",C6/C27)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D48" s="272" t="e">
+      <c r="D48" s="269" t="e">
         <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E48" s="272" t="str">
+      <c r="E48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="F48" s="272" t="str">
+      <c r="F48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="G48" s="272" t="str">
+      <c r="G48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="H48" s="272" t="str">
+      <c r="H48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="I48" s="272" t="str">
+      <c r="I48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="J48" s="272" t="str">
+      <c r="J48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="K48" s="272" t="str">
+      <c r="K48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="L48" s="272" t="str">
+      <c r="L48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="M48" s="272" t="str">
+      <c r="M48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
@@ -7823,49 +7837,49 @@
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="4"/>
       <c r="B49" s="94" t="s">
-        <v>254</v>
-      </c>
-      <c r="C49" s="153">
+        <v>253</v>
+      </c>
+      <c r="C49" s="152">
         <f t="shared" ref="C49:M49" si="42">IF(C28="","",C28/C6)</f>
         <v>0</v>
       </c>
-      <c r="D49" s="153" t="str">
+      <c r="D49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="E49" s="153" t="str">
+      <c r="E49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="F49" s="153" t="str">
+      <c r="F49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="G49" s="153" t="str">
+      <c r="G49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="H49" s="153" t="str">
+      <c r="H49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="I49" s="153" t="str">
+      <c r="I49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="J49" s="153" t="str">
+      <c r="J49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="K49" s="153" t="str">
+      <c r="K49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="L49" s="153" t="str">
+      <c r="L49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="M49" s="153" t="str">
+      <c r="M49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
@@ -7874,49 +7888,49 @@
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
       <c r="B50" s="94" t="s">
-        <v>255</v>
-      </c>
-      <c r="C50" s="153">
+        <v>254</v>
+      </c>
+      <c r="C50" s="152">
         <f t="shared" ref="C50:M50" si="43">IF(C29="","",C29/C6)</f>
         <v>0</v>
       </c>
-      <c r="D50" s="153" t="str">
+      <c r="D50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="E50" s="153" t="str">
+      <c r="E50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="F50" s="153" t="str">
+      <c r="F50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="G50" s="153" t="str">
+      <c r="G50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="H50" s="153" t="str">
+      <c r="H50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="I50" s="153" t="str">
+      <c r="I50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="J50" s="153" t="str">
+      <c r="J50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="K50" s="153" t="str">
+      <c r="K50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="L50" s="153" t="str">
+      <c r="L50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="M50" s="153" t="str">
+      <c r="M50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
@@ -7925,49 +7939,49 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>245</v>
-      </c>
-      <c r="C51" s="153" t="e">
+        <v>244</v>
+      </c>
+      <c r="C51" s="152" t="e">
         <f t="shared" ref="C51:M51" si="44">IF(D6="","",C16/(C6-D6))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D51" s="153" t="str">
+      <c r="D51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="E51" s="153" t="str">
+      <c r="E51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="F51" s="153" t="str">
+      <c r="F51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="G51" s="153" t="str">
+      <c r="G51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="H51" s="153" t="str">
+      <c r="H51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="I51" s="153" t="str">
+      <c r="I51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="J51" s="153" t="str">
+      <c r="J51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="K51" s="153" t="str">
+      <c r="K51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="L51" s="153" t="str">
+      <c r="L51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="M51" s="153" t="str">
+      <c r="M51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
@@ -7976,7 +7990,7 @@
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="16"/>
       <c r="B52" s="102" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C52" s="36"/>
       <c r="D52" s="36"/>
@@ -7993,49 +8007,49 @@
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
       <c r="B53" s="95" t="s">
-        <v>249</v>
-      </c>
-      <c r="C53" s="156" t="e">
+        <v>248</v>
+      </c>
+      <c r="C53" s="155" t="e">
         <f t="shared" ref="C53:M53" si="45">IF(C34="","",(C34-C35)/C27)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D53" s="156" t="str">
+      <c r="D53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="E53" s="156" t="str">
+      <c r="E53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="F53" s="156" t="str">
+      <c r="F53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="G53" s="156" t="str">
+      <c r="G53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H53" s="156" t="str">
+      <c r="H53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I53" s="156" t="str">
+      <c r="I53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J53" s="156" t="str">
+      <c r="J53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K53" s="156" t="str">
+      <c r="K53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L53" s="156" t="str">
+      <c r="L53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="M53" s="156" t="str">
+      <c r="M53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
@@ -8045,47 +8059,47 @@
       <c r="B54" s="94" t="s">
         <v>116</v>
       </c>
-      <c r="C54" s="157" t="str">
+      <c r="C54" s="156" t="str">
         <f t="shared" ref="C54:M54" si="46">IF(OR(C22="",C33=""),"",IF(C33&lt;=0,"-",C22/C33))</f>
         <v>-</v>
       </c>
-      <c r="D54" s="157" t="str">
+      <c r="D54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="E54" s="157" t="str">
+      <c r="E54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="F54" s="157" t="str">
+      <c r="F54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="G54" s="157" t="str">
+      <c r="G54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="H54" s="157" t="str">
+      <c r="H54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="I54" s="157" t="str">
+      <c r="I54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="J54" s="157" t="str">
+      <c r="J54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="K54" s="157" t="str">
+      <c r="K54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="L54" s="157" t="str">
+      <c r="L54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="M54" s="157" t="str">
+      <c r="M54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
@@ -8095,47 +8109,47 @@
       <c r="B55" s="94" t="s">
         <v>118</v>
       </c>
-      <c r="C55" s="153">
+      <c r="C55" s="152">
         <f t="shared" ref="C55:M55" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
         <v>1.0473134465000349E-2</v>
       </c>
-      <c r="D55" s="153">
+      <c r="D55" s="152">
         <f t="shared" si="47"/>
         <v>5.2880563660823929E-2</v>
       </c>
-      <c r="E55" s="153" t="str">
+      <c r="E55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="F55" s="153" t="str">
+      <c r="F55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="G55" s="153" t="str">
+      <c r="G55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="H55" s="153" t="str">
+      <c r="H55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="I55" s="153" t="str">
+      <c r="I55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="J55" s="153" t="str">
+      <c r="J55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="K55" s="153" t="str">
+      <c r="K55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="L55" s="153" t="str">
+      <c r="L55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="M55" s="153" t="str">
+      <c r="M55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
@@ -8145,47 +8159,47 @@
       <c r="B56" s="98" t="s">
         <v>19</v>
       </c>
-      <c r="C56" s="158" t="e">
+      <c r="C56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/C30)</f>
         <v>#REF!</v>
       </c>
-      <c r="D56" s="158" t="e">
+      <c r="D56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/D30)</f>
         <v>#REF!</v>
       </c>
-      <c r="E56" s="158" t="e">
+      <c r="E56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/E30)</f>
         <v>#REF!</v>
       </c>
-      <c r="F56" s="158" t="e">
+      <c r="F56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/F30)</f>
         <v>#REF!</v>
       </c>
-      <c r="G56" s="158" t="e">
+      <c r="G56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/G30)</f>
         <v>#REF!</v>
       </c>
-      <c r="H56" s="158" t="e">
+      <c r="H56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/H30)</f>
         <v>#REF!</v>
       </c>
-      <c r="I56" s="158" t="e">
+      <c r="I56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/I30)</f>
         <v>#REF!</v>
       </c>
-      <c r="J56" s="158" t="e">
+      <c r="J56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/J30)</f>
         <v>#REF!</v>
       </c>
-      <c r="K56" s="158" t="e">
+      <c r="K56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/K30)</f>
         <v>#REF!</v>
       </c>
-      <c r="L56" s="158" t="e">
+      <c r="L56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/L30)</f>
         <v>#REF!</v>
       </c>
-      <c r="M56" s="158" t="e">
+      <c r="M56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/M30)</f>
         <v>#REF!</v>
       </c>
@@ -8193,149 +8207,149 @@
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="16"/>
       <c r="B57" s="102" t="s">
-        <v>250</v>
-      </c>
-      <c r="C57" s="273" t="str">
+        <v>249</v>
+      </c>
+      <c r="C57" s="270" t="str">
         <f t="shared" ref="C57:M57" si="48">IFERROR(IF(C13*C48*(1/C53)=C58,"","Error"),"")</f>
         <v/>
       </c>
-      <c r="D57" s="273" t="str">
+      <c r="D57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="E57" s="273" t="str">
+      <c r="E57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="F57" s="273" t="str">
+      <c r="F57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="G57" s="273" t="str">
+      <c r="G57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="H57" s="273" t="str">
+      <c r="H57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="I57" s="273" t="str">
+      <c r="I57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="J57" s="273" t="str">
+      <c r="J57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="K57" s="273" t="str">
+      <c r="K57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="L57" s="273" t="str">
+      <c r="L57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="M57" s="273" t="str">
+      <c r="M57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
-      <c r="B58" s="271" t="s">
-        <v>251</v>
-      </c>
-      <c r="C58" s="274" t="e">
+      <c r="B58" s="268" t="s">
+        <v>250</v>
+      </c>
+      <c r="C58" s="271" t="e">
         <f t="shared" ref="C58:M58" si="49">IF(C14="","",C14/(C34-C35))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D58" s="274" t="e">
+      <c r="D58" s="271" t="e">
         <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E58" s="274" t="str">
+      <c r="E58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="F58" s="274" t="str">
+      <c r="F58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="G58" s="274" t="str">
+      <c r="G58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="H58" s="274" t="str">
+      <c r="H58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="I58" s="274" t="str">
+      <c r="I58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="J58" s="274" t="str">
+      <c r="J58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="K58" s="274" t="str">
+      <c r="K58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="L58" s="274" t="str">
+      <c r="L58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="M58" s="274" t="str">
+      <c r="M58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
-      <c r="B59" s="271" t="s">
-        <v>252</v>
-      </c>
-      <c r="C59" s="274" t="e">
+      <c r="B59" s="268" t="s">
+        <v>251</v>
+      </c>
+      <c r="C59" s="271" t="e">
         <f t="shared" ref="C59:M59" si="50">IF(C22="","",C22/(C34-C35))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D59" s="274" t="e">
+      <c r="D59" s="271" t="e">
         <f t="shared" si="50"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E59" s="274" t="str">
+      <c r="E59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="F59" s="274" t="str">
+      <c r="F59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="G59" s="274" t="str">
+      <c r="G59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="H59" s="274" t="str">
+      <c r="H59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="I59" s="274" t="str">
+      <c r="I59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="J59" s="274" t="str">
+      <c r="J59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="K59" s="274" t="str">
+      <c r="K59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="L59" s="274" t="str">
+      <c r="L59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="M59" s="274" t="str">
+      <c r="M59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
@@ -9631,8 +9645,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A78" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E82" sqref="E82"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -9668,8 +9682,8 @@
         <v>21</v>
       </c>
       <c r="C3" s="87"/>
-      <c r="D3" s="116">
-        <f>C49-I49</f>
+      <c r="D3" s="204">
+        <f>Inputs!C41</f>
         <v>0</v>
       </c>
       <c r="E3" s="67" t="str">
@@ -9681,8 +9695,8 @@
       <c r="H3" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="204">
-        <f>Inputs!C83</f>
+      <c r="I3" s="282">
+        <f>D3-D4</f>
         <v>0</v>
       </c>
       <c r="K3" s="24"/>
@@ -9692,8 +9706,8 @@
         <v>23</v>
       </c>
       <c r="C4" s="87"/>
-      <c r="D4" s="65">
-        <f>D3-I3</f>
+      <c r="D4" s="198">
+        <f>Inputs!C42</f>
         <v>0</v>
       </c>
       <c r="E4" s="37"/>
@@ -9780,11 +9794,11 @@
         <v>28</v>
       </c>
       <c r="C9" s="86"/>
-      <c r="D9" s="203">
+      <c r="D9" s="202">
         <f>Inputs!C14</f>
         <v>45473</v>
       </c>
-      <c r="E9" s="119" t="str">
+      <c r="E9" s="118" t="str">
         <f>IF(MONTH(D9)=MONTH(Data!C3),"FY","Quarter")</f>
         <v>Quarter</v>
       </c>
@@ -9827,7 +9841,7 @@
         <f>Inputs!C48</f>
         <v>0</v>
       </c>
-      <c r="D11" s="198">
+      <c r="D11" s="197">
         <f>Inputs!D48</f>
         <v>0.9</v>
       </c>
@@ -9855,7 +9869,7 @@
         <f>Inputs!C49</f>
         <v>0</v>
       </c>
-      <c r="D12" s="198">
+      <c r="D12" s="197">
         <f>Inputs!D49</f>
         <v>0.8</v>
       </c>
@@ -9883,7 +9897,7 @@
         <f>Inputs!C50</f>
         <v>0</v>
       </c>
-      <c r="D13" s="198">
+      <c r="D13" s="197">
         <f>Inputs!D50</f>
         <v>0.6</v>
       </c>
@@ -9911,7 +9925,7 @@
         <f>Inputs!C51</f>
         <v>0</v>
       </c>
-      <c r="D14" s="198">
+      <c r="D14" s="197">
         <f>Inputs!D51</f>
         <v>0.6</v>
       </c>
@@ -9924,7 +9938,7 @@
       <c r="H14" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="I14" s="205">
+      <c r="I14" s="203">
         <f>Inputs!C76</f>
         <v>0</v>
       </c>
@@ -9939,7 +9953,7 @@
         <f>Inputs!C52</f>
         <v>0</v>
       </c>
-      <c r="D15" s="198">
+      <c r="D15" s="197">
         <f>Inputs!D52</f>
         <v>0.5</v>
       </c>
@@ -9966,7 +9980,7 @@
         <f>Inputs!C53</f>
         <v>0</v>
       </c>
-      <c r="D16" s="198">
+      <c r="D16" s="197">
         <f>Inputs!D53</f>
         <v>0.6</v>
       </c>
@@ -9988,7 +10002,7 @@
         <f>Inputs!C54</f>
         <v>0</v>
       </c>
-      <c r="D17" s="198">
+      <c r="D17" s="197">
         <f>Inputs!D54</f>
         <v>0.1</v>
       </c>
@@ -10010,7 +10024,7 @@
         <f>Inputs!C55</f>
         <v>0</v>
       </c>
-      <c r="D18" s="198">
+      <c r="D18" s="197">
         <f>Inputs!D55</f>
         <v>0.5</v>
       </c>
@@ -10031,7 +10045,7 @@
         <f>Inputs!C56</f>
         <v>0</v>
       </c>
-      <c r="D19" s="198">
+      <c r="D19" s="197">
         <f>Inputs!D56</f>
         <v>0.6</v>
       </c>
@@ -10039,7 +10053,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F19" s="134" t="str">
+      <c r="F19" s="133" t="str">
         <f>Inputs!E56</f>
         <v>N</v>
       </c>
@@ -10056,7 +10070,7 @@
         <f>Inputs!C57</f>
         <v>0</v>
       </c>
-      <c r="D20" s="198">
+      <c r="D20" s="197">
         <f>Inputs!D57</f>
         <v>0.6</v>
       </c>
@@ -10064,7 +10078,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F20" s="134" t="str">
+      <c r="F20" s="133" t="str">
         <f>Inputs!E57</f>
         <v>Y</v>
       </c>
@@ -10083,7 +10097,7 @@
         <f>Inputs!C58</f>
         <v>0</v>
       </c>
-      <c r="D21" s="198">
+      <c r="D21" s="197">
         <f>Inputs!D58</f>
         <v>0.9</v>
       </c>
@@ -10104,7 +10118,7 @@
         <f>Inputs!C59</f>
         <v>0</v>
       </c>
-      <c r="D22" s="198">
+      <c r="D22" s="197">
         <f>Inputs!D59</f>
         <v>0.05</v>
       </c>
@@ -10269,7 +10283,7 @@
       <c r="H28" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="I28" s="206">
+      <c r="I28" s="204">
         <f>Inputs!C77</f>
         <v>0</v>
       </c>
@@ -10298,7 +10312,7 @@
         <f>Inputs!C60</f>
         <v>0</v>
       </c>
-      <c r="D30" s="198">
+      <c r="D30" s="197">
         <f>Inputs!D60</f>
         <v>0.8</v>
       </c>
@@ -10324,7 +10338,7 @@
         <f>Inputs!C61</f>
         <v>0</v>
       </c>
-      <c r="D31" s="198">
+      <c r="D31" s="197">
         <f>Inputs!D61</f>
         <v>0.6</v>
       </c>
@@ -10351,7 +10365,7 @@
         <f>Inputs!C62</f>
         <v>0</v>
       </c>
-      <c r="D32" s="198">
+      <c r="D32" s="197">
         <f>Inputs!D62</f>
         <v>0.5</v>
       </c>
@@ -10378,7 +10392,7 @@
         <f>Inputs!C63</f>
         <v>0</v>
       </c>
-      <c r="D33" s="198">
+      <c r="D33" s="197">
         <f>Inputs!D63</f>
         <v>0.5</v>
       </c>
@@ -10394,7 +10408,7 @@
       <c r="H33" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="I33" s="205">
+      <c r="I33" s="203">
         <f>Inputs!C81</f>
         <v>0</v>
       </c>
@@ -10408,7 +10422,7 @@
         <f>Inputs!C64</f>
         <v>0</v>
       </c>
-      <c r="D34" s="198">
+      <c r="D34" s="197">
         <f>Inputs!D64</f>
         <v>0.4</v>
       </c>
@@ -10435,7 +10449,7 @@
         <f>Inputs!C65</f>
         <v>0</v>
       </c>
-      <c r="D35" s="198">
+      <c r="D35" s="197">
         <f>Inputs!D65</f>
         <v>0.1</v>
       </c>
@@ -10443,7 +10457,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F35" s="134" t="str">
+      <c r="F35" s="133" t="str">
         <f>Inputs!E65</f>
         <v>N</v>
       </c>
@@ -10461,7 +10475,7 @@
         <f>Inputs!C66</f>
         <v>0</v>
       </c>
-      <c r="D36" s="198">
+      <c r="D36" s="197">
         <f>Inputs!D66</f>
         <v>0.2</v>
       </c>
@@ -10469,7 +10483,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F36" s="134" t="str">
+      <c r="F36" s="133" t="str">
         <f>Inputs!E66</f>
         <v>N</v>
       </c>
@@ -10488,7 +10502,7 @@
         <f>Inputs!C67</f>
         <v>0</v>
       </c>
-      <c r="D37" s="198">
+      <c r="D37" s="197">
         <f>Inputs!D67</f>
         <v>0.1</v>
       </c>
@@ -10496,7 +10510,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F37" s="134" t="str">
+      <c r="F37" s="133" t="str">
         <f>Inputs!E67</f>
         <v>Y</v>
       </c>
@@ -10515,7 +10529,7 @@
         <f>Inputs!C68</f>
         <v>0</v>
       </c>
-      <c r="D38" s="198">
+      <c r="D38" s="197">
         <f>Inputs!D68</f>
         <v>0.1</v>
       </c>
@@ -10536,7 +10550,7 @@
         <f>Inputs!C69</f>
         <v>0</v>
       </c>
-      <c r="D39" s="198">
+      <c r="D39" s="197">
         <f>Inputs!D69</f>
         <v>0.05</v>
       </c>
@@ -10557,7 +10571,7 @@
         <f>Inputs!C70</f>
         <v>0</v>
       </c>
-      <c r="D40" s="198">
+      <c r="D40" s="197">
         <f>Inputs!D70</f>
         <v>0.05</v>
       </c>
@@ -10578,7 +10592,7 @@
         <f>Inputs!C71</f>
         <v>0</v>
       </c>
-      <c r="D41" s="198">
+      <c r="D41" s="197">
         <f>Inputs!D71</f>
         <v>0.9</v>
       </c>
@@ -10599,7 +10613,7 @@
         <f>Inputs!C72</f>
         <v>0</v>
       </c>
-      <c r="D42" s="198">
+      <c r="D42" s="197">
         <f>Inputs!D72</f>
         <v>0</v>
       </c>
@@ -10745,8 +10759,8 @@
       <c r="H48" s="80" t="s">
         <v>81</v>
       </c>
-      <c r="I48" s="207">
-        <f>Inputs!C82</f>
+      <c r="I48" s="281">
+        <f>I49-I28</f>
         <v>0</v>
       </c>
       <c r="J48" s="8"/>
@@ -10772,8 +10786,8 @@
       <c r="H49" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="I49" s="52">
-        <f>I28+I48</f>
+      <c r="I49" s="40">
+        <f>Inputs!C37</f>
         <v>0</v>
       </c>
       <c r="J49" s="87"/>
@@ -10843,7 +10857,7 @@
         <v>142</v>
       </c>
       <c r="C55" s="3"/>
-      <c r="E55" s="125"/>
+      <c r="E55" s="124"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
       <c r="I55" s="87"/>
@@ -10943,7 +10957,7 @@
       <c r="B62" s="35" t="s">
         <v>134</v>
       </c>
-      <c r="C62" s="117">
+      <c r="C62" s="116">
         <f>C11+C30</f>
         <v>0</v>
       </c>
@@ -10951,7 +10965,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E62" s="118">
+      <c r="E62" s="117">
         <f>E11+E30</f>
         <v>0</v>
       </c>
@@ -10982,11 +10996,11 @@
       <c r="K63" s="33"/>
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="121" t="s">
+      <c r="B64" s="120" t="s">
         <v>143</v>
       </c>
-      <c r="C64" s="208"/>
-      <c r="D64" s="208"/>
+      <c r="C64" s="205"/>
+      <c r="D64" s="205"/>
       <c r="E64" s="69">
         <f>D56+D57+D58</f>
         <v>0</v>
@@ -11063,12 +11077,12 @@
       <c r="K68" s="33"/>
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="121" t="s">
+      <c r="B69" s="120" t="s">
         <v>144</v>
       </c>
-      <c r="C69" s="208"/>
-      <c r="D69" s="208"/>
-      <c r="E69" s="126">
+      <c r="C69" s="205"/>
+      <c r="D69" s="205"/>
+      <c r="E69" s="125">
         <f>I49-E64</f>
         <v>0</v>
       </c>
@@ -11147,17 +11161,17 @@
         <f>Data!C6</f>
         <v>6983846860.7700005</v>
       </c>
-      <c r="D74" s="209"/>
-      <c r="E74" s="238">
+      <c r="D74" s="206"/>
+      <c r="E74" s="235">
         <f>Inputs!E91</f>
         <v>6983846860.7700005</v>
       </c>
-      <c r="F74" s="209"/>
-      <c r="H74" s="238">
+      <c r="F74" s="206"/>
+      <c r="H74" s="235">
         <f>Inputs!F91</f>
         <v>6983846860.7700005</v>
       </c>
-      <c r="I74" s="209"/>
+      <c r="I74" s="206"/>
       <c r="K74" s="24"/>
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11168,23 +11182,23 @@
         <f>Data!C8</f>
         <v>3398384261.9699998</v>
       </c>
-      <c r="D75" s="159">
+      <c r="D75" s="158">
         <f>C75/$C$74</f>
         <v>0.48660635459513968</v>
       </c>
-      <c r="E75" s="238">
+      <c r="E75" s="235">
         <f>Inputs!E92</f>
         <v>3398384261.9699998</v>
       </c>
-      <c r="F75" s="160">
+      <c r="F75" s="159">
         <f>E75/E74</f>
         <v>0.48660635459513968</v>
       </c>
-      <c r="H75" s="238">
+      <c r="H75" s="235">
         <f>Inputs!F92</f>
         <v>3398384261.9699998</v>
       </c>
-      <c r="I75" s="160">
+      <c r="I75" s="159">
         <f>H75/$H$74</f>
         <v>0.48660635459513968</v>
       </c>
@@ -11194,48 +11208,48 @@
       <c r="B76" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="C76" s="161">
+      <c r="C76" s="160">
         <f>C74-C75</f>
         <v>3585462598.8000007</v>
       </c>
-      <c r="D76" s="210"/>
-      <c r="E76" s="162">
+      <c r="D76" s="207"/>
+      <c r="E76" s="161">
         <f>E74-E75</f>
         <v>3585462598.8000007</v>
       </c>
-      <c r="F76" s="210"/>
-      <c r="H76" s="162">
+      <c r="F76" s="207"/>
+      <c r="H76" s="161">
         <f>H74-H75</f>
         <v>3585462598.8000007</v>
       </c>
-      <c r="I76" s="210"/>
+      <c r="I76" s="207"/>
       <c r="K76" s="24"/>
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
         <v>2054181373.1700001</v>
       </c>
-      <c r="D77" s="159">
+      <c r="D77" s="158">
         <f>C77/$C$74</f>
         <v>0.2941332211490556</v>
       </c>
-      <c r="E77" s="238">
+      <c r="E77" s="235">
         <f>Inputs!E93</f>
         <v>2054181373.1700003</v>
       </c>
-      <c r="F77" s="160">
+      <c r="F77" s="159">
         <f>E77/E74</f>
         <v>0.2941332211490556</v>
       </c>
-      <c r="H77" s="238">
+      <c r="H77" s="235">
         <f>Inputs!F93</f>
         <v>2054181373.1700003</v>
       </c>
-      <c r="I77" s="160">
+      <c r="I77" s="159">
         <f>H77/$H$74</f>
         <v>0.2941332211490556</v>
       </c>
@@ -11249,54 +11263,54 @@
         <f>MAX(Data!C12,0)</f>
         <v>65231872</v>
       </c>
-      <c r="D78" s="159">
+      <c r="D78" s="158">
         <f>C78/$C$74</f>
         <v>9.3403926661713623E-3</v>
       </c>
-      <c r="E78" s="180">
+      <c r="E78" s="179">
         <f>E74*F78</f>
         <v>65231872</v>
       </c>
-      <c r="F78" s="160">
+      <c r="F78" s="159">
         <f>I78</f>
         <v>9.3403926661713623E-3</v>
       </c>
-      <c r="H78" s="238">
+      <c r="H78" s="235">
         <f>Inputs!F97</f>
         <v>65231872</v>
       </c>
-      <c r="I78" s="160">
+      <c r="I78" s="159">
         <f>H78/$H$74</f>
         <v>9.3403926661713623E-3</v>
       </c>
       <c r="K78" s="24"/>
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B79" s="256" t="s">
-        <v>218</v>
-      </c>
-      <c r="C79" s="257">
+      <c r="B79" s="253" t="s">
+        <v>217</v>
+      </c>
+      <c r="C79" s="254">
         <f>C76-C77-C78</f>
         <v>1466049353.6300006</v>
       </c>
-      <c r="D79" s="258">
+      <c r="D79" s="255">
         <f>C79/C74</f>
         <v>0.2099200315896334</v>
       </c>
-      <c r="E79" s="259">
+      <c r="E79" s="256">
         <f>E76-E77-E78</f>
         <v>1466049353.6300004</v>
       </c>
-      <c r="F79" s="258">
+      <c r="F79" s="255">
         <f>E79/E74</f>
         <v>0.20992003158963338</v>
       </c>
-      <c r="G79" s="260"/>
-      <c r="H79" s="259">
+      <c r="G79" s="257"/>
+      <c r="H79" s="256">
         <f>H76-H77-H78</f>
         <v>1466049353.6300004</v>
       </c>
-      <c r="I79" s="258">
+      <c r="I79" s="255">
         <f>H79/H74</f>
         <v>0.20992003158963338</v>
       </c>
@@ -11310,55 +11324,55 @@
         <f>MAX(Data!C16,0)</f>
         <v>0</v>
       </c>
-      <c r="D80" s="159">
+      <c r="D80" s="158">
         <f>C80/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E80" s="180">
+      <c r="E80" s="179">
         <f>E74*F80</f>
         <v>0</v>
       </c>
-      <c r="F80" s="160">
+      <c r="F80" s="159">
         <f>I80</f>
         <v>0</v>
       </c>
-      <c r="H80" s="238">
+      <c r="H80" s="235">
         <f>Inputs!F96</f>
         <v>0</v>
       </c>
-      <c r="I80" s="160">
+      <c r="I80" s="159">
         <f>H80/$H$74</f>
         <v>0</v>
       </c>
-      <c r="K80" s="181" t="s">
+      <c r="K80" s="180" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
         <v>15194992.810000001</v>
       </c>
-      <c r="D81" s="159">
+      <c r="D81" s="158">
         <f>C81/$C$74</f>
         <v>2.1757339633768379E-3</v>
       </c>
-      <c r="E81" s="180">
+      <c r="E81" s="179">
         <f>E74*F81</f>
         <v>15194992.810000001</v>
       </c>
-      <c r="F81" s="160">
+      <c r="F81" s="159">
         <f>I81</f>
         <v>2.1757339633768379E-3</v>
       </c>
-      <c r="H81" s="238">
+      <c r="H81" s="235">
         <f>Inputs!F94</f>
         <v>15194992.810000001</v>
       </c>
-      <c r="I81" s="160">
+      <c r="I81" s="159">
         <f>H81/$H$74</f>
         <v>2.1757339633768379E-3</v>
       </c>
@@ -11366,29 +11380,29 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
         <v>0</v>
       </c>
-      <c r="D82" s="159">
+      <c r="D82" s="158">
         <f>C82/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E82" s="238">
+      <c r="E82" s="235">
         <f>Inputs!E95</f>
         <v>0</v>
       </c>
-      <c r="F82" s="160">
+      <c r="F82" s="159">
         <f>E82/E74</f>
         <v>0</v>
       </c>
-      <c r="H82" s="238">
+      <c r="H82" s="235">
         <f>Inputs!F95</f>
         <v>0</v>
       </c>
-      <c r="I82" s="160">
+      <c r="I82" s="159">
         <f>H82/$H$74</f>
         <v>0</v>
       </c>
@@ -11398,27 +11412,27 @@
       <c r="B83" s="105" t="s">
         <v>120</v>
       </c>
-      <c r="C83" s="163">
+      <c r="C83" s="162">
         <f>C79-C81-C82-C80</f>
         <v>1450854360.8200006</v>
       </c>
-      <c r="D83" s="164">
+      <c r="D83" s="163">
         <f>C83/$C$74</f>
         <v>0.20774429762625657</v>
       </c>
-      <c r="E83" s="165">
+      <c r="E83" s="164">
         <f>E79-E81-E82-E80</f>
         <v>1450854360.8200004</v>
       </c>
-      <c r="F83" s="164">
+      <c r="F83" s="163">
         <f>E83/E74</f>
         <v>0.20774429762625654</v>
       </c>
-      <c r="H83" s="165">
+      <c r="H83" s="164">
         <f>H79-H81-H82-H80</f>
         <v>1450854360.8200004</v>
       </c>
-      <c r="I83" s="164">
+      <c r="I83" s="163">
         <f>H83/$H$74</f>
         <v>0.20774429762625654</v>
       </c>
@@ -11428,49 +11442,49 @@
       <c r="B84" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="C84" s="211"/>
-      <c r="D84" s="159">
+      <c r="C84" s="208"/>
+      <c r="D84" s="158">
         <f>I84</f>
         <v>0.25</v>
       </c>
-      <c r="E84" s="212"/>
-      <c r="F84" s="179">
+      <c r="E84" s="209"/>
+      <c r="F84" s="178">
         <f t="shared" ref="F84" si="3">I84</f>
         <v>0.25</v>
       </c>
-      <c r="H84" s="212"/>
-      <c r="I84" s="202">
+      <c r="H84" s="209"/>
+      <c r="I84" s="201">
         <f>Inputs!C16</f>
         <v>0.25</v>
       </c>
       <c r="K84" s="24"/>
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B85" s="263" t="s">
+      <c r="B85" s="260" t="s">
         <v>156</v>
       </c>
-      <c r="C85" s="257">
+      <c r="C85" s="254">
         <f>C83*(1-I84)</f>
         <v>1088140770.6150005</v>
       </c>
-      <c r="D85" s="258">
+      <c r="D85" s="255">
         <f>C85/$C$74</f>
         <v>0.15580822321969243</v>
       </c>
-      <c r="E85" s="264">
+      <c r="E85" s="261">
         <f>E83*(1-F84)</f>
         <v>1088140770.6150002</v>
       </c>
-      <c r="F85" s="258">
+      <c r="F85" s="255">
         <f>E85/E74</f>
         <v>0.1558082232196924</v>
       </c>
-      <c r="G85" s="260"/>
-      <c r="H85" s="264">
+      <c r="G85" s="257"/>
+      <c r="H85" s="261">
         <f>H83*(1-I84)</f>
         <v>1088140770.6150002</v>
       </c>
-      <c r="I85" s="258">
+      <c r="I85" s="255">
         <f>H85/$H$74</f>
         <v>0.1558082232196924</v>
       </c>
@@ -11480,69 +11494,69 @@
       <c r="B86" s="87" t="s">
         <v>152</v>
       </c>
-      <c r="C86" s="167">
+      <c r="C86" s="166">
         <f>C85*Data!C4/Common_Shares</f>
         <v>0.37186016159111168</v>
       </c>
-      <c r="D86" s="209"/>
-      <c r="E86" s="168">
+      <c r="D86" s="206"/>
+      <c r="E86" s="167">
         <f>E85*Data!C4/Common_Shares</f>
         <v>0.37186016159111157</v>
       </c>
-      <c r="F86" s="209"/>
-      <c r="H86" s="168">
+      <c r="F86" s="206"/>
+      <c r="H86" s="167">
         <f>H85*Data!C4/Common_Shares</f>
         <v>0.37186016159111157</v>
       </c>
-      <c r="I86" s="209"/>
+      <c r="I86" s="206"/>
       <c r="K86" s="24"/>
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
         <v>194</v>
       </c>
-      <c r="C87" s="261">
+      <c r="C87" s="258">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.815288787269925E-2</v>
-      </c>
-      <c r="D87" s="209"/>
-      <c r="E87" s="262">
+        <v>3.8566351368856777E-2</v>
+      </c>
+      <c r="D87" s="206"/>
+      <c r="E87" s="259">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.8152887872699243E-2</v>
-      </c>
-      <c r="F87" s="209"/>
-      <c r="H87" s="262">
+        <v>3.8566351368856763E-2</v>
+      </c>
+      <c r="F87" s="206"/>
+      <c r="H87" s="259">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.8152887872699243E-2</v>
-      </c>
-      <c r="I87" s="209"/>
+        <v>3.8566351368856763E-2</v>
+      </c>
+      <c r="I87" s="206"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
         <v>193</v>
       </c>
-      <c r="C88" s="169">
+      <c r="C88" s="168">
         <f>Inputs!C44</f>
         <v>0.16</v>
       </c>
-      <c r="D88" s="166">
+      <c r="D88" s="165">
         <f>C88/C86</f>
         <v>0.43026926927421733</v>
       </c>
-      <c r="E88" s="170">
+      <c r="E88" s="169">
         <f>Inputs!E98</f>
         <v>0.16</v>
       </c>
-      <c r="F88" s="166">
+      <c r="F88" s="165">
         <f>E88/E86</f>
         <v>0.43026926927421749</v>
       </c>
-      <c r="H88" s="170">
+      <c r="H88" s="169">
         <f>Inputs!F98</f>
         <v>0.16</v>
       </c>
-      <c r="I88" s="166">
+      <c r="I88" s="165">
         <f>H88/H86</f>
         <v>0.43026926927421749</v>
       </c>
@@ -11550,23 +11564,23 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>207</v>
-      </c>
-      <c r="C89" s="261">
+        <v>206</v>
+      </c>
+      <c r="C89" s="258">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.6416015185687458E-2</v>
-      </c>
-      <c r="D89" s="209"/>
-      <c r="E89" s="261">
+        <v>1.6593915822050716E-2</v>
+      </c>
+      <c r="D89" s="206"/>
+      <c r="E89" s="258">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.6416015185687458E-2</v>
-      </c>
-      <c r="F89" s="209"/>
-      <c r="H89" s="261">
+        <v>1.6593915822050716E-2</v>
+      </c>
+      <c r="F89" s="206"/>
+      <c r="H89" s="258">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.6416015185687458E-2</v>
-      </c>
-      <c r="I89" s="209"/>
+        <v>1.6593915822050716E-2</v>
+      </c>
+      <c r="I89" s="206"/>
       <c r="K89" s="24"/>
     </row>
     <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11588,7 +11602,7 @@
       <c r="B92" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="C92" s="198" t="str">
+      <c r="C92" s="197" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
@@ -11611,27 +11625,27 @@
         <f>C92&amp;" Discount Rate"</f>
         <v>CN Discount Rate</v>
       </c>
-      <c r="C93" s="136">
+      <c r="C93" s="135">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
         <v>8.6249999999999993E-2</v>
       </c>
-      <c r="D93" s="239">
+      <c r="D93" s="236">
         <f>Inputs!C86</f>
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
         <v>195</v>
       </c>
-      <c r="F93" s="144">
+      <c r="F93" s="143">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>7.2362878554612902</v>
+        <v>7.2448789652077723</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>195</v>
       </c>
-      <c r="I93" s="144">
+      <c r="I93" s="143">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>7.2362878554612902</v>
+        <v>7.2448789652077723</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11639,27 +11653,27 @@
       <c r="B94" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C94" s="182">
+      <c r="C94" s="181">
         <f>Dashboard!G20</f>
         <v>0.15</v>
       </c>
-      <c r="D94" s="270">
+      <c r="D94" s="267">
         <f>Inputs!D87</f>
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
         <v>196</v>
       </c>
-      <c r="F94" s="144">
+      <c r="F94" s="143">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>2.8009611078094272</v>
+        <v>2.8011589652971733</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>196</v>
       </c>
-      <c r="I94" s="144">
+      <c r="I94" s="143">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>2.8009611078094272</v>
+        <v>2.8011589652971733</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11673,25 +11687,25 @@
         <f xml:space="preserve"> "Valuation in "&amp;Dashboard!H3</f>
         <v>Valuation in HKD</v>
       </c>
-      <c r="C96" s="127" t="str">
+      <c r="C96" s="126" t="str">
         <f>Dashboard!H3</f>
         <v>HKD</v>
       </c>
-      <c r="D96" s="124" t="s">
+      <c r="D96" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="E96" s="183" t="str">
+      <c r="E96" s="182" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F96" s="227" t="s">
-        <v>223</v>
-      </c>
-      <c r="H96" s="183" t="str">
+      <c r="F96" s="224" t="s">
+        <v>222</v>
+      </c>
+      <c r="H96" s="182" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
-      <c r="I96" s="124" t="s">
+      <c r="I96" s="123" t="s">
         <v>111</v>
       </c>
       <c r="K96" s="24"/>
@@ -11702,21 +11716,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>10527665122.341717</v>
-      </c>
-      <c r="D97" s="213"/>
-      <c r="E97" s="123">
+        <v>10540163841.055897</v>
+      </c>
+      <c r="D97" s="210"/>
+      <c r="E97" s="122">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>3.5977139716569075</v>
-      </c>
-      <c r="F97" s="213"/>
-      <c r="H97" s="123">
+        <v>3.6019852715532528</v>
+      </c>
+      <c r="F97" s="210"/>
+      <c r="H97" s="122">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>3.5977139716569075</v>
-      </c>
-      <c r="I97" s="123">
+        <v>3.6019852715532528</v>
+      </c>
+      <c r="I97" s="122">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>4.784834130226205</v>
+        <v>4.7905148101483652</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11728,14 +11742,14 @@
         <f>-E53*Exchange_Rate</f>
         <v>0</v>
       </c>
-      <c r="D98" s="213"/>
-      <c r="E98" s="213"/>
-      <c r="F98" s="213"/>
-      <c r="H98" s="123">
+      <c r="D98" s="210"/>
+      <c r="E98" s="210"/>
+      <c r="F98" s="210"/>
+      <c r="H98" s="122">
         <f>C98*Data!$C$4/Common_Shares</f>
         <v>0</v>
       </c>
-      <c r="I98" s="215"/>
+      <c r="I98" s="212"/>
       <c r="K98" s="24"/>
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -11746,17 +11760,17 @@
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
         <v>0</v>
       </c>
-      <c r="D99" s="214"/>
-      <c r="E99" s="145">
+      <c r="D99" s="211"/>
+      <c r="E99" s="144">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
         <v>0</v>
       </c>
-      <c r="F99" s="214"/>
-      <c r="H99" s="145">
+      <c r="F99" s="211"/>
+      <c r="H99" s="144">
         <f>C99*Data!$C$4/Common_Shares</f>
         <v>0</v>
       </c>
-      <c r="I99" s="216"/>
+      <c r="I99" s="213"/>
       <c r="K99" s="24"/>
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
@@ -11765,27 +11779,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>10527665122.341717</v>
+        <v>10540163841.055897</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>3.0580568759083713</v>
+        <v>3.061687480820265</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>3.5977139716569075</v>
+        <v>3.6019852715532528</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>3.5977139716569075</v>
+        <v>3.6019852715532528</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>3.5977139716569075</v>
+        <v>3.6019852715532528</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>4.784834130226205</v>
+        <v>4.7905148101483652</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11797,25 +11811,25 @@
       <c r="B102" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="C102" s="127" t="str">
+      <c r="C102" s="126" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
-      <c r="D102" s="124" t="s">
+      <c r="D102" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="E102" s="183" t="str">
+      <c r="E102" s="182" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F102" s="227" t="s">
-        <v>223</v>
-      </c>
-      <c r="H102" s="183" t="str">
+      <c r="F102" s="224" t="s">
+        <v>222</v>
+      </c>
+      <c r="H102" s="182" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I102" s="124" t="s">
+      <c r="I102" s="123" t="s">
         <v>111</v>
       </c>
       <c r="K102" s="24"/>
@@ -11826,27 +11840,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>4074959586.0074015</v>
+        <v>4075247437.65379</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.1836867943864464</v>
-      </c>
-      <c r="E103" s="123">
+        <v>1.1837704090052865</v>
+      </c>
+      <c r="E103" s="122">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.3925726992781724</v>
+        <v>1.3926710694179842</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>1.3925726992781724</v>
-      </c>
-      <c r="H103" s="123">
+        <v>1.3926710694179842</v>
+      </c>
+      <c r="H103" s="122">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.3925726992781724</v>
+        <v>1.3926710694179842</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>1.852073131110731</v>
+        <v>1.8522039599665199</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11858,25 +11872,25 @@
       <c r="B105" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="C105" s="127" t="str">
+      <c r="C105" s="126" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
-      <c r="D105" s="124" t="s">
+      <c r="D105" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="E105" s="184" t="str">
+      <c r="E105" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F105" s="227" t="s">
-        <v>223</v>
-      </c>
-      <c r="H105" s="184" t="str">
+      <c r="F105" s="224" t="s">
+        <v>222</v>
+      </c>
+      <c r="H105" s="183" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I105" s="124" t="s">
+      <c r="I105" s="123" t="s">
         <v>111</v>
       </c>
       <c r="K105" s="24"/>
@@ -11887,27 +11901,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>7301312354.1745596</v>
+        <v>7307705639.3548441</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>2.1208718351474087</v>
-      </c>
-      <c r="E106" s="123">
+        <v>2.122728944912776</v>
+      </c>
+      <c r="E106" s="122">
         <f>(E100+E103)/2</f>
-        <v>2.4951433354675401</v>
+        <v>2.4973281704856185</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>2.4951433354675401</v>
-      </c>
-      <c r="H106" s="123">
+        <v>2.4973281704856185</v>
+      </c>
+      <c r="H106" s="122">
         <f>(H100+H103)/2</f>
-        <v>2.4951433354675401</v>
-      </c>
-      <c r="I106" s="123">
+        <v>2.4973281704856185</v>
+      </c>
+      <c r="I106" s="122">
         <f>(I100+I103)/2</f>
-        <v>3.318453630668468</v>
+        <v>3.3213593850574425</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -11918,14 +11932,13 @@
       <c r="B108" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="C108" s="128" t="str">
+      <c r="C108" s="127" t="str">
         <f>Inputs!C87</f>
         <v>Dividend</v>
       </c>
       <c r="K108" s="24"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="11">
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D57:E57"/>

--- a/financial_models/opportunities/0696.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0696.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D4DE4CE4-F84E-4509-8800-6D620346CECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CFB78D12-0778-4BE4-80B4-46A411EE27AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3264,9 +3264,7 @@
       <c r="B37" s="94" t="s">
         <v>260</v>
       </c>
-      <c r="C37" s="149">
-        <v>0</v>
-      </c>
+      <c r="C37" s="149"/>
       <c r="D37" s="149"/>
       <c r="E37" s="149"/>
       <c r="F37" s="149"/>
@@ -3330,9 +3328,7 @@
       <c r="B41" s="94" t="s">
         <v>132</v>
       </c>
-      <c r="C41" s="149">
-        <v>0</v>
-      </c>
+      <c r="C41" s="149"/>
       <c r="D41" s="149"/>
       <c r="E41" s="149"/>
       <c r="F41" s="149"/>
@@ -3348,9 +3344,7 @@
       <c r="B42" s="94" t="s">
         <v>133</v>
       </c>
-      <c r="C42" s="149">
-        <v>0</v>
-      </c>
+      <c r="C42" s="149"/>
       <c r="D42" s="149"/>
       <c r="E42" s="149"/>
       <c r="F42" s="149"/>
@@ -3403,7 +3397,7 @@
       </c>
       <c r="C45" s="151">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>1.6593915822050716E-2</v>
+        <v>1.6723287548804235E-2</v>
       </c>
       <c r="D45" s="151" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4146,7 +4140,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="131">
-        <v>10.3</v>
+        <v>10.220000000000001</v>
       </c>
       <c r="H3" s="133" t="s">
         <v>275</v>
@@ -4187,7 +4181,7 @@
       </c>
       <c r="G5" s="287">
         <f>G3*G4/1000000</f>
-        <v>30139.958766700001</v>
+        <v>29905.861999580004</v>
       </c>
       <c r="H5" s="287"/>
       <c r="I5" s="38"/>
@@ -4236,7 +4230,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="132">
-        <v>1.0682333310445149</v>
+        <v>1.0681999921798706</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4419,7 +4413,7 @@
       </c>
       <c r="G24" s="265">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>25.929339035362403</v>
+        <v>25.7287490882726</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4451,7 +4445,7 @@
       </c>
       <c r="G26" s="177">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>1.6593915822050716E-2</v>
+        <v>1.6723287548804235E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4481,20 +4475,20 @@
       </c>
       <c r="C29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>1.1837704090052865</v>
+        <v>1.1844868655513094</v>
       </c>
       <c r="D29" s="128">
         <f>G29*(1+G20)</f>
-        <v>2.1300345539614978</v>
+        <v>2.1313237204990556</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>1.3926710694179842</v>
+        <v>1.3935139594721289</v>
       </c>
       <c r="G29" s="286">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>1.8522039599665199</v>
+        <v>1.8533249743470048</v>
       </c>
       <c r="H29" s="286"/>
     </row>
@@ -11517,17 +11511,17 @@
       </c>
       <c r="C87" s="258">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.8566351368856777E-2</v>
+        <v>3.8867027563956061E-2</v>
       </c>
       <c r="D87" s="206"/>
       <c r="E87" s="259">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.8566351368856763E-2</v>
+        <v>3.886702756395604E-2</v>
       </c>
       <c r="F87" s="206"/>
       <c r="H87" s="259">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.8566351368856763E-2</v>
+        <v>3.886702756395604E-2</v>
       </c>
       <c r="I87" s="206"/>
       <c r="K87" s="24"/>
@@ -11568,17 +11562,17 @@
       </c>
       <c r="C89" s="258">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.6593915822050716E-2</v>
+        <v>1.6723287548804235E-2</v>
       </c>
       <c r="D89" s="206"/>
       <c r="E89" s="258">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.6593915822050716E-2</v>
+        <v>1.6723287548804235E-2</v>
       </c>
       <c r="F89" s="206"/>
       <c r="H89" s="258">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.6593915822050716E-2</v>
+        <v>1.6723287548804235E-2</v>
       </c>
       <c r="I89" s="206"/>
       <c r="K89" s="24"/>
@@ -11638,14 +11632,14 @@
       </c>
       <c r="F93" s="143">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>7.2448789652077723</v>
+        <v>7.2551459581551976</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>195</v>
       </c>
       <c r="I93" s="143">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>7.2448789652077723</v>
+        <v>7.2551459581551976</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11666,14 +11660,14 @@
       </c>
       <c r="F94" s="143">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>2.8011589652971733</v>
+        <v>2.8028543182658492</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>196</v>
       </c>
       <c r="I94" s="143">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>2.8011589652971733</v>
+        <v>2.8028543182658492</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11716,21 +11710,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>10540163841.055897</v>
+        <v>10555100707.267262</v>
       </c>
       <c r="D97" s="210"/>
       <c r="E97" s="122">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>3.6019852715532528</v>
+        <v>3.6070897815881846</v>
       </c>
       <c r="F97" s="210"/>
       <c r="H97" s="122">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>3.6019852715532528</v>
+        <v>3.6070897815881846</v>
       </c>
       <c r="I97" s="122">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>4.7905148101483652</v>
+        <v>4.7973036305008554</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11779,27 +11773,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>10540163841.055897</v>
+        <v>10555100707.267262</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>3.061687480820265</v>
+        <v>3.0660263143499566</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>3.6019852715532528</v>
+        <v>3.6070897815881846</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>3.6019852715532528</v>
+        <v>3.6070897815881846</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>3.6019852715532528</v>
+        <v>3.6070897815881846</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>4.7905148101483652</v>
+        <v>4.7973036305008554</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11840,27 +11834,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>4075247437.65379</v>
+        <v>4077713910.6127009</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.1837704090052865</v>
+        <v>1.1844868655513094</v>
       </c>
       <c r="E103" s="122">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.3926710694179842</v>
+        <v>1.3935139594721289</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>1.3926710694179842</v>
+        <v>1.3935139594721289</v>
       </c>
       <c r="H103" s="122">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.3926710694179842</v>
+        <v>1.3935139594721289</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>1.8522039599665199</v>
+        <v>1.8533249743470048</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11901,27 +11895,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>7307705639.3548441</v>
+        <v>7316407308.9399815</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>2.122728944912776</v>
+        <v>2.125256589950633</v>
       </c>
       <c r="E106" s="122">
         <f>(E100+E103)/2</f>
-        <v>2.4973281704856185</v>
+        <v>2.5003018705301567</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>2.4973281704856185</v>
+        <v>2.5003018705301567</v>
       </c>
       <c r="H106" s="122">
         <f>(H100+H103)/2</f>
-        <v>2.4973281704856185</v>
+        <v>2.5003018705301567</v>
       </c>
       <c r="I106" s="122">
         <f>(I100+I103)/2</f>
-        <v>3.3213593850574425</v>
+        <v>3.32531430242393</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0696.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0696.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CFB78D12-0778-4BE4-80B4-46A411EE27AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8204F19-A527-4E82-9EBA-B4CA1631BC9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="275">
   <si>
     <t>Company Info:</t>
   </si>
@@ -105,9 +105,6 @@
     <t>Interest-bearing Debt</t>
   </si>
   <si>
-    <t>Current Ratio</t>
-  </si>
-  <si>
     <t>Output</t>
   </si>
   <si>
@@ -847,10 +844,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Balance Sheet</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Years of Projection</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -962,10 +955,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>PlaceHolder_2</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>PlaceHolder_1</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -983,6 +972,14 @@
   </si>
   <si>
     <t>PlaceHolder_4</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contingent Liabilities</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contin. Liabilities / Total Assets</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1687,7 +1684,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="299">
+  <cellXfs count="298">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1835,7 +1832,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2025,9 +2021,6 @@
     <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="10" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2363,6 +2356,7 @@
     <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2818,7 +2812,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C73" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -2832,172 +2826,172 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B4" s="139" t="s">
+        <v>179</v>
+      </c>
+      <c r="C4" s="185" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B5" s="139" t="s">
+        <v>180</v>
+      </c>
+      <c r="C5" s="188" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B6" s="139" t="s">
+        <v>154</v>
+      </c>
+      <c r="C6" s="186">
+        <v>45603</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B7" s="138" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="187">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B8" s="138" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B4" s="140" t="s">
-        <v>180</v>
-      </c>
-      <c r="C4" s="187" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B5" s="140" t="s">
-        <v>181</v>
-      </c>
-      <c r="C5" s="190" t="s">
+      <c r="C8" s="188" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" s="262"/>
+    </row>
+    <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B9" s="138" t="s">
+        <v>201</v>
+      </c>
+      <c r="C9" s="189" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B6" s="140" t="s">
-        <v>155</v>
-      </c>
-      <c r="C6" s="188">
-        <v>45603</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B7" s="139" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="189">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B8" s="139" t="s">
-        <v>201</v>
-      </c>
-      <c r="C8" s="190" t="s">
-        <v>67</v>
-      </c>
-      <c r="E8" s="264"/>
-    </row>
-    <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B9" s="139" t="s">
+    <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B10" s="138" t="s">
         <v>202</v>
       </c>
-      <c r="C9" s="191" t="s">
+      <c r="C10" s="190">
+        <v>2926209589</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B11" s="138" t="s">
+        <v>203</v>
+      </c>
+      <c r="C11" s="189" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B10" s="139" t="s">
-        <v>203</v>
-      </c>
-      <c r="C10" s="192">
-        <v>2926209589</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B11" s="139" t="s">
+    <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B12" s="213" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="214">
+        <v>45291</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B13" s="213" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="215">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B14" s="213" t="s">
         <v>204</v>
       </c>
-      <c r="C11" s="191" t="s">
+      <c r="C14" s="214">
+        <v>45473</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B15" s="213" t="s">
+        <v>235</v>
+      </c>
+      <c r="C15" s="173" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B16" s="217" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" s="218">
+        <v>0.25</v>
+      </c>
+      <c r="D16" s="24"/>
+    </row>
+    <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B17" s="235" t="s">
+        <v>208</v>
+      </c>
+      <c r="C17" s="237" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B12" s="215" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="216">
-        <v>45291</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B13" s="215" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="217">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B14" s="215" t="s">
-        <v>205</v>
-      </c>
-      <c r="C14" s="216">
-        <v>45473</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B15" s="215" t="s">
-        <v>237</v>
-      </c>
-      <c r="C15" s="175" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B16" s="219" t="s">
-        <v>93</v>
-      </c>
-      <c r="C16" s="220">
-        <v>0.25</v>
-      </c>
-      <c r="D16" s="24"/>
-    </row>
-    <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B17" s="237" t="s">
-        <v>209</v>
-      </c>
-      <c r="C17" s="239" t="s">
+      <c r="D17" s="24"/>
+    </row>
+    <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B18" s="235" t="s">
+        <v>222</v>
+      </c>
+      <c r="C18" s="237" t="s">
+        <v>227</v>
+      </c>
+      <c r="D18" s="24"/>
+    </row>
+    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B19" s="235" t="s">
+        <v>223</v>
+      </c>
+      <c r="C19" s="237" t="s">
         <v>271</v>
       </c>
-      <c r="D17" s="24"/>
-    </row>
-    <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B18" s="237" t="s">
-        <v>223</v>
-      </c>
-      <c r="C18" s="239" t="s">
-        <v>228</v>
-      </c>
-      <c r="D18" s="24"/>
-    </row>
-    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B19" s="237" t="s">
-        <v>224</v>
-      </c>
-      <c r="C19" s="239" t="s">
+      <c r="D19" s="24"/>
+    </row>
+    <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B20" s="236" t="s">
+        <v>212</v>
+      </c>
+      <c r="C20" s="237" t="s">
+        <v>271</v>
+      </c>
+      <c r="D20" s="24"/>
+    </row>
+    <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B21" s="219" t="s">
+        <v>215</v>
+      </c>
+      <c r="C21" s="237" t="s">
+        <v>270</v>
+      </c>
+      <c r="D21" s="24"/>
+    </row>
+    <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
+      <c r="B22" s="221" t="s">
+        <v>214</v>
+      </c>
+      <c r="C22" s="238" t="s">
         <v>272</v>
       </c>
-      <c r="D19" s="24"/>
-    </row>
-    <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B20" s="238" t="s">
-        <v>213</v>
-      </c>
-      <c r="C20" s="239" t="s">
-        <v>272</v>
-      </c>
-      <c r="D20" s="24"/>
-    </row>
-    <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B21" s="221" t="s">
-        <v>216</v>
-      </c>
-      <c r="C21" s="239" t="s">
-        <v>271</v>
-      </c>
-      <c r="D21" s="24"/>
-    </row>
-    <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
-      <c r="B22" s="223" t="s">
-        <v>215</v>
-      </c>
-      <c r="C22" s="240" t="s">
-        <v>273</v>
-      </c>
       <c r="D22" s="24"/>
     </row>
     <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B24" s="115" t="s">
-        <v>128</v>
+      <c r="B24" s="114" t="s">
+        <v>127</v>
       </c>
       <c r="C24" s="48">
         <f>C12</f>
@@ -3045,800 +3039,801 @@
       </c>
     </row>
     <row r="25" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B25" s="94" t="s">
+      <c r="B25" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="148">
+      <c r="C25" s="147">
         <v>6983846860.7700005</v>
       </c>
-      <c r="D25" s="148">
+      <c r="D25" s="147">
         <v>5210105771.0900002</v>
       </c>
-      <c r="E25" s="148"/>
-      <c r="F25" s="148"/>
-      <c r="G25" s="148"/>
-      <c r="H25" s="148"/>
-      <c r="I25" s="148"/>
-      <c r="J25" s="148"/>
-      <c r="K25" s="148"/>
-      <c r="L25" s="148"/>
-      <c r="M25" s="148"/>
+      <c r="E25" s="147"/>
+      <c r="F25" s="147"/>
+      <c r="G25" s="147"/>
+      <c r="H25" s="147"/>
+      <c r="I25" s="147"/>
+      <c r="J25" s="147"/>
+      <c r="K25" s="147"/>
+      <c r="L25" s="147"/>
+      <c r="M25" s="147"/>
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B26" s="97" t="s">
+      <c r="B26" s="96" t="s">
+        <v>101</v>
+      </c>
+      <c r="C26" s="148">
+        <v>3398384261.9699998</v>
+      </c>
+      <c r="D26" s="148">
+        <v>3162230075.25</v>
+      </c>
+      <c r="E26" s="148"/>
+      <c r="F26" s="148"/>
+      <c r="G26" s="148"/>
+      <c r="H26" s="148"/>
+      <c r="I26" s="148"/>
+      <c r="J26" s="148"/>
+      <c r="K26" s="148"/>
+      <c r="L26" s="148"/>
+      <c r="M26" s="148"/>
+    </row>
+    <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B27" s="96" t="s">
+        <v>99</v>
+      </c>
+      <c r="C27" s="148">
+        <v>1191142720.1700001</v>
+      </c>
+      <c r="D27" s="148">
+        <v>1028568099.8399999</v>
+      </c>
+      <c r="E27" s="148"/>
+      <c r="F27" s="148"/>
+      <c r="G27" s="148"/>
+      <c r="H27" s="148"/>
+      <c r="I27" s="148"/>
+      <c r="J27" s="148"/>
+      <c r="K27" s="148"/>
+      <c r="L27" s="148"/>
+      <c r="M27" s="148"/>
+    </row>
+    <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B28" s="96" t="s">
         <v>102</v>
       </c>
-      <c r="C26" s="149">
-        <v>3398384261.9699998</v>
-      </c>
-      <c r="D26" s="149">
-        <v>3162230075.25</v>
-      </c>
-      <c r="E26" s="149"/>
-      <c r="F26" s="149"/>
-      <c r="G26" s="149"/>
-      <c r="H26" s="149"/>
-      <c r="I26" s="149"/>
-      <c r="J26" s="149"/>
-      <c r="K26" s="149"/>
-      <c r="L26" s="149"/>
-      <c r="M26" s="149"/>
-    </row>
-    <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B27" s="97" t="s">
+      <c r="C28" s="148">
+        <v>863038653</v>
+      </c>
+      <c r="D28" s="148">
+        <v>701713632.36000001</v>
+      </c>
+      <c r="E28" s="148"/>
+      <c r="F28" s="148"/>
+      <c r="G28" s="148"/>
+      <c r="H28" s="148"/>
+      <c r="I28" s="148"/>
+      <c r="J28" s="148"/>
+      <c r="K28" s="148"/>
+      <c r="L28" s="148"/>
+      <c r="M28" s="148"/>
+    </row>
+    <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B29" s="96" t="s">
+        <v>236</v>
+      </c>
+      <c r="C29" s="148">
+        <v>15194992.810000001</v>
+      </c>
+      <c r="D29" s="148">
+        <v>12415189.01</v>
+      </c>
+      <c r="E29" s="148"/>
+      <c r="F29" s="148"/>
+      <c r="G29" s="148"/>
+      <c r="H29" s="148"/>
+      <c r="I29" s="148"/>
+      <c r="J29" s="148"/>
+      <c r="K29" s="148"/>
+      <c r="L29" s="148"/>
+      <c r="M29" s="148"/>
+    </row>
+    <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B30" s="98" t="s">
+        <v>106</v>
+      </c>
+      <c r="C30" s="148">
+        <v>48923904</v>
+      </c>
+      <c r="D30" s="148">
+        <v>52800637.210000001</v>
+      </c>
+      <c r="E30" s="148"/>
+      <c r="F30" s="148"/>
+      <c r="G30" s="148"/>
+      <c r="H30" s="148"/>
+      <c r="I30" s="148"/>
+      <c r="J30" s="148"/>
+      <c r="K30" s="148"/>
+      <c r="L30" s="148"/>
+      <c r="M30" s="148"/>
+    </row>
+    <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B31" s="96" t="s">
+        <v>105</v>
+      </c>
+      <c r="C31" s="148"/>
+      <c r="D31" s="148"/>
+      <c r="E31" s="148"/>
+      <c r="F31" s="148"/>
+      <c r="G31" s="148"/>
+      <c r="H31" s="148"/>
+      <c r="I31" s="148"/>
+      <c r="J31" s="148"/>
+      <c r="K31" s="148"/>
+      <c r="L31" s="148"/>
+      <c r="M31" s="148"/>
+    </row>
+    <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B32" s="96" t="s">
         <v>100</v>
       </c>
-      <c r="C27" s="149">
-        <v>1191142720.1700001</v>
-      </c>
-      <c r="D27" s="149">
-        <v>1028568099.8399999</v>
-      </c>
-      <c r="E27" s="149"/>
-      <c r="F27" s="149"/>
-      <c r="G27" s="149"/>
-      <c r="H27" s="149"/>
-      <c r="I27" s="149"/>
-      <c r="J27" s="149"/>
-      <c r="K27" s="149"/>
-      <c r="L27" s="149"/>
-      <c r="M27" s="149"/>
-    </row>
-    <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B28" s="97" t="s">
+      <c r="C32" s="148"/>
+      <c r="D32" s="148"/>
+      <c r="E32" s="148"/>
+      <c r="F32" s="148"/>
+      <c r="G32" s="148"/>
+      <c r="H32" s="148"/>
+      <c r="I32" s="148"/>
+      <c r="J32" s="148"/>
+      <c r="K32" s="148"/>
+      <c r="L32" s="148"/>
+      <c r="M32" s="148"/>
+    </row>
+    <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B33" s="96" t="s">
         <v>103</v>
       </c>
-      <c r="C28" s="149">
-        <v>863038653</v>
-      </c>
-      <c r="D28" s="149">
-        <v>701713632.36000001</v>
-      </c>
-      <c r="E28" s="149"/>
-      <c r="F28" s="149"/>
-      <c r="G28" s="149"/>
-      <c r="H28" s="149"/>
-      <c r="I28" s="149"/>
-      <c r="J28" s="149"/>
-      <c r="K28" s="149"/>
-      <c r="L28" s="149"/>
-      <c r="M28" s="149"/>
-    </row>
-    <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B29" s="97" t="s">
-        <v>238</v>
-      </c>
-      <c r="C29" s="149">
-        <v>15194992.810000001</v>
-      </c>
-      <c r="D29" s="149">
-        <v>12415189.01</v>
-      </c>
-      <c r="E29" s="149"/>
-      <c r="F29" s="149"/>
-      <c r="G29" s="149"/>
-      <c r="H29" s="149"/>
-      <c r="I29" s="149"/>
-      <c r="J29" s="149"/>
-      <c r="K29" s="149"/>
-      <c r="L29" s="149"/>
-      <c r="M29" s="149"/>
-    </row>
-    <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B30" s="99" t="s">
-        <v>107</v>
-      </c>
-      <c r="C30" s="149">
-        <v>48923904</v>
-      </c>
-      <c r="D30" s="149">
-        <v>52800637.210000001</v>
-      </c>
-      <c r="E30" s="149"/>
-      <c r="F30" s="149"/>
-      <c r="G30" s="149"/>
-      <c r="H30" s="149"/>
-      <c r="I30" s="149"/>
-      <c r="J30" s="149"/>
-      <c r="K30" s="149"/>
-      <c r="L30" s="149"/>
-      <c r="M30" s="149"/>
-    </row>
-    <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B31" s="97" t="s">
-        <v>106</v>
-      </c>
-      <c r="C31" s="149"/>
-      <c r="D31" s="149"/>
-      <c r="E31" s="149"/>
-      <c r="F31" s="149"/>
-      <c r="G31" s="149"/>
-      <c r="H31" s="149"/>
-      <c r="I31" s="149"/>
-      <c r="J31" s="149"/>
-      <c r="K31" s="149"/>
-      <c r="L31" s="149"/>
-      <c r="M31" s="149"/>
-    </row>
-    <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B32" s="97" t="s">
-        <v>101</v>
-      </c>
-      <c r="C32" s="149"/>
-      <c r="D32" s="149"/>
-      <c r="E32" s="149"/>
-      <c r="F32" s="149"/>
-      <c r="G32" s="149"/>
-      <c r="H32" s="149"/>
-      <c r="I32" s="149"/>
-      <c r="J32" s="149"/>
-      <c r="K32" s="149"/>
-      <c r="L32" s="149"/>
-      <c r="M32" s="149"/>
-    </row>
-    <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B33" s="97" t="s">
-        <v>104</v>
-      </c>
-      <c r="C33" s="149"/>
-      <c r="D33" s="149"/>
-      <c r="E33" s="149"/>
-      <c r="F33" s="149"/>
-      <c r="G33" s="149"/>
-      <c r="H33" s="149"/>
-      <c r="I33" s="149"/>
-      <c r="J33" s="149"/>
-      <c r="K33" s="149"/>
-      <c r="L33" s="149"/>
-      <c r="M33" s="149"/>
+      <c r="C33" s="148"/>
+      <c r="D33" s="148"/>
+      <c r="E33" s="148"/>
+      <c r="F33" s="148"/>
+      <c r="G33" s="148"/>
+      <c r="H33" s="148"/>
+      <c r="I33" s="148"/>
+      <c r="J33" s="148"/>
+      <c r="K33" s="148"/>
+      <c r="L33" s="148"/>
+      <c r="M33" s="148"/>
     </row>
     <row r="34" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="97" t="s">
-        <v>262</v>
-      </c>
-      <c r="C34" s="214"/>
-      <c r="D34" s="149"/>
-      <c r="E34" s="149"/>
-      <c r="F34" s="149"/>
-      <c r="G34" s="149"/>
-      <c r="H34" s="149"/>
-      <c r="I34" s="149"/>
-      <c r="J34" s="149"/>
-      <c r="K34" s="149"/>
-      <c r="L34" s="149"/>
-      <c r="M34" s="149"/>
+      <c r="B34" s="96" t="s">
+        <v>259</v>
+      </c>
+      <c r="C34" s="212"/>
+      <c r="D34" s="148"/>
+      <c r="E34" s="148"/>
+      <c r="F34" s="148"/>
+      <c r="G34" s="148"/>
+      <c r="H34" s="148"/>
+      <c r="I34" s="148"/>
+      <c r="J34" s="148"/>
+      <c r="K34" s="148"/>
+      <c r="L34" s="148"/>
+      <c r="M34" s="148"/>
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B35" s="94" t="s">
-        <v>112</v>
-      </c>
-      <c r="C35" s="214"/>
-      <c r="D35" s="149"/>
-      <c r="E35" s="149"/>
-      <c r="F35" s="149"/>
-      <c r="G35" s="149"/>
-      <c r="H35" s="149"/>
-      <c r="I35" s="149"/>
-      <c r="J35" s="149"/>
-      <c r="K35" s="149"/>
-      <c r="L35" s="149"/>
-      <c r="M35" s="149"/>
+      <c r="B35" s="93" t="s">
+        <v>111</v>
+      </c>
+      <c r="C35" s="212"/>
+      <c r="D35" s="148"/>
+      <c r="E35" s="148"/>
+      <c r="F35" s="148"/>
+      <c r="G35" s="148"/>
+      <c r="H35" s="148"/>
+      <c r="I35" s="148"/>
+      <c r="J35" s="148"/>
+      <c r="K35" s="148"/>
+      <c r="L35" s="148"/>
+      <c r="M35" s="148"/>
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B36" s="94" t="s">
-        <v>141</v>
-      </c>
-      <c r="C36" s="214"/>
-      <c r="D36" s="149"/>
-      <c r="E36" s="149"/>
-      <c r="F36" s="149"/>
-      <c r="G36" s="149"/>
-      <c r="H36" s="149"/>
-      <c r="I36" s="149"/>
-      <c r="J36" s="149"/>
-      <c r="K36" s="149"/>
-      <c r="L36" s="149"/>
-      <c r="M36" s="149"/>
+      <c r="B36" s="93" t="s">
+        <v>140</v>
+      </c>
+      <c r="C36" s="212"/>
+      <c r="D36" s="148"/>
+      <c r="E36" s="148"/>
+      <c r="F36" s="148"/>
+      <c r="G36" s="148"/>
+      <c r="H36" s="148"/>
+      <c r="I36" s="148"/>
+      <c r="J36" s="148"/>
+      <c r="K36" s="148"/>
+      <c r="L36" s="148"/>
+      <c r="M36" s="148"/>
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B37" s="94" t="s">
-        <v>260</v>
-      </c>
-      <c r="C37" s="149"/>
-      <c r="D37" s="149"/>
-      <c r="E37" s="149"/>
-      <c r="F37" s="149"/>
-      <c r="G37" s="149"/>
-      <c r="H37" s="149"/>
-      <c r="I37" s="149"/>
-      <c r="J37" s="149"/>
-      <c r="K37" s="149"/>
-      <c r="L37" s="149"/>
-      <c r="M37" s="149"/>
-    </row>
-    <row r="38" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
-      <c r="B38" s="94" t="s">
-        <v>261</v>
-      </c>
-      <c r="C38" s="214"/>
-      <c r="D38" s="149"/>
-      <c r="E38" s="149"/>
-      <c r="F38" s="149"/>
-      <c r="G38" s="149"/>
-      <c r="H38" s="149"/>
-      <c r="I38" s="149"/>
-      <c r="J38" s="149"/>
-      <c r="K38" s="149"/>
-      <c r="L38" s="149"/>
-      <c r="M38" s="149"/>
+      <c r="B37" s="93" t="s">
+        <v>258</v>
+      </c>
+      <c r="C37" s="148"/>
+      <c r="D37" s="148"/>
+      <c r="E37" s="148"/>
+      <c r="F37" s="148"/>
+      <c r="G37" s="148"/>
+      <c r="H37" s="148"/>
+      <c r="I37" s="148"/>
+      <c r="J37" s="148"/>
+      <c r="K37" s="148"/>
+      <c r="L37" s="148"/>
+      <c r="M37" s="148"/>
+    </row>
+    <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B38" s="93" t="s">
+        <v>264</v>
+      </c>
+      <c r="C38" s="148"/>
+      <c r="D38" s="148"/>
+      <c r="E38" s="148"/>
+      <c r="F38" s="148"/>
+      <c r="G38" s="148"/>
+      <c r="H38" s="148"/>
+      <c r="I38" s="148"/>
+      <c r="J38" s="148"/>
+      <c r="K38" s="148"/>
+      <c r="L38" s="148"/>
+      <c r="M38" s="148"/>
     </row>
     <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B39" s="94" t="s">
+      <c r="B39" s="93" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="214"/>
-      <c r="D39" s="149"/>
-      <c r="E39" s="149"/>
-      <c r="F39" s="149"/>
-      <c r="G39" s="149"/>
-      <c r="H39" s="149"/>
-      <c r="I39" s="149"/>
-      <c r="J39" s="149"/>
-      <c r="K39" s="149"/>
-      <c r="L39" s="149"/>
-      <c r="M39" s="149"/>
+      <c r="C39" s="212"/>
+      <c r="D39" s="148"/>
+      <c r="E39" s="148"/>
+      <c r="F39" s="148"/>
+      <c r="G39" s="148"/>
+      <c r="H39" s="148"/>
+      <c r="I39" s="148"/>
+      <c r="J39" s="148"/>
+      <c r="K39" s="148"/>
+      <c r="L39" s="148"/>
+      <c r="M39" s="148"/>
     </row>
     <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B40" s="94" t="s">
+      <c r="B40" s="93" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="214"/>
-      <c r="D40" s="149"/>
-      <c r="E40" s="149"/>
-      <c r="F40" s="149"/>
-      <c r="G40" s="149"/>
-      <c r="H40" s="149"/>
-      <c r="I40" s="149"/>
-      <c r="J40" s="149"/>
-      <c r="K40" s="149"/>
-      <c r="L40" s="149"/>
-      <c r="M40" s="149"/>
+      <c r="C40" s="212"/>
+      <c r="D40" s="148"/>
+      <c r="E40" s="148"/>
+      <c r="F40" s="148"/>
+      <c r="G40" s="148"/>
+      <c r="H40" s="148"/>
+      <c r="I40" s="148"/>
+      <c r="J40" s="148"/>
+      <c r="K40" s="148"/>
+      <c r="L40" s="148"/>
+      <c r="M40" s="148"/>
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B41" s="94" t="s">
+      <c r="B41" s="93" t="s">
+        <v>131</v>
+      </c>
+      <c r="C41" s="148"/>
+      <c r="D41" s="148"/>
+      <c r="E41" s="148"/>
+      <c r="F41" s="148"/>
+      <c r="G41" s="148"/>
+      <c r="H41" s="148"/>
+      <c r="I41" s="148"/>
+      <c r="J41" s="148"/>
+      <c r="K41" s="148"/>
+      <c r="L41" s="148"/>
+      <c r="M41" s="148"/>
+    </row>
+    <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B42" s="93" t="s">
         <v>132</v>
       </c>
-      <c r="C41" s="149"/>
-      <c r="D41" s="149"/>
-      <c r="E41" s="149"/>
-      <c r="F41" s="149"/>
-      <c r="G41" s="149"/>
-      <c r="H41" s="149"/>
-      <c r="I41" s="149"/>
-      <c r="J41" s="149"/>
-      <c r="K41" s="149"/>
-      <c r="L41" s="149"/>
-      <c r="M41" s="149"/>
-    </row>
-    <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B42" s="94" t="s">
-        <v>133</v>
-      </c>
-      <c r="C42" s="149"/>
-      <c r="D42" s="149"/>
-      <c r="E42" s="149"/>
-      <c r="F42" s="149"/>
-      <c r="G42" s="149"/>
-      <c r="H42" s="149"/>
-      <c r="I42" s="149"/>
-      <c r="J42" s="149"/>
-      <c r="K42" s="149"/>
-      <c r="L42" s="149"/>
-      <c r="M42" s="149"/>
+      <c r="C42" s="148"/>
+      <c r="D42" s="148"/>
+      <c r="E42" s="148"/>
+      <c r="F42" s="148"/>
+      <c r="G42" s="148"/>
+      <c r="H42" s="148"/>
+      <c r="I42" s="148"/>
+      <c r="J42" s="148"/>
+      <c r="K42" s="148"/>
+      <c r="L42" s="148"/>
+      <c r="M42" s="148"/>
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B43" s="94" t="s">
-        <v>131</v>
-      </c>
-      <c r="C43" s="214"/>
-      <c r="D43" s="149"/>
-      <c r="E43" s="149"/>
-      <c r="F43" s="149"/>
-      <c r="G43" s="149"/>
-      <c r="H43" s="149"/>
-      <c r="I43" s="149"/>
-      <c r="J43" s="149"/>
-      <c r="K43" s="149"/>
-      <c r="L43" s="149"/>
-      <c r="M43" s="149"/>
+      <c r="B43" s="93" t="s">
+        <v>130</v>
+      </c>
+      <c r="C43" s="212"/>
+      <c r="D43" s="148"/>
+      <c r="E43" s="148"/>
+      <c r="F43" s="148"/>
+      <c r="G43" s="148"/>
+      <c r="H43" s="148"/>
+      <c r="I43" s="148"/>
+      <c r="J43" s="148"/>
+      <c r="K43" s="148"/>
+      <c r="L43" s="148"/>
+      <c r="M43" s="148"/>
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>193</v>
-      </c>
-      <c r="C44" s="247">
+        <v>192</v>
+      </c>
+      <c r="C44" s="245">
         <f>0.16</f>
         <v>0.16</v>
       </c>
-      <c r="D44" s="247"/>
-      <c r="E44" s="247"/>
-      <c r="F44" s="247"/>
-      <c r="G44" s="247"/>
-      <c r="H44" s="247"/>
-      <c r="I44" s="247"/>
-      <c r="J44" s="247"/>
-      <c r="K44" s="247"/>
-      <c r="L44" s="247"/>
-      <c r="M44" s="247"/>
+      <c r="D44" s="245"/>
+      <c r="E44" s="245"/>
+      <c r="F44" s="245"/>
+      <c r="G44" s="245"/>
+      <c r="H44" s="245"/>
+      <c r="I44" s="245"/>
+      <c r="J44" s="245"/>
+      <c r="K44" s="245"/>
+      <c r="L44" s="245"/>
+      <c r="M44" s="245"/>
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>234</v>
-      </c>
-      <c r="C45" s="151">
+        <v>232</v>
+      </c>
+      <c r="C45" s="150">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>1.6723287548804235E-2</v>
-      </c>
-      <c r="D45" s="151" t="str">
+        <v>1.6785330606896503E-2</v>
+      </c>
+      <c r="D45" s="150" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="E45" s="151" t="str">
+      <c r="E45" s="150" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="F45" s="151" t="str">
+      <c r="F45" s="150" t="str">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="G45" s="151" t="str">
+      <c r="G45" s="150" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="H45" s="151" t="str">
+      <c r="H45" s="150" t="str">
         <f>IF(H44="","",H44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="I45" s="151" t="str">
+      <c r="I45" s="150" t="str">
         <f>IF(I44="","",I44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="J45" s="151" t="str">
+      <c r="J45" s="150" t="str">
         <f>IF(J44="","",J44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="K45" s="151" t="str">
+      <c r="K45" s="150" t="str">
         <f>IF(K44="","",K44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="L45" s="151" t="str">
+      <c r="L45" s="150" t="str">
         <f>IF(L44="","",L44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="M45" s="151" t="str">
+      <c r="M45" s="150" t="str">
         <f>IF(M44="","",M44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B47" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="C47" s="193" t="s">
-        <v>30</v>
-      </c>
-      <c r="D47" s="193" t="s">
-        <v>182</v>
-      </c>
-      <c r="E47" s="111" t="s">
-        <v>32</v>
+      <c r="B47" s="10" t="str">
+        <f>"Balance Sheet"&amp;IF(SUM(C48:C72)=C37+C41,"","- Error")</f>
+        <v>Balance Sheet</v>
+      </c>
+      <c r="C47" s="191" t="s">
+        <v>29</v>
+      </c>
+      <c r="D47" s="191" t="s">
+        <v>181</v>
+      </c>
+      <c r="E47" s="110" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="48" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B48" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C48" s="59"/>
       <c r="D48" s="60">
         <v>0.9</v>
       </c>
-      <c r="E48" s="112"/>
+      <c r="E48" s="111"/>
     </row>
     <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C49" s="59"/>
       <c r="D49" s="60">
         <v>0.8</v>
       </c>
-      <c r="E49" s="112"/>
+      <c r="E49" s="111"/>
     </row>
     <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C50" s="59"/>
       <c r="D50" s="60">
         <f>D51</f>
         <v>0.6</v>
       </c>
-      <c r="E50" s="112"/>
+      <c r="E50" s="111"/>
     </row>
     <row r="51" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C51" s="59"/>
       <c r="D51" s="60">
         <v>0.6</v>
       </c>
-      <c r="E51" s="112"/>
+      <c r="E51" s="111"/>
     </row>
     <row r="52" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C52" s="59"/>
       <c r="D52" s="60">
         <v>0.5</v>
       </c>
-      <c r="E52" s="112"/>
+      <c r="E52" s="111"/>
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C53" s="59"/>
       <c r="D53" s="60">
         <f>D50</f>
         <v>0.6</v>
       </c>
-      <c r="E53" s="112"/>
+      <c r="E53" s="111"/>
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
         <v>0.1</v>
       </c>
-      <c r="E54" s="112"/>
+      <c r="E54" s="111"/>
     </row>
     <row r="55" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C55" s="59"/>
       <c r="D55" s="60">
         <f>D52</f>
         <v>0.5</v>
       </c>
-      <c r="E55" s="112"/>
+      <c r="E55" s="111"/>
     </row>
     <row r="56" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C56" s="59"/>
       <c r="D56" s="60">
         <f>D50</f>
         <v>0.6</v>
       </c>
-      <c r="E56" s="218" t="s">
-        <v>67</v>
+      <c r="E56" s="216" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C57" s="59"/>
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
-      <c r="E57" s="218" t="s">
-        <v>42</v>
+      <c r="E57" s="216" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="58" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B58" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C58" s="59"/>
       <c r="D58" s="60">
         <f>D48</f>
         <v>0.9</v>
       </c>
-      <c r="E58" s="112"/>
+      <c r="E58" s="111"/>
     </row>
     <row r="59" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B59" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="C59" s="119"/>
-      <c r="D59" s="194">
+        <v>46</v>
+      </c>
+      <c r="C59" s="118"/>
+      <c r="D59" s="192">
         <f>D70</f>
         <v>0.05</v>
       </c>
-      <c r="E59" s="112"/>
+      <c r="E59" s="111"/>
     </row>
     <row r="60" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C60" s="59"/>
       <c r="D60" s="60">
         <f>D49</f>
         <v>0.8</v>
       </c>
-      <c r="E60" s="112"/>
+      <c r="E60" s="111"/>
     </row>
     <row r="61" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B61" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C61" s="59"/>
       <c r="D61" s="60">
         <f>D51</f>
         <v>0.6</v>
       </c>
-      <c r="E61" s="112"/>
+      <c r="E61" s="111"/>
     </row>
     <row r="62" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C62" s="59"/>
       <c r="D62" s="60">
         <f>D52</f>
         <v>0.5</v>
       </c>
-      <c r="E62" s="112"/>
+      <c r="E62" s="111"/>
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
         <f>D62</f>
         <v>0.5</v>
       </c>
-      <c r="E63" s="112"/>
+      <c r="E63" s="111"/>
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
         <v>0.4</v>
       </c>
-      <c r="E64" s="112"/>
+      <c r="E64" s="111"/>
     </row>
     <row r="65" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C65" s="59"/>
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
-      <c r="E65" s="218" t="s">
-        <v>67</v>
+      <c r="E65" s="216" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="66" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B66" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C66" s="59"/>
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
-      <c r="E66" s="218" t="s">
-        <v>67</v>
+      <c r="E66" s="216" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="67" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C67" s="59"/>
       <c r="D67" s="60">
         <f>D65</f>
         <v>0.1</v>
       </c>
-      <c r="E67" s="218" t="s">
-        <v>42</v>
+      <c r="E67" s="216" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C68" s="59"/>
       <c r="D68" s="60">
         <f>D65</f>
         <v>0.1</v>
       </c>
-      <c r="E68" s="112"/>
+      <c r="E68" s="111"/>
     </row>
     <row r="69" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B69" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C69" s="59"/>
       <c r="D69" s="60">
         <f>D70</f>
         <v>0.05</v>
       </c>
-      <c r="E69" s="112"/>
+      <c r="E69" s="111"/>
     </row>
     <row r="70" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B70" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C70" s="59"/>
       <c r="D70" s="60">
         <v>0.05</v>
       </c>
-      <c r="E70" s="112"/>
+      <c r="E70" s="111"/>
     </row>
     <row r="71" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B71" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C71" s="59"/>
       <c r="D71" s="60">
         <f>D58</f>
         <v>0.9</v>
       </c>
-      <c r="E71" s="112"/>
+      <c r="E71" s="111"/>
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="243" t="s">
-        <v>72</v>
-      </c>
-      <c r="C72" s="244"/>
-      <c r="D72" s="245">
-        <v>0</v>
-      </c>
-      <c r="E72" s="246"/>
+      <c r="B72" s="241" t="s">
+        <v>71</v>
+      </c>
+      <c r="C72" s="242"/>
+      <c r="D72" s="243">
+        <v>0</v>
+      </c>
+      <c r="E72" s="244"/>
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C73" s="59"/>
     </row>
     <row r="74" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C74" s="59"/>
     </row>
     <row r="75" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B75" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C75" s="59"/>
     </row>
     <row r="76" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B76" s="86" t="s">
-        <v>39</v>
-      </c>
-      <c r="C76" s="119"/>
+      <c r="B76" s="85" t="s">
+        <v>38</v>
+      </c>
+      <c r="C76" s="118"/>
     </row>
     <row r="77" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B77" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="C77" s="83"/>
+      <c r="C77" s="82"/>
     </row>
     <row r="78" spans="2:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B78" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C78" s="59"/>
     </row>
     <row r="79" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B79" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C79" s="59"/>
     </row>
     <row r="80" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B80" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C80" s="59"/>
+    </row>
+    <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B81" s="85" t="s">
         <v>62</v>
       </c>
-      <c r="C80" s="59"/>
-    </row>
-    <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B81" s="86" t="s">
-        <v>63</v>
-      </c>
-      <c r="C81" s="119"/>
+      <c r="C81" s="118"/>
     </row>
     <row r="82" spans="2:8" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
-        <v>265</v>
-      </c>
-      <c r="C82" s="214"/>
+        <v>262</v>
+      </c>
+      <c r="C82" s="212"/>
     </row>
     <row r="83" spans="2:8" ht="14.25" hidden="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>266</v>
-      </c>
-      <c r="C83" s="214"/>
+        <v>263</v>
+      </c>
+      <c r="C83" s="212"/>
     </row>
     <row r="84" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B84" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C84" s="59"/>
     </row>
     <row r="85" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B85" s="20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C85" s="59"/>
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="C86" s="196">
+        <v>231</v>
+      </c>
+      <c r="C86" s="194">
         <v>5</v>
       </c>
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="C87" s="233" t="s">
-        <v>274</v>
-      </c>
-      <c r="D87" s="266">
+        <v>230</v>
+      </c>
+      <c r="C87" s="231" t="s">
+        <v>273</v>
+      </c>
+      <c r="D87" s="264">
         <v>0.02</v>
       </c>
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B89" s="106" t="s">
-        <v>122</v>
-      </c>
-      <c r="C89" s="283">
+      <c r="B89" s="105" t="s">
+        <v>121</v>
+      </c>
+      <c r="C89" s="282">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="283"/>
-      <c r="E89" s="89" t="s">
-        <v>192</v>
-      </c>
-      <c r="F89" s="89" t="s">
+      <c r="D89" s="282"/>
+      <c r="E89" s="88" t="s">
         <v>191</v>
+      </c>
+      <c r="F89" s="88" t="s">
+        <v>190</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -3847,166 +3842,166 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1CNY)</v>
       </c>
-      <c r="C90" s="284" t="s">
+      <c r="C90" s="283" t="s">
+        <v>96</v>
+      </c>
+      <c r="D90" s="283"/>
+      <c r="E90" s="230" t="s">
         <v>97</v>
       </c>
-      <c r="D90" s="284"/>
-      <c r="E90" s="232" t="s">
-        <v>98</v>
-      </c>
-      <c r="F90" s="252" t="s">
-        <v>98</v>
+      <c r="F90" s="250" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C91" s="77">
         <f>C25</f>
         <v>6983846860.7700005</v>
       </c>
-      <c r="D91" s="206"/>
-      <c r="E91" s="248">
+      <c r="D91" s="204"/>
+      <c r="E91" s="246">
         <f>C91</f>
         <v>6983846860.7700005</v>
       </c>
-      <c r="F91" s="248">
+      <c r="F91" s="246">
         <f>C91</f>
         <v>6983846860.7700005</v>
       </c>
     </row>
     <row r="92" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B92" s="104" t="s">
-        <v>102</v>
+      <c r="B92" s="103" t="s">
+        <v>101</v>
       </c>
       <c r="C92" s="77">
         <f>C26</f>
         <v>3398384261.9699998</v>
       </c>
-      <c r="D92" s="158">
+      <c r="D92" s="156">
         <f>C92/C91</f>
         <v>0.48660635459513968</v>
       </c>
-      <c r="E92" s="249">
+      <c r="E92" s="247">
         <f>E91*D92</f>
         <v>3398384261.9699998</v>
       </c>
-      <c r="F92" s="249">
+      <c r="F92" s="247">
         <f>F91*D92</f>
         <v>3398384261.9699998</v>
       </c>
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B93" s="104" t="s">
-        <v>230</v>
+      <c r="B93" s="103" t="s">
+        <v>229</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
         <v>2054181373.1700001</v>
       </c>
-      <c r="D93" s="158">
+      <c r="D93" s="156">
         <f>C93/C91</f>
         <v>0.2941332211490556</v>
       </c>
-      <c r="E93" s="249">
+      <c r="E93" s="247">
         <f>E91*D93</f>
         <v>2054181373.1700003</v>
       </c>
-      <c r="F93" s="249">
+      <c r="F93" s="247">
         <f>F91*D93</f>
         <v>2054181373.1700003</v>
       </c>
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B94" s="104" t="s">
-        <v>238</v>
+      <c r="B94" s="103" t="s">
+        <v>236</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
         <v>15194992.810000001</v>
       </c>
-      <c r="D94" s="158">
+      <c r="D94" s="156">
         <f>C94/C91</f>
         <v>2.1757339633768379E-3</v>
       </c>
-      <c r="E94" s="250"/>
-      <c r="F94" s="249">
+      <c r="E94" s="248"/>
+      <c r="F94" s="247">
         <f>F91*D94</f>
         <v>15194992.810000001</v>
       </c>
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
         <v>0</v>
       </c>
-      <c r="D95" s="158">
+      <c r="D95" s="156">
         <f>C95/C91</f>
         <v>0</v>
       </c>
-      <c r="E95" s="249">
+      <c r="E95" s="247">
         <f>E91*D95</f>
         <v>0</v>
       </c>
-      <c r="F95" s="249">
+      <c r="F95" s="247">
         <f>F91*D95</f>
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B96" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C96" s="77">
         <f>MAX(C31,0)</f>
         <v>0</v>
       </c>
-      <c r="D96" s="158">
+      <c r="D96" s="156">
         <f>C96/C91</f>
         <v>0</v>
       </c>
-      <c r="E96" s="250"/>
-      <c r="F96" s="249">
+      <c r="E96" s="248"/>
+      <c r="F96" s="247">
         <f>F91*D96</f>
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
         <v>65231872</v>
       </c>
-      <c r="D97" s="158">
+      <c r="D97" s="156">
         <f>C97/C91</f>
         <v>9.3403926661713623E-3</v>
       </c>
-      <c r="E97" s="250"/>
-      <c r="F97" s="249">
+      <c r="E97" s="248"/>
+      <c r="F97" s="247">
         <f>F91*D97</f>
         <v>65231872</v>
       </c>
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B98" s="86" t="s">
-        <v>193</v>
-      </c>
-      <c r="C98" s="234">
+      <c r="B98" s="85" t="s">
+        <v>192</v>
+      </c>
+      <c r="C98" s="232">
         <f>C44</f>
         <v>0.16</v>
       </c>
-      <c r="D98" s="263"/>
-      <c r="E98" s="251">
+      <c r="D98" s="261"/>
+      <c r="E98" s="249">
         <f>F98</f>
         <v>0.16</v>
       </c>
-      <c r="F98" s="251">
+      <c r="F98" s="249">
         <f>C98</f>
         <v>0.16</v>
       </c>
@@ -4019,32 +4014,32 @@
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C16 C25:M33 D34:M43 C44:M44 E91:F93 F94 E95:F95 F96:F98">
-    <cfRule type="containsBlanks" dxfId="22" priority="14">
+    <cfRule type="containsBlanks" dxfId="22" priority="15">
       <formula>LEN(TRIM(C16))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C37">
-    <cfRule type="containsBlanks" dxfId="21" priority="3">
+  <conditionalFormatting sqref="C37:C38">
+    <cfRule type="containsBlanks" dxfId="21" priority="1">
       <formula>LEN(TRIM(C37))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41:C42">
-    <cfRule type="containsBlanks" dxfId="20" priority="1">
+    <cfRule type="containsBlanks" dxfId="20" priority="2">
       <formula>LEN(TRIM(C41))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C87">
-    <cfRule type="containsBlanks" dxfId="19" priority="7">
+    <cfRule type="containsBlanks" dxfId="19" priority="8">
       <formula>LEN(TRIM(C87))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98">
-    <cfRule type="containsBlanks" dxfId="18" priority="6">
+    <cfRule type="containsBlanks" dxfId="18" priority="7">
       <formula>LEN(TRIM(C98))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E98">
-    <cfRule type="containsBlanks" dxfId="17" priority="4">
+    <cfRule type="containsBlanks" dxfId="17" priority="5">
       <formula>LEN(TRIM(E98))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4103,13 +4098,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
@@ -4120,82 +4115,82 @@
         <f>C3&amp;" : "&amp;C4</f>
         <v>0696.HK : 中國民航信息網絡</v>
       </c>
-      <c r="D2" s="87"/>
+      <c r="D2" s="86"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="C3" s="289" t="str">
+        <v>179</v>
+      </c>
+      <c r="C3" s="288" t="str">
         <f>Inputs!C4</f>
         <v>0696.HK</v>
       </c>
-      <c r="D3" s="290"/>
-      <c r="E3" s="87"/>
+      <c r="D3" s="289"/>
+      <c r="E3" s="86"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="131">
-        <v>10.220000000000001</v>
-      </c>
-      <c r="H3" s="133" t="s">
-        <v>275</v>
+      <c r="G3" s="130">
+        <v>10.18</v>
+      </c>
+      <c r="H3" s="132" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>181</v>
-      </c>
-      <c r="C4" s="291" t="str">
+        <v>180</v>
+      </c>
+      <c r="C4" s="290" t="str">
         <f>Inputs!C5</f>
         <v>中國民航信息網絡</v>
       </c>
-      <c r="D4" s="292"/>
-      <c r="E4" s="87"/>
+      <c r="D4" s="291"/>
+      <c r="E4" s="86"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="295">
+      <c r="G4" s="294">
         <f>Inputs!C10</f>
         <v>2926209589</v>
       </c>
-      <c r="H4" s="295"/>
+      <c r="H4" s="294"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C5" s="293">
+        <v>154</v>
+      </c>
+      <c r="C5" s="292">
         <f>Inputs!C6</f>
         <v>45603</v>
       </c>
-      <c r="D5" s="294"/>
+      <c r="D5" s="293"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
-        <v>96</v>
-      </c>
-      <c r="G5" s="287">
+        <v>95</v>
+      </c>
+      <c r="G5" s="286">
         <f>G3*G4/1000000</f>
-        <v>29905.861999580004</v>
-      </c>
-      <c r="H5" s="287"/>
+        <v>29788.813616020001</v>
+      </c>
+      <c r="H5" s="286"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="87" t="s">
+      <c r="B6" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="184">
+      <c r="C6" s="182">
         <f>Inputs!C7</f>
         <v>8</v>
       </c>
-      <c r="D6" s="185">
+      <c r="D6" s="183">
         <f>EOMONTH(EDATE(Fin_Analysis!D9,C6),0)</f>
         <v>45716</v>
       </c>
@@ -4206,31 +4201,31 @@
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="288" t="str">
+      <c r="G6" s="287" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="288"/>
+      <c r="H6" s="287"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="86" t="s">
-        <v>178</v>
-      </c>
-      <c r="C7" s="186" t="str">
+      <c r="B7" s="85" t="s">
+        <v>177</v>
+      </c>
+      <c r="C7" s="184" t="str">
         <f>Inputs!C8</f>
         <v>N</v>
       </c>
-      <c r="D7" s="186" t="str">
+      <c r="D7" s="184" t="str">
         <f>Inputs!C9</f>
         <v>C0009</v>
       </c>
-      <c r="E7" s="87"/>
+      <c r="E7" s="86"/>
       <c r="F7" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="132">
-        <v>1.0681999921798706</v>
+      <c r="G7" s="131">
+        <v>1.0679666598637898</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4239,280 +4234,280 @@
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="138" t="s">
-        <v>177</v>
-      </c>
-      <c r="F9" s="142" t="s">
-        <v>172</v>
+      <c r="B9" s="137" t="s">
+        <v>176</v>
+      </c>
+      <c r="F9" s="141" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C10" s="171">
+        <v>162</v>
+      </c>
+      <c r="C10" s="169">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="F10" s="110" t="s">
-        <v>170</v>
+      <c r="F10" s="109" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="121" t="s">
-        <v>167</v>
-      </c>
-      <c r="C11" s="172">
+      <c r="B11" s="120" t="s">
+        <v>166</v>
+      </c>
+      <c r="C11" s="170">
         <v>5.2299999999999999E-2</v>
       </c>
-      <c r="D11" s="136" t="s">
-        <v>176</v>
-      </c>
-      <c r="F11" s="110" t="s">
-        <v>165</v>
+      <c r="D11" s="135" t="s">
+        <v>175</v>
+      </c>
+      <c r="F11" s="109" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="87" t="s">
-        <v>235</v>
-      </c>
-      <c r="C12" s="173">
+      <c r="B12" s="86" t="s">
+        <v>233</v>
+      </c>
+      <c r="C12" s="171">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="D12" s="171">
+      <c r="D12" s="169">
         <v>8.0625000000000002E-2</v>
       </c>
-      <c r="F12" s="110"/>
+      <c r="F12" s="109"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C14" s="171">
+        <v>163</v>
+      </c>
+      <c r="C14" s="169">
         <v>1.8100000000000002E-2</v>
       </c>
-      <c r="F14" s="110" t="s">
-        <v>169</v>
+      <c r="F14" s="109" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C15" s="169">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="F15" s="109" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="120" t="s">
         <v>173</v>
       </c>
-      <c r="C15" s="171">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="F15" s="110" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="121" t="s">
-        <v>174</v>
-      </c>
-      <c r="C16" s="172">
+      <c r="C16" s="170">
         <v>0.16</v>
       </c>
-      <c r="D16" s="262" t="str">
+      <c r="D16" s="260" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
-      <c r="F16" s="110" t="s">
-        <v>166</v>
+      <c r="F16" s="109" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="87" t="s">
-        <v>236</v>
-      </c>
-      <c r="C17" s="174">
+      <c r="B17" s="86" t="s">
+        <v>234</v>
+      </c>
+      <c r="C17" s="172">
         <v>8.6249999999999993E-2</v>
       </c>
-      <c r="D17" s="175"/>
+      <c r="D17" s="173"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="141" t="s">
-        <v>259</v>
-      </c>
-      <c r="C19" s="134" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" s="87"/>
-      <c r="E19" s="87"/>
-      <c r="F19" s="141" t="s">
-        <v>198</v>
-      </c>
-      <c r="G19" s="87"/>
-      <c r="H19" s="87"/>
+      <c r="B19" s="140" t="s">
+        <v>257</v>
+      </c>
+      <c r="C19" s="133" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="86"/>
+      <c r="E19" s="86"/>
+      <c r="F19" s="140" t="s">
+        <v>197</v>
+      </c>
+      <c r="G19" s="86"/>
+      <c r="H19" s="86"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="272" t="s">
-        <v>250</v>
-      </c>
-      <c r="C20" s="273" t="e">
+      <c r="B20" s="270" t="s">
+        <v>248</v>
+      </c>
+      <c r="C20" s="271" t="e">
         <f>C23*C22*(1/C21)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F20" s="87" t="s">
-        <v>197</v>
-      </c>
-      <c r="G20" s="171">
+      <c r="F20" s="86" t="s">
+        <v>196</v>
+      </c>
+      <c r="G20" s="169">
         <v>0.15</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="274" t="s">
-        <v>248</v>
-      </c>
-      <c r="C21" s="275" t="e">
+      <c r="B21" s="272" t="s">
+        <v>246</v>
+      </c>
+      <c r="C21" s="273" t="e">
         <f>Data!C53</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F21" s="87"/>
+      <c r="F21" s="86"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="276" t="s">
-        <v>263</v>
-      </c>
-      <c r="C22" s="277" t="e">
+      <c r="B22" s="274" t="s">
+        <v>260</v>
+      </c>
+      <c r="C22" s="275" t="e">
         <f>Data!C48</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F22" s="141" t="s">
-        <v>171</v>
+      <c r="F22" s="140" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="278" t="s">
-        <v>255</v>
-      </c>
-      <c r="C23" s="279">
+      <c r="B23" s="276" t="s">
+        <v>253</v>
+      </c>
+      <c r="C23" s="277">
         <f>Data!C13</f>
         <v>0.2099200315896334</v>
       </c>
-      <c r="F23" s="139" t="s">
-        <v>175</v>
-      </c>
-      <c r="G23" s="176" t="e">
+      <c r="F23" s="138" t="s">
+        <v>174</v>
+      </c>
+      <c r="G23" s="174" t="e">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="136" t="s">
-        <v>256</v>
-      </c>
-      <c r="C24" s="170">
+      <c r="B24" s="135" t="s">
+        <v>254</v>
+      </c>
+      <c r="C24" s="168">
         <f>Fin_Analysis!I81</f>
         <v>2.1757339633768379E-3</v>
       </c>
-      <c r="F24" s="139" t="s">
-        <v>240</v>
-      </c>
-      <c r="G24" s="265">
+      <c r="F24" s="138" t="s">
+        <v>238</v>
+      </c>
+      <c r="G24" s="263">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>25.7287490882726</v>
+        <v>25.633648770518409</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="136" t="s">
-        <v>257</v>
-      </c>
-      <c r="C25" s="170">
+      <c r="B25" s="135" t="s">
+        <v>255</v>
+      </c>
+      <c r="C25" s="168">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
-      <c r="F25" s="139" t="s">
-        <v>162</v>
-      </c>
-      <c r="G25" s="170">
+      <c r="F25" s="138" t="s">
+        <v>161</v>
+      </c>
+      <c r="G25" s="168">
         <f>Fin_Analysis!I88</f>
         <v>0.43026926927421749</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="137" t="s">
-        <v>258</v>
-      </c>
-      <c r="C26" s="170">
+      <c r="B26" s="136" t="s">
+        <v>256</v>
+      </c>
+      <c r="C26" s="168">
         <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
         <v>0</v>
       </c>
-      <c r="F26" s="140" t="s">
-        <v>179</v>
-      </c>
-      <c r="G26" s="177">
+      <c r="F26" s="139" t="s">
+        <v>178</v>
+      </c>
+      <c r="G26" s="175">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>1.6723287548804235E-2</v>
+        <v>1.6785330606896503E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="5"/>
-      <c r="B28" s="90" t="s">
+      <c r="B28" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="89" t="s">
+      <c r="C28" s="88" t="s">
+        <v>157</v>
+      </c>
+      <c r="D28" s="43" t="s">
         <v>158</v>
-      </c>
-      <c r="D28" s="43" t="s">
-        <v>159</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>222</v>
-      </c>
-      <c r="G28" s="285" t="s">
-        <v>239</v>
-      </c>
-      <c r="H28" s="285"/>
+        <v>221</v>
+      </c>
+      <c r="G28" s="284" t="s">
+        <v>237</v>
+      </c>
+      <c r="H28" s="284"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="87" t="s">
-        <v>160</v>
-      </c>
-      <c r="C29" s="129">
+      <c r="B29" s="86" t="s">
+        <v>159</v>
+      </c>
+      <c r="C29" s="128">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>1.1844868655513094</v>
-      </c>
-      <c r="D29" s="128">
+        <v>1.1845894993697601</v>
+      </c>
+      <c r="D29" s="127">
         <f>G29*(1+G20)</f>
-        <v>2.1313237204990556</v>
-      </c>
-      <c r="E29" s="87"/>
-      <c r="F29" s="130">
+        <v>2.1315083961574786</v>
+      </c>
+      <c r="E29" s="86"/>
+      <c r="F29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>1.3935139594721289</v>
-      </c>
-      <c r="G29" s="286">
+        <v>1.3936347051408942</v>
+      </c>
+      <c r="G29" s="285">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>1.8533249743470048</v>
-      </c>
-      <c r="H29" s="286"/>
+        <v>1.8534855618760684</v>
+      </c>
+      <c r="H29" s="285"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
-      <c r="B32" s="195" t="s">
-        <v>208</v>
-      </c>
-      <c r="C32" s="221"/>
+      <c r="B32" s="193" t="s">
+        <v>207</v>
+      </c>
+      <c r="C32" s="219"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>209</v>
-      </c>
-      <c r="C33" s="242" t="str">
+        <v>208</v>
+      </c>
+      <c r="C33" s="240" t="str">
         <f>Inputs!C17</f>
         <v>Strongly agree</v>
       </c>
@@ -4520,9 +4515,9 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>210</v>
-      </c>
-      <c r="C34" s="222" t="e">
+        <v>209</v>
+      </c>
+      <c r="C34" s="220" t="e">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
 IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
         <v>#DIV/0!</v>
@@ -4530,17 +4525,17 @@
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
-      <c r="B35" s="195" t="s">
-        <v>211</v>
-      </c>
-      <c r="C35" s="221"/>
+      <c r="B35" s="193" t="s">
+        <v>210</v>
+      </c>
+      <c r="C35" s="219"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>223</v>
-      </c>
-      <c r="C36" s="242" t="str">
+        <v>222</v>
+      </c>
+      <c r="C36" s="240" t="str">
         <f>Inputs!C18</f>
         <v>unclear</v>
       </c>
@@ -4548,26 +4543,26 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>224</v>
-      </c>
-      <c r="C37" s="242" t="str">
+        <v>223</v>
+      </c>
+      <c r="C37" s="240" t="str">
         <f>Inputs!C19</f>
         <v>agree</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
-      <c r="B38" s="195" t="s">
-        <v>212</v>
-      </c>
-      <c r="C38" s="221"/>
+      <c r="B38" s="193" t="s">
+        <v>211</v>
+      </c>
+      <c r="C38" s="219"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>213</v>
-      </c>
-      <c r="C39" s="242" t="str">
+        <v>212</v>
+      </c>
+      <c r="C39" s="240" t="str">
         <f>Inputs!C20</f>
         <v>agree</v>
       </c>
@@ -4575,9 +4570,9 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="C40" s="242" t="str">
+        <v>215</v>
+      </c>
+      <c r="C40" s="240" t="str">
         <f>Inputs!C21</f>
         <v>Strongly agree</v>
       </c>
@@ -4590,16 +4585,16 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
-      <c r="B43" s="223" t="s">
-        <v>215</v>
-      </c>
-      <c r="C43" s="241" t="str">
+      <c r="B43" s="221" t="s">
+        <v>214</v>
+      </c>
+      <c r="C43" s="239" t="str">
         <f>Inputs!C22</f>
         <v>Consumer Monopoly</v>
       </c>
@@ -5551,10 +5546,10 @@
   </sheetPr>
   <dimension ref="A1:N930"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="C2" sqref="C2"/>
+      <selection pane="topRight" activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5580,59 +5575,59 @@
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="147" t="s">
-        <v>185</v>
-      </c>
-      <c r="F2" s="118" t="s">
+      <c r="E2" s="146" t="s">
+        <v>184</v>
+      </c>
+      <c r="F2" s="117" t="s">
+        <v>187</v>
+      </c>
+      <c r="G2" s="146" t="s">
         <v>188</v>
       </c>
-      <c r="G2" s="147" t="s">
+      <c r="H2" s="145" t="s">
         <v>189</v>
       </c>
-      <c r="H2" s="146" t="s">
-        <v>190</v>
-      </c>
       <c r="I2" s="7"/>
-      <c r="J2" s="87"/>
+      <c r="J2" s="86"/>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4"/>
-      <c r="B3" s="103" t="s">
+      <c r="B3" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="200">
+      <c r="C3" s="198">
         <f>Inputs!C12</f>
         <v>45291</v>
       </c>
-      <c r="E3" s="145" t="s">
-        <v>186</v>
-      </c>
-      <c r="F3" s="85" t="str">
+      <c r="E3" s="144" t="s">
+        <v>185</v>
+      </c>
+      <c r="F3" s="84" t="str">
         <f>H14</f>
         <v/>
       </c>
-      <c r="G3" s="85">
+      <c r="G3" s="84">
         <f>C14</f>
         <v>1466049353.6300006</v>
       </c>
-      <c r="H3" s="85">
+      <c r="H3" s="84">
         <v>6</v>
       </c>
-      <c r="I3" s="87"/>
+      <c r="I3" s="86"/>
       <c r="J3" s="42"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
     </row>
     <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4"/>
-      <c r="B4" s="103" t="s">
+      <c r="B4" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="127">
+      <c r="C4" s="126">
         <f>Inputs!C13</f>
         <v>1</v>
       </c>
@@ -5640,19 +5635,19 @@
         <f>Dashboard!G6</f>
         <v>CNY</v>
       </c>
-      <c r="E4" s="145" t="s">
-        <v>187</v>
-      </c>
-      <c r="F4" s="93" t="e">
+      <c r="E4" s="144" t="s">
+        <v>186</v>
+      </c>
+      <c r="F4" s="92" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J4" s="87"/>
+      <c r="J4" s="86"/>
     </row>
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
-      <c r="B5" s="115" t="s">
-        <v>128</v>
+      <c r="B5" s="114" t="s">
+        <v>127</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -5701,928 +5696,928 @@
     </row>
     <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
-      <c r="B6" s="94" t="s">
+      <c r="B6" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="199">
+      <c r="C6" s="197">
         <f>IF(Inputs!C25=""," ",Inputs!C25)</f>
         <v>6983846860.7700005</v>
       </c>
-      <c r="D6" s="199">
+      <c r="D6" s="197">
         <f>IF(Inputs!D25="","",Inputs!D25)</f>
         <v>5210105771.0900002</v>
       </c>
-      <c r="E6" s="199" t="str">
+      <c r="E6" s="197" t="str">
         <f>IF(Inputs!E25="","",Inputs!E25)</f>
         <v/>
       </c>
-      <c r="F6" s="199" t="str">
+      <c r="F6" s="197" t="str">
         <f>IF(Inputs!F25="","",Inputs!F25)</f>
         <v/>
       </c>
-      <c r="G6" s="199" t="str">
+      <c r="G6" s="197" t="str">
         <f>IF(Inputs!G25="","",Inputs!G25)</f>
         <v/>
       </c>
-      <c r="H6" s="199" t="str">
+      <c r="H6" s="197" t="str">
         <f>IF(Inputs!H25="","",Inputs!H25)</f>
         <v/>
       </c>
-      <c r="I6" s="199" t="str">
+      <c r="I6" s="197" t="str">
         <f>IF(Inputs!I25="","",Inputs!I25)</f>
         <v/>
       </c>
-      <c r="J6" s="199" t="str">
+      <c r="J6" s="197" t="str">
         <f>IF(Inputs!J25="","",Inputs!J25)</f>
         <v/>
       </c>
-      <c r="K6" s="199" t="str">
+      <c r="K6" s="197" t="str">
         <f>IF(Inputs!K25="","",Inputs!K25)</f>
         <v/>
       </c>
-      <c r="L6" s="199" t="str">
+      <c r="L6" s="197" t="str">
         <f>IF(Inputs!L25="","",Inputs!L25)</f>
         <v/>
       </c>
-      <c r="M6" s="199" t="str">
+      <c r="M6" s="197" t="str">
         <f>IF(Inputs!M25="","",Inputs!M25)</f>
         <v/>
       </c>
-      <c r="N6" s="87"/>
+      <c r="N6" s="86"/>
     </row>
     <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
-      <c r="B7" s="96" t="s">
+      <c r="B7" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="92">
+      <c r="C7" s="91">
         <f t="shared" ref="C7:M7" si="1">IF(D6="","",C6/D6-1)</f>
         <v>0.34044243391798124</v>
       </c>
-      <c r="D7" s="92" t="str">
+      <c r="D7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="E7" s="92" t="str">
+      <c r="E7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F7" s="92" t="str">
+      <c r="F7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G7" s="92" t="str">
+      <c r="G7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H7" s="92" t="str">
+      <c r="H7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I7" s="92" t="str">
+      <c r="I7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J7" s="92" t="str">
+      <c r="J7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="K7" s="92" t="str">
+      <c r="K7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L7" s="92" t="str">
+      <c r="L7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M7" s="92" t="str">
+      <c r="M7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="N7" s="87"/>
+      <c r="N7" s="86"/>
     </row>
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
-      <c r="B8" s="97" t="s">
-        <v>102</v>
-      </c>
-      <c r="C8" s="198">
+      <c r="B8" s="96" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" s="196">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
         <v>3398384261.9699998</v>
       </c>
-      <c r="D8" s="198">
+      <c r="D8" s="196">
         <f>IF(Inputs!D26="","",Inputs!D26)</f>
         <v>3162230075.25</v>
       </c>
-      <c r="E8" s="198" t="str">
+      <c r="E8" s="196" t="str">
         <f>IF(Inputs!E26="","",Inputs!E26)</f>
         <v/>
       </c>
-      <c r="F8" s="198" t="str">
+      <c r="F8" s="196" t="str">
         <f>IF(Inputs!F26="","",Inputs!F26)</f>
         <v/>
       </c>
-      <c r="G8" s="198" t="str">
+      <c r="G8" s="196" t="str">
         <f>IF(Inputs!G26="","",Inputs!G26)</f>
         <v/>
       </c>
-      <c r="H8" s="198" t="str">
+      <c r="H8" s="196" t="str">
         <f>IF(Inputs!H26="","",Inputs!H26)</f>
         <v/>
       </c>
-      <c r="I8" s="198" t="str">
+      <c r="I8" s="196" t="str">
         <f>IF(Inputs!I26="","",Inputs!I26)</f>
         <v/>
       </c>
-      <c r="J8" s="198" t="str">
+      <c r="J8" s="196" t="str">
         <f>IF(Inputs!J26="","",Inputs!J26)</f>
         <v/>
       </c>
-      <c r="K8" s="198" t="str">
+      <c r="K8" s="196" t="str">
         <f>IF(Inputs!K26="","",Inputs!K26)</f>
         <v/>
       </c>
-      <c r="L8" s="198" t="str">
+      <c r="L8" s="196" t="str">
         <f>IF(Inputs!L26="","",Inputs!L26)</f>
         <v/>
       </c>
-      <c r="M8" s="198" t="str">
+      <c r="M8" s="196" t="str">
         <f>IF(Inputs!M26="","",Inputs!M26)</f>
         <v/>
       </c>
-      <c r="N8" s="87"/>
+      <c r="N8" s="86"/>
     </row>
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
-      <c r="B9" s="98" t="s">
-        <v>99</v>
-      </c>
-      <c r="C9" s="150">
+      <c r="B9" s="97" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" s="149">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
         <v>3585462598.8000007</v>
       </c>
-      <c r="D9" s="150">
+      <c r="D9" s="149">
         <f t="shared" si="2"/>
         <v>2047875695.8400002</v>
       </c>
-      <c r="E9" s="150" t="str">
+      <c r="E9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F9" s="150" t="str">
+      <c r="F9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G9" s="150" t="str">
+      <c r="G9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H9" s="150" t="str">
+      <c r="H9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I9" s="150" t="str">
+      <c r="I9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J9" s="150" t="str">
+      <c r="J9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K9" s="150" t="str">
+      <c r="K9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L9" s="150" t="str">
+      <c r="L9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M9" s="150" t="str">
+      <c r="M9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N9" s="87"/>
+      <c r="N9" s="86"/>
     </row>
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
-      <c r="B10" s="97" t="s">
-        <v>100</v>
-      </c>
-      <c r="C10" s="198">
+      <c r="B10" s="96" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="196">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
         <v>1191142720.1700001</v>
       </c>
-      <c r="D10" s="198">
+      <c r="D10" s="196">
         <f>IF(Inputs!D27="","",Inputs!D27)</f>
         <v>1028568099.8399999</v>
       </c>
-      <c r="E10" s="198" t="str">
+      <c r="E10" s="196" t="str">
         <f>IF(Inputs!E27="","",Inputs!E27)</f>
         <v/>
       </c>
-      <c r="F10" s="198" t="str">
+      <c r="F10" s="196" t="str">
         <f>IF(Inputs!F27="","",Inputs!F27)</f>
         <v/>
       </c>
-      <c r="G10" s="198" t="str">
+      <c r="G10" s="196" t="str">
         <f>IF(Inputs!G27="","",Inputs!G27)</f>
         <v/>
       </c>
-      <c r="H10" s="198" t="str">
+      <c r="H10" s="196" t="str">
         <f>IF(Inputs!H27="","",Inputs!H27)</f>
         <v/>
       </c>
-      <c r="I10" s="198" t="str">
+      <c r="I10" s="196" t="str">
         <f>IF(Inputs!I27="","",Inputs!I27)</f>
         <v/>
       </c>
-      <c r="J10" s="198" t="str">
+      <c r="J10" s="196" t="str">
         <f>IF(Inputs!J27="","",Inputs!J27)</f>
         <v/>
       </c>
-      <c r="K10" s="198" t="str">
+      <c r="K10" s="196" t="str">
         <f>IF(Inputs!K27="","",Inputs!K27)</f>
         <v/>
       </c>
-      <c r="L10" s="198" t="str">
+      <c r="L10" s="196" t="str">
         <f>IF(Inputs!L27="","",Inputs!L27)</f>
         <v/>
       </c>
-      <c r="M10" s="198" t="str">
+      <c r="M10" s="196" t="str">
         <f>IF(Inputs!M27="","",Inputs!M27)</f>
         <v/>
       </c>
-      <c r="N10" s="87"/>
+      <c r="N10" s="86"/>
     </row>
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
-      <c r="B11" s="97" t="s">
-        <v>103</v>
-      </c>
-      <c r="C11" s="198">
+      <c r="B11" s="96" t="s">
+        <v>102</v>
+      </c>
+      <c r="C11" s="196">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
         <v>863038653</v>
       </c>
-      <c r="D11" s="198">
+      <c r="D11" s="196">
         <f>IF(Inputs!D28="","",Inputs!D28)</f>
         <v>701713632.36000001</v>
       </c>
-      <c r="E11" s="198" t="str">
+      <c r="E11" s="196" t="str">
         <f>IF(Inputs!E28="","",Inputs!E28)</f>
         <v/>
       </c>
-      <c r="F11" s="198" t="str">
+      <c r="F11" s="196" t="str">
         <f>IF(Inputs!F28="","",Inputs!F28)</f>
         <v/>
       </c>
-      <c r="G11" s="198" t="str">
+      <c r="G11" s="196" t="str">
         <f>IF(Inputs!G28="","",Inputs!G28)</f>
         <v/>
       </c>
-      <c r="H11" s="198" t="str">
+      <c r="H11" s="196" t="str">
         <f>IF(Inputs!H28="","",Inputs!H28)</f>
         <v/>
       </c>
-      <c r="I11" s="198" t="str">
+      <c r="I11" s="196" t="str">
         <f>IF(Inputs!I28="","",Inputs!I28)</f>
         <v/>
       </c>
-      <c r="J11" s="198" t="str">
+      <c r="J11" s="196" t="str">
         <f>IF(Inputs!J28="","",Inputs!J28)</f>
         <v/>
       </c>
-      <c r="K11" s="198" t="str">
+      <c r="K11" s="196" t="str">
         <f>IF(Inputs!K28="","",Inputs!K28)</f>
         <v/>
       </c>
-      <c r="L11" s="198" t="str">
+      <c r="L11" s="196" t="str">
         <f>IF(Inputs!L28="","",Inputs!L28)</f>
         <v/>
       </c>
-      <c r="M11" s="198" t="str">
+      <c r="M11" s="196" t="str">
         <f>IF(Inputs!M28="","",Inputs!M28)</f>
         <v/>
       </c>
-      <c r="N11" s="87"/>
+      <c r="N11" s="86"/>
     </row>
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
-      <c r="B12" s="99" t="s">
-        <v>225</v>
-      </c>
-      <c r="C12" s="198">
+      <c r="B12" s="98" t="s">
+        <v>224</v>
+      </c>
+      <c r="C12" s="196">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>65231872</v>
       </c>
-      <c r="D12" s="198">
+      <c r="D12" s="196">
         <f>IF(Inputs!D30="","",MAX(Inputs!D30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>70400849.61333333</v>
       </c>
-      <c r="E12" s="198" t="str">
+      <c r="E12" s="196" t="str">
         <f>IF(Inputs!E30="","",MAX(Inputs!E30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="F12" s="198" t="str">
+      <c r="F12" s="196" t="str">
         <f>IF(Inputs!F30="","",MAX(Inputs!F30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="G12" s="198" t="str">
+      <c r="G12" s="196" t="str">
         <f>IF(Inputs!G30="","",MAX(Inputs!G30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="H12" s="198" t="str">
+      <c r="H12" s="196" t="str">
         <f>IF(Inputs!H30="","",MAX(Inputs!H30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="I12" s="198" t="str">
+      <c r="I12" s="196" t="str">
         <f>IF(Inputs!I30="","",MAX(Inputs!I30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="J12" s="198" t="str">
+      <c r="J12" s="196" t="str">
         <f>IF(Inputs!J30="","",MAX(Inputs!J30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="K12" s="198" t="str">
+      <c r="K12" s="196" t="str">
         <f>IF(Inputs!K30="","",MAX(Inputs!K30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="L12" s="198" t="str">
+      <c r="L12" s="196" t="str">
         <f>IF(Inputs!L30="","",MAX(Inputs!L30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="M12" s="198" t="str">
+      <c r="M12" s="196" t="str">
         <f>IF(Inputs!M30="","",MAX(Inputs!M30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="N12" s="87"/>
+      <c r="N12" s="86"/>
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
-      <c r="B13" s="225" t="s">
-        <v>226</v>
-      </c>
-      <c r="C13" s="226">
+      <c r="B13" s="223" t="s">
+        <v>225</v>
+      </c>
+      <c r="C13" s="224">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
         <v>0.2099200315896334</v>
       </c>
-      <c r="D13" s="226">
+      <c r="D13" s="224">
         <f t="shared" si="3"/>
         <v>4.7444932000862604E-2</v>
       </c>
-      <c r="E13" s="226" t="str">
+      <c r="E13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F13" s="226" t="str">
+      <c r="F13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G13" s="226" t="str">
+      <c r="G13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H13" s="226" t="str">
+      <c r="H13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I13" s="226" t="str">
+      <c r="I13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J13" s="226" t="str">
+      <c r="J13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K13" s="226" t="str">
+      <c r="K13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L13" s="226" t="str">
+      <c r="L13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M13" s="226" t="str">
+      <c r="M13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="N13" s="87"/>
+      <c r="N13" s="86"/>
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
-      <c r="B14" s="225" t="s">
-        <v>218</v>
-      </c>
-      <c r="C14" s="227">
+      <c r="B14" s="223" t="s">
+        <v>217</v>
+      </c>
+      <c r="C14" s="225">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
         <v>1466049353.6300006</v>
       </c>
-      <c r="D14" s="227">
+      <c r="D14" s="225">
         <f t="shared" ref="D14:M14" si="4">IF(D6="","",D9-D10-MAX(D11,0)-MAX(D12,0))</f>
         <v>247193114.02666688</v>
       </c>
-      <c r="E14" s="227" t="str">
+      <c r="E14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="F14" s="227" t="str">
+      <c r="F14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G14" s="227" t="str">
+      <c r="G14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="H14" s="227" t="str">
+      <c r="H14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I14" s="227" t="str">
+      <c r="I14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J14" s="227" t="str">
+      <c r="J14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="K14" s="227" t="str">
+      <c r="K14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L14" s="227" t="str">
+      <c r="L14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M14" s="227" t="str">
+      <c r="M14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="N14" s="87"/>
+      <c r="N14" s="86"/>
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
-      <c r="B15" s="228" t="s">
-        <v>227</v>
-      </c>
-      <c r="C15" s="229">
+      <c r="B15" s="226" t="s">
+        <v>226</v>
+      </c>
+      <c r="C15" s="227">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
         <v>4.9307855698271803</v>
       </c>
-      <c r="D15" s="229" t="str">
+      <c r="D15" s="227" t="str">
         <f t="shared" ref="D15:M15" si="5">IF(E14="","",IF(ABS(D14+E14)=ABS(D14)+ABS(E14),IF(D14&lt;0,-1,1)*(D14-E14)/E14,"Turn"))</f>
         <v/>
       </c>
-      <c r="E15" s="229" t="str">
+      <c r="E15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="F15" s="229" t="str">
+      <c r="F15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="G15" s="229" t="str">
+      <c r="G15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="H15" s="229" t="str">
+      <c r="H15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I15" s="229" t="str">
+      <c r="I15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="J15" s="229" t="str">
+      <c r="J15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K15" s="229" t="str">
+      <c r="K15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L15" s="229" t="str">
+      <c r="L15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M15" s="229" t="str">
+      <c r="M15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="N15" s="87"/>
+      <c r="N15" s="86"/>
     </row>
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
-      <c r="B16" s="97" t="s">
-        <v>106</v>
-      </c>
-      <c r="C16" s="198" t="str">
+      <c r="B16" s="96" t="s">
+        <v>105</v>
+      </c>
+      <c r="C16" s="196" t="str">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
         <v/>
       </c>
-      <c r="D16" s="198" t="str">
+      <c r="D16" s="196" t="str">
         <f>IF(Inputs!D31="","",Inputs!D31)</f>
         <v/>
       </c>
-      <c r="E16" s="198" t="str">
+      <c r="E16" s="196" t="str">
         <f>IF(Inputs!E31="","",Inputs!E31)</f>
         <v/>
       </c>
-      <c r="F16" s="198" t="str">
+      <c r="F16" s="196" t="str">
         <f>IF(Inputs!F31="","",Inputs!F31)</f>
         <v/>
       </c>
-      <c r="G16" s="198" t="str">
+      <c r="G16" s="196" t="str">
         <f>IF(Inputs!G31="","",Inputs!G31)</f>
         <v/>
       </c>
-      <c r="H16" s="198" t="str">
+      <c r="H16" s="196" t="str">
         <f>IF(Inputs!H31="","",Inputs!H31)</f>
         <v/>
       </c>
-      <c r="I16" s="198" t="str">
+      <c r="I16" s="196" t="str">
         <f>IF(Inputs!I31="","",Inputs!I31)</f>
         <v/>
       </c>
-      <c r="J16" s="198" t="str">
+      <c r="J16" s="196" t="str">
         <f>IF(Inputs!J31="","",Inputs!J31)</f>
         <v/>
       </c>
-      <c r="K16" s="198" t="str">
+      <c r="K16" s="196" t="str">
         <f>IF(Inputs!K31="","",Inputs!K31)</f>
         <v/>
       </c>
-      <c r="L16" s="198" t="str">
+      <c r="L16" s="196" t="str">
         <f>IF(Inputs!L31="","",Inputs!L31)</f>
         <v/>
       </c>
-      <c r="M16" s="198" t="str">
+      <c r="M16" s="196" t="str">
         <f>IF(Inputs!M31="","",Inputs!M31)</f>
         <v/>
       </c>
-      <c r="N16" s="87"/>
+      <c r="N16" s="86"/>
     </row>
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
-      <c r="B17" s="97" t="s">
-        <v>238</v>
-      </c>
-      <c r="C17" s="198">
+      <c r="B17" s="96" t="s">
+        <v>236</v>
+      </c>
+      <c r="C17" s="196">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
         <v>15194992.810000001</v>
       </c>
-      <c r="D17" s="198">
+      <c r="D17" s="196">
         <f>IF(Inputs!D29="","",Inputs!D29)</f>
         <v>12415189.01</v>
       </c>
-      <c r="E17" s="198" t="str">
+      <c r="E17" s="196" t="str">
         <f>IF(Inputs!E29="","",Inputs!E29)</f>
         <v/>
       </c>
-      <c r="F17" s="198" t="str">
+      <c r="F17" s="196" t="str">
         <f>IF(Inputs!F29="","",Inputs!F29)</f>
         <v/>
       </c>
-      <c r="G17" s="198" t="str">
+      <c r="G17" s="196" t="str">
         <f>IF(Inputs!G29="","",Inputs!G29)</f>
         <v/>
       </c>
-      <c r="H17" s="198" t="str">
+      <c r="H17" s="196" t="str">
         <f>IF(Inputs!H29="","",Inputs!H29)</f>
         <v/>
       </c>
-      <c r="I17" s="198" t="str">
+      <c r="I17" s="196" t="str">
         <f>IF(Inputs!I29="","",Inputs!I29)</f>
         <v/>
       </c>
-      <c r="J17" s="198" t="str">
+      <c r="J17" s="196" t="str">
         <f>IF(Inputs!J29="","",Inputs!J29)</f>
         <v/>
       </c>
-      <c r="K17" s="198" t="str">
+      <c r="K17" s="196" t="str">
         <f>IF(Inputs!K29="","",Inputs!K29)</f>
         <v/>
       </c>
-      <c r="L17" s="198" t="str">
+      <c r="L17" s="196" t="str">
         <f>IF(Inputs!L29="","",Inputs!L29)</f>
         <v/>
       </c>
-      <c r="M17" s="198" t="str">
+      <c r="M17" s="196" t="str">
         <f>IF(Inputs!M29="","",Inputs!M29)</f>
         <v/>
       </c>
-      <c r="N17" s="87"/>
+      <c r="N17" s="86"/>
     </row>
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
-      <c r="B18" s="94" t="s">
-        <v>95</v>
-      </c>
-      <c r="C18" s="151" t="str">
+      <c r="B18" s="93" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" s="150" t="str">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
         <v/>
       </c>
-      <c r="D18" s="151" t="str">
+      <c r="D18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="E18" s="151" t="str">
+      <c r="E18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F18" s="151" t="str">
+      <c r="F18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="G18" s="151" t="str">
+      <c r="G18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H18" s="151" t="str">
+      <c r="H18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I18" s="151" t="str">
+      <c r="I18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J18" s="151" t="str">
+      <c r="J18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="K18" s="151" t="str">
+      <c r="K18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L18" s="151" t="str">
+      <c r="L18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="M18" s="151" t="str">
+      <c r="M18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="N18" s="87"/>
+      <c r="N18" s="86"/>
     </row>
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
-      <c r="B19" s="97" t="s">
-        <v>101</v>
-      </c>
-      <c r="C19" s="198" t="str">
+      <c r="B19" s="96" t="s">
+        <v>100</v>
+      </c>
+      <c r="C19" s="196" t="str">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
         <v/>
       </c>
-      <c r="D19" s="198" t="str">
+      <c r="D19" s="196" t="str">
         <f>IF(Inputs!D32="","",Inputs!D32)</f>
         <v/>
       </c>
-      <c r="E19" s="198" t="str">
+      <c r="E19" s="196" t="str">
         <f>IF(Inputs!E32="","",Inputs!E32)</f>
         <v/>
       </c>
-      <c r="F19" s="198" t="str">
+      <c r="F19" s="196" t="str">
         <f>IF(Inputs!F32="","",Inputs!F32)</f>
         <v/>
       </c>
-      <c r="G19" s="198" t="str">
+      <c r="G19" s="196" t="str">
         <f>IF(Inputs!G32="","",Inputs!G32)</f>
         <v/>
       </c>
-      <c r="H19" s="198" t="str">
+      <c r="H19" s="196" t="str">
         <f>IF(Inputs!H32="","",Inputs!H32)</f>
         <v/>
       </c>
-      <c r="I19" s="198" t="str">
+      <c r="I19" s="196" t="str">
         <f>IF(Inputs!I32="","",Inputs!I32)</f>
         <v/>
       </c>
-      <c r="J19" s="198" t="str">
+      <c r="J19" s="196" t="str">
         <f>IF(Inputs!J32="","",Inputs!J32)</f>
         <v/>
       </c>
-      <c r="K19" s="198" t="str">
+      <c r="K19" s="196" t="str">
         <f>IF(Inputs!K32="","",Inputs!K32)</f>
         <v/>
       </c>
-      <c r="L19" s="198" t="str">
+      <c r="L19" s="196" t="str">
         <f>IF(Inputs!L32="","",Inputs!L32)</f>
         <v/>
       </c>
-      <c r="M19" s="198" t="str">
+      <c r="M19" s="196" t="str">
         <f>IF(Inputs!M32="","",Inputs!M32)</f>
         <v/>
       </c>
-      <c r="N19" s="87"/>
+      <c r="N19" s="86"/>
     </row>
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
-      <c r="B20" s="97" t="s">
-        <v>220</v>
-      </c>
-      <c r="C20" s="151">
+      <c r="B20" s="96" t="s">
+        <v>219</v>
+      </c>
+      <c r="C20" s="150">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D20" s="151">
+      <c r="D20" s="150">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E20" s="151" t="str">
+      <c r="E20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="F20" s="151" t="str">
+      <c r="F20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G20" s="151" t="str">
+      <c r="G20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="H20" s="151" t="str">
+      <c r="H20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="I20" s="151" t="str">
+      <c r="I20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="J20" s="151" t="str">
+      <c r="J20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="K20" s="151" t="str">
+      <c r="K20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L20" s="151" t="str">
+      <c r="L20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M20" s="151" t="str">
+      <c r="M20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="N20" s="87"/>
+      <c r="N20" s="86"/>
     </row>
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
-      <c r="B21" s="97" t="s">
-        <v>104</v>
-      </c>
-      <c r="C21" s="198" t="str">
+      <c r="B21" s="96" t="s">
+        <v>103</v>
+      </c>
+      <c r="C21" s="196" t="str">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
         <v/>
       </c>
-      <c r="D21" s="198" t="str">
+      <c r="D21" s="196" t="str">
         <f>IF(Inputs!D33="","",Inputs!D33)</f>
         <v/>
       </c>
-      <c r="E21" s="198" t="str">
+      <c r="E21" s="196" t="str">
         <f>IF(Inputs!E33="","",Inputs!E33)</f>
         <v/>
       </c>
-      <c r="F21" s="198" t="str">
+      <c r="F21" s="196" t="str">
         <f>IF(Inputs!F33="","",Inputs!F33)</f>
         <v/>
       </c>
-      <c r="G21" s="198" t="str">
+      <c r="G21" s="196" t="str">
         <f>IF(Inputs!G33="","",Inputs!G33)</f>
         <v/>
       </c>
-      <c r="H21" s="198" t="str">
+      <c r="H21" s="196" t="str">
         <f>IF(Inputs!H33="","",Inputs!H33)</f>
         <v/>
       </c>
-      <c r="I21" s="198" t="str">
+      <c r="I21" s="196" t="str">
         <f>IF(Inputs!I33="","",Inputs!I33)</f>
         <v/>
       </c>
-      <c r="J21" s="198" t="str">
+      <c r="J21" s="196" t="str">
         <f>IF(Inputs!J33="","",Inputs!J33)</f>
         <v/>
       </c>
-      <c r="K21" s="198" t="str">
+      <c r="K21" s="196" t="str">
         <f>IF(Inputs!K33="","",Inputs!K33)</f>
         <v/>
       </c>
-      <c r="L21" s="198" t="str">
+      <c r="L21" s="196" t="str">
         <f>IF(Inputs!L33="","",Inputs!L33)</f>
         <v/>
       </c>
-      <c r="M21" s="198" t="str">
+      <c r="M21" s="196" t="str">
         <f>IF(Inputs!M33="","",Inputs!M33)</f>
         <v/>
       </c>
-      <c r="N21" s="87"/>
+      <c r="N21" s="86"/>
     </row>
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
-      <c r="B22" s="98" t="s">
-        <v>108</v>
-      </c>
-      <c r="C22" s="160">
+      <c r="B22" s="97" t="s">
+        <v>107</v>
+      </c>
+      <c r="C22" s="158">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
         <v>1450854360.8200006</v>
       </c>
-      <c r="D22" s="160">
+      <c r="D22" s="158">
         <f t="shared" ref="D22:M22" si="8">IF(D6="","",D14-MAX(D16,0)-MAX(D17,0)-ABS(MAX(D21,0)-MAX(D19,0)))</f>
         <v>234777925.01666689</v>
       </c>
-      <c r="E22" s="160" t="str">
+      <c r="E22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="F22" s="160" t="str">
+      <c r="F22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="G22" s="160" t="str">
+      <c r="G22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="H22" s="160" t="str">
+      <c r="H22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="I22" s="160" t="str">
+      <c r="I22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="J22" s="160" t="str">
+      <c r="J22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="K22" s="160" t="str">
+      <c r="K22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="L22" s="160" t="str">
+      <c r="L22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="M22" s="160" t="str">
+      <c r="M22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="N22" s="87"/>
+      <c r="N22" s="86"/>
     </row>
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4"/>
-      <c r="B23" s="100" t="s">
-        <v>109</v>
-      </c>
-      <c r="C23" s="152">
+      <c r="B23" s="99" t="s">
+        <v>108</v>
+      </c>
+      <c r="C23" s="151">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
         <v>0.15580822321969243</v>
       </c>
-      <c r="D23" s="152">
+      <c r="D23" s="151">
         <f t="shared" si="9"/>
         <v>3.3796519974615018E-2</v>
       </c>
-      <c r="E23" s="152" t="str">
+      <c r="E23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="F23" s="152" t="str">
+      <c r="F23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="G23" s="152" t="str">
+      <c r="G23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="H23" s="152" t="str">
+      <c r="H23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="I23" s="152" t="str">
+      <c r="I23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="J23" s="152" t="str">
+      <c r="J23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="K23" s="152" t="str">
+      <c r="K23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L23" s="152" t="str">
+      <c r="L23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="M23" s="152" t="str">
+      <c r="M23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="N23" s="87"/>
+      <c r="N23" s="86"/>
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4"/>
-      <c r="B24" s="101" t="s">
-        <v>110</v>
-      </c>
-      <c r="C24" s="153">
+      <c r="B24" s="100" t="s">
+        <v>109</v>
+      </c>
+      <c r="C24" s="152">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
         <v>1088140770.6150005</v>
       </c>
@@ -6666,63 +6661,63 @@
         <f>IF(M6="","",M22*(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="N24" s="87"/>
+      <c r="N24" s="86"/>
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
-      <c r="B25" s="231" t="s">
-        <v>123</v>
-      </c>
-      <c r="C25" s="230">
+      <c r="B25" s="229" t="s">
+        <v>122</v>
+      </c>
+      <c r="C25" s="228">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
         <v>5.1796881487772088</v>
       </c>
-      <c r="D25" s="230" t="str">
+      <c r="D25" s="228" t="str">
         <f t="shared" ref="D25:M25" si="10">IF(E24="","",IF(ABS(D24+E24)=ABS(D24)+ABS(E24),IF(D24&lt;0,-1,1)*(D24-E24)/E24,"Turn"))</f>
         <v/>
       </c>
-      <c r="E25" s="230" t="str">
+      <c r="E25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="F25" s="230" t="str">
+      <c r="F25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G25" s="230" t="str">
+      <c r="G25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="H25" s="230" t="str">
+      <c r="H25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I25" s="230" t="str">
+      <c r="I25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="J25" s="230" t="str">
+      <c r="J25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="K25" s="230" t="str">
+      <c r="K25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="L25" s="230" t="str">
+      <c r="L25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="M25" s="230" t="str">
+      <c r="M25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="N25" s="87"/>
+      <c r="N25" s="86"/>
     </row>
     <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
-      <c r="B26" s="114" t="s">
-        <v>129</v>
+      <c r="B26" s="113" t="s">
+        <v>128</v>
       </c>
       <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
@@ -6768,11 +6763,11 @@
         <f t="shared" ref="M26" si="19">EOMONTH(EDATE(L26,-12),0)</f>
         <v>41639</v>
       </c>
-      <c r="N26" s="87"/>
+      <c r="N26" s="86"/>
     </row>
     <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="4"/>
-      <c r="B27" s="94" t="s">
+      <c r="B27" s="93" t="s">
         <v>13</v>
       </c>
       <c r="C27" s="65">
@@ -6819,266 +6814,266 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="N27" s="87"/>
+      <c r="N27" s="86"/>
     </row>
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
-      <c r="B28" s="94" t="s">
-        <v>112</v>
+      <c r="B28" s="93" t="s">
+        <v>111</v>
       </c>
       <c r="C28" s="65">
         <f>Fin_Analysis!C13</f>
         <v>0</v>
       </c>
-      <c r="D28" s="198" t="str">
+      <c r="D28" s="196" t="str">
         <f>IF(Inputs!D35="","",Inputs!D35)</f>
         <v/>
       </c>
-      <c r="E28" s="198" t="str">
+      <c r="E28" s="196" t="str">
         <f>IF(Inputs!E35="","",Inputs!E35)</f>
         <v/>
       </c>
-      <c r="F28" s="198" t="str">
+      <c r="F28" s="196" t="str">
         <f>IF(Inputs!F35="","",Inputs!F35)</f>
         <v/>
       </c>
-      <c r="G28" s="198" t="str">
+      <c r="G28" s="196" t="str">
         <f>IF(Inputs!G35="","",Inputs!G35)</f>
         <v/>
       </c>
-      <c r="H28" s="198" t="str">
+      <c r="H28" s="196" t="str">
         <f>IF(Inputs!H35="","",Inputs!H35)</f>
         <v/>
       </c>
-      <c r="I28" s="198" t="str">
+      <c r="I28" s="196" t="str">
         <f>IF(Inputs!I35="","",Inputs!I35)</f>
         <v/>
       </c>
-      <c r="J28" s="198" t="str">
+      <c r="J28" s="196" t="str">
         <f>IF(Inputs!J35="","",Inputs!J35)</f>
         <v/>
       </c>
-      <c r="K28" s="198" t="str">
+      <c r="K28" s="196" t="str">
         <f>IF(Inputs!K35="","",Inputs!K35)</f>
         <v/>
       </c>
-      <c r="L28" s="198" t="str">
+      <c r="L28" s="196" t="str">
         <f>IF(Inputs!L35="","",Inputs!L35)</f>
         <v/>
       </c>
-      <c r="M28" s="198" t="str">
+      <c r="M28" s="196" t="str">
         <f>IF(Inputs!M35="","",Inputs!M35)</f>
         <v/>
       </c>
-      <c r="N28" s="87"/>
+      <c r="N28" s="86"/>
     </row>
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
-      <c r="B29" s="94" t="s">
-        <v>141</v>
+      <c r="B29" s="93" t="s">
+        <v>140</v>
       </c>
       <c r="C29" s="65">
         <f>Fin_Analysis!C18</f>
         <v>0</v>
       </c>
-      <c r="D29" s="198" t="str">
+      <c r="D29" s="196" t="str">
         <f>IF(Inputs!D36="","",Inputs!D36)</f>
         <v/>
       </c>
-      <c r="E29" s="198" t="str">
+      <c r="E29" s="196" t="str">
         <f>IF(Inputs!E36="","",Inputs!E36)</f>
         <v/>
       </c>
-      <c r="F29" s="198" t="str">
+      <c r="F29" s="196" t="str">
         <f>IF(Inputs!F36="","",Inputs!F36)</f>
         <v/>
       </c>
-      <c r="G29" s="198" t="str">
+      <c r="G29" s="196" t="str">
         <f>IF(Inputs!G36="","",Inputs!G36)</f>
         <v/>
       </c>
-      <c r="H29" s="198" t="str">
+      <c r="H29" s="196" t="str">
         <f>IF(Inputs!H36="","",Inputs!H36)</f>
         <v/>
       </c>
-      <c r="I29" s="198" t="str">
+      <c r="I29" s="196" t="str">
         <f>IF(Inputs!I36="","",Inputs!I36)</f>
         <v/>
       </c>
-      <c r="J29" s="198" t="str">
+      <c r="J29" s="196" t="str">
         <f>IF(Inputs!J36="","",Inputs!J36)</f>
         <v/>
       </c>
-      <c r="K29" s="198" t="str">
+      <c r="K29" s="196" t="str">
         <f>IF(Inputs!K36="","",Inputs!K36)</f>
         <v/>
       </c>
-      <c r="L29" s="198" t="str">
+      <c r="L29" s="196" t="str">
         <f>IF(Inputs!L36="","",Inputs!L36)</f>
         <v/>
       </c>
-      <c r="M29" s="198" t="str">
+      <c r="M29" s="196" t="str">
         <f>IF(Inputs!M36="","",Inputs!M36)</f>
         <v/>
       </c>
-      <c r="N29" s="87"/>
+      <c r="N29" s="86"/>
     </row>
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
-      <c r="B30" s="94" t="s">
-        <v>260</v>
+      <c r="B30" s="93" t="s">
+        <v>258</v>
       </c>
       <c r="C30" s="65">
         <f>Inputs!C37</f>
         <v>0</v>
       </c>
-      <c r="D30" s="198" t="str">
+      <c r="D30" s="196" t="str">
         <f>IF(Inputs!D37="","",Inputs!D37)</f>
         <v/>
       </c>
-      <c r="E30" s="198" t="str">
+      <c r="E30" s="196" t="str">
         <f>IF(Inputs!E37="","",Inputs!E37)</f>
         <v/>
       </c>
-      <c r="F30" s="198" t="str">
+      <c r="F30" s="196" t="str">
         <f>IF(Inputs!F37="","",Inputs!F37)</f>
         <v/>
       </c>
-      <c r="G30" s="198" t="str">
+      <c r="G30" s="196" t="str">
         <f>IF(Inputs!G37="","",Inputs!G37)</f>
         <v/>
       </c>
-      <c r="H30" s="198" t="str">
+      <c r="H30" s="196" t="str">
         <f>IF(Inputs!H37="","",Inputs!H37)</f>
         <v/>
       </c>
-      <c r="I30" s="198" t="str">
+      <c r="I30" s="196" t="str">
         <f>IF(Inputs!I37="","",Inputs!I37)</f>
         <v/>
       </c>
-      <c r="J30" s="198" t="str">
+      <c r="J30" s="196" t="str">
         <f>IF(Inputs!J37="","",Inputs!J37)</f>
         <v/>
       </c>
-      <c r="K30" s="198" t="str">
+      <c r="K30" s="196" t="str">
         <f>IF(Inputs!K37="","",Inputs!K37)</f>
         <v/>
       </c>
-      <c r="L30" s="198" t="str">
+      <c r="L30" s="196" t="str">
         <f>IF(Inputs!L37="","",Inputs!L37)</f>
         <v/>
       </c>
-      <c r="M30" s="198" t="str">
+      <c r="M30" s="196" t="str">
         <f>IF(Inputs!M37="","",Inputs!M37)</f>
         <v/>
       </c>
-      <c r="N30" s="87"/>
+      <c r="N30" s="86"/>
     </row>
     <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
-      <c r="B31" s="94" t="s">
+      <c r="B31" s="93" t="s">
         <v>16</v>
       </c>
       <c r="C31" s="65">
         <f>Fin_Analysis!I15</f>
         <v>0</v>
       </c>
-      <c r="D31" s="198" t="str">
+      <c r="D31" s="196" t="str">
         <f>IF(Inputs!D39="","",Inputs!D39)</f>
         <v/>
       </c>
-      <c r="E31" s="198" t="str">
+      <c r="E31" s="196" t="str">
         <f>IF(Inputs!E39="","",Inputs!E39)</f>
         <v/>
       </c>
-      <c r="F31" s="198" t="str">
+      <c r="F31" s="196" t="str">
         <f>IF(Inputs!F39="","",Inputs!F39)</f>
         <v/>
       </c>
-      <c r="G31" s="198" t="str">
+      <c r="G31" s="196" t="str">
         <f>IF(Inputs!G39="","",Inputs!G39)</f>
         <v/>
       </c>
-      <c r="H31" s="198" t="str">
+      <c r="H31" s="196" t="str">
         <f>IF(Inputs!H39="","",Inputs!H39)</f>
         <v/>
       </c>
-      <c r="I31" s="198" t="str">
+      <c r="I31" s="196" t="str">
         <f>IF(Inputs!I39="","",Inputs!I39)</f>
         <v/>
       </c>
-      <c r="J31" s="198" t="str">
+      <c r="J31" s="196" t="str">
         <f>IF(Inputs!J39="","",Inputs!J39)</f>
         <v/>
       </c>
-      <c r="K31" s="198" t="str">
+      <c r="K31" s="196" t="str">
         <f>IF(Inputs!K39="","",Inputs!K39)</f>
         <v/>
       </c>
-      <c r="L31" s="198" t="str">
+      <c r="L31" s="196" t="str">
         <f>IF(Inputs!L39="","",Inputs!L39)</f>
         <v/>
       </c>
-      <c r="M31" s="198" t="str">
+      <c r="M31" s="196" t="str">
         <f>IF(Inputs!M39="","",Inputs!M39)</f>
         <v/>
       </c>
-      <c r="N31" s="87"/>
+      <c r="N31" s="86"/>
     </row>
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
-      <c r="B32" s="94" t="s">
+      <c r="B32" s="93" t="s">
         <v>17</v>
       </c>
       <c r="C32" s="65">
         <f>Fin_Analysis!I34</f>
         <v>0</v>
       </c>
-      <c r="D32" s="198" t="str">
+      <c r="D32" s="196" t="str">
         <f>IF(Inputs!D40="","",Inputs!D40)</f>
         <v/>
       </c>
-      <c r="E32" s="198" t="str">
+      <c r="E32" s="196" t="str">
         <f>IF(Inputs!E40="","",Inputs!E40)</f>
         <v/>
       </c>
-      <c r="F32" s="198" t="str">
+      <c r="F32" s="196" t="str">
         <f>IF(Inputs!F40="","",Inputs!F40)</f>
         <v/>
       </c>
-      <c r="G32" s="198" t="str">
+      <c r="G32" s="196" t="str">
         <f>IF(Inputs!G40="","",Inputs!G40)</f>
         <v/>
       </c>
-      <c r="H32" s="198" t="str">
+      <c r="H32" s="196" t="str">
         <f>IF(Inputs!H40="","",Inputs!H40)</f>
         <v/>
       </c>
-      <c r="I32" s="198" t="str">
+      <c r="I32" s="196" t="str">
         <f>IF(Inputs!I40="","",Inputs!I40)</f>
         <v/>
       </c>
-      <c r="J32" s="198" t="str">
+      <c r="J32" s="196" t="str">
         <f>IF(Inputs!J40="","",Inputs!J40)</f>
         <v/>
       </c>
-      <c r="K32" s="198" t="str">
+      <c r="K32" s="196" t="str">
         <f>IF(Inputs!K40="","",Inputs!K40)</f>
         <v/>
       </c>
-      <c r="L32" s="198" t="str">
+      <c r="L32" s="196" t="str">
         <f>IF(Inputs!L40="","",Inputs!L40)</f>
         <v/>
       </c>
-      <c r="M32" s="198" t="str">
+      <c r="M32" s="196" t="str">
         <f>IF(Inputs!M40="","",Inputs!M40)</f>
         <v/>
       </c>
-      <c r="N32" s="87"/>
+      <c r="N32" s="86"/>
     </row>
     <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
-      <c r="B33" s="94" t="s">
+      <c r="B33" s="93" t="s">
         <v>18</v>
       </c>
       <c r="C33" s="77">
@@ -7125,165 +7120,165 @@
         <f t="shared" ref="M33" si="31">IF(OR(M31="",M32=""),"",M31+M32)</f>
         <v/>
       </c>
-      <c r="N33" s="87"/>
+      <c r="N33" s="86"/>
     </row>
     <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
-      <c r="B34" s="94" t="s">
-        <v>132</v>
+      <c r="B34" s="93" t="s">
+        <v>131</v>
       </c>
       <c r="C34" s="65">
         <f>Inputs!C41</f>
         <v>0</v>
       </c>
-      <c r="D34" s="198" t="str">
+      <c r="D34" s="196" t="str">
         <f>IF(Inputs!D41="","",Inputs!D41)</f>
         <v/>
       </c>
-      <c r="E34" s="198" t="str">
+      <c r="E34" s="196" t="str">
         <f>IF(Inputs!E41="","",Inputs!E41)</f>
         <v/>
       </c>
-      <c r="F34" s="198" t="str">
+      <c r="F34" s="196" t="str">
         <f>IF(Inputs!F41="","",Inputs!F41)</f>
         <v/>
       </c>
-      <c r="G34" s="198" t="str">
+      <c r="G34" s="196" t="str">
         <f>IF(Inputs!G41="","",Inputs!G41)</f>
         <v/>
       </c>
-      <c r="H34" s="198" t="str">
+      <c r="H34" s="196" t="str">
         <f>IF(Inputs!H41="","",Inputs!H41)</f>
         <v/>
       </c>
-      <c r="I34" s="198" t="str">
+      <c r="I34" s="196" t="str">
         <f>IF(Inputs!I41="","",Inputs!I41)</f>
         <v/>
       </c>
-      <c r="J34" s="198" t="str">
+      <c r="J34" s="196" t="str">
         <f>IF(Inputs!J41="","",Inputs!J41)</f>
         <v/>
       </c>
-      <c r="K34" s="198" t="str">
+      <c r="K34" s="196" t="str">
         <f>IF(Inputs!K41="","",Inputs!K41)</f>
         <v/>
       </c>
-      <c r="L34" s="198" t="str">
+      <c r="L34" s="196" t="str">
         <f>IF(Inputs!L41="","",Inputs!L41)</f>
         <v/>
       </c>
-      <c r="M34" s="198" t="str">
+      <c r="M34" s="196" t="str">
         <f>IF(Inputs!M41="","",Inputs!M41)</f>
         <v/>
       </c>
-      <c r="N34" s="87"/>
+      <c r="N34" s="86"/>
     </row>
     <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
-      <c r="B35" s="94" t="s">
-        <v>133</v>
+      <c r="B35" s="93" t="s">
+        <v>132</v>
       </c>
       <c r="C35" s="65">
         <f>Inputs!C42</f>
         <v>0</v>
       </c>
-      <c r="D35" s="198" t="str">
+      <c r="D35" s="196" t="str">
         <f>IF(Inputs!D42="","",Inputs!D42)</f>
         <v/>
       </c>
-      <c r="E35" s="198" t="str">
+      <c r="E35" s="196" t="str">
         <f>IF(Inputs!E42="","",Inputs!E42)</f>
         <v/>
       </c>
-      <c r="F35" s="198" t="str">
+      <c r="F35" s="196" t="str">
         <f>IF(Inputs!F42="","",Inputs!F42)</f>
         <v/>
       </c>
-      <c r="G35" s="198" t="str">
+      <c r="G35" s="196" t="str">
         <f>IF(Inputs!G42="","",Inputs!G42)</f>
         <v/>
       </c>
-      <c r="H35" s="198" t="str">
+      <c r="H35" s="196" t="str">
         <f>IF(Inputs!H42="","",Inputs!H42)</f>
         <v/>
       </c>
-      <c r="I35" s="198" t="str">
+      <c r="I35" s="196" t="str">
         <f>IF(Inputs!I42="","",Inputs!I42)</f>
         <v/>
       </c>
-      <c r="J35" s="198" t="str">
+      <c r="J35" s="196" t="str">
         <f>IF(Inputs!J42="","",Inputs!J42)</f>
         <v/>
       </c>
-      <c r="K35" s="198" t="str">
+      <c r="K35" s="196" t="str">
         <f>IF(Inputs!K42="","",Inputs!K42)</f>
         <v/>
       </c>
-      <c r="L35" s="198" t="str">
+      <c r="L35" s="196" t="str">
         <f>IF(Inputs!L42="","",Inputs!L42)</f>
         <v/>
       </c>
-      <c r="M35" s="198" t="str">
+      <c r="M35" s="196" t="str">
         <f>IF(Inputs!M42="","",Inputs!M42)</f>
         <v/>
       </c>
-      <c r="N35" s="87"/>
+      <c r="N35" s="86"/>
     </row>
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
-      <c r="B36" s="94" t="s">
-        <v>131</v>
+      <c r="B36" s="93" t="s">
+        <v>130</v>
       </c>
       <c r="C36" s="65">
         <f>Inputs!C40</f>
         <v>0</v>
       </c>
-      <c r="D36" s="198" t="str">
+      <c r="D36" s="196" t="str">
         <f>IF(Inputs!D43="","",Inputs!D43)</f>
         <v/>
       </c>
-      <c r="E36" s="198" t="str">
+      <c r="E36" s="196" t="str">
         <f>IF(Inputs!E43="","",Inputs!E43)</f>
         <v/>
       </c>
-      <c r="F36" s="198" t="str">
+      <c r="F36" s="196" t="str">
         <f>IF(Inputs!F43="","",Inputs!F43)</f>
         <v/>
       </c>
-      <c r="G36" s="198" t="str">
+      <c r="G36" s="196" t="str">
         <f>IF(Inputs!G43="","",Inputs!G43)</f>
         <v/>
       </c>
-      <c r="H36" s="198" t="str">
+      <c r="H36" s="196" t="str">
         <f>IF(Inputs!H43="","",Inputs!H43)</f>
         <v/>
       </c>
-      <c r="I36" s="198" t="str">
+      <c r="I36" s="196" t="str">
         <f>IF(Inputs!I43="","",Inputs!I43)</f>
         <v/>
       </c>
-      <c r="J36" s="198" t="str">
+      <c r="J36" s="196" t="str">
         <f>IF(Inputs!J43="","",Inputs!J43)</f>
         <v/>
       </c>
-      <c r="K36" s="198" t="str">
+      <c r="K36" s="196" t="str">
         <f>IF(Inputs!K43="","",Inputs!K43)</f>
         <v/>
       </c>
-      <c r="L36" s="198" t="str">
+      <c r="L36" s="196" t="str">
         <f>IF(Inputs!L43="","",Inputs!L43)</f>
         <v/>
       </c>
-      <c r="M36" s="198" t="str">
+      <c r="M36" s="196" t="str">
         <f>IF(Inputs!M43="","",Inputs!M43)</f>
         <v/>
       </c>
-      <c r="N36" s="87"/>
+      <c r="N36" s="86"/>
     </row>
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
-      <c r="B37" s="94" t="s">
-        <v>135</v>
+      <c r="B37" s="93" t="s">
+        <v>134</v>
       </c>
       <c r="C37" s="65">
         <f>Fin_Analysis!C68</f>
@@ -7329,63 +7324,63 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="N37" s="87"/>
+      <c r="N37" s="86"/>
     </row>
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
-      <c r="B38" s="98" t="s">
-        <v>149</v>
-      </c>
-      <c r="C38" s="154" t="e">
+      <c r="B38" s="97" t="s">
+        <v>148</v>
+      </c>
+      <c r="C38" s="153" t="e">
         <f>IF(C6="","",C14/MAX(C37,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D38" s="154" t="e">
+      <c r="D38" s="153" t="e">
         <f>IF(D6="","",D14/MAX(D37,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E38" s="154" t="str">
+      <c r="E38" s="153" t="str">
         <f>IF(E6="","",E14/MAX(E37,0))</f>
         <v/>
       </c>
-      <c r="F38" s="154" t="str">
+      <c r="F38" s="153" t="str">
         <f t="shared" ref="F38:M38" si="33">IF(F37="","",F14/F37)</f>
         <v/>
       </c>
-      <c r="G38" s="154" t="str">
+      <c r="G38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="H38" s="154" t="str">
+      <c r="H38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="I38" s="154" t="str">
+      <c r="I38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="J38" s="154" t="str">
+      <c r="J38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="K38" s="154" t="str">
+      <c r="K38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="L38" s="154" t="str">
+      <c r="L38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="M38" s="154" t="str">
+      <c r="M38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="N38" s="87"/>
+      <c r="N38" s="86"/>
     </row>
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="16"/>
       <c r="B39" s="55" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C39" s="54"/>
       <c r="D39" s="54"/>
@@ -7398,372 +7393,372 @@
       <c r="K39" s="54"/>
       <c r="L39" s="54"/>
       <c r="M39" s="54"/>
-      <c r="N39" s="87"/>
+      <c r="N39" s="86"/>
     </row>
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
-      <c r="B40" s="95" t="s">
-        <v>94</v>
-      </c>
-      <c r="C40" s="155">
+      <c r="B40" s="94" t="s">
+        <v>93</v>
+      </c>
+      <c r="C40" s="154">
         <f t="shared" ref="C40:M40" si="34">IF(C6="","",C8/C6)</f>
         <v>0.48660635459513968</v>
       </c>
-      <c r="D40" s="155">
+      <c r="D40" s="154">
         <f t="shared" si="34"/>
         <v>0.60694162732677759</v>
       </c>
-      <c r="E40" s="155" t="str">
+      <c r="E40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="F40" s="155" t="str">
+      <c r="F40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="G40" s="155" t="str">
+      <c r="G40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="H40" s="155" t="str">
+      <c r="H40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="I40" s="155" t="str">
+      <c r="I40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="J40" s="155" t="str">
+      <c r="J40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="K40" s="155" t="str">
+      <c r="K40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="L40" s="155" t="str">
+      <c r="L40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="M40" s="155" t="str">
+      <c r="M40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="N40" s="87"/>
+      <c r="N40" s="86"/>
     </row>
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="4"/>
-      <c r="B41" s="94" t="s">
-        <v>219</v>
-      </c>
-      <c r="C41" s="152">
+      <c r="B41" s="93" t="s">
+        <v>218</v>
+      </c>
+      <c r="C41" s="151">
         <f t="shared" ref="C41:M41" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
         <v>0.2941332211490556</v>
       </c>
-      <c r="D41" s="152">
+      <c r="D41" s="151">
         <f t="shared" si="35"/>
         <v>0.33210107591309218</v>
       </c>
-      <c r="E41" s="152" t="str">
+      <c r="E41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="F41" s="152" t="str">
+      <c r="F41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="G41" s="152" t="str">
+      <c r="G41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="H41" s="152" t="str">
+      <c r="H41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="I41" s="152" t="str">
+      <c r="I41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="J41" s="152" t="str">
+      <c r="J41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="K41" s="152" t="str">
+      <c r="K41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L41" s="152" t="str">
+      <c r="L41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="M41" s="152" t="str">
+      <c r="M41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="N41" s="87"/>
+      <c r="N41" s="86"/>
     </row>
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
-      <c r="B42" s="94" t="s">
-        <v>105</v>
-      </c>
-      <c r="C42" s="152">
+      <c r="B42" s="93" t="s">
+        <v>104</v>
+      </c>
+      <c r="C42" s="151">
         <f t="shared" ref="C42:M42" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D42" s="152">
+      <c r="D42" s="151">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="E42" s="152" t="str">
+      <c r="E42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="F42" s="152" t="str">
+      <c r="F42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="G42" s="152" t="str">
+      <c r="G42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="H42" s="152" t="str">
+      <c r="H42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="I42" s="152" t="str">
+      <c r="I42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="J42" s="152" t="str">
+      <c r="J42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="K42" s="152" t="str">
+      <c r="K42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="L42" s="152" t="str">
+      <c r="L42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="M42" s="152" t="str">
+      <c r="M42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="N42" s="87"/>
+      <c r="N42" s="86"/>
     </row>
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
-      <c r="B43" s="94" t="s">
-        <v>117</v>
-      </c>
-      <c r="C43" s="152">
+      <c r="B43" s="93" t="s">
+        <v>116</v>
+      </c>
+      <c r="C43" s="151">
         <f t="shared" ref="C43:M43" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
         <v>2.1757339633768379E-3</v>
       </c>
-      <c r="D43" s="152">
+      <c r="D43" s="151">
         <f t="shared" si="37"/>
         <v>2.3829053680425824E-3</v>
       </c>
-      <c r="E43" s="152" t="str">
+      <c r="E43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="F43" s="152" t="str">
+      <c r="F43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="G43" s="152" t="str">
+      <c r="G43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="H43" s="152" t="str">
+      <c r="H43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="I43" s="152" t="str">
+      <c r="I43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="J43" s="152" t="str">
+      <c r="J43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="K43" s="152" t="str">
+      <c r="K43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="L43" s="152" t="str">
+      <c r="L43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="M43" s="152" t="str">
+      <c r="M43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="N43" s="87"/>
+      <c r="N43" s="86"/>
     </row>
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
-      <c r="B44" s="94" t="s">
-        <v>124</v>
-      </c>
-      <c r="C44" s="152">
+      <c r="B44" s="93" t="s">
+        <v>123</v>
+      </c>
+      <c r="C44" s="151">
         <f t="shared" ref="C44:M44" si="38">IF(C6="","",MAX(C12,0)/C6)</f>
         <v>9.3403926661713623E-3</v>
       </c>
-      <c r="D44" s="152">
+      <c r="D44" s="151">
         <f t="shared" si="38"/>
         <v>1.3512364759267613E-2</v>
       </c>
-      <c r="E44" s="152" t="str">
+      <c r="E44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="F44" s="152" t="str">
+      <c r="F44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="G44" s="152" t="str">
+      <c r="G44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="H44" s="152" t="str">
+      <c r="H44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="I44" s="152" t="str">
+      <c r="I44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="J44" s="152" t="str">
+      <c r="J44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="K44" s="152" t="str">
+      <c r="K44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="L44" s="152" t="str">
+      <c r="L44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="M44" s="152" t="str">
+      <c r="M44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="N44" s="87"/>
+      <c r="N44" s="86"/>
     </row>
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
-      <c r="B45" s="94" t="s">
-        <v>221</v>
-      </c>
-      <c r="C45" s="152">
+      <c r="B45" s="93" t="s">
+        <v>220</v>
+      </c>
+      <c r="C45" s="151">
         <f t="shared" ref="C45:M45" si="39">IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
         <v>0</v>
       </c>
-      <c r="D45" s="152">
+      <c r="D45" s="151">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="E45" s="152" t="str">
+      <c r="E45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="F45" s="152" t="str">
+      <c r="F45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="G45" s="152" t="str">
+      <c r="G45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="H45" s="152" t="str">
+      <c r="H45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="I45" s="152" t="str">
+      <c r="I45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="J45" s="152" t="str">
+      <c r="J45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="K45" s="152" t="str">
+      <c r="K45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="L45" s="152" t="str">
+      <c r="L45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="M45" s="152" t="str">
+      <c r="M45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="N45" s="87"/>
+      <c r="N45" s="86"/>
     </row>
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
-      <c r="B46" s="94" t="s">
-        <v>119</v>
-      </c>
-      <c r="C46" s="152">
+      <c r="B46" s="93" t="s">
+        <v>118</v>
+      </c>
+      <c r="C46" s="151">
         <f t="shared" ref="C46:M46" si="40">IF(C6="","",C22/C6)</f>
         <v>0.20774429762625657</v>
       </c>
-      <c r="D46" s="152">
+      <c r="D46" s="151">
         <f t="shared" si="40"/>
         <v>4.5062026632820024E-2</v>
       </c>
-      <c r="E46" s="152" t="str">
+      <c r="E46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="F46" s="152" t="str">
+      <c r="F46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="G46" s="152" t="str">
+      <c r="G46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="H46" s="152" t="str">
+      <c r="H46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="I46" s="152" t="str">
+      <c r="I46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="J46" s="152" t="str">
+      <c r="J46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="K46" s="152" t="str">
+      <c r="K46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="L46" s="152" t="str">
+      <c r="L46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="M46" s="152" t="str">
+      <c r="M46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="N46" s="87"/>
+      <c r="N46" s="86"/>
     </row>
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="16"/>
-      <c r="B47" s="102" t="s">
-        <v>246</v>
-      </c>
-      <c r="C47" s="280" t="s">
-        <v>264</v>
+      <c r="B47" s="101" t="s">
+        <v>244</v>
+      </c>
+      <c r="C47" s="278" t="s">
+        <v>261</v>
       </c>
       <c r="D47" s="36"/>
       <c r="E47" s="36"/>
@@ -7775,216 +7770,216 @@
       <c r="K47" s="36"/>
       <c r="L47" s="36"/>
       <c r="M47" s="36"/>
-      <c r="N47" s="87"/>
+      <c r="N47" s="86"/>
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
-      <c r="B48" s="268" t="s">
-        <v>252</v>
-      </c>
-      <c r="C48" s="269" t="e">
+      <c r="B48" s="266" t="s">
+        <v>250</v>
+      </c>
+      <c r="C48" s="267" t="e">
         <f t="shared" ref="C48:M48" si="41">IF(C6="","",C6/C27)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D48" s="269" t="e">
+      <c r="D48" s="267" t="e">
         <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E48" s="269" t="str">
+      <c r="E48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="F48" s="269" t="str">
+      <c r="F48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="G48" s="269" t="str">
+      <c r="G48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="H48" s="269" t="str">
+      <c r="H48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="I48" s="269" t="str">
+      <c r="I48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="J48" s="269" t="str">
+      <c r="J48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="K48" s="269" t="str">
+      <c r="K48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="L48" s="269" t="str">
+      <c r="L48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="M48" s="269" t="str">
+      <c r="M48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="N48" s="87"/>
+      <c r="N48" s="86"/>
     </row>
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="4"/>
-      <c r="B49" s="94" t="s">
-        <v>253</v>
-      </c>
-      <c r="C49" s="152">
+      <c r="B49" s="93" t="s">
+        <v>251</v>
+      </c>
+      <c r="C49" s="151">
         <f t="shared" ref="C49:M49" si="42">IF(C28="","",C28/C6)</f>
         <v>0</v>
       </c>
-      <c r="D49" s="152" t="str">
+      <c r="D49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="E49" s="152" t="str">
+      <c r="E49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="F49" s="152" t="str">
+      <c r="F49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="G49" s="152" t="str">
+      <c r="G49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="H49" s="152" t="str">
+      <c r="H49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="I49" s="152" t="str">
+      <c r="I49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="J49" s="152" t="str">
+      <c r="J49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="K49" s="152" t="str">
+      <c r="K49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="L49" s="152" t="str">
+      <c r="L49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="M49" s="152" t="str">
+      <c r="M49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="N49" s="87"/>
+      <c r="N49" s="86"/>
     </row>
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
-      <c r="B50" s="94" t="s">
-        <v>254</v>
-      </c>
-      <c r="C50" s="152">
+      <c r="B50" s="93" t="s">
+        <v>252</v>
+      </c>
+      <c r="C50" s="151">
         <f t="shared" ref="C50:M50" si="43">IF(C29="","",C29/C6)</f>
         <v>0</v>
       </c>
-      <c r="D50" s="152" t="str">
+      <c r="D50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="E50" s="152" t="str">
+      <c r="E50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="F50" s="152" t="str">
+      <c r="F50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="G50" s="152" t="str">
+      <c r="G50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="H50" s="152" t="str">
+      <c r="H50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="I50" s="152" t="str">
+      <c r="I50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="J50" s="152" t="str">
+      <c r="J50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="K50" s="152" t="str">
+      <c r="K50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="L50" s="152" t="str">
+      <c r="L50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="M50" s="152" t="str">
+      <c r="M50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="N50" s="87"/>
+      <c r="N50" s="86"/>
     </row>
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
-      <c r="B51" s="94" t="s">
-        <v>244</v>
-      </c>
-      <c r="C51" s="152" t="e">
+      <c r="B51" s="93" t="s">
+        <v>242</v>
+      </c>
+      <c r="C51" s="151" t="e">
         <f t="shared" ref="C51:M51" si="44">IF(D6="","",C16/(C6-D6))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D51" s="152" t="str">
+      <c r="D51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="E51" s="152" t="str">
+      <c r="E51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="F51" s="152" t="str">
+      <c r="F51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="G51" s="152" t="str">
+      <c r="G51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="H51" s="152" t="str">
+      <c r="H51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="I51" s="152" t="str">
+      <c r="I51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="J51" s="152" t="str">
+      <c r="J51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="K51" s="152" t="str">
+      <c r="K51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="L51" s="152" t="str">
+      <c r="L51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="M51" s="152" t="str">
+      <c r="M51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="N51" s="87"/>
+      <c r="N51" s="86"/>
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="16"/>
-      <c r="B52" s="102" t="s">
-        <v>247</v>
+      <c r="B52" s="101" t="s">
+        <v>245</v>
       </c>
       <c r="C52" s="36"/>
       <c r="D52" s="36"/>
@@ -8000,350 +7995,350 @@
     </row>
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
-      <c r="B53" s="95" t="s">
-        <v>248</v>
-      </c>
-      <c r="C53" s="155" t="e">
+      <c r="B53" s="94" t="s">
+        <v>246</v>
+      </c>
+      <c r="C53" s="154" t="e">
         <f t="shared" ref="C53:M53" si="45">IF(C34="","",(C34-C35)/C27)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D53" s="155" t="str">
+      <c r="D53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="E53" s="155" t="str">
+      <c r="E53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="F53" s="155" t="str">
+      <c r="F53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="G53" s="155" t="str">
+      <c r="G53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H53" s="155" t="str">
+      <c r="H53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I53" s="155" t="str">
+      <c r="I53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J53" s="155" t="str">
+      <c r="J53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K53" s="155" t="str">
+      <c r="K53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L53" s="155" t="str">
+      <c r="L53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="M53" s="155" t="str">
+      <c r="M53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
     </row>
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="4"/>
-      <c r="B54" s="94" t="s">
-        <v>116</v>
-      </c>
-      <c r="C54" s="156" t="str">
+      <c r="B54" s="93" t="s">
+        <v>115</v>
+      </c>
+      <c r="C54" s="155" t="str">
         <f t="shared" ref="C54:M54" si="46">IF(OR(C22="",C33=""),"",IF(C33&lt;=0,"-",C22/C33))</f>
         <v>-</v>
       </c>
-      <c r="D54" s="156" t="str">
+      <c r="D54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="E54" s="156" t="str">
+      <c r="E54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="F54" s="156" t="str">
+      <c r="F54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="G54" s="156" t="str">
+      <c r="G54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="H54" s="156" t="str">
+      <c r="H54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="I54" s="156" t="str">
+      <c r="I54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="J54" s="156" t="str">
+      <c r="J54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="K54" s="156" t="str">
+      <c r="K54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="L54" s="156" t="str">
+      <c r="L54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="M54" s="156" t="str">
+      <c r="M54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
     </row>
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
-      <c r="B55" s="94" t="s">
-        <v>118</v>
-      </c>
-      <c r="C55" s="152">
+      <c r="B55" s="93" t="s">
+        <v>117</v>
+      </c>
+      <c r="C55" s="151">
         <f t="shared" ref="C55:M55" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
         <v>1.0473134465000349E-2</v>
       </c>
-      <c r="D55" s="152">
+      <c r="D55" s="151">
         <f t="shared" si="47"/>
         <v>5.2880563660823929E-2</v>
       </c>
-      <c r="E55" s="152" t="str">
+      <c r="E55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="F55" s="152" t="str">
+      <c r="F55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="G55" s="152" t="str">
+      <c r="G55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="H55" s="152" t="str">
+      <c r="H55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="I55" s="152" t="str">
+      <c r="I55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="J55" s="152" t="str">
+      <c r="J55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="K55" s="152" t="str">
+      <c r="K55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="L55" s="152" t="str">
+      <c r="L55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="M55" s="152" t="str">
+      <c r="M55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
-      <c r="B56" s="98" t="s">
-        <v>19</v>
-      </c>
-      <c r="C56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/C30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/D30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/E30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/F30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/G30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/H30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/I30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/J30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/K30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/L30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/M30)</f>
-        <v>#REF!</v>
+      <c r="B56" s="93" t="s">
+        <v>265</v>
+      </c>
+      <c r="C56" s="151">
+        <f>IF(C34="","",IF(Inputs!C38=0,0,Inputs!C38/C27))</f>
+        <v>0</v>
+      </c>
+      <c r="D56" s="151" t="str">
+        <f>IF(D34="","",IF(Inputs!D38=0,0,Inputs!D38/D27))</f>
+        <v/>
+      </c>
+      <c r="E56" s="151" t="str">
+        <f>IF(E34="","",IF(Inputs!E38=0,0,Inputs!E38/E27))</f>
+        <v/>
+      </c>
+      <c r="F56" s="151" t="str">
+        <f>IF(F34="","",IF(Inputs!F38=0,0,Inputs!F38/F27))</f>
+        <v/>
+      </c>
+      <c r="G56" s="151" t="str">
+        <f>IF(G34="","",IF(Inputs!G38=0,0,Inputs!G38/G27))</f>
+        <v/>
+      </c>
+      <c r="H56" s="151" t="str">
+        <f>IF(H34="","",IF(Inputs!H38=0,0,Inputs!H38/H27))</f>
+        <v/>
+      </c>
+      <c r="I56" s="151" t="str">
+        <f>IF(I34="","",IF(Inputs!I38=0,0,Inputs!I38/I27))</f>
+        <v/>
+      </c>
+      <c r="J56" s="151" t="str">
+        <f>IF(J34="","",IF(Inputs!J38=0,0,Inputs!J38/J27))</f>
+        <v/>
+      </c>
+      <c r="K56" s="151" t="str">
+        <f>IF(K34="","",IF(Inputs!K38=0,0,Inputs!K38/K27))</f>
+        <v/>
+      </c>
+      <c r="L56" s="151" t="str">
+        <f>IF(L34="","",IF(Inputs!L38=0,0,Inputs!L38/L27))</f>
+        <v/>
+      </c>
+      <c r="M56" s="151" t="str">
+        <f>IF(M34="","",IF(Inputs!M38=0,0,Inputs!M38/M27))</f>
+        <v/>
       </c>
     </row>
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="16"/>
-      <c r="B57" s="102" t="s">
-        <v>249</v>
-      </c>
-      <c r="C57" s="270" t="str">
+      <c r="B57" s="101" t="s">
+        <v>247</v>
+      </c>
+      <c r="C57" s="268" t="str">
         <f t="shared" ref="C57:M57" si="48">IFERROR(IF(C13*C48*(1/C53)=C58,"","Error"),"")</f>
         <v/>
       </c>
-      <c r="D57" s="270" t="str">
+      <c r="D57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="E57" s="270" t="str">
+      <c r="E57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="F57" s="270" t="str">
+      <c r="F57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="G57" s="270" t="str">
+      <c r="G57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="H57" s="270" t="str">
+      <c r="H57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="I57" s="270" t="str">
+      <c r="I57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="J57" s="270" t="str">
+      <c r="J57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="K57" s="270" t="str">
+      <c r="K57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="L57" s="270" t="str">
+      <c r="L57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="M57" s="270" t="str">
+      <c r="M57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
-      <c r="B58" s="268" t="s">
-        <v>250</v>
-      </c>
-      <c r="C58" s="271" t="e">
+      <c r="B58" s="266" t="s">
+        <v>248</v>
+      </c>
+      <c r="C58" s="269" t="e">
         <f t="shared" ref="C58:M58" si="49">IF(C14="","",C14/(C34-C35))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D58" s="271" t="e">
+      <c r="D58" s="269" t="e">
         <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E58" s="271" t="str">
+      <c r="E58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="F58" s="271" t="str">
+      <c r="F58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="G58" s="271" t="str">
+      <c r="G58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="H58" s="271" t="str">
+      <c r="H58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="I58" s="271" t="str">
+      <c r="I58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="J58" s="271" t="str">
+      <c r="J58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="K58" s="271" t="str">
+      <c r="K58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="L58" s="271" t="str">
+      <c r="L58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="M58" s="271" t="str">
+      <c r="M58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
-      <c r="B59" s="268" t="s">
-        <v>251</v>
-      </c>
-      <c r="C59" s="271" t="e">
+      <c r="B59" s="266" t="s">
+        <v>249</v>
+      </c>
+      <c r="C59" s="269" t="e">
         <f t="shared" ref="C59:M59" si="50">IF(C22="","",C22/(C34-C35))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D59" s="271" t="e">
+      <c r="D59" s="269" t="e">
         <f t="shared" si="50"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E59" s="271" t="str">
+      <c r="E59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="F59" s="271" t="str">
+      <c r="F59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="G59" s="271" t="str">
+      <c r="G59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="H59" s="271" t="str">
+      <c r="H59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="I59" s="271" t="str">
+      <c r="I59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="J59" s="271" t="str">
+      <c r="J59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="K59" s="271" t="str">
+      <c r="K59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="L59" s="271" t="str">
+      <c r="L59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="M59" s="271" t="str">
+      <c r="M59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
@@ -9622,7 +9617,7 @@
       <formula>LEN(TRIM(F4))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3" xr:uid="{00000000-0002-0000-0100-000001000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -9640,7 +9635,7 @@
   <dimension ref="A2:K108"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -9658,25 +9653,25 @@
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" s="45"/>
       <c r="D2" s="64"/>
-      <c r="E2" s="87"/>
+      <c r="E2" s="86"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
-      <c r="I2" s="87"/>
+      <c r="I2" s="86"/>
       <c r="K2" s="50" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="87"/>
-      <c r="D3" s="204">
+        <v>20</v>
+      </c>
+      <c r="C3" s="86"/>
+      <c r="D3" s="202">
         <f>Inputs!C41</f>
         <v>0</v>
       </c>
@@ -9684,12 +9679,12 @@
         <f>IF((C49-I49)=D3,"", "Error!")</f>
         <v/>
       </c>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
       <c r="H3" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="282">
+        <v>21</v>
+      </c>
+      <c r="I3" s="280">
         <f>D3-D4</f>
         <v>0</v>
       </c>
@@ -9697,28 +9692,28 @@
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="198">
+        <v>22</v>
+      </c>
+      <c r="C4" s="86"/>
+      <c r="D4" s="196">
         <f>Inputs!C42</f>
         <v>0</v>
       </c>
       <c r="E4" s="37"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
       <c r="H4" s="21"/>
       <c r="I4" s="54"/>
       <c r="K4" s="24"/>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
       <c r="E5" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="I5" s="63" t="e">
         <f>C28/I28</f>
@@ -9731,7 +9726,7 @@
         <f>"Adj. Net Asset in "&amp;Dashboard!G6</f>
         <v>Adj. Net Asset in CNY</v>
       </c>
-      <c r="C6" s="87"/>
+      <c r="C6" s="86"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)</f>
         <v>0</v>
@@ -9740,16 +9735,16 @@
         <f>1-D6/D3</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="86"/>
       <c r="H6" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I6" s="63" t="e">
         <f>(C24+C25)/I28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J6" s="87"/>
+      <c r="J6" s="86"/>
       <c r="K6" s="24"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
@@ -9757,7 +9752,7 @@
         <f>"Adj. Net Asset per Shares in "&amp;Dashboard!H3</f>
         <v>Adj. Net Asset per Shares in HKD</v>
       </c>
-      <c r="C7" s="87"/>
+      <c r="C7" s="86"/>
       <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
         <v>0</v>
@@ -9767,287 +9762,287 @@
         <v>HKD</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I7" s="63" t="e">
         <f>C24/I28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J7" s="87"/>
+      <c r="J7" s="86"/>
       <c r="K7" s="33"/>
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C8" s="87"/>
-      <c r="D8" s="87"/>
-      <c r="E8" s="87"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="86"/>
       <c r="K8" s="24"/>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="86"/>
-      <c r="D9" s="202">
+        <v>27</v>
+      </c>
+      <c r="C9" s="85"/>
+      <c r="D9" s="200">
         <f>Inputs!C14</f>
         <v>45473</v>
       </c>
-      <c r="E9" s="118" t="str">
+      <c r="E9" s="117" t="str">
         <f>IF(MONTH(D9)=MONTH(Data!C3),"FY","Quarter")</f>
         <v>Quarter</v>
       </c>
-      <c r="F9" s="86"/>
-      <c r="G9" s="86"/>
-      <c r="H9" s="86"/>
-      <c r="I9" s="86"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="85"/>
+      <c r="H9" s="85"/>
+      <c r="I9" s="85"/>
       <c r="K9" s="24"/>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="74" t="s">
+      <c r="D10" s="74" t="s">
+        <v>181</v>
+      </c>
+      <c r="E10" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="74" t="s">
-        <v>182</v>
-      </c>
-      <c r="E10" s="74" t="s">
+      <c r="F10" s="110" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="111" t="s">
+      <c r="G10" s="86"/>
+      <c r="H10" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="87"/>
-      <c r="H10" s="22" t="s">
-        <v>33</v>
-      </c>
       <c r="I10" s="74" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K10" s="24"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" s="40">
         <f>Inputs!C48</f>
         <v>0</v>
       </c>
-      <c r="D11" s="197">
+      <c r="D11" s="195">
         <f>Inputs!D48</f>
         <v>0.9</v>
       </c>
-      <c r="E11" s="88">
+      <c r="E11" s="87">
         <f t="shared" ref="E11:E22" si="0">C11*D11</f>
         <v>0</v>
       </c>
-      <c r="F11" s="112"/>
-      <c r="G11" s="87"/>
+      <c r="F11" s="111"/>
+      <c r="G11" s="86"/>
       <c r="H11" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I11" s="40">
         <f>Inputs!C73</f>
         <v>0</v>
       </c>
-      <c r="J11" s="87"/>
+      <c r="J11" s="86"/>
       <c r="K11" s="24"/>
     </row>
     <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C12" s="40">
         <f>Inputs!C49</f>
         <v>0</v>
       </c>
-      <c r="D12" s="197">
+      <c r="D12" s="195">
         <f>Inputs!D49</f>
         <v>0.8</v>
       </c>
-      <c r="E12" s="88">
+      <c r="E12" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F12" s="112"/>
-      <c r="G12" s="87"/>
+      <c r="F12" s="111"/>
+      <c r="G12" s="86"/>
       <c r="H12" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I12" s="40">
         <f>Inputs!C74</f>
         <v>0</v>
       </c>
-      <c r="J12" s="87"/>
+      <c r="J12" s="86"/>
       <c r="K12" s="24"/>
     </row>
     <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C13" s="40">
         <f>Inputs!C50</f>
         <v>0</v>
       </c>
-      <c r="D13" s="197">
+      <c r="D13" s="195">
         <f>Inputs!D50</f>
         <v>0.6</v>
       </c>
-      <c r="E13" s="88">
+      <c r="E13" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F13" s="112"/>
-      <c r="G13" s="87"/>
+      <c r="F13" s="111"/>
+      <c r="G13" s="86"/>
       <c r="H13" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I13" s="40">
         <f>Inputs!C75</f>
         <v>0</v>
       </c>
-      <c r="J13" s="87"/>
+      <c r="J13" s="86"/>
       <c r="K13" s="26"/>
     </row>
     <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C14" s="40">
         <f>Inputs!C51</f>
         <v>0</v>
       </c>
-      <c r="D14" s="197">
+      <c r="D14" s="195">
         <f>Inputs!D51</f>
         <v>0.6</v>
       </c>
-      <c r="E14" s="88">
+      <c r="E14" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F14" s="112"/>
-      <c r="G14" s="87"/>
-      <c r="H14" s="86" t="s">
-        <v>39</v>
-      </c>
-      <c r="I14" s="203">
+      <c r="F14" s="111"/>
+      <c r="G14" s="86"/>
+      <c r="H14" s="85" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14" s="201">
         <f>Inputs!C76</f>
         <v>0</v>
       </c>
-      <c r="J14" s="87"/>
+      <c r="J14" s="86"/>
       <c r="K14" s="27"/>
     </row>
     <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C15" s="40">
         <f>Inputs!C52</f>
         <v>0</v>
       </c>
-      <c r="D15" s="197">
+      <c r="D15" s="195">
         <f>Inputs!D52</f>
         <v>0.5</v>
       </c>
-      <c r="E15" s="88">
+      <c r="E15" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F15" s="112"/>
-      <c r="G15" s="87"/>
+      <c r="F15" s="111"/>
+      <c r="G15" s="86"/>
       <c r="H15" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I15" s="84">
+        <v>49</v>
+      </c>
+      <c r="I15" s="83">
         <f>SUM(I11:I14)</f>
         <v>0</v>
       </c>
-      <c r="J15" s="87"/>
+      <c r="J15" s="86"/>
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
         <v>0</v>
       </c>
-      <c r="D16" s="197">
+      <c r="D16" s="195">
         <f>Inputs!D53</f>
         <v>0.6</v>
       </c>
-      <c r="E16" s="88">
+      <c r="E16" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F16" s="112"/>
+      <c r="F16" s="111"/>
       <c r="G16" s="30"/>
       <c r="H16" s="3"/>
       <c r="I16" s="40"/>
-      <c r="J16" s="87"/>
+      <c r="J16" s="86"/>
     </row>
     <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C17" s="40">
         <f>Inputs!C54</f>
         <v>0</v>
       </c>
-      <c r="D17" s="197">
+      <c r="D17" s="195">
         <f>Inputs!D54</f>
         <v>0.1</v>
       </c>
-      <c r="E17" s="88">
+      <c r="E17" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F17" s="112"/>
-      <c r="G17" s="87"/>
+      <c r="F17" s="111"/>
+      <c r="G17" s="86"/>
       <c r="H17" s="3"/>
       <c r="I17" s="40"/>
-      <c r="J17" s="87"/>
+      <c r="J17" s="86"/>
     </row>
     <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C18" s="40">
         <f>Inputs!C55</f>
         <v>0</v>
       </c>
-      <c r="D18" s="197">
+      <c r="D18" s="195">
         <f>Inputs!D55</f>
         <v>0.5</v>
       </c>
-      <c r="E18" s="88">
+      <c r="E18" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F18" s="112"/>
-      <c r="G18" s="87"/>
-      <c r="H18" s="87"/>
-      <c r="I18" s="87"/>
+      <c r="F18" s="111"/>
+      <c r="G18" s="86"/>
+      <c r="H18" s="86"/>
+      <c r="I18" s="86"/>
     </row>
     <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C19" s="40">
         <f>Inputs!C56</f>
         <v>0</v>
       </c>
-      <c r="D19" s="197">
+      <c r="D19" s="195">
         <f>Inputs!D56</f>
         <v>0.6</v>
       </c>
-      <c r="E19" s="88">
+      <c r="E19" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F19" s="133" t="str">
+      <c r="F19" s="132" t="str">
         <f>Inputs!E56</f>
         <v>N</v>
       </c>
@@ -10058,21 +10053,21 @@
     </row>
     <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C20" s="40">
         <f>Inputs!C57</f>
         <v>0</v>
       </c>
-      <c r="D20" s="197">
+      <c r="D20" s="195">
         <f>Inputs!D57</f>
         <v>0.6</v>
       </c>
-      <c r="E20" s="88">
+      <c r="E20" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F20" s="133" t="str">
+      <c r="F20" s="132" t="str">
         <f>Inputs!E57</f>
         <v>Y</v>
       </c>
@@ -10085,45 +10080,45 @@
     </row>
     <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C21" s="40">
         <f>Inputs!C58</f>
         <v>0</v>
       </c>
-      <c r="D21" s="197">
+      <c r="D21" s="195">
         <f>Inputs!D58</f>
         <v>0.9</v>
       </c>
-      <c r="E21" s="88">
+      <c r="E21" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F21" s="112"/>
-      <c r="G21" s="87"/>
+      <c r="F21" s="111"/>
+      <c r="G21" s="86"/>
       <c r="H21" s="3"/>
       <c r="I21" s="40"/>
     </row>
     <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C22" s="40">
         <f>Inputs!C59</f>
         <v>0</v>
       </c>
-      <c r="D22" s="197">
+      <c r="D22" s="195">
         <f>Inputs!D59</f>
         <v>0.05</v>
       </c>
-      <c r="E22" s="88">
+      <c r="E22" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F22" s="112"/>
-      <c r="G22" s="87"/>
+      <c r="F22" s="111"/>
+      <c r="G22" s="86"/>
       <c r="H22" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I22" s="52">
         <f>I28-SUM(I11:I14)</f>
@@ -10131,17 +10126,17 @@
       </c>
     </row>
     <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C23" s="87"/>
-      <c r="D23" s="87"/>
-      <c r="E23" s="87"/>
-      <c r="F23" s="111" t="s">
-        <v>48</v>
-      </c>
-      <c r="G23" s="87"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="110" t="s">
+        <v>47</v>
+      </c>
+      <c r="G23" s="86"/>
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C24" s="61">
         <f>SUM(C11:C14)</f>
@@ -10151,19 +10146,19 @@
         <f>IF(E24=0,0,E24/C24)</f>
         <v>0</v>
       </c>
-      <c r="E24" s="88">
+      <c r="E24" s="87">
         <f>SUM(E11:E14)</f>
         <v>0</v>
       </c>
-      <c r="F24" s="113" t="e">
+      <c r="F24" s="112" t="e">
         <f>E24/$E$28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G24" s="87"/>
+      <c r="G24" s="86"/>
     </row>
     <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C25" s="61">
         <f>SUM(C15:C17)</f>
@@ -10173,17 +10168,17 @@
         <f>IF(E25=0,0,E25/C25)</f>
         <v>0</v>
       </c>
-      <c r="E25" s="88">
+      <c r="E25" s="87">
         <f>SUM(E15:E17)</f>
         <v>0</v>
       </c>
-      <c r="F25" s="113" t="e">
+      <c r="F25" s="112" t="e">
         <f>E25/$E$28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G25" s="87"/>
+      <c r="G25" s="86"/>
       <c r="H25" s="23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I25" s="63" t="e">
         <f>E28/I28</f>
@@ -10192,7 +10187,7 @@
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C26" s="61">
         <f>C18+C19+C20</f>
@@ -10202,17 +10197,17 @@
         <f>IF(E26=0,0,E26/C26)</f>
         <v>0</v>
       </c>
-      <c r="E26" s="88">
+      <c r="E26" s="87">
         <f>E18+E19+E20</f>
         <v>0</v>
       </c>
-      <c r="F26" s="113" t="e">
+      <c r="F26" s="112" t="e">
         <f>E26/$E$28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G26" s="87"/>
+      <c r="G26" s="86"/>
       <c r="H26" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I26" s="63" t="e">
         <f>E24/($I$28-I22)</f>
@@ -10225,7 +10220,7 @@
     </row>
     <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C27" s="77">
         <f>C21+C22</f>
@@ -10235,17 +10230,17 @@
         <f>IF(E27=0,0,E27/C27)</f>
         <v>0</v>
       </c>
-      <c r="E27" s="88">
+      <c r="E27" s="87">
         <f>E21+E22</f>
         <v>0</v>
       </c>
-      <c r="F27" s="113" t="e">
+      <c r="F27" s="112" t="e">
         <f>E27/$E$28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G27" s="87"/>
+      <c r="G27" s="86"/>
       <c r="H27" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I27" s="63" t="e">
         <f>(E25+E24)/$I$28</f>
@@ -10272,12 +10267,12 @@
         <f>SUM(E24:E27)</f>
         <v>0</v>
       </c>
-      <c r="F28" s="112"/>
-      <c r="G28" s="87"/>
+      <c r="F28" s="111"/>
+      <c r="G28" s="86"/>
       <c r="H28" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="I28" s="204">
+      <c r="I28" s="202">
         <f>Inputs!C77</f>
         <v>0</v>
       </c>
@@ -10287,171 +10282,171 @@
       </c>
     </row>
     <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C29" s="87"/>
-      <c r="D29" s="87"/>
-      <c r="E29" s="87"/>
-      <c r="F29" s="112" t="s">
-        <v>32</v>
-      </c>
-      <c r="G29" s="87"/>
-      <c r="H29" s="87"/>
-      <c r="I29" s="87"/>
-      <c r="J29" s="87"/>
+      <c r="C29" s="86"/>
+      <c r="D29" s="86"/>
+      <c r="E29" s="86"/>
+      <c r="F29" s="111" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="86"/>
+      <c r="H29" s="86"/>
+      <c r="I29" s="86"/>
+      <c r="J29" s="86"/>
     </row>
     <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C30" s="40">
         <f>Inputs!C60</f>
         <v>0</v>
       </c>
-      <c r="D30" s="197">
+      <c r="D30" s="195">
         <f>Inputs!D60</f>
         <v>0.8</v>
       </c>
-      <c r="E30" s="88">
-        <v>0</v>
-      </c>
-      <c r="F30" s="112"/>
-      <c r="G30" s="87"/>
+      <c r="E30" s="87">
+        <v>0</v>
+      </c>
+      <c r="F30" s="111"/>
+      <c r="G30" s="86"/>
       <c r="H30" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I30" s="40">
         <f>Inputs!C78</f>
         <v>0</v>
       </c>
-      <c r="J30" s="87"/>
+      <c r="J30" s="86"/>
     </row>
     <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C31" s="40">
         <f>Inputs!C61</f>
         <v>0</v>
       </c>
-      <c r="D31" s="197">
+      <c r="D31" s="195">
         <f>Inputs!D61</f>
         <v>0.6</v>
       </c>
-      <c r="E31" s="88">
+      <c r="E31" s="87">
         <f t="shared" ref="E31:E42" si="1">C31*D31</f>
         <v>0</v>
       </c>
-      <c r="F31" s="112"/>
-      <c r="G31" s="87"/>
+      <c r="F31" s="111"/>
+      <c r="G31" s="86"/>
       <c r="H31" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I31" s="40">
         <f>Inputs!C79</f>
         <v>0</v>
       </c>
-      <c r="J31" s="87"/>
+      <c r="J31" s="86"/>
     </row>
     <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C32" s="40">
         <f>Inputs!C62</f>
         <v>0</v>
       </c>
-      <c r="D32" s="197">
+      <c r="D32" s="195">
         <f>Inputs!D62</f>
         <v>0.5</v>
       </c>
-      <c r="E32" s="88">
+      <c r="E32" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F32" s="112"/>
-      <c r="G32" s="87"/>
+      <c r="F32" s="111"/>
+      <c r="G32" s="86"/>
       <c r="H32" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I32" s="40">
         <f>Inputs!C80</f>
         <v>0</v>
       </c>
-      <c r="J32" s="87"/>
+      <c r="J32" s="86"/>
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
         <v>0</v>
       </c>
-      <c r="D33" s="197">
+      <c r="D33" s="195">
         <f>Inputs!D63</f>
         <v>0.5</v>
       </c>
-      <c r="E33" s="88">
+      <c r="E33" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F33" s="112"/>
+      <c r="F33" s="111"/>
       <c r="G33" s="30">
         <f>IF(F33="Y",0,1)</f>
         <v>1</v>
       </c>
-      <c r="H33" s="86" t="s">
-        <v>63</v>
-      </c>
-      <c r="I33" s="203">
+      <c r="H33" s="85" t="s">
+        <v>62</v>
+      </c>
+      <c r="I33" s="201">
         <f>Inputs!C81</f>
         <v>0</v>
       </c>
-      <c r="J33" s="87"/>
+      <c r="J33" s="86"/>
     </row>
     <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C34" s="40">
         <f>Inputs!C64</f>
         <v>0</v>
       </c>
-      <c r="D34" s="197">
+      <c r="D34" s="195">
         <f>Inputs!D64</f>
         <v>0.4</v>
       </c>
-      <c r="E34" s="88">
+      <c r="E34" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F34" s="112"/>
-      <c r="G34" s="87"/>
+      <c r="F34" s="111"/>
+      <c r="G34" s="86"/>
       <c r="H34" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I34" s="84">
+        <v>73</v>
+      </c>
+      <c r="I34" s="83">
         <f>SUM(I30:I33)</f>
         <v>0</v>
       </c>
-      <c r="J34" s="87"/>
+      <c r="J34" s="86"/>
     </row>
     <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C35" s="40">
         <f>Inputs!C65</f>
         <v>0</v>
       </c>
-      <c r="D35" s="197">
+      <c r="D35" s="195">
         <f>Inputs!D65</f>
         <v>0.1</v>
       </c>
-      <c r="E35" s="88">
+      <c r="E35" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F35" s="133" t="str">
+      <c r="F35" s="132" t="str">
         <f>Inputs!E65</f>
         <v>N</v>
       </c>
@@ -10459,25 +10454,25 @@
         <f>IF(F35="Y",0,1)</f>
         <v>1</v>
       </c>
-      <c r="J35" s="87"/>
+      <c r="J35" s="86"/>
     </row>
     <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C36" s="40">
         <f>Inputs!C66</f>
         <v>0</v>
       </c>
-      <c r="D36" s="197">
+      <c r="D36" s="195">
         <f>Inputs!D66</f>
         <v>0.2</v>
       </c>
-      <c r="E36" s="88">
+      <c r="E36" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F36" s="133" t="str">
+      <c r="F36" s="132" t="str">
         <f>Inputs!E66</f>
         <v>N</v>
       </c>
@@ -10485,26 +10480,26 @@
         <f>IF(F36="Y",0,1)</f>
         <v>1</v>
       </c>
-      <c r="H36" s="87"/>
-      <c r="I36" s="87"/>
+      <c r="H36" s="86"/>
+      <c r="I36" s="86"/>
     </row>
     <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C37" s="40">
         <f>Inputs!C67</f>
         <v>0</v>
       </c>
-      <c r="D37" s="197">
+      <c r="D37" s="195">
         <f>Inputs!D67</f>
         <v>0.1</v>
       </c>
-      <c r="E37" s="88">
+      <c r="E37" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F37" s="133" t="str">
+      <c r="F37" s="132" t="str">
         <f>Inputs!E67</f>
         <v>Y</v>
       </c>
@@ -10512,113 +10507,113 @@
         <f>IF(F37="Y",0,1)</f>
         <v>0</v>
       </c>
-      <c r="H37" s="87"/>
-      <c r="I37" s="87"/>
+      <c r="H37" s="86"/>
+      <c r="I37" s="86"/>
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C38" s="40">
         <f>Inputs!C68</f>
         <v>0</v>
       </c>
-      <c r="D38" s="197">
+      <c r="D38" s="195">
         <f>Inputs!D68</f>
         <v>0.1</v>
       </c>
-      <c r="E38" s="88">
+      <c r="E38" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F38" s="112"/>
-      <c r="G38" s="87"/>
-      <c r="H38" s="87"/>
-      <c r="I38" s="87"/>
+      <c r="F38" s="111"/>
+      <c r="G38" s="86"/>
+      <c r="H38" s="86"/>
+      <c r="I38" s="86"/>
     </row>
     <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C39" s="40">
         <f>Inputs!C69</f>
         <v>0</v>
       </c>
-      <c r="D39" s="197">
+      <c r="D39" s="195">
         <f>Inputs!D69</f>
         <v>0.05</v>
       </c>
-      <c r="E39" s="88">
+      <c r="E39" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F39" s="112"/>
-      <c r="G39" s="87"/>
-      <c r="H39" s="87"/>
-      <c r="I39" s="87"/>
+      <c r="F39" s="111"/>
+      <c r="G39" s="86"/>
+      <c r="H39" s="86"/>
+      <c r="I39" s="86"/>
     </row>
     <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C40" s="40">
         <f>Inputs!C70</f>
         <v>0</v>
       </c>
-      <c r="D40" s="197">
+      <c r="D40" s="195">
         <f>Inputs!D70</f>
         <v>0.05</v>
       </c>
-      <c r="E40" s="88">
+      <c r="E40" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F40" s="112"/>
-      <c r="G40" s="87"/>
-      <c r="H40" s="87"/>
-      <c r="I40" s="87"/>
+      <c r="F40" s="111"/>
+      <c r="G40" s="86"/>
+      <c r="H40" s="86"/>
+      <c r="I40" s="86"/>
     </row>
     <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C41" s="40">
         <f>Inputs!C71</f>
         <v>0</v>
       </c>
-      <c r="D41" s="197">
+      <c r="D41" s="195">
         <f>Inputs!D71</f>
         <v>0.9</v>
       </c>
-      <c r="E41" s="88">
+      <c r="E41" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F41" s="112"/>
-      <c r="G41" s="87"/>
-      <c r="H41" s="87"/>
-      <c r="I41" s="87"/>
+      <c r="F41" s="111"/>
+      <c r="G41" s="86"/>
+      <c r="H41" s="86"/>
+      <c r="I41" s="86"/>
     </row>
     <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C42" s="40">
         <f>Inputs!C72</f>
         <v>0</v>
       </c>
-      <c r="D42" s="197">
+      <c r="D42" s="195">
         <f>Inputs!D72</f>
         <v>0</v>
       </c>
-      <c r="E42" s="88">
+      <c r="E42" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F42" s="112"/>
-      <c r="G42" s="87"/>
+      <c r="F42" s="111"/>
+      <c r="G42" s="86"/>
       <c r="H42" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I42" s="52">
         <f>I48-SUM(I30:I33)</f>
@@ -10626,17 +10621,17 @@
       </c>
     </row>
     <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C43" s="87"/>
-      <c r="D43" s="87"/>
-      <c r="E43" s="87"/>
-      <c r="F43" s="87"/>
-      <c r="G43" s="87"/>
-      <c r="H43" s="87"/>
-      <c r="I43" s="87"/>
+      <c r="C43" s="86"/>
+      <c r="D43" s="86"/>
+      <c r="E43" s="86"/>
+      <c r="F43" s="86"/>
+      <c r="G43" s="86"/>
+      <c r="H43" s="86"/>
+      <c r="I43" s="86"/>
     </row>
     <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C44" s="61">
         <f>SUM(C30:C31)</f>
@@ -10646,16 +10641,16 @@
         <f>IF(E44=0,0,E44/C44)</f>
         <v>0</v>
       </c>
-      <c r="E44" s="88">
+      <c r="E44" s="87">
         <f>SUM(E30:E31)</f>
         <v>0</v>
       </c>
       <c r="F44" s="72"/>
-      <c r="G44" s="87"/>
+      <c r="G44" s="86"/>
     </row>
     <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C45" s="61">
         <f>SUM(C32:C35)</f>
@@ -10665,16 +10660,16 @@
         <f>IF(E45=0,0,E45/C45)</f>
         <v>0</v>
       </c>
-      <c r="E45" s="88">
+      <c r="E45" s="87">
         <f>SUM(E32:E35)</f>
         <v>0</v>
       </c>
       <c r="F45" s="72"/>
-      <c r="G45" s="87"/>
+      <c r="G45" s="86"/>
     </row>
     <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C46" s="61">
         <f>C36+C37+C38+C39</f>
@@ -10684,14 +10679,14 @@
         <f>IF(E46=0,0,E46/C46)</f>
         <v>0</v>
       </c>
-      <c r="E46" s="88">
+      <c r="E46" s="87">
         <f>E36+E37+E38+E39</f>
         <v>0</v>
       </c>
-      <c r="F46" s="87"/>
-      <c r="G46" s="87"/>
+      <c r="F46" s="86"/>
+      <c r="G46" s="86"/>
       <c r="H46" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I46" s="63" t="e">
         <f>(E44+E24)/E64</f>
@@ -10704,7 +10699,7 @@
     </row>
     <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C47" s="61">
         <f>C40+C41+C42</f>
@@ -10714,14 +10709,14 @@
         <f>IF(E47=0,0,E47/C47)</f>
         <v>0</v>
       </c>
-      <c r="E47" s="88">
+      <c r="E47" s="87">
         <f>E40+E41+E42</f>
         <v>0</v>
       </c>
-      <c r="F47" s="87"/>
-      <c r="G47" s="87"/>
+      <c r="F47" s="86"/>
+      <c r="G47" s="86"/>
       <c r="H47" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I47" s="63" t="e">
         <f>(E44+E45+E24+E25)/$I$49</f>
@@ -10734,13 +10729,13 @@
     </row>
     <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="80" t="s">
-        <v>80</v>
-      </c>
-      <c r="C48" s="81">
+        <v>79</v>
+      </c>
+      <c r="C48" s="281">
         <f>SUM(C30:C42)</f>
         <v>0</v>
       </c>
-      <c r="D48" s="82" t="e">
+      <c r="D48" s="81" t="e">
         <f>E48/C48</f>
         <v>#DIV/0!</v>
       </c>
@@ -10748,12 +10743,12 @@
         <f>SUM(E30:E42)</f>
         <v>0</v>
       </c>
-      <c r="F48" s="87"/>
-      <c r="G48" s="87"/>
+      <c r="F48" s="86"/>
+      <c r="G48" s="86"/>
       <c r="H48" s="80" t="s">
-        <v>81</v>
-      </c>
-      <c r="I48" s="281">
+        <v>80</v>
+      </c>
+      <c r="I48" s="279">
         <f>I49-I28</f>
         <v>0</v>
       </c>
@@ -10764,63 +10759,63 @@
         <v>13</v>
       </c>
       <c r="C49" s="61">
-        <f>C28+C48</f>
+        <f>Inputs!C41+Inputs!C37</f>
         <v>0</v>
       </c>
       <c r="D49" s="56" t="e">
         <f>E49/C49</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E49" s="88">
+      <c r="E49" s="87">
         <f>E28+E48</f>
         <v>0</v>
       </c>
-      <c r="F49" s="87"/>
-      <c r="G49" s="87"/>
+      <c r="F49" s="86"/>
+      <c r="G49" s="86"/>
       <c r="H49" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I49" s="40">
         <f>Inputs!C37</f>
         <v>0</v>
       </c>
-      <c r="J49" s="87"/>
+      <c r="J49" s="86"/>
     </row>
     <row r="50" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C50" s="87"/>
-      <c r="D50" s="87"/>
-      <c r="E50" s="87"/>
-      <c r="I50" s="87"/>
+      <c r="C50" s="86"/>
+      <c r="D50" s="86"/>
+      <c r="E50" s="86"/>
+      <c r="I50" s="86"/>
     </row>
     <row r="51" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
     <row r="52" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="44" t="s">
-        <v>84</v>
-      </c>
-      <c r="C52" s="87"/>
+        <v>83</v>
+      </c>
+      <c r="C52" s="86"/>
       <c r="D52" s="74" t="str">
         <f>IF(E53=D4,"BV of the MI","P/B Approach")</f>
         <v>BV of the MI</v>
       </c>
-      <c r="E52" s="87"/>
-      <c r="F52" s="87"/>
-      <c r="G52" s="87"/>
-      <c r="I52" s="87"/>
+      <c r="E52" s="86"/>
+      <c r="F52" s="86"/>
+      <c r="G52" s="86"/>
+      <c r="I52" s="86"/>
       <c r="K52" s="50" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="53" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C53" s="88">
+        <v>84</v>
+      </c>
+      <c r="C53" s="87">
         <f>MAX(D4,0)</f>
         <v>0</v>
       </c>
@@ -10828,45 +10823,45 @@
         <f>IF(E53=0, 0,E53/C53)</f>
         <v>0</v>
       </c>
-      <c r="E53" s="88">
+      <c r="E53" s="87">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
         <v>0</v>
       </c>
-      <c r="F53" s="87"/>
-      <c r="G53" s="87"/>
+      <c r="F53" s="86"/>
+      <c r="G53" s="86"/>
       <c r="I53" s="41"/>
       <c r="K53" s="33"/>
     </row>
     <row r="54" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C54" s="87"/>
-      <c r="D54" s="87"/>
-      <c r="E54" s="87"/>
-      <c r="F54" s="87"/>
-      <c r="G54" s="87"/>
-      <c r="I54" s="87"/>
+      <c r="C54" s="86"/>
+      <c r="D54" s="86"/>
+      <c r="E54" s="86"/>
+      <c r="F54" s="86"/>
+      <c r="G54" s="86"/>
+      <c r="I54" s="86"/>
       <c r="K54" s="33"/>
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C55" s="3"/>
-      <c r="E55" s="124"/>
+      <c r="E55" s="123"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
-      <c r="I55" s="87"/>
+      <c r="I55" s="86"/>
       <c r="K55" s="33"/>
     </row>
     <row r="56" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="C56" s="87"/>
-      <c r="D56" s="296">
+        <v>85</v>
+      </c>
+      <c r="C56" s="86"/>
+      <c r="D56" s="295">
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="294"/>
+      <c r="E56" s="293"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -10874,61 +10869,61 @@
     </row>
     <row r="57" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C57" s="86"/>
+      <c r="D57" s="294">
+        <f>Inputs!C84</f>
+        <v>0</v>
+      </c>
+      <c r="E57" s="293"/>
+      <c r="G57" s="86"/>
+      <c r="I57" s="86"/>
+      <c r="K57" s="33" t="s">
         <v>87</v>
-      </c>
-      <c r="C57" s="87"/>
-      <c r="D57" s="295">
-        <f>Inputs!C84</f>
-        <v>0</v>
-      </c>
-      <c r="E57" s="294"/>
-      <c r="G57" s="87"/>
-      <c r="I57" s="87"/>
-      <c r="K57" s="33" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="C58" s="87"/>
-      <c r="D58" s="295">
+        <v>88</v>
+      </c>
+      <c r="C58" s="86"/>
+      <c r="D58" s="294">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="294"/>
+      <c r="E58" s="293"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
-      <c r="I58" s="87"/>
+      <c r="I58" s="86"/>
       <c r="K58" s="33"/>
     </row>
     <row r="59" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C59" s="87"/>
-      <c r="D59" s="87"/>
-      <c r="E59" s="87"/>
-      <c r="F59" s="87"/>
-      <c r="G59" s="87"/>
-      <c r="I59" s="87"/>
+      <c r="C59" s="86"/>
+      <c r="D59" s="86"/>
+      <c r="E59" s="86"/>
+      <c r="F59" s="86"/>
+      <c r="G59" s="86"/>
+      <c r="I59" s="86"/>
       <c r="K59" s="33"/>
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
-        <v>90</v>
-      </c>
-      <c r="E60" s="87"/>
+        <v>89</v>
+      </c>
+      <c r="E60" s="86"/>
       <c r="F60" s="9"/>
       <c r="G60" s="9"/>
-      <c r="I60" s="87"/>
+      <c r="I60" s="86"/>
       <c r="K60" s="33"/>
     </row>
     <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C61" s="68">
         <f>C14+C15+(C19*G19)+(C20*G20)+C31+C32+(C35*G35)+(C36*G36)+(C37*G37)</f>
@@ -10942,35 +10937,35 @@
         <f>E14+E15+(E19*G19)+(E20*G20)+E31+E32+(E35*G35)+(E36*G36)+(E37*G37)</f>
         <v>0</v>
       </c>
-      <c r="F61" s="87"/>
-      <c r="G61" s="87"/>
-      <c r="I61" s="87"/>
+      <c r="F61" s="86"/>
+      <c r="G61" s="86"/>
+      <c r="I61" s="86"/>
       <c r="K61" s="33"/>
     </row>
     <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
-        <v>134</v>
-      </c>
-      <c r="C62" s="116">
+        <v>133</v>
+      </c>
+      <c r="C62" s="115">
         <f>C11+C30</f>
         <v>0</v>
       </c>
-      <c r="D62" s="107">
+      <c r="D62" s="106">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E62" s="117">
+      <c r="E62" s="116">
         <f>E11+E30</f>
         <v>0</v>
       </c>
-      <c r="F62" s="87"/>
-      <c r="G62" s="87"/>
-      <c r="I62" s="87"/>
+      <c r="F62" s="86"/>
+      <c r="G62" s="86"/>
+      <c r="I62" s="86"/>
       <c r="K62" s="33"/>
     </row>
     <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
@@ -10984,29 +10979,29 @@
         <f>E61+E62</f>
         <v>0</v>
       </c>
-      <c r="F63" s="87"/>
-      <c r="G63" s="87"/>
-      <c r="I63" s="87"/>
+      <c r="F63" s="86"/>
+      <c r="G63" s="86"/>
+      <c r="I63" s="86"/>
       <c r="K63" s="33"/>
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="120" t="s">
-        <v>143</v>
-      </c>
-      <c r="C64" s="205"/>
-      <c r="D64" s="205"/>
+      <c r="B64" s="119" t="s">
+        <v>142</v>
+      </c>
+      <c r="C64" s="203"/>
+      <c r="D64" s="203"/>
       <c r="E64" s="69">
         <f>D56+D57+D58</f>
         <v>0</v>
       </c>
-      <c r="F64" s="87"/>
-      <c r="G64" s="87"/>
-      <c r="I64" s="87"/>
+      <c r="F64" s="86"/>
+      <c r="G64" s="86"/>
+      <c r="I64" s="86"/>
       <c r="K64" s="33"/>
     </row>
     <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C65" s="68">
         <f>C63-E64</f>
@@ -11020,9 +11015,9 @@
         <f>E63-E64</f>
         <v>0</v>
       </c>
-      <c r="F65" s="87"/>
-      <c r="G65" s="87"/>
-      <c r="I65" s="87"/>
+      <c r="F65" s="86"/>
+      <c r="G65" s="86"/>
+      <c r="I65" s="86"/>
       <c r="K65" s="33"/>
     </row>
     <row r="66" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
@@ -11030,28 +11025,28 @@
       <c r="C66" s="68"/>
       <c r="D66" s="29"/>
       <c r="E66" s="61"/>
-      <c r="F66" s="87"/>
-      <c r="G66" s="87"/>
-      <c r="I66" s="87"/>
+      <c r="F66" s="86"/>
+      <c r="G66" s="86"/>
+      <c r="I66" s="86"/>
       <c r="K66" s="33"/>
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E67" s="61"/>
-      <c r="F67" s="87"/>
-      <c r="G67" s="87"/>
-      <c r="I67" s="87"/>
+      <c r="F67" s="86"/>
+      <c r="G67" s="86"/>
+      <c r="I67" s="86"/>
       <c r="K67" s="33"/>
     </row>
     <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
@@ -11065,29 +11060,29 @@
         <f>E49-E63</f>
         <v>0</v>
       </c>
-      <c r="F68" s="87"/>
-      <c r="G68" s="87"/>
-      <c r="I68" s="87"/>
+      <c r="F68" s="86"/>
+      <c r="G68" s="86"/>
+      <c r="I68" s="86"/>
       <c r="K68" s="33"/>
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="120" t="s">
-        <v>144</v>
-      </c>
-      <c r="C69" s="205"/>
-      <c r="D69" s="205"/>
-      <c r="E69" s="125">
+      <c r="B69" s="119" t="s">
+        <v>143</v>
+      </c>
+      <c r="C69" s="203"/>
+      <c r="D69" s="203"/>
+      <c r="E69" s="124">
         <f>I49-E64</f>
         <v>0</v>
       </c>
-      <c r="F69" s="87"/>
-      <c r="G69" s="87"/>
-      <c r="I69" s="87"/>
+      <c r="F69" s="86"/>
+      <c r="G69" s="86"/>
+      <c r="I69" s="86"/>
       <c r="K69" s="33"/>
     </row>
     <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
@@ -11101,29 +11096,29 @@
         <f>E68-E69</f>
         <v>0</v>
       </c>
-      <c r="F70" s="87"/>
-      <c r="G70" s="87"/>
-      <c r="I70" s="87"/>
+      <c r="F70" s="86"/>
+      <c r="G70" s="86"/>
+      <c r="I70" s="86"/>
       <c r="K70" s="33"/>
     </row>
     <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
-      <c r="B72" s="106" t="s">
-        <v>122</v>
-      </c>
-      <c r="C72" s="283">
+      <c r="B72" s="105" t="s">
+        <v>121</v>
+      </c>
+      <c r="C72" s="282">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="283"/>
-      <c r="E72" s="297" t="s">
-        <v>192</v>
-      </c>
-      <c r="F72" s="297"/>
-      <c r="H72" s="297" t="s">
+      <c r="D72" s="282"/>
+      <c r="E72" s="296" t="s">
         <v>191</v>
       </c>
-      <c r="I72" s="297"/>
+      <c r="F72" s="296"/>
+      <c r="H72" s="296" t="s">
+        <v>190</v>
+      </c>
+      <c r="I72" s="296"/>
       <c r="K72" s="50" t="s">
         <v>7</v>
       </c>
@@ -11133,66 +11128,66 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1CNY)</v>
       </c>
-      <c r="C73" s="284" t="s">
+      <c r="C73" s="283" t="s">
+        <v>96</v>
+      </c>
+      <c r="D73" s="283"/>
+      <c r="E73" s="297" t="s">
         <v>97</v>
       </c>
-      <c r="D73" s="284"/>
-      <c r="E73" s="298" t="s">
-        <v>98</v>
-      </c>
-      <c r="F73" s="284"/>
-      <c r="H73" s="298" t="s">
-        <v>98</v>
-      </c>
-      <c r="I73" s="284"/>
+      <c r="F73" s="283"/>
+      <c r="H73" s="297" t="s">
+        <v>97</v>
+      </c>
+      <c r="I73" s="283"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C74" s="77">
         <f>Data!C6</f>
         <v>6983846860.7700005</v>
       </c>
-      <c r="D74" s="206"/>
-      <c r="E74" s="235">
+      <c r="D74" s="204"/>
+      <c r="E74" s="233">
         <f>Inputs!E91</f>
         <v>6983846860.7700005</v>
       </c>
-      <c r="F74" s="206"/>
-      <c r="H74" s="235">
+      <c r="F74" s="204"/>
+      <c r="H74" s="233">
         <f>Inputs!F91</f>
         <v>6983846860.7700005</v>
       </c>
-      <c r="I74" s="206"/>
+      <c r="I74" s="204"/>
       <c r="K74" s="24"/>
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B75" s="104" t="s">
-        <v>102</v>
+      <c r="B75" s="103" t="s">
+        <v>101</v>
       </c>
       <c r="C75" s="77">
         <f>Data!C8</f>
         <v>3398384261.9699998</v>
       </c>
-      <c r="D75" s="158">
+      <c r="D75" s="156">
         <f>C75/$C$74</f>
         <v>0.48660635459513968</v>
       </c>
-      <c r="E75" s="235">
+      <c r="E75" s="233">
         <f>Inputs!E92</f>
         <v>3398384261.9699998</v>
       </c>
-      <c r="F75" s="159">
+      <c r="F75" s="157">
         <f>E75/E74</f>
         <v>0.48660635459513968</v>
       </c>
-      <c r="H75" s="235">
+      <c r="H75" s="233">
         <f>Inputs!F92</f>
         <v>3398384261.9699998</v>
       </c>
-      <c r="I75" s="159">
+      <c r="I75" s="157">
         <f>H75/$H$74</f>
         <v>0.48660635459513968</v>
       </c>
@@ -11200,50 +11195,50 @@
     </row>
     <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="C76" s="160">
+        <v>91</v>
+      </c>
+      <c r="C76" s="158">
         <f>C74-C75</f>
         <v>3585462598.8000007</v>
       </c>
-      <c r="D76" s="207"/>
-      <c r="E76" s="161">
+      <c r="D76" s="205"/>
+      <c r="E76" s="159">
         <f>E74-E75</f>
         <v>3585462598.8000007</v>
       </c>
-      <c r="F76" s="207"/>
-      <c r="H76" s="161">
+      <c r="F76" s="205"/>
+      <c r="H76" s="159">
         <f>H74-H75</f>
         <v>3585462598.8000007</v>
       </c>
-      <c r="I76" s="207"/>
+      <c r="I76" s="205"/>
       <c r="K76" s="24"/>
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B77" s="104" t="s">
-        <v>230</v>
+      <c r="B77" s="103" t="s">
+        <v>229</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
         <v>2054181373.1700001</v>
       </c>
-      <c r="D77" s="158">
+      <c r="D77" s="156">
         <f>C77/$C$74</f>
         <v>0.2941332211490556</v>
       </c>
-      <c r="E77" s="235">
+      <c r="E77" s="233">
         <f>Inputs!E93</f>
         <v>2054181373.1700003</v>
       </c>
-      <c r="F77" s="159">
+      <c r="F77" s="157">
         <f>E77/E74</f>
         <v>0.2941332211490556</v>
       </c>
-      <c r="H77" s="235">
+      <c r="H77" s="233">
         <f>Inputs!F93</f>
         <v>2054181373.1700003</v>
       </c>
-      <c r="I77" s="159">
+      <c r="I77" s="157">
         <f>H77/$H$74</f>
         <v>0.2941332211490556</v>
       </c>
@@ -11251,60 +11246,60 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
         <v>65231872</v>
       </c>
-      <c r="D78" s="158">
+      <c r="D78" s="156">
         <f>C78/$C$74</f>
         <v>9.3403926661713623E-3</v>
       </c>
-      <c r="E78" s="179">
+      <c r="E78" s="177">
         <f>E74*F78</f>
         <v>65231872</v>
       </c>
-      <c r="F78" s="159">
+      <c r="F78" s="157">
         <f>I78</f>
         <v>9.3403926661713623E-3</v>
       </c>
-      <c r="H78" s="235">
+      <c r="H78" s="233">
         <f>Inputs!F97</f>
         <v>65231872</v>
       </c>
-      <c r="I78" s="159">
+      <c r="I78" s="157">
         <f>H78/$H$74</f>
         <v>9.3403926661713623E-3</v>
       </c>
       <c r="K78" s="24"/>
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B79" s="253" t="s">
-        <v>217</v>
-      </c>
-      <c r="C79" s="254">
+      <c r="B79" s="251" t="s">
+        <v>216</v>
+      </c>
+      <c r="C79" s="252">
         <f>C76-C77-C78</f>
         <v>1466049353.6300006</v>
       </c>
-      <c r="D79" s="255">
+      <c r="D79" s="253">
         <f>C79/C74</f>
         <v>0.2099200315896334</v>
       </c>
-      <c r="E79" s="256">
+      <c r="E79" s="254">
         <f>E76-E77-E78</f>
         <v>1466049353.6300004</v>
       </c>
-      <c r="F79" s="255">
+      <c r="F79" s="253">
         <f>E79/E74</f>
         <v>0.20992003158963338</v>
       </c>
-      <c r="G79" s="257"/>
-      <c r="H79" s="256">
+      <c r="G79" s="255"/>
+      <c r="H79" s="254">
         <f>H76-H77-H78</f>
         <v>1466049353.6300004</v>
       </c>
-      <c r="I79" s="255">
+      <c r="I79" s="253">
         <f>H79/H74</f>
         <v>0.20992003158963338</v>
       </c>
@@ -11312,61 +11307,61 @@
     </row>
     <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C80" s="77">
         <f>MAX(Data!C16,0)</f>
         <v>0</v>
       </c>
-      <c r="D80" s="158">
+      <c r="D80" s="156">
         <f>C80/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E80" s="179">
+      <c r="E80" s="177">
         <f>E74*F80</f>
         <v>0</v>
       </c>
-      <c r="F80" s="159">
+      <c r="F80" s="157">
         <f>I80</f>
         <v>0</v>
       </c>
-      <c r="H80" s="235">
+      <c r="H80" s="233">
         <f>Inputs!F96</f>
         <v>0</v>
       </c>
-      <c r="I80" s="159">
+      <c r="I80" s="157">
         <f>H80/$H$74</f>
         <v>0</v>
       </c>
-      <c r="K80" s="180" t="s">
-        <v>126</v>
+      <c r="K80" s="178" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B81" s="104" t="s">
-        <v>238</v>
+      <c r="B81" s="103" t="s">
+        <v>236</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
         <v>15194992.810000001</v>
       </c>
-      <c r="D81" s="158">
+      <c r="D81" s="156">
         <f>C81/$C$74</f>
         <v>2.1757339633768379E-3</v>
       </c>
-      <c r="E81" s="179">
+      <c r="E81" s="177">
         <f>E74*F81</f>
         <v>15194992.810000001</v>
       </c>
-      <c r="F81" s="159">
+      <c r="F81" s="157">
         <f>I81</f>
         <v>2.1757339633768379E-3</v>
       </c>
-      <c r="H81" s="235">
+      <c r="H81" s="233">
         <f>Inputs!F94</f>
         <v>15194992.810000001</v>
       </c>
-      <c r="I81" s="159">
+      <c r="I81" s="157">
         <f>H81/$H$74</f>
         <v>2.1757339633768379E-3</v>
       </c>
@@ -11374,59 +11369,59 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
         <v>0</v>
       </c>
-      <c r="D82" s="158">
+      <c r="D82" s="156">
         <f>C82/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E82" s="235">
+      <c r="E82" s="233">
         <f>Inputs!E95</f>
         <v>0</v>
       </c>
-      <c r="F82" s="159">
+      <c r="F82" s="157">
         <f>E82/E74</f>
         <v>0</v>
       </c>
-      <c r="H82" s="235">
+      <c r="H82" s="233">
         <f>Inputs!F95</f>
         <v>0</v>
       </c>
-      <c r="I82" s="159">
+      <c r="I82" s="157">
         <f>H82/$H$74</f>
         <v>0</v>
       </c>
       <c r="K82" s="24"/>
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B83" s="105" t="s">
-        <v>120</v>
-      </c>
-      <c r="C83" s="162">
+      <c r="B83" s="104" t="s">
+        <v>119</v>
+      </c>
+      <c r="C83" s="160">
         <f>C79-C81-C82-C80</f>
         <v>1450854360.8200006</v>
       </c>
-      <c r="D83" s="163">
+      <c r="D83" s="161">
         <f>C83/$C$74</f>
         <v>0.20774429762625657</v>
       </c>
-      <c r="E83" s="164">
+      <c r="E83" s="162">
         <f>E79-E81-E82-E80</f>
         <v>1450854360.8200004</v>
       </c>
-      <c r="F83" s="163">
+      <c r="F83" s="161">
         <f>E83/E74</f>
         <v>0.20774429762625654</v>
       </c>
-      <c r="H83" s="164">
+      <c r="H83" s="162">
         <f>H79-H81-H82-H80</f>
         <v>1450854360.8200004</v>
       </c>
-      <c r="I83" s="163">
+      <c r="I83" s="161">
         <f>H83/$H$74</f>
         <v>0.20774429762625654</v>
       </c>
@@ -11434,184 +11429,184 @@
     </row>
     <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B84" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="C84" s="208"/>
-      <c r="D84" s="158">
+        <v>92</v>
+      </c>
+      <c r="C84" s="206"/>
+      <c r="D84" s="156">
         <f>I84</f>
         <v>0.25</v>
       </c>
-      <c r="E84" s="209"/>
-      <c r="F84" s="178">
+      <c r="E84" s="207"/>
+      <c r="F84" s="176">
         <f t="shared" ref="F84" si="3">I84</f>
         <v>0.25</v>
       </c>
-      <c r="H84" s="209"/>
-      <c r="I84" s="201">
+      <c r="H84" s="207"/>
+      <c r="I84" s="199">
         <f>Inputs!C16</f>
         <v>0.25</v>
       </c>
       <c r="K84" s="24"/>
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B85" s="260" t="s">
-        <v>156</v>
-      </c>
-      <c r="C85" s="254">
+      <c r="B85" s="258" t="s">
+        <v>155</v>
+      </c>
+      <c r="C85" s="252">
         <f>C83*(1-I84)</f>
         <v>1088140770.6150005</v>
       </c>
-      <c r="D85" s="255">
+      <c r="D85" s="253">
         <f>C85/$C$74</f>
         <v>0.15580822321969243</v>
       </c>
-      <c r="E85" s="261">
+      <c r="E85" s="259">
         <f>E83*(1-F84)</f>
         <v>1088140770.6150002</v>
       </c>
-      <c r="F85" s="255">
+      <c r="F85" s="253">
         <f>E85/E74</f>
         <v>0.1558082232196924</v>
       </c>
-      <c r="G85" s="257"/>
-      <c r="H85" s="261">
+      <c r="G85" s="255"/>
+      <c r="H85" s="259">
         <f>H83*(1-I84)</f>
         <v>1088140770.6150002</v>
       </c>
-      <c r="I85" s="255">
+      <c r="I85" s="253">
         <f>H85/$H$74</f>
         <v>0.1558082232196924</v>
       </c>
       <c r="K85" s="24"/>
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B86" s="87" t="s">
-        <v>152</v>
-      </c>
-      <c r="C86" s="166">
+      <c r="B86" s="86" t="s">
+        <v>151</v>
+      </c>
+      <c r="C86" s="164">
         <f>C85*Data!C4/Common_Shares</f>
         <v>0.37186016159111168</v>
       </c>
-      <c r="D86" s="206"/>
-      <c r="E86" s="167">
+      <c r="D86" s="204"/>
+      <c r="E86" s="165">
         <f>E85*Data!C4/Common_Shares</f>
         <v>0.37186016159111157</v>
       </c>
-      <c r="F86" s="206"/>
-      <c r="H86" s="167">
+      <c r="F86" s="204"/>
+      <c r="H86" s="165">
         <f>H85*Data!C4/Common_Shares</f>
         <v>0.37186016159111157</v>
       </c>
-      <c r="I86" s="206"/>
+      <c r="I86" s="204"/>
       <c r="K86" s="24"/>
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B87" s="87" t="s">
-        <v>194</v>
-      </c>
-      <c r="C87" s="258">
+      <c r="B87" s="86" t="s">
+        <v>193</v>
+      </c>
+      <c r="C87" s="256">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.8867027563956061E-2</v>
-      </c>
-      <c r="D87" s="206"/>
-      <c r="E87" s="259">
+        <v>3.9011223449004782E-2</v>
+      </c>
+      <c r="D87" s="204"/>
+      <c r="E87" s="257">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.886702756395604E-2</v>
-      </c>
-      <c r="F87" s="206"/>
-      <c r="H87" s="259">
+        <v>3.9011223449004769E-2</v>
+      </c>
+      <c r="F87" s="204"/>
+      <c r="H87" s="257">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.886702756395604E-2</v>
-      </c>
-      <c r="I87" s="206"/>
+        <v>3.9011223449004769E-2</v>
+      </c>
+      <c r="I87" s="204"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B88" s="86" t="s">
-        <v>193</v>
-      </c>
-      <c r="C88" s="168">
+      <c r="B88" s="85" t="s">
+        <v>192</v>
+      </c>
+      <c r="C88" s="166">
         <f>Inputs!C44</f>
         <v>0.16</v>
       </c>
-      <c r="D88" s="165">
+      <c r="D88" s="163">
         <f>C88/C86</f>
         <v>0.43026926927421733</v>
       </c>
-      <c r="E88" s="169">
+      <c r="E88" s="167">
         <f>Inputs!E98</f>
         <v>0.16</v>
       </c>
-      <c r="F88" s="165">
+      <c r="F88" s="163">
         <f>E88/E86</f>
         <v>0.43026926927421749</v>
       </c>
-      <c r="H88" s="169">
+      <c r="H88" s="167">
         <f>Inputs!F98</f>
         <v>0.16</v>
       </c>
-      <c r="I88" s="165">
+      <c r="I88" s="163">
         <f>H88/H86</f>
         <v>0.43026926927421749</v>
       </c>
       <c r="K88" s="24"/>
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B89" s="87" t="s">
-        <v>206</v>
-      </c>
-      <c r="C89" s="258">
+      <c r="B89" s="86" t="s">
+        <v>205</v>
+      </c>
+      <c r="C89" s="256">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.6723287548804235E-2</v>
-      </c>
-      <c r="D89" s="206"/>
-      <c r="E89" s="258">
+        <v>1.6785330606896503E-2</v>
+      </c>
+      <c r="D89" s="204"/>
+      <c r="E89" s="256">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.6723287548804235E-2</v>
-      </c>
-      <c r="F89" s="206"/>
-      <c r="H89" s="258">
+        <v>1.6785330606896503E-2</v>
+      </c>
+      <c r="F89" s="204"/>
+      <c r="H89" s="256">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.6723287548804235E-2</v>
-      </c>
-      <c r="I89" s="206"/>
+        <v>1.6785330606896503E-2</v>
+      </c>
+      <c r="I89" s="204"/>
       <c r="K89" s="24"/>
     </row>
     <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B90" s="28"/>
-      <c r="C90" s="88"/>
+      <c r="C90" s="87"/>
     </row>
     <row r="91" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="5"/>
-      <c r="B91" s="106" t="str">
+      <c r="B91" s="105" t="str">
         <f xml:space="preserve"> "Valuation Drivers in "&amp;Dashboard!H3</f>
         <v>Valuation Drivers in HKD</v>
       </c>
       <c r="C91" s="21"/>
       <c r="K91" s="50" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="C92" s="197" t="str">
+        <v>146</v>
+      </c>
+      <c r="C92" s="195" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="E92" s="297" t="s">
-        <v>192</v>
-      </c>
-      <c r="F92" s="297"/>
-      <c r="G92" s="87"/>
-      <c r="H92" s="297" t="s">
+        <v>147</v>
+      </c>
+      <c r="E92" s="296" t="s">
         <v>191</v>
       </c>
-      <c r="I92" s="297"/>
+      <c r="F92" s="296"/>
+      <c r="G92" s="86"/>
+      <c r="H92" s="296" t="s">
+        <v>190</v>
+      </c>
+      <c r="I92" s="296"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11619,55 +11614,55 @@
         <f>C92&amp;" Discount Rate"</f>
         <v>CN Discount Rate</v>
       </c>
-      <c r="C93" s="135">
+      <c r="C93" s="134">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
         <v>8.6249999999999993E-2</v>
       </c>
-      <c r="D93" s="236">
+      <c r="D93" s="234">
         <f>Inputs!C86</f>
         <v>5</v>
       </c>
-      <c r="E93" s="87" t="s">
-        <v>195</v>
-      </c>
-      <c r="F93" s="143">
+      <c r="E93" s="86" t="s">
+        <v>194</v>
+      </c>
+      <c r="F93" s="142">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>7.2551459581551976</v>
-      </c>
-      <c r="H93" s="87" t="s">
-        <v>195</v>
-      </c>
-      <c r="I93" s="143">
+        <v>7.2585965889634876</v>
+      </c>
+      <c r="H93" s="86" t="s">
+        <v>194</v>
+      </c>
+      <c r="I93" s="142">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>7.2551459581551976</v>
+        <v>7.2585965889634876</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="C94" s="181">
+        <v>196</v>
+      </c>
+      <c r="C94" s="179">
         <f>Dashboard!G20</f>
         <v>0.15</v>
       </c>
-      <c r="D94" s="267">
+      <c r="D94" s="265">
         <f>Inputs!D87</f>
         <v>0.02</v>
       </c>
-      <c r="E94" s="87" t="s">
-        <v>196</v>
-      </c>
-      <c r="F94" s="143">
+      <c r="E94" s="86" t="s">
+        <v>195</v>
+      </c>
+      <c r="F94" s="142">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>2.8028543182658492</v>
-      </c>
-      <c r="H94" s="87" t="s">
-        <v>196</v>
-      </c>
-      <c r="I94" s="143">
+        <v>2.8030971809345799</v>
+      </c>
+      <c r="H94" s="86" t="s">
+        <v>195</v>
+      </c>
+      <c r="I94" s="142">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>2.8028543182658492</v>
+        <v>2.8030971809345799</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11677,123 +11672,123 @@
     </row>
     <row r="96" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A96" s="5"/>
-      <c r="B96" s="106" t="str">
+      <c r="B96" s="105" t="str">
         <f xml:space="preserve"> "Valuation in "&amp;Dashboard!H3</f>
         <v>Valuation in HKD</v>
       </c>
-      <c r="C96" s="126" t="str">
+      <c r="C96" s="125" t="str">
         <f>Dashboard!H3</f>
         <v>HKD</v>
       </c>
-      <c r="D96" s="123" t="s">
-        <v>199</v>
-      </c>
-      <c r="E96" s="182" t="str">
+      <c r="D96" s="122" t="s">
+        <v>198</v>
+      </c>
+      <c r="E96" s="180" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F96" s="224" t="s">
-        <v>222</v>
-      </c>
-      <c r="H96" s="182" t="str">
+      <c r="F96" s="222" t="s">
+        <v>221</v>
+      </c>
+      <c r="H96" s="180" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
-      <c r="I96" s="123" t="s">
-        <v>111</v>
+      <c r="I96" s="122" t="s">
+        <v>110</v>
       </c>
       <c r="K96" s="24"/>
     </row>
     <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C97" s="91">
+        <v>124</v>
+      </c>
+      <c r="C97" s="90">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>10555100707.267262</v>
-      </c>
-      <c r="D97" s="210"/>
-      <c r="E97" s="122">
+        <v>10560120834.483883</v>
+      </c>
+      <c r="D97" s="208"/>
+      <c r="E97" s="121">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>3.6070897815881846</v>
-      </c>
-      <c r="F97" s="210"/>
-      <c r="H97" s="122">
+        <v>3.6088053549481698</v>
+      </c>
+      <c r="F97" s="208"/>
+      <c r="H97" s="121">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>3.6070897815881846</v>
-      </c>
-      <c r="I97" s="122">
+        <v>3.6088053549481698</v>
+      </c>
+      <c r="I97" s="121">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>4.7973036305008554</v>
+        <v>4.7995852832476924</v>
       </c>
       <c r="K97" s="24"/>
     </row>
     <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="C98" s="90">
+        <f>-E53*Exchange_Rate</f>
+        <v>0</v>
+      </c>
+      <c r="D98" s="208"/>
+      <c r="E98" s="208"/>
+      <c r="F98" s="208"/>
+      <c r="H98" s="121">
+        <f>C98*Data!$C$4/Common_Shares</f>
+        <v>0</v>
+      </c>
+      <c r="I98" s="210"/>
+      <c r="K98" s="24"/>
+    </row>
+    <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B99" s="104" t="s">
         <v>139</v>
       </c>
-      <c r="C98" s="91">
-        <f>-E53*Exchange_Rate</f>
-        <v>0</v>
-      </c>
-      <c r="D98" s="210"/>
-      <c r="E98" s="210"/>
-      <c r="F98" s="210"/>
-      <c r="H98" s="122">
-        <f>C98*Data!$C$4/Common_Shares</f>
-        <v>0</v>
-      </c>
-      <c r="I98" s="212"/>
-      <c r="K98" s="24"/>
-    </row>
-    <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B99" s="105" t="s">
-        <v>140</v>
-      </c>
-      <c r="C99" s="108">
+      <c r="C99" s="107">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
         <v>0</v>
       </c>
-      <c r="D99" s="211"/>
-      <c r="E99" s="144">
+      <c r="D99" s="209"/>
+      <c r="E99" s="143">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
         <v>0</v>
       </c>
-      <c r="F99" s="211"/>
-      <c r="H99" s="144">
+      <c r="F99" s="209"/>
+      <c r="H99" s="143">
         <f>C99*Data!$C$4/Common_Shares</f>
         <v>0</v>
       </c>
-      <c r="I99" s="213"/>
+      <c r="I99" s="211"/>
       <c r="K99" s="24"/>
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B100" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C100" s="91">
+        <v>110</v>
+      </c>
+      <c r="C100" s="90">
         <f>C97+C98+$C$99</f>
-        <v>10555100707.267262</v>
-      </c>
-      <c r="D100" s="109">
+        <v>10560120834.483883</v>
+      </c>
+      <c r="D100" s="108">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>3.0660263143499566</v>
-      </c>
-      <c r="E100" s="109">
+        <v>3.0674845517059444</v>
+      </c>
+      <c r="E100" s="108">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>3.6070897815881846</v>
-      </c>
-      <c r="F100" s="109">
+        <v>3.6088053549481698</v>
+      </c>
+      <c r="F100" s="108">
         <f>(E100+H100)/2</f>
-        <v>3.6070897815881846</v>
-      </c>
-      <c r="H100" s="109">
+        <v>3.6088053549481698</v>
+      </c>
+      <c r="H100" s="108">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>3.6070897815881846</v>
-      </c>
-      <c r="I100" s="109">
+        <v>3.6088053549481698</v>
+      </c>
+      <c r="I100" s="108">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>4.7973036305008554</v>
+        <v>4.7995852832476924</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11803,58 +11798,58 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="C102" s="126" t="str">
+        <v>153</v>
+      </c>
+      <c r="C102" s="125" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
-      <c r="D102" s="123" t="s">
-        <v>199</v>
-      </c>
-      <c r="E102" s="182" t="str">
+      <c r="D102" s="122" t="s">
+        <v>198</v>
+      </c>
+      <c r="E102" s="180" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F102" s="224" t="s">
-        <v>222</v>
-      </c>
-      <c r="H102" s="182" t="str">
+      <c r="F102" s="222" t="s">
+        <v>221</v>
+      </c>
+      <c r="H102" s="180" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I102" s="123" t="s">
-        <v>111</v>
+      <c r="I102" s="122" t="s">
+        <v>110</v>
       </c>
       <c r="K102" s="24"/>
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C103" s="91">
+        <v>152</v>
+      </c>
+      <c r="C103" s="90">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>4077713910.6127009</v>
-      </c>
-      <c r="D103" s="109">
+        <v>4078067237.7464719</v>
+      </c>
+      <c r="D103" s="108">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.1844868655513094</v>
-      </c>
-      <c r="E103" s="122">
+        <v>1.1845894993697601</v>
+      </c>
+      <c r="E103" s="121">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.3935139594721289</v>
-      </c>
-      <c r="F103" s="109">
+        <v>1.3936347051408942</v>
+      </c>
+      <c r="F103" s="108">
         <f>(E103+H103)/2</f>
-        <v>1.3935139594721289</v>
-      </c>
-      <c r="H103" s="122">
+        <v>1.3936347051408942</v>
+      </c>
+      <c r="H103" s="121">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.3935139594721289</v>
-      </c>
-      <c r="I103" s="109">
+        <v>1.3936347051408942</v>
+      </c>
+      <c r="I103" s="108">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>1.8533249743470048</v>
+        <v>1.8534855618760684</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11864,58 +11859,58 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="C105" s="126" t="str">
+        <v>182</v>
+      </c>
+      <c r="C105" s="125" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
-      <c r="D105" s="123" t="s">
-        <v>199</v>
-      </c>
-      <c r="E105" s="183" t="str">
+      <c r="D105" s="122" t="s">
+        <v>198</v>
+      </c>
+      <c r="E105" s="181" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F105" s="224" t="s">
-        <v>222</v>
-      </c>
-      <c r="H105" s="183" t="str">
+      <c r="F105" s="222" t="s">
+        <v>221</v>
+      </c>
+      <c r="H105" s="181" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I105" s="123" t="s">
-        <v>111</v>
+      <c r="I105" s="122" t="s">
+        <v>110</v>
       </c>
       <c r="K105" s="24"/>
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C106" s="91">
+        <v>183</v>
+      </c>
+      <c r="C106" s="90">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>7316407308.9399815</v>
-      </c>
-      <c r="D106" s="109">
+        <v>7319094036.1151781</v>
+      </c>
+      <c r="D106" s="108">
         <f>(D100+D103)/2</f>
-        <v>2.125256589950633</v>
-      </c>
-      <c r="E106" s="122">
+        <v>2.126037025537852</v>
+      </c>
+      <c r="E106" s="121">
         <f>(E100+E103)/2</f>
-        <v>2.5003018705301567</v>
-      </c>
-      <c r="F106" s="109">
+        <v>2.5012200300445322</v>
+      </c>
+      <c r="F106" s="108">
         <f>(F100+F103)/2</f>
-        <v>2.5003018705301567</v>
-      </c>
-      <c r="H106" s="122">
+        <v>2.5012200300445322</v>
+      </c>
+      <c r="H106" s="121">
         <f>(H100+H103)/2</f>
-        <v>2.5003018705301567</v>
-      </c>
-      <c r="I106" s="122">
+        <v>2.5012200300445322</v>
+      </c>
+      <c r="I106" s="121">
         <f>(I100+I103)/2</f>
-        <v>3.32531430242393</v>
+        <v>3.3265354225618804</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -11924,15 +11919,16 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C108" s="127" t="str">
+        <v>156</v>
+      </c>
+      <c r="C108" s="126" t="str">
         <f>Inputs!C87</f>
         <v>Dividend</v>
       </c>
       <c r="K108" s="24"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="11">
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D57:E57"/>

--- a/financial_models/opportunities/0696.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0696.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8204F19-A527-4E82-9EBA-B4CA1631BC9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF0D740F-B9C3-4B2F-BD61-E404D9AB1677}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="277">
   <si>
     <t>Company Info:</t>
   </si>
@@ -980,6 +980,14 @@
   </si>
   <si>
     <t>Contin. Liabilities / Total Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leverage Ratio</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://pages.stern.nyu.edu/~adamodar/New_Home_Page/datafile/countrytaxrates.html</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1684,7 +1692,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="298">
+  <cellXfs count="300">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2336,9 +2344,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2347,9 +2352,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -2357,6 +2359,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2812,7 +2826,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C73" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -2834,7 +2848,7 @@
         <v>179</v>
       </c>
       <c r="C4" s="185" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2842,7 +2856,7 @@
         <v>180</v>
       </c>
       <c r="C5" s="188" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2875,7 +2889,7 @@
         <v>201</v>
       </c>
       <c r="C9" s="189" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2891,7 +2905,7 @@
         <v>203</v>
       </c>
       <c r="C11" s="189" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2934,13 +2948,16 @@
         <v>0.25</v>
       </c>
       <c r="D16" s="24"/>
+      <c r="E16" s="109" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="235" t="s">
         <v>208</v>
       </c>
       <c r="C17" s="237" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D17" s="24"/>
     </row>
@@ -2958,7 +2975,7 @@
         <v>223</v>
       </c>
       <c r="C19" s="237" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D19" s="24"/>
     </row>
@@ -2967,7 +2984,7 @@
         <v>212</v>
       </c>
       <c r="C20" s="237" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D20" s="24"/>
     </row>
@@ -2976,7 +2993,7 @@
         <v>215</v>
       </c>
       <c r="C21" s="237" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D21" s="24"/>
     </row>
@@ -2985,7 +3002,7 @@
         <v>214</v>
       </c>
       <c r="C22" s="238" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -3391,7 +3408,7 @@
       </c>
       <c r="C45" s="150">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>1.6785330606896503E-2</v>
+        <v>1.6677640999356907E-2</v>
       </c>
       <c r="D45" s="150" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -3814,7 +3831,7 @@
         <v>230</v>
       </c>
       <c r="C87" s="231" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D87" s="264">
         <v>0.02</v>
@@ -3824,11 +3841,11 @@
       <c r="B89" s="105" t="s">
         <v>121</v>
       </c>
-      <c r="C89" s="282">
+      <c r="C89" s="284">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="282"/>
+      <c r="D89" s="284"/>
       <c r="E89" s="88" t="s">
         <v>191</v>
       </c>
@@ -3842,10 +3859,10 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1CNY)</v>
       </c>
-      <c r="C90" s="283" t="s">
+      <c r="C90" s="285" t="s">
         <v>96</v>
       </c>
-      <c r="D90" s="283"/>
+      <c r="D90" s="285"/>
       <c r="E90" s="230" t="s">
         <v>97</v>
       </c>
@@ -4067,8 +4084,11 @@
       <formula1>"Consumer Monopoly,Unclear,Commodity-type Business"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="E16" r:id="rId1" xr:uid="{F8B38130-6ADB-477B-BA33-0F2CE7EF4838}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4081,8 +4101,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView showGridLines="0" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4125,60 +4145,60 @@
       <c r="B3" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="C3" s="288" t="str">
+      <c r="C3" s="290" t="str">
         <f>Inputs!C4</f>
         <v>0696.HK</v>
       </c>
-      <c r="D3" s="289"/>
+      <c r="D3" s="291"/>
       <c r="E3" s="86"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="130">
-        <v>10.18</v>
+        <v>10.24</v>
       </c>
       <c r="H3" s="132" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="C4" s="290" t="str">
+      <c r="C4" s="292" t="str">
         <f>Inputs!C5</f>
         <v>中國民航信息網絡</v>
       </c>
-      <c r="D4" s="291"/>
+      <c r="D4" s="293"/>
       <c r="E4" s="86"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="294">
+      <c r="G4" s="296">
         <f>Inputs!C10</f>
         <v>2926209589</v>
       </c>
-      <c r="H4" s="294"/>
+      <c r="H4" s="296"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C5" s="292">
+      <c r="C5" s="294">
         <f>Inputs!C6</f>
         <v>45603</v>
       </c>
-      <c r="D5" s="293"/>
+      <c r="D5" s="295"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="G5" s="286">
+      <c r="G5" s="288">
         <f>G3*G4/1000000</f>
-        <v>29788.813616020001</v>
-      </c>
-      <c r="H5" s="286"/>
+        <v>29964.386191360001</v>
+      </c>
+      <c r="H5" s="288"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -4201,11 +4221,11 @@
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="287" t="str">
+      <c r="G6" s="289" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="287"/>
+      <c r="H6" s="289"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4225,7 +4245,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="131">
-        <v>1.0679666598637898</v>
+        <v>1.067369023958842</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4346,7 +4366,7 @@
         <v>248</v>
       </c>
       <c r="C20" s="271" t="e">
-        <f>C23*C22*(1/C21)</f>
+        <f>C21*C22*C23</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F20" s="86" t="s">
@@ -4358,20 +4378,20 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B21" s="272" t="s">
-        <v>246</v>
-      </c>
-      <c r="C21" s="273" t="e">
-        <f>Data!C53</f>
-        <v>#DIV/0!</v>
+        <v>253</v>
+      </c>
+      <c r="C21" s="283">
+        <f>Data!C13</f>
+        <v>0.2099200315896334</v>
       </c>
       <c r="F21" s="86"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="274" t="s">
+      <c r="B22" s="273" t="s">
         <v>260</v>
       </c>
-      <c r="C22" s="275" t="e">
+      <c r="C22" s="274" t="e">
         <f>Data!C48</f>
         <v>#DIV/0!</v>
       </c>
@@ -4380,12 +4400,12 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="276" t="s">
-        <v>253</v>
-      </c>
-      <c r="C23" s="277">
-        <f>Data!C13</f>
-        <v>0.2099200315896334</v>
+      <c r="B23" s="275" t="s">
+        <v>266</v>
+      </c>
+      <c r="C23" s="282" t="e">
+        <f>1/Data!C53</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="F23" s="138" t="s">
         <v>174</v>
@@ -4396,10 +4416,10 @@
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="135" t="s">
+      <c r="B24" s="280" t="s">
         <v>254</v>
       </c>
-      <c r="C24" s="168">
+      <c r="C24" s="281">
         <f>Fin_Analysis!I81</f>
         <v>2.1757339633768379E-3</v>
       </c>
@@ -4408,7 +4428,7 @@
       </c>
       <c r="G24" s="263">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>25.633648770518409</v>
+        <v>25.799168436999498</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4440,7 +4460,7 @@
       </c>
       <c r="G26" s="175">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>1.6785330606896503E-2</v>
+        <v>1.6677640999356907E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4459,10 +4479,10 @@
       <c r="F28" s="53" t="s">
         <v>221</v>
       </c>
-      <c r="G28" s="284" t="s">
+      <c r="G28" s="286" t="s">
         <v>237</v>
       </c>
-      <c r="H28" s="284"/>
+      <c r="H28" s="286"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="86" t="s">
@@ -4470,22 +4490,22 @@
       </c>
       <c r="C29" s="128">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>1.1845894993697601</v>
+        <v>1.1832997746850675</v>
       </c>
       <c r="D29" s="127">
         <f>G29*(1+G20)</f>
-        <v>2.1315083961574786</v>
+        <v>2.1291877112319271</v>
       </c>
       <c r="E29" s="86"/>
       <c r="F29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>1.3936347051408942</v>
-      </c>
-      <c r="G29" s="285">
+        <v>1.3921173819824324</v>
+      </c>
+      <c r="G29" s="287">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>1.8534855618760684</v>
-      </c>
-      <c r="H29" s="285"/>
+        <v>1.8514675749842846</v>
+      </c>
+      <c r="H29" s="287"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5516,7 +5536,7 @@
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="3">
+  <dataValidations disablePrompts="1" count="3">
     <dataValidation type="list" allowBlank="1" sqref="G6" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
     </dataValidation>
@@ -7757,7 +7777,7 @@
       <c r="B47" s="101" t="s">
         <v>244</v>
       </c>
-      <c r="C47" s="278" t="s">
+      <c r="C47" s="276" t="s">
         <v>261</v>
       </c>
       <c r="D47" s="36"/>
@@ -9684,7 +9704,7 @@
       <c r="H3" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="280">
+      <c r="I3" s="278">
         <f>D3-D4</f>
         <v>0</v>
       </c>
@@ -10731,7 +10751,7 @@
       <c r="B48" s="80" t="s">
         <v>79</v>
       </c>
-      <c r="C48" s="281">
+      <c r="C48" s="279">
         <f>SUM(C30:C42)</f>
         <v>0</v>
       </c>
@@ -10748,7 +10768,7 @@
       <c r="H48" s="80" t="s">
         <v>80</v>
       </c>
-      <c r="I48" s="279">
+      <c r="I48" s="277">
         <f>I49-I28</f>
         <v>0</v>
       </c>
@@ -10857,11 +10877,11 @@
         <v>85</v>
       </c>
       <c r="C56" s="86"/>
-      <c r="D56" s="295">
+      <c r="D56" s="297">
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="293"/>
+      <c r="E56" s="295"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -10872,11 +10892,11 @@
         <v>86</v>
       </c>
       <c r="C57" s="86"/>
-      <c r="D57" s="294">
+      <c r="D57" s="296">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="293"/>
+      <c r="E57" s="295"/>
       <c r="G57" s="86"/>
       <c r="I57" s="86"/>
       <c r="K57" s="33" t="s">
@@ -10888,11 +10908,11 @@
         <v>88</v>
       </c>
       <c r="C58" s="86"/>
-      <c r="D58" s="294">
+      <c r="D58" s="296">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="293"/>
+      <c r="E58" s="295"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="86"/>
@@ -11106,19 +11126,19 @@
       <c r="B72" s="105" t="s">
         <v>121</v>
       </c>
-      <c r="C72" s="282">
+      <c r="C72" s="284">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="282"/>
-      <c r="E72" s="296" t="s">
+      <c r="D72" s="284"/>
+      <c r="E72" s="298" t="s">
         <v>191</v>
       </c>
-      <c r="F72" s="296"/>
-      <c r="H72" s="296" t="s">
+      <c r="F72" s="298"/>
+      <c r="H72" s="298" t="s">
         <v>190</v>
       </c>
-      <c r="I72" s="296"/>
+      <c r="I72" s="298"/>
       <c r="K72" s="50" t="s">
         <v>7</v>
       </c>
@@ -11128,18 +11148,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1CNY)</v>
       </c>
-      <c r="C73" s="283" t="s">
+      <c r="C73" s="285" t="s">
         <v>96</v>
       </c>
-      <c r="D73" s="283"/>
-      <c r="E73" s="297" t="s">
+      <c r="D73" s="285"/>
+      <c r="E73" s="299" t="s">
         <v>97</v>
       </c>
-      <c r="F73" s="283"/>
-      <c r="H73" s="297" t="s">
+      <c r="F73" s="285"/>
+      <c r="H73" s="299" t="s">
         <v>97</v>
       </c>
-      <c r="I73" s="283"/>
+      <c r="I73" s="285"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11506,17 +11526,17 @@
       </c>
       <c r="C87" s="256">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.9011223449004782E-2</v>
+        <v>3.8760939231121304E-2</v>
       </c>
       <c r="D87" s="204"/>
       <c r="E87" s="257">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.9011223449004769E-2</v>
+        <v>3.8760939231121297E-2</v>
       </c>
       <c r="F87" s="204"/>
       <c r="H87" s="257">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.9011223449004769E-2</v>
+        <v>3.8760939231121297E-2</v>
       </c>
       <c r="I87" s="204"/>
       <c r="K87" s="24"/>
@@ -11557,17 +11577,17 @@
       </c>
       <c r="C89" s="256">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.6785330606896503E-2</v>
+        <v>1.6677640999356907E-2</v>
       </c>
       <c r="D89" s="204"/>
       <c r="E89" s="256">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.6785330606896503E-2</v>
+        <v>1.6677640999356907E-2</v>
       </c>
       <c r="F89" s="204"/>
       <c r="H89" s="256">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.6785330606896503E-2</v>
+        <v>1.6677640999356907E-2</v>
       </c>
       <c r="I89" s="204"/>
       <c r="K89" s="24"/>
@@ -11598,15 +11618,15 @@
       <c r="D92" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="E92" s="296" t="s">
+      <c r="E92" s="298" t="s">
         <v>191</v>
       </c>
-      <c r="F92" s="296"/>
+      <c r="F92" s="298"/>
       <c r="G92" s="86"/>
-      <c r="H92" s="296" t="s">
+      <c r="H92" s="298" t="s">
         <v>190</v>
       </c>
-      <c r="I92" s="296"/>
+      <c r="I92" s="298"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11627,14 +11647,14 @@
       </c>
       <c r="F93" s="142">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>7.2585965889634876</v>
+        <v>7.2458012621620158</v>
       </c>
       <c r="H93" s="86" t="s">
         <v>194</v>
       </c>
       <c r="I93" s="142">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>7.2585965889634876</v>
+        <v>7.2458012621620158</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11655,14 +11675,14 @@
       </c>
       <c r="F94" s="142">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>2.8030971809345799</v>
+        <v>2.8000453020940475</v>
       </c>
       <c r="H94" s="86" t="s">
         <v>195</v>
       </c>
       <c r="I94" s="142">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>2.8030971809345799</v>
+        <v>2.8000453020940475</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11705,21 +11725,21 @@
       </c>
       <c r="C97" s="90">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>10560120834.483883</v>
+        <v>10541505638.628296</v>
       </c>
       <c r="D97" s="208"/>
       <c r="E97" s="121">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>3.6088053549481698</v>
+        <v>3.6024438161419394</v>
       </c>
       <c r="F97" s="208"/>
       <c r="H97" s="121">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>3.6088053549481698</v>
+        <v>3.6024438161419394</v>
       </c>
       <c r="I97" s="121">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>4.7995852832476924</v>
+        <v>4.7911246584618947</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11768,27 +11788,27 @@
       </c>
       <c r="C100" s="90">
         <f>C97+C98+$C$99</f>
-        <v>10560120834.483883</v>
+        <v>10541505638.628296</v>
       </c>
       <c r="D100" s="108">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>3.0674845517059444</v>
+        <v>3.0620772437206485</v>
       </c>
       <c r="E100" s="108">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>3.6088053549481698</v>
+        <v>3.6024438161419394</v>
       </c>
       <c r="F100" s="108">
         <f>(E100+H100)/2</f>
-        <v>3.6088053549481698</v>
+        <v>3.6024438161419394</v>
       </c>
       <c r="H100" s="108">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>3.6088053549481698</v>
+        <v>3.6024438161419394</v>
       </c>
       <c r="I100" s="108">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>4.7995852832476924</v>
+        <v>4.7911246584618947</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11829,27 +11849,27 @@
       </c>
       <c r="C103" s="90">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>4078067237.7464719</v>
+        <v>4073627232.1705694</v>
       </c>
       <c r="D103" s="108">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.1845894993697601</v>
+        <v>1.1832997746850675</v>
       </c>
       <c r="E103" s="121">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.3936347051408942</v>
+        <v>1.3921173819824324</v>
       </c>
       <c r="F103" s="108">
         <f>(E103+H103)/2</f>
-        <v>1.3936347051408942</v>
+        <v>1.3921173819824324</v>
       </c>
       <c r="H103" s="121">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.3936347051408942</v>
+        <v>1.3921173819824324</v>
       </c>
       <c r="I103" s="108">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>1.8534855618760684</v>
+        <v>1.8514675749842846</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11890,27 +11910,27 @@
       </c>
       <c r="C106" s="90">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>7319094036.1151781</v>
+        <v>7307566435.3994331</v>
       </c>
       <c r="D106" s="108">
         <f>(D100+D103)/2</f>
-        <v>2.126037025537852</v>
+        <v>2.1226885092028578</v>
       </c>
       <c r="E106" s="121">
         <f>(E100+E103)/2</f>
-        <v>2.5012200300445322</v>
+        <v>2.497280599062186</v>
       </c>
       <c r="F106" s="108">
         <f>(F100+F103)/2</f>
-        <v>2.5012200300445322</v>
+        <v>2.497280599062186</v>
       </c>
       <c r="H106" s="121">
         <f>(H100+H103)/2</f>
-        <v>2.5012200300445322</v>
+        <v>2.497280599062186</v>
       </c>
       <c r="I106" s="121">
         <f>(I100+I103)/2</f>
-        <v>3.3265354225618804</v>
+        <v>3.3212961167230897</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0696.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0696.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF0D740F-B9C3-4B2F-BD61-E404D9AB1677}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E4268B62-CA2F-4EE1-B406-812E56FB4EB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3408,7 +3408,7 @@
       </c>
       <c r="C45" s="150">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>1.6677640999356907E-2</v>
+        <v>1.6269791823913731E-2</v>
       </c>
       <c r="D45" s="150" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4155,7 +4155,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="130">
-        <v>10.24</v>
+        <v>10.48</v>
       </c>
       <c r="H3" s="132" t="s">
         <v>276</v>
@@ -4196,7 +4196,7 @@
       </c>
       <c r="G5" s="288">
         <f>G3*G4/1000000</f>
-        <v>29964.386191360001</v>
+        <v>30666.676492720002</v>
       </c>
       <c r="H5" s="288"/>
       <c r="I5" s="38"/>
@@ -4245,7 +4245,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="131">
-        <v>1.067369023958842</v>
+        <v>1.0656713644663494</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4428,7 +4428,7 @@
       </c>
       <c r="G24" s="263">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>25.799168436999498</v>
+        <v>26.445898873874796</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4460,7 +4460,7 @@
       </c>
       <c r="G26" s="175">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>1.6677640999356907E-2</v>
+        <v>1.6269791823913731E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4490,20 +4490,20 @@
       </c>
       <c r="C29" s="128">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>1.1832997746850675</v>
+        <v>1.1790499462770549</v>
       </c>
       <c r="D29" s="127">
         <f>G29*(1+G20)</f>
-        <v>2.1291877112319271</v>
+        <v>2.1215407204906396</v>
       </c>
       <c r="E29" s="86"/>
       <c r="F29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>1.3921173819824324</v>
+        <v>1.3871175838553589</v>
       </c>
       <c r="G29" s="287">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>1.8514675749842846</v>
+        <v>1.8448180178179476</v>
       </c>
       <c r="H29" s="287"/>
     </row>
@@ -9655,7 +9655,7 @@
   <dimension ref="A2:K108"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="C99" sqref="C99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -11526,17 +11526,17 @@
       </c>
       <c r="C87" s="256">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.8760939231121304E-2</v>
+        <v>3.7813046354339415E-2</v>
       </c>
       <c r="D87" s="204"/>
       <c r="E87" s="257">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.8760939231121297E-2</v>
+        <v>3.7813046354339408E-2</v>
       </c>
       <c r="F87" s="204"/>
       <c r="H87" s="257">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.8760939231121297E-2</v>
+        <v>3.7813046354339408E-2</v>
       </c>
       <c r="I87" s="204"/>
       <c r="K87" s="24"/>
@@ -11577,17 +11577,17 @@
       </c>
       <c r="C89" s="256">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.6677640999356907E-2</v>
+        <v>1.6269791823913731E-2</v>
       </c>
       <c r="D89" s="204"/>
       <c r="E89" s="256">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.6677640999356907E-2</v>
+        <v>1.6269791823913731E-2</v>
       </c>
       <c r="F89" s="204"/>
       <c r="H89" s="256">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.6677640999356907E-2</v>
+        <v>1.6269791823913731E-2</v>
       </c>
       <c r="I89" s="204"/>
       <c r="K89" s="24"/>
@@ -11647,14 +11647,14 @@
       </c>
       <c r="F93" s="142">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>7.2458012621620158</v>
+        <v>7.201329731768495</v>
       </c>
       <c r="H93" s="86" t="s">
         <v>194</v>
       </c>
       <c r="I93" s="142">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>7.2458012621620158</v>
+        <v>7.201329731768495</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11675,14 +11675,14 @@
       </c>
       <c r="F94" s="142">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>2.8000453020940475</v>
+        <v>2.7899889221951093</v>
       </c>
       <c r="H94" s="86" t="s">
         <v>195</v>
       </c>
       <c r="I94" s="142">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>2.8000453020940475</v>
+        <v>2.7899889221951093</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11725,21 +11725,21 @@
       </c>
       <c r="C97" s="90">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>10541505638.628296</v>
+        <v>10476806529.248934</v>
       </c>
       <c r="D97" s="208"/>
       <c r="E97" s="121">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>3.6024438161419394</v>
+        <v>3.5803336058471698</v>
       </c>
       <c r="F97" s="208"/>
       <c r="H97" s="121">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>3.6024438161419394</v>
+        <v>3.5803336058471698</v>
       </c>
       <c r="I97" s="121">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>4.7911246584618947</v>
+        <v>4.7617188497516016</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11766,7 +11766,7 @@
         <v>139</v>
       </c>
       <c r="C99" s="107">
-        <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
+        <f>(E65+IF(E70&lt;0,E70,0))*Exchange_Rate</f>
         <v>0</v>
       </c>
       <c r="D99" s="209"/>
@@ -11788,27 +11788,27 @@
       </c>
       <c r="C100" s="90">
         <f>C97+C98+$C$99</f>
-        <v>10541505638.628296</v>
+        <v>10476806529.248934</v>
       </c>
       <c r="D100" s="108">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>3.0620772437206485</v>
+        <v>3.043283564970094</v>
       </c>
       <c r="E100" s="108">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>3.6024438161419394</v>
+        <v>3.5803336058471698</v>
       </c>
       <c r="F100" s="108">
         <f>(E100+H100)/2</f>
-        <v>3.6024438161419394</v>
+        <v>3.5803336058471693</v>
       </c>
       <c r="H100" s="108">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>3.6024438161419394</v>
+        <v>3.5803336058471693</v>
       </c>
       <c r="I100" s="108">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>4.7911246584618947</v>
+        <v>4.7617188497516016</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11849,27 +11849,27 @@
       </c>
       <c r="C103" s="90">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>4073627232.1705694</v>
+        <v>4058996774.9480629</v>
       </c>
       <c r="D103" s="108">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.1832997746850675</v>
+        <v>1.1790499462770549</v>
       </c>
       <c r="E103" s="121">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.3921173819824324</v>
+        <v>1.3871175838553589</v>
       </c>
       <c r="F103" s="108">
         <f>(E103+H103)/2</f>
-        <v>1.3921173819824324</v>
+        <v>1.3871175838553589</v>
       </c>
       <c r="H103" s="121">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.3921173819824324</v>
+        <v>1.3871175838553589</v>
       </c>
       <c r="I103" s="108">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>1.8514675749842846</v>
+        <v>1.8448180178179476</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11910,27 +11910,27 @@
       </c>
       <c r="C106" s="90">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>7307566435.3994331</v>
+        <v>7267901652.0984993</v>
       </c>
       <c r="D106" s="108">
         <f>(D100+D103)/2</f>
-        <v>2.1226885092028578</v>
+        <v>2.1111667556235743</v>
       </c>
       <c r="E106" s="121">
         <f>(E100+E103)/2</f>
-        <v>2.497280599062186</v>
+        <v>2.4837255948512644</v>
       </c>
       <c r="F106" s="108">
         <f>(F100+F103)/2</f>
-        <v>2.497280599062186</v>
+        <v>2.483725594851264</v>
       </c>
       <c r="H106" s="121">
         <f>(H100+H103)/2</f>
-        <v>2.497280599062186</v>
+        <v>2.483725594851264</v>
       </c>
       <c r="I106" s="121">
         <f>(I100+I103)/2</f>
-        <v>3.3212961167230897</v>
+        <v>3.3032684337847744</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0696.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0696.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CDC28CFA-B0D7-4471-9B9B-A124EF146B51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F0E31A1-95ED-4870-B4F5-9B5B913DF2D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3621,7 +3621,7 @@
       </c>
       <c r="C45" s="87">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>1.6119742634320498E-2</v>
+        <v>1.5937623013271375E-2</v>
       </c>
       <c r="D45" s="87" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4368,7 +4368,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>10.56</v>
+        <v>10.68</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>259</v>
@@ -4409,7 +4409,7 @@
       </c>
       <c r="G5" s="313">
         <f>G3*G4/1000000</f>
-        <v>30900.77325984</v>
+        <v>31251.91841052</v>
       </c>
       <c r="H5" s="313"/>
       <c r="I5" s="17"/>
@@ -4458,7 +4458,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="21">
-        <v>1.0639030138651531</v>
+        <v>1.0638363361358643</v>
       </c>
       <c r="H7" s="22" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4589,7 +4589,7 @@
         <v>0.15</v>
       </c>
       <c r="H20" s="307">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
@@ -4646,7 +4646,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>26.692068169756773</v>
+        <v>26.99707910746346</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4678,7 +4678,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>1.6119742634320498E-2</v>
+        <v>1.5937623013271375E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4708,20 +4708,20 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>1.5065939270929383</v>
+        <v>1.1750973928096229</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>2.4186848251015509</v>
+        <v>2.11442863575025</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>1.772463443638751</v>
+        <v>1.3824675209524975</v>
       </c>
       <c r="G29" s="312">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>2.1032041957404792</v>
+        <v>1.8386335963045655</v>
       </c>
       <c r="H29" s="312"/>
     </row>
@@ -11758,17 +11758,17 @@
       </c>
       <c r="C87" s="238">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.7464313130034711E-2</v>
+        <v>3.704104418183321E-2</v>
       </c>
       <c r="D87" s="103"/>
       <c r="E87" s="239">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.7464313130034697E-2</v>
+        <v>3.7041044181833196E-2</v>
       </c>
       <c r="F87" s="103"/>
       <c r="H87" s="239">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.7464313130034697E-2</v>
+        <v>3.7041044181833196E-2</v>
       </c>
       <c r="I87" s="103"/>
       <c r="K87" s="75"/>
@@ -11809,17 +11809,17 @@
       </c>
       <c r="C89" s="238">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.6119742634320498E-2</v>
+        <v>1.5937623013271375E-2</v>
       </c>
       <c r="D89" s="103"/>
       <c r="E89" s="238">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.6119742634320498E-2</v>
+        <v>1.5937623013271375E-2</v>
       </c>
       <c r="F89" s="103"/>
       <c r="H89" s="238">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.6119742634320498E-2</v>
+        <v>1.5937623013271375E-2</v>
       </c>
       <c r="I89" s="103"/>
       <c r="K89" s="75"/>
@@ -11872,21 +11872,21 @@
       </c>
       <c r="D93" s="259">
         <f>Dashboard!H20</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="F93" s="243">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>6.6683027685586094</v>
+        <v>7.162230893021226</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="I93" s="243">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>6.6683027685586094</v>
+        <v>7.162230893021226</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -11907,14 +11907,14 @@
       </c>
       <c r="F94" s="243">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>2.6956953398440846</v>
+        <v>2.7806359847531117</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>185</v>
       </c>
       <c r="I94" s="243">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>2.6956953398440846</v>
+        <v>2.7806359847531117</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -11957,21 +11957,21 @@
       </c>
       <c r="C97" s="249">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>12830016604.725212</v>
+        <v>10419923844.476654</v>
       </c>
       <c r="D97" s="250"/>
       <c r="E97" s="251">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>4.3845173130984545</v>
+        <v>3.5608945728448482</v>
       </c>
       <c r="F97" s="250"/>
       <c r="H97" s="251">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>4.3845173130984545</v>
+        <v>3.5608945728448482</v>
       </c>
       <c r="I97" s="251">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>5.2026659518992586</v>
+        <v>4.7358656136964674</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12021,23 +12021,23 @@
       <c r="C100" s="249"/>
       <c r="D100" s="257">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>3.7268397161336861</v>
+        <v>3.026760386918121</v>
       </c>
       <c r="E100" s="257">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>4.3845173130984545</v>
+        <v>3.5608945728448482</v>
       </c>
       <c r="F100" s="257">
         <f>(E100+H100)/2</f>
-        <v>4.3845173130984545</v>
+        <v>3.5608945728448482</v>
       </c>
       <c r="H100" s="257">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>4.3845173130984545</v>
+        <v>3.5608945728448482</v>
       </c>
       <c r="I100" s="257">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>5.2026659518992586</v>
+        <v>4.7358656136964674</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12076,23 +12076,23 @@
       <c r="C103" s="249"/>
       <c r="D103" s="257">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.5065939270929383</v>
+        <v>1.1750973928096229</v>
       </c>
       <c r="E103" s="251">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.772463443638751</v>
+        <v>1.3824675209524975</v>
       </c>
       <c r="F103" s="257">
         <f>(E103+H103)/2</f>
-        <v>1.772463443638751</v>
+        <v>1.3824675209524975</v>
       </c>
       <c r="H103" s="251">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.772463443638751</v>
+        <v>1.3824675209524975</v>
       </c>
       <c r="I103" s="257">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>2.1032041957404792</v>
+        <v>1.8386335963045655</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12131,23 +12131,23 @@
       <c r="C106" s="249"/>
       <c r="D106" s="257">
         <f>(D100+D103)/2</f>
-        <v>2.6167168216133123</v>
+        <v>2.1009288898638721</v>
       </c>
       <c r="E106" s="251">
         <f>(E100+E103)/2</f>
-        <v>3.0784903783686026</v>
+        <v>2.4716810468986727</v>
       </c>
       <c r="F106" s="257">
         <f>(F100+F103)/2</f>
-        <v>3.0784903783686026</v>
+        <v>2.4716810468986727</v>
       </c>
       <c r="H106" s="251">
         <f>(H100+H103)/2</f>
-        <v>3.0784903783686026</v>
+        <v>2.4716810468986727</v>
       </c>
       <c r="I106" s="251">
         <f>(I100+I103)/2</f>
-        <v>3.6529350738198687</v>
+        <v>3.2872496050005164</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/0696.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0696.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F0E31A1-95ED-4870-B4F5-9B5B913DF2D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF8BF77C-C9AC-4441-90F2-179D5D12B572}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -2588,6 +2588,9 @@
     <xf numFmtId="181" fontId="37" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2604,9 +2607,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2820,11 +2820,11 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFCC"/>
       <color rgb="FFB6D7A8"/>
       <color rgb="FF2F75B5"/>
-      <color rgb="FFFFFFCC"/>
       <color rgb="FFFF0000"/>
-      <color rgb="FF0000FF"/>
       <color rgb="FFCCFF33"/>
     </mruColors>
   </colors>
@@ -3039,7 +3039,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3064,6 +3064,7 @@
       <c r="C4" s="66" t="s">
         <v>280</v>
       </c>
+      <c r="D4" s="66"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B5" s="46" t="s">
@@ -3621,7 +3622,7 @@
       </c>
       <c r="C45" s="87">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>1.5937623013271375E-2</v>
+        <v>1.5848586013197233E-2</v>
       </c>
       <c r="D45" s="87" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4273,7 +4274,7 @@
       <formula>LEN(TRIM(E98))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="8">
+  <dataValidations count="9">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{4F1A5CDA-569A-4509-AA2D-9CF95C6DB1A5}">
       <formula1>"Tier 1, Superior Cycl. ,Tier 3, N"</formula1>
     </dataValidation>
@@ -4296,6 +4297,9 @@
     <dataValidation type="list" allowBlank="1" sqref="C22" xr:uid="{AC11383D-4B80-4250-901A-577B0CB0078C}">
       <formula1>"Consumer Monopoly,Unclear,Commodity-type Business"</formula1>
     </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D4" xr:uid="{EC47C593-A7DE-4ABB-B6D2-C8BF531E4639}">
+      <formula1>"HOLD"</formula1>
+    </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="E16" r:id="rId1" xr:uid="{F8B38130-6ADB-477B-BA33-0F2CE7EF4838}"/>
@@ -4314,8 +4318,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4351,24 +4355,27 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
+      <c r="G2" s="311" t="str">
+        <f>IF(Inputs!D4="","",Inputs!D4)</f>
+        <v/>
+      </c>
+      <c r="H2" s="311"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="C3" s="315" t="str">
+      <c r="C3" s="316" t="str">
         <f>Inputs!C4</f>
         <v>0696.HK</v>
       </c>
-      <c r="D3" s="316"/>
+      <c r="D3" s="317"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>10.68</v>
+        <v>10.74</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>259</v>
@@ -4378,7 +4385,7 @@
       <c r="B4" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="C4" s="317" t="str">
+      <c r="C4" s="311" t="str">
         <f>Inputs!C5</f>
         <v>中國民航信息網絡</v>
       </c>
@@ -4407,11 +4414,11 @@
       <c r="F5" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="313">
+      <c r="G5" s="314">
         <f>G3*G4/1000000</f>
-        <v>31251.91841052</v>
-      </c>
-      <c r="H5" s="313"/>
+        <v>31427.49098586</v>
+      </c>
+      <c r="H5" s="314"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4434,11 +4441,11 @@
       <c r="F6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="314" t="str">
+      <c r="G6" s="315" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="314"/>
+      <c r="H6" s="315"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4506,10 +4513,10 @@
         <v>221</v>
       </c>
       <c r="C12" s="120">
-        <v>7.4999999999999997E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D12" s="121">
-        <v>8.0625000000000002E-2</v>
+        <v>7.5250000000000011E-2</v>
       </c>
       <c r="F12" s="25"/>
     </row>
@@ -4556,7 +4563,7 @@
         <v>222</v>
       </c>
       <c r="C17" s="119">
-        <v>8.6249999999999993E-2</v>
+        <v>8.0500000000000002E-2</v>
       </c>
       <c r="D17" s="122"/>
     </row>
@@ -4646,7 +4653,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>26.99707910746346</v>
+        <v>27.148748091213257</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4678,7 +4685,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>1.5937623013271375E-2</v>
+        <v>1.5848586013197233E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4697,10 +4704,10 @@
       <c r="F28" s="52" t="s">
         <v>210</v>
       </c>
-      <c r="G28" s="311" t="s">
+      <c r="G28" s="312" t="s">
         <v>225</v>
       </c>
-      <c r="H28" s="311"/>
+      <c r="H28" s="312"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4708,22 +4715,22 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>1.1750973928096229</v>
+        <v>1.2862164331753334</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>2.11442863575025</v>
+        <v>2.3766121568625382</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>1.3824675209524975</v>
-      </c>
-      <c r="G29" s="312">
+        <v>1.5131958037356863</v>
+      </c>
+      <c r="G29" s="313">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>1.8386335963045655</v>
-      </c>
-      <c r="H29" s="312"/>
+        <v>2.06661926683699</v>
+      </c>
+      <c r="H29" s="313"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5705,15 +5712,16 @@
     <row r="922" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G2:H2"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="G6:H6"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -5741,7 +5749,7 @@
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="3">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" sqref="G6" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
     </dataValidation>
@@ -11758,17 +11766,17 @@
       </c>
       <c r="C87" s="238">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.704104418183321E-2</v>
+        <v>3.6834110974113467E-2</v>
       </c>
       <c r="D87" s="103"/>
       <c r="E87" s="239">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.7041044181833196E-2</v>
+        <v>3.683411097411346E-2</v>
       </c>
       <c r="F87" s="103"/>
       <c r="H87" s="239">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.7041044181833196E-2</v>
+        <v>3.683411097411346E-2</v>
       </c>
       <c r="I87" s="103"/>
       <c r="K87" s="75"/>
@@ -11809,17 +11817,17 @@
       </c>
       <c r="C89" s="238">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.5937623013271375E-2</v>
+        <v>1.5848586013197233E-2</v>
       </c>
       <c r="D89" s="103"/>
       <c r="E89" s="238">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.5937623013271375E-2</v>
+        <v>1.5848586013197233E-2</v>
       </c>
       <c r="F89" s="103"/>
       <c r="H89" s="238">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.5937623013271375E-2</v>
+        <v>1.5848586013197233E-2</v>
       </c>
       <c r="I89" s="103"/>
       <c r="K89" s="75"/>
@@ -11868,7 +11876,7 @@
       </c>
       <c r="C93" s="242">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>8.6249999999999993E-2</v>
+        <v>8.0500000000000002E-2</v>
       </c>
       <c r="D93" s="259">
         <f>Dashboard!H20</f>
@@ -11879,14 +11887,14 @@
       </c>
       <c r="F93" s="243">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>7.162230893021226</v>
+        <v>7.8351169329273924</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="I93" s="243">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>7.162230893021226</v>
+        <v>7.8351169329273924</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -11907,14 +11915,14 @@
       </c>
       <c r="F94" s="243">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>2.7806359847531117</v>
+        <v>3.0435772559386112</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>185</v>
       </c>
       <c r="I94" s="243">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>2.7806359847531117</v>
+        <v>3.0435772559386112</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -11957,21 +11965,21 @@
       </c>
       <c r="C97" s="249">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>10419923844.476654</v>
+        <v>11398867611.65757</v>
       </c>
       <c r="D97" s="250"/>
       <c r="E97" s="251">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>3.5608945728448482</v>
+        <v>3.8954378573931909</v>
       </c>
       <c r="F97" s="250"/>
       <c r="H97" s="251">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>3.5608945728448482</v>
+        <v>3.8954378573931909</v>
       </c>
       <c r="I97" s="251">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>4.7358656136964674</v>
+        <v>5.3201224249899859</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12021,23 +12029,23 @@
       <c r="C100" s="249"/>
       <c r="D100" s="257">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>3.026760386918121</v>
+        <v>3.311122178784212</v>
       </c>
       <c r="E100" s="257">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>3.5608945728448482</v>
+        <v>3.8954378573931909</v>
       </c>
       <c r="F100" s="257">
         <f>(E100+H100)/2</f>
-        <v>3.5608945728448482</v>
+        <v>3.8954378573931909</v>
       </c>
       <c r="H100" s="257">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>3.5608945728448482</v>
+        <v>3.8954378573931909</v>
       </c>
       <c r="I100" s="257">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>4.7358656136964674</v>
+        <v>5.3201224249899859</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12076,23 +12084,23 @@
       <c r="C103" s="249"/>
       <c r="D103" s="257">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.1750973928096229</v>
+        <v>1.2862164331753334</v>
       </c>
       <c r="E103" s="251">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.3824675209524975</v>
+        <v>1.5131958037356863</v>
       </c>
       <c r="F103" s="257">
         <f>(E103+H103)/2</f>
-        <v>1.3824675209524975</v>
+        <v>1.5131958037356863</v>
       </c>
       <c r="H103" s="251">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.3824675209524975</v>
+        <v>1.5131958037356863</v>
       </c>
       <c r="I103" s="257">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>1.8386335963045655</v>
+        <v>2.06661926683699</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12131,23 +12139,23 @@
       <c r="C106" s="249"/>
       <c r="D106" s="257">
         <f>(D100+D103)/2</f>
-        <v>2.1009288898638721</v>
+        <v>2.2986693059797725</v>
       </c>
       <c r="E106" s="251">
         <f>(E100+E103)/2</f>
-        <v>2.4716810468986727</v>
+        <v>2.7043168305644385</v>
       </c>
       <c r="F106" s="257">
         <f>(F100+F103)/2</f>
-        <v>2.4716810468986727</v>
+        <v>2.7043168305644385</v>
       </c>
       <c r="H106" s="251">
         <f>(H100+H103)/2</f>
-        <v>2.4716810468986727</v>
+        <v>2.7043168305644385</v>
       </c>
       <c r="I106" s="251">
         <f>(I100+I103)/2</f>
-        <v>3.2872496050005164</v>
+        <v>3.693370845913488</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/0696.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0696.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF8BF77C-C9AC-4441-90F2-179D5D12B572}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{613C4FE5-7793-4708-8BEA-9644917AC162}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2588,31 +2588,31 @@
     <xf numFmtId="181" fontId="37" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3622,7 +3622,7 @@
       </c>
       <c r="C45" s="87">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>1.5848586013197233E-2</v>
+        <v>1.596752474500359E-2</v>
       </c>
       <c r="D45" s="87" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4355,27 +4355,27 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="311" t="str">
+      <c r="G2" s="313" t="str">
         <f>IF(Inputs!D4="","",Inputs!D4)</f>
         <v/>
       </c>
-      <c r="H2" s="311"/>
+      <c r="H2" s="313"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="C3" s="316" t="str">
+      <c r="C3" s="311" t="str">
         <f>Inputs!C4</f>
         <v>0696.HK</v>
       </c>
-      <c r="D3" s="317"/>
+      <c r="D3" s="312"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>10.74</v>
+        <v>10.66</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>259</v>
@@ -4385,40 +4385,40 @@
       <c r="B4" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="C4" s="311" t="str">
+      <c r="C4" s="313" t="str">
         <f>Inputs!C5</f>
         <v>中國民航信息網絡</v>
       </c>
-      <c r="D4" s="318"/>
+      <c r="D4" s="314"/>
       <c r="E4" s="3"/>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="321">
+      <c r="G4" s="317">
         <f>Inputs!C10</f>
         <v>2926209589</v>
       </c>
-      <c r="H4" s="321"/>
+      <c r="H4" s="317"/>
       <c r="I4" s="14"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="C5" s="319">
+      <c r="C5" s="315">
         <f>Inputs!C6</f>
         <v>45603</v>
       </c>
-      <c r="D5" s="320"/>
+      <c r="D5" s="316"/>
       <c r="E5" s="16"/>
       <c r="F5" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="314">
+      <c r="G5" s="320">
         <f>G3*G4/1000000</f>
-        <v>31427.49098586</v>
-      </c>
-      <c r="H5" s="314"/>
+        <v>31193.394218740003</v>
+      </c>
+      <c r="H5" s="320"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4441,11 +4441,11 @@
       <c r="F6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="315" t="str">
+      <c r="G6" s="321" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="315"/>
+      <c r="H6" s="321"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4596,7 +4596,7 @@
         <v>0.15</v>
       </c>
       <c r="H20" s="307">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
@@ -4653,7 +4653,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>27.148748091213257</v>
+        <v>26.946522779546861</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4685,7 +4685,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>1.5848586013197233E-2</v>
+        <v>1.596752474500359E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4704,10 +4704,10 @@
       <c r="F28" s="52" t="s">
         <v>210</v>
       </c>
-      <c r="G28" s="312" t="s">
+      <c r="G28" s="318" t="s">
         <v>225</v>
       </c>
-      <c r="H28" s="312"/>
+      <c r="H28" s="318"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4715,22 +4715,22 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>1.2862164331753334</v>
+        <v>1.4567542581906878</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>2.3766121568625382</v>
+        <v>2.5290504184925795</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>1.5131958037356863</v>
-      </c>
-      <c r="G29" s="313">
+        <v>1.713828539047868</v>
+      </c>
+      <c r="G29" s="319">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>2.06661926683699</v>
-      </c>
-      <c r="H29" s="313"/>
+        <v>2.1991742769500693</v>
+      </c>
+      <c r="H29" s="319"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5713,15 +5713,15 @@
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -11094,7 +11094,7 @@
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="320"/>
+      <c r="E56" s="316"/>
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
       <c r="I56" s="176"/>
@@ -11105,11 +11105,11 @@
         <v>82</v>
       </c>
       <c r="C57" s="3"/>
-      <c r="D57" s="321">
+      <c r="D57" s="317">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="320"/>
+      <c r="E57" s="316"/>
       <c r="G57" s="3"/>
       <c r="I57" s="3"/>
       <c r="K57" s="178" t="s">
@@ -11121,11 +11121,11 @@
         <v>84</v>
       </c>
       <c r="C58" s="3"/>
-      <c r="D58" s="321">
+      <c r="D58" s="317">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="320"/>
+      <c r="E58" s="316"/>
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
       <c r="I58" s="3"/>
@@ -11766,17 +11766,17 @@
       </c>
       <c r="C87" s="238">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.6834110974113467E-2</v>
+        <v>3.7110539574294436E-2</v>
       </c>
       <c r="D87" s="103"/>
       <c r="E87" s="239">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.683411097411346E-2</v>
+        <v>3.7110539574294422E-2</v>
       </c>
       <c r="F87" s="103"/>
       <c r="H87" s="239">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.683411097411346E-2</v>
+        <v>3.7110539574294422E-2</v>
       </c>
       <c r="I87" s="103"/>
       <c r="K87" s="75"/>
@@ -11817,17 +11817,17 @@
       </c>
       <c r="C89" s="238">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.5848586013197233E-2</v>
+        <v>1.596752474500359E-2</v>
       </c>
       <c r="D89" s="103"/>
       <c r="E89" s="238">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.5848586013197233E-2</v>
+        <v>1.596752474500359E-2</v>
       </c>
       <c r="F89" s="103"/>
       <c r="H89" s="238">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.5848586013197233E-2</v>
+        <v>1.596752474500359E-2</v>
       </c>
       <c r="I89" s="103"/>
       <c r="K89" s="75"/>
@@ -11880,21 +11880,21 @@
       </c>
       <c r="D93" s="259">
         <f>Dashboard!H20</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="F93" s="243">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>7.8351169329273924</v>
+        <v>7.5648320415642942</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="I93" s="243">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>7.8351169329273924</v>
+        <v>7.5648320415642942</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -11915,14 +11915,14 @@
       </c>
       <c r="F94" s="243">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>3.0435772559386112</v>
+        <v>2.9974968262230894</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>185</v>
       </c>
       <c r="I94" s="243">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>3.0435772559386112</v>
+        <v>2.9974968262230894</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -11965,21 +11965,21 @@
       </c>
       <c r="C97" s="249">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>11398867611.65757</v>
+        <v>12656492256.216862</v>
       </c>
       <c r="D97" s="250"/>
       <c r="E97" s="251">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>3.8954378573931909</v>
+        <v>4.3252172721305584</v>
       </c>
       <c r="F97" s="250"/>
       <c r="H97" s="251">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>3.8954378573931909</v>
+        <v>4.3252172721305584</v>
       </c>
       <c r="I97" s="251">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>5.3201224249899859</v>
+        <v>5.5500922935815336</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12029,23 +12029,23 @@
       <c r="C100" s="249"/>
       <c r="D100" s="257">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>3.311122178784212</v>
+        <v>3.6764346813109747</v>
       </c>
       <c r="E100" s="257">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>3.8954378573931909</v>
+        <v>4.3252172721305584</v>
       </c>
       <c r="F100" s="257">
         <f>(E100+H100)/2</f>
-        <v>3.8954378573931909</v>
+        <v>4.3252172721305584</v>
       </c>
       <c r="H100" s="257">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>3.8954378573931909</v>
+        <v>4.3252172721305584</v>
       </c>
       <c r="I100" s="257">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>5.3201224249899859</v>
+        <v>5.5500922935815336</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12084,23 +12084,23 @@
       <c r="C103" s="249"/>
       <c r="D103" s="257">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.2862164331753334</v>
+        <v>1.4567542581906878</v>
       </c>
       <c r="E103" s="251">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.5131958037356863</v>
+        <v>1.713828539047868</v>
       </c>
       <c r="F103" s="257">
         <f>(E103+H103)/2</f>
-        <v>1.5131958037356863</v>
+        <v>1.713828539047868</v>
       </c>
       <c r="H103" s="251">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.5131958037356863</v>
+        <v>1.713828539047868</v>
       </c>
       <c r="I103" s="257">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>2.06661926683699</v>
+        <v>2.1991742769500693</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12139,23 +12139,23 @@
       <c r="C106" s="249"/>
       <c r="D106" s="257">
         <f>(D100+D103)/2</f>
-        <v>2.2986693059797725</v>
+        <v>2.5665944697508314</v>
       </c>
       <c r="E106" s="251">
         <f>(E100+E103)/2</f>
-        <v>2.7043168305644385</v>
+        <v>3.0195229055892132</v>
       </c>
       <c r="F106" s="257">
         <f>(F100+F103)/2</f>
-        <v>2.7043168305644385</v>
+        <v>3.0195229055892132</v>
       </c>
       <c r="H106" s="251">
         <f>(H100+H103)/2</f>
-        <v>2.7043168305644385</v>
+        <v>3.0195229055892132</v>
       </c>
       <c r="I106" s="251">
         <f>(I100+I103)/2</f>
-        <v>3.693370845913488</v>
+        <v>3.8746332852658014</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/0696.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0696.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F1BDD376-E9AC-4F1D-A3A5-4FD0F7F33D68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B21CEB88-C441-48A9-8012-CAF2BC254E63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2205" yWindow="2205" windowWidth="12690" windowHeight="7642" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -2601,6 +2601,9 @@
     <xf numFmtId="181" fontId="37" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2617,9 +2620,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3645,7 +3645,7 @@
       </c>
       <c r="C45" s="82">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>1.5967024945705812E-2</v>
+        <v>1.7116103180289468E-2</v>
       </c>
       <c r="D45" s="82" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4383,27 +4383,27 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="318" t="str">
+      <c r="G2" s="312" t="str">
         <f>IF(Inputs!D4="","",Inputs!D4)</f>
         <v/>
       </c>
-      <c r="H2" s="318"/>
+      <c r="H2" s="312"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="C3" s="316" t="str">
+      <c r="C3" s="317" t="str">
         <f>Inputs!C4</f>
         <v>0696.HK</v>
       </c>
-      <c r="D3" s="317"/>
+      <c r="D3" s="318"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>10.66</v>
+        <v>9.9499999999999993</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>256</v>
@@ -4413,7 +4413,7 @@
       <c r="B4" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="C4" s="318" t="str">
+      <c r="C4" s="312" t="str">
         <f>Inputs!C5</f>
         <v>中國民航信息網絡</v>
       </c>
@@ -4442,11 +4442,11 @@
       <c r="F5" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="314">
+      <c r="G5" s="315">
         <f>G3*G4/1000000</f>
-        <v>31193.394218740003</v>
-      </c>
-      <c r="H5" s="314"/>
+        <v>29115.785410550001</v>
+      </c>
+      <c r="H5" s="315"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4469,11 +4469,11 @@
       <c r="F6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="315" t="str">
+      <c r="G6" s="316" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="315"/>
+      <c r="H6" s="316"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4493,7 +4493,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="21">
-        <v>1.0638030370076497</v>
+        <v>1.0644076665242512</v>
       </c>
       <c r="H7" s="22" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4681,7 +4681,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>26.94736625873028</v>
+        <v>25.138272698058177</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4713,7 +4713,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>1.5967024945705812E-2</v>
+        <v>1.7116103180289468E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4732,10 +4732,10 @@
       <c r="F28" s="52" t="s">
         <v>208</v>
       </c>
-      <c r="G28" s="312" t="s">
+      <c r="G28" s="313" t="s">
         <v>223</v>
       </c>
-      <c r="H28" s="312"/>
+      <c r="H28" s="313"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4743,22 +4743,22 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>1.4688450088170779</v>
+        <v>1.476340083714929</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>2.554766577804263</v>
+        <v>2.5678027843013598</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>1.7280529515495036</v>
-      </c>
-      <c r="G29" s="313">
+        <v>1.7368706867234458</v>
+      </c>
+      <c r="G29" s="314">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>2.2215361546124028</v>
-      </c>
-      <c r="H29" s="313"/>
+        <v>2.2328719863490085</v>
+      </c>
+      <c r="H29" s="314"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5741,15 +5741,15 @@
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="G4:H4"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="G6:H6"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -11896,17 +11896,17 @@
       </c>
       <c r="C87" s="232">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.7109377977746709E-2</v>
+        <v>3.9779980590203635E-2</v>
       </c>
       <c r="D87" s="98"/>
       <c r="E87" s="233">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.7109377977746702E-2</v>
+        <v>3.9779980590203629E-2</v>
       </c>
       <c r="F87" s="98"/>
       <c r="H87" s="233">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.7109377977746702E-2</v>
+        <v>3.9779980590203629E-2</v>
       </c>
       <c r="I87" s="98"/>
       <c r="K87" s="75"/>
@@ -11947,17 +11947,17 @@
       </c>
       <c r="C89" s="232">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.5967024945705812E-2</v>
+        <v>1.7116103180289468E-2</v>
       </c>
       <c r="D89" s="98"/>
       <c r="E89" s="232">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.5967024945705812E-2</v>
+        <v>1.7116103180289468E-2</v>
       </c>
       <c r="F89" s="98"/>
       <c r="H89" s="232">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.5967024945705812E-2</v>
+        <v>1.7116103180289468E-2</v>
       </c>
       <c r="I89" s="98"/>
       <c r="K89" s="75"/>
@@ -12017,14 +12017,14 @@
       </c>
       <c r="F93" s="237">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>7.627599375934845</v>
+        <v>7.7108490831976413</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>182</v>
       </c>
       <c r="I93" s="237">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>7.627599375934845</v>
+        <v>7.7108490831976413</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -12045,14 +12045,14 @@
       </c>
       <c r="F94" s="237">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>3.0223754125910278</v>
+        <v>3.0377976865210976</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>183</v>
       </c>
       <c r="I94" s="237">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>3.0223754125910278</v>
+        <v>3.0377976865210976</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -12095,21 +12095,21 @@
       </c>
       <c r="C97" s="243">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>12761506389.64896</v>
+        <v>12900788963.209709</v>
       </c>
       <c r="D97" s="244"/>
       <c r="E97" s="245">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>4.3611046992741436</v>
+        <v>4.4087029895963168</v>
       </c>
       <c r="F97" s="244"/>
       <c r="H97" s="245">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>4.3611046992741436</v>
+        <v>4.4087029895963168</v>
       </c>
       <c r="I97" s="245">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>5.6065132464837077</v>
+        <v>5.6677042665584292</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12159,23 +12159,23 @@
       <c r="C100" s="243"/>
       <c r="D100" s="251">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>3.7069389943830218</v>
+        <v>3.747397541156869</v>
       </c>
       <c r="E100" s="251">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>4.3611046992741436</v>
+        <v>4.4087029895963168</v>
       </c>
       <c r="F100" s="251">
         <f>(E100+H100)/2</f>
-        <v>4.3611046992741436</v>
+        <v>4.4087029895963168</v>
       </c>
       <c r="H100" s="251">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>4.3611046992741436</v>
+        <v>4.4087029895963168</v>
       </c>
       <c r="I100" s="251">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>5.6065132464837077</v>
+        <v>5.6677042665584292</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12214,23 +12214,23 @@
       <c r="C103" s="243"/>
       <c r="D103" s="251">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.4688450088170779</v>
+        <v>1.476340083714929</v>
       </c>
       <c r="E103" s="245">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.7280529515495036</v>
+        <v>1.7368706867234458</v>
       </c>
       <c r="F103" s="251">
         <f>(E103+H103)/2</f>
-        <v>1.7280529515495036</v>
+        <v>1.7368706867234458</v>
       </c>
       <c r="H103" s="245">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.7280529515495036</v>
+        <v>1.7368706867234458</v>
       </c>
       <c r="I103" s="251">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>2.2215361546124028</v>
+        <v>2.2328719863490085</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12269,23 +12269,23 @@
       <c r="C106" s="243"/>
       <c r="D106" s="251">
         <f>(D100+D103)/2</f>
-        <v>2.58789200160005</v>
+        <v>2.6118688124358989</v>
       </c>
       <c r="E106" s="245">
         <f>(E100+E103)/2</f>
-        <v>3.0445788254118238</v>
+        <v>3.0727868381598813</v>
       </c>
       <c r="F106" s="251">
         <f>(F100+F103)/2</f>
-        <v>3.0445788254118238</v>
+        <v>3.0727868381598813</v>
       </c>
       <c r="H106" s="245">
         <f>(H100+H103)/2</f>
-        <v>3.0445788254118238</v>
+        <v>3.0727868381598813</v>
       </c>
       <c r="I106" s="245">
         <f>(I100+I103)/2</f>
-        <v>3.9140247005480555</v>
+        <v>3.9502881264537191</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/0696.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0696.HK_Valuation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B21CEB88-C441-48A9-8012-CAF2BC254E63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{782AD590-3B52-4F90-B0DB-40396CCB3756}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2601,31 +2601,31 @@
     <xf numFmtId="181" fontId="37" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3645,7 +3645,7 @@
       </c>
       <c r="C45" s="82">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>1.7116103180289468E-2</v>
+        <v>1.8745177453541421E-2</v>
       </c>
       <c r="D45" s="82" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4383,27 +4383,27 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="312" t="str">
+      <c r="G2" s="314" t="str">
         <f>IF(Inputs!D4="","",Inputs!D4)</f>
         <v/>
       </c>
-      <c r="H2" s="312"/>
+      <c r="H2" s="314"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="C3" s="317" t="str">
+      <c r="C3" s="312" t="str">
         <f>Inputs!C4</f>
         <v>0696.HK</v>
       </c>
-      <c r="D3" s="318"/>
+      <c r="D3" s="313"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>9.9499999999999993</v>
+        <v>9.06</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>256</v>
@@ -4413,40 +4413,40 @@
       <c r="B4" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="C4" s="312" t="str">
+      <c r="C4" s="314" t="str">
         <f>Inputs!C5</f>
         <v>中國民航信息網絡</v>
       </c>
-      <c r="D4" s="319"/>
+      <c r="D4" s="315"/>
       <c r="E4" s="3"/>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="322">
+      <c r="G4" s="318">
         <f>Inputs!C10</f>
         <v>2926209589</v>
       </c>
-      <c r="H4" s="322"/>
+      <c r="H4" s="318"/>
       <c r="I4" s="14"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="C5" s="320">
+      <c r="C5" s="316">
         <f>Inputs!C6</f>
         <v>45603</v>
       </c>
-      <c r="D5" s="321"/>
+      <c r="D5" s="317"/>
       <c r="E5" s="16"/>
       <c r="F5" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="315">
+      <c r="G5" s="321">
         <f>G3*G4/1000000</f>
-        <v>29115.785410550001</v>
-      </c>
-      <c r="H5" s="315"/>
+        <v>26511.458876339999</v>
+      </c>
+      <c r="H5" s="321"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4469,11 +4469,11 @@
       <c r="F6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="316" t="str">
+      <c r="G6" s="322" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="316"/>
+      <c r="H6" s="322"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4493,7 +4493,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="21">
-        <v>1.0644076665242512</v>
+        <v>1.061445673306783</v>
       </c>
       <c r="H7" s="22" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4681,7 +4681,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>25.138272698058177</v>
+        <v>22.953598083592915</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4713,7 +4713,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>1.7116103180289468E-2</v>
+        <v>1.8745177453541421E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4732,10 +4732,10 @@
       <c r="F28" s="52" t="s">
         <v>208</v>
       </c>
-      <c r="G28" s="313" t="s">
+      <c r="G28" s="319" t="s">
         <v>223</v>
       </c>
-      <c r="H28" s="313"/>
+      <c r="H28" s="319"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4743,22 +4743,22 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>1.476340083714929</v>
+        <v>1.4816865248197622</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>2.5678027843013598</v>
+        <v>2.5771018655269735</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>1.7368706867234458</v>
-      </c>
-      <c r="G29" s="314">
+        <v>1.7431606174350143</v>
+      </c>
+      <c r="G29" s="320">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>2.2328719863490085</v>
-      </c>
-      <c r="H29" s="314"/>
+        <v>2.2409581439364987</v>
+      </c>
+      <c r="H29" s="320"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5741,15 +5741,15 @@
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -11224,7 +11224,7 @@
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="321"/>
+      <c r="E56" s="317"/>
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
       <c r="I56" s="170"/>
@@ -11235,11 +11235,11 @@
         <v>82</v>
       </c>
       <c r="C57" s="3"/>
-      <c r="D57" s="322">
+      <c r="D57" s="318">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="321"/>
+      <c r="E57" s="317"/>
       <c r="G57" s="3"/>
       <c r="I57" s="3"/>
       <c r="K57" s="172" t="s">
@@ -11251,11 +11251,11 @@
         <v>84</v>
       </c>
       <c r="C58" s="3"/>
-      <c r="D58" s="322">
+      <c r="D58" s="318">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="321"/>
+      <c r="E58" s="317"/>
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
       <c r="I58" s="3"/>
@@ -11896,17 +11896,17 @@
       </c>
       <c r="C87" s="232">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.9779980590203635E-2</v>
+        <v>4.3566154480799847E-2</v>
       </c>
       <c r="D87" s="98"/>
       <c r="E87" s="233">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.9779980590203629E-2</v>
+        <v>4.3566154480799833E-2</v>
       </c>
       <c r="F87" s="98"/>
       <c r="H87" s="233">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.9779980590203629E-2</v>
+        <v>4.3566154480799833E-2</v>
       </c>
       <c r="I87" s="98"/>
       <c r="K87" s="75"/>
@@ -11947,17 +11947,17 @@
       </c>
       <c r="C89" s="232">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.7116103180289468E-2</v>
+        <v>1.8745177453541421E-2</v>
       </c>
       <c r="D89" s="98"/>
       <c r="E89" s="232">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.7116103180289468E-2</v>
+        <v>1.8745177453541421E-2</v>
       </c>
       <c r="F89" s="98"/>
       <c r="H89" s="232">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.7116103180289468E-2</v>
+        <v>1.8745177453541421E-2</v>
       </c>
       <c r="I89" s="98"/>
       <c r="K89" s="75"/>
@@ -12017,14 +12017,14 @@
       </c>
       <c r="F93" s="237">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>7.7108490831976413</v>
+        <v>7.8020030526643938</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>182</v>
       </c>
       <c r="I93" s="237">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>7.7108490831976413</v>
+        <v>7.8020030526643938</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -12045,14 +12045,14 @@
       </c>
       <c r="F94" s="237">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>3.0377976865210976</v>
+        <v>3.0487988146476979</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>183</v>
       </c>
       <c r="I94" s="237">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>3.0377976865210976</v>
+        <v>3.0487988146476979</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -12095,21 +12095,21 @@
       </c>
       <c r="C97" s="243">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>12900788963.209709</v>
+        <v>13053295919.390699</v>
       </c>
       <c r="D97" s="244"/>
       <c r="E97" s="245">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>4.4087029895963168</v>
+        <v>4.4608205674876213</v>
       </c>
       <c r="F97" s="244"/>
       <c r="H97" s="245">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>4.4087029895963168</v>
+        <v>4.4608205674876213</v>
       </c>
       <c r="I97" s="245">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>5.6677042665584292</v>
+        <v>5.7347051553173882</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12159,23 +12159,23 @@
       <c r="C100" s="243"/>
       <c r="D100" s="251">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>3.747397541156869</v>
+        <v>3.7916974823644782</v>
       </c>
       <c r="E100" s="251">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>4.4087029895963168</v>
+        <v>4.4608205674876213</v>
       </c>
       <c r="F100" s="251">
         <f>(E100+H100)/2</f>
-        <v>4.4087029895963168</v>
+        <v>4.4608205674876213</v>
       </c>
       <c r="H100" s="251">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>4.4087029895963168</v>
+        <v>4.4608205674876213</v>
       </c>
       <c r="I100" s="251">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>5.6677042665584292</v>
+        <v>5.7347051553173882</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12214,23 +12214,23 @@
       <c r="C103" s="243"/>
       <c r="D103" s="251">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.476340083714929</v>
+        <v>1.4816865248197622</v>
       </c>
       <c r="E103" s="245">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.7368706867234458</v>
+        <v>1.7431606174350143</v>
       </c>
       <c r="F103" s="251">
         <f>(E103+H103)/2</f>
-        <v>1.7368706867234458</v>
+        <v>1.7431606174350143</v>
       </c>
       <c r="H103" s="245">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.7368706867234458</v>
+        <v>1.7431606174350143</v>
       </c>
       <c r="I103" s="251">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>2.2328719863490085</v>
+        <v>2.2409581439364987</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12269,23 +12269,23 @@
       <c r="C106" s="243"/>
       <c r="D106" s="251">
         <f>(D100+D103)/2</f>
-        <v>2.6118688124358989</v>
+        <v>2.6366920035921204</v>
       </c>
       <c r="E106" s="245">
         <f>(E100+E103)/2</f>
-        <v>3.0727868381598813</v>
+        <v>3.101990592461318</v>
       </c>
       <c r="F106" s="251">
         <f>(F100+F103)/2</f>
-        <v>3.0727868381598813</v>
+        <v>3.101990592461318</v>
       </c>
       <c r="H106" s="245">
         <f>(H100+H103)/2</f>
-        <v>3.0727868381598813</v>
+        <v>3.101990592461318</v>
       </c>
       <c r="I106" s="245">
         <f>(I100+I103)/2</f>
-        <v>3.9502881264537191</v>
+        <v>3.9878316496269433</v>
       </c>
       <c r="K106" s="75"/>
     </row>
